--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
     <sheet name="سرمایه" sheetId="7" r:id="rId2"/>
     <sheet name="مجموع واریز" sheetId="9" r:id="rId3"/>
-    <sheet name="محاسبه مدیریت سرمایه" sheetId="8" r:id="rId4"/>
+    <sheet name="مدیریت سرمایه" sheetId="8" r:id="rId4"/>
     <sheet name="تحلیل" sheetId="2" r:id="rId5"/>
     <sheet name="تاریخچه خرید" sheetId="6" r:id="rId6"/>
     <sheet name="تاریخچه فروش" sheetId="4" r:id="rId7"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="150">
   <si>
     <t>تاریخ</t>
   </si>
@@ -261,75 +261,12 @@
     <t>ریسک %</t>
   </si>
   <si>
-    <t>99/01/07</t>
-  </si>
-  <si>
-    <t>99/01/08</t>
-  </si>
-  <si>
-    <t>99/01/09</t>
-  </si>
-  <si>
-    <t>99/01/10</t>
-  </si>
-  <si>
-    <t>99/01/13</t>
-  </si>
-  <si>
-    <t>99/01/14</t>
-  </si>
-  <si>
-    <t>99/01/15</t>
-  </si>
-  <si>
-    <t>99/01/16</t>
-  </si>
-  <si>
     <t>مبلغ نقدی</t>
   </si>
   <si>
-    <t>99/01/17</t>
-  </si>
-  <si>
-    <t>99/01/18</t>
-  </si>
-  <si>
-    <t>99/01/19</t>
-  </si>
-  <si>
-    <t>99/01/20</t>
-  </si>
-  <si>
-    <t>99/01/21</t>
-  </si>
-  <si>
-    <t>99/01/22</t>
-  </si>
-  <si>
-    <t>99/01/23</t>
-  </si>
-  <si>
-    <t>99/01/24</t>
-  </si>
-  <si>
-    <t>99/01/25</t>
-  </si>
-  <si>
-    <t>99/01/26</t>
-  </si>
-  <si>
-    <t>سهام (ریال)</t>
-  </si>
-  <si>
-    <t>مجموع دارایی (ریال)</t>
-  </si>
-  <si>
     <t>سرمایه بدون ریسک (ریال)</t>
   </si>
   <si>
-    <t>99/01/27</t>
-  </si>
-  <si>
     <t>قیمت سهم</t>
   </si>
   <si>
@@ -474,9 +411,6 @@
     <t>سرمایه لحظه ای</t>
   </si>
   <si>
-    <t>رشد سرمایه لحظه ای</t>
-  </si>
-  <si>
     <t>درصد</t>
   </si>
   <si>
@@ -484,6 +418,84 @@
   </si>
   <si>
     <t>ریسک کلی</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>سر به سر</t>
+  </si>
+  <si>
+    <t>لحظه ای (ریال)</t>
+  </si>
+  <si>
+    <t>پرتفوی</t>
+  </si>
+  <si>
+    <t>به قیمت خرید (ریال)</t>
+  </si>
+  <si>
+    <t>سود (ریال)</t>
+  </si>
+  <si>
+    <t>سود (درصد)</t>
+  </si>
+  <si>
+    <t>مجموع دارایی (به قیمت خرید) (ریال)</t>
+  </si>
+  <si>
+    <t>رشد سرمایه (لحظه ای)</t>
   </si>
 </sst>
 </file>
@@ -534,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,8 +697,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1287,6 +1305,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1297,11 +1326,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1311,7 +1349,40 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1322,6 +1393,58 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1333,7 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,7 +1646,142 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,18 +1790,6 @@
     <xf numFmtId="10" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,61 +1808,169 @@
     <xf numFmtId="10" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,76 +1982,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,124 +1997,76 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1838,16 +2075,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,42 +2099,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,43 +2111,34 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1949,172 +2147,259 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="23" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="26" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="26" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="26" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2122,7 +2407,633 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -2301,9 +3212,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3067,6 +3978,36 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:S29" totalsRowShown="0" tableBorderDxfId="18">
+  <autoFilter ref="B4:S29"/>
+  <sortState ref="B5:T29">
+    <sortCondition descending="1" ref="N4:N29"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Column1" dataDxfId="17"/>
+    <tableColumn id="2" name="Column2" dataDxfId="16"/>
+    <tableColumn id="3" name="Column3" dataDxfId="15"/>
+    <tableColumn id="4" name="Column4" dataDxfId="14"/>
+    <tableColumn id="5" name="Column5" dataDxfId="13"/>
+    <tableColumn id="6" name="Column6" dataDxfId="12"/>
+    <tableColumn id="7" name="Column7" dataDxfId="11"/>
+    <tableColumn id="8" name="Column8" dataDxfId="10"/>
+    <tableColumn id="9" name="Column9" dataDxfId="9"/>
+    <tableColumn id="10" name="Column10" dataDxfId="8"/>
+    <tableColumn id="11" name="Column11" dataDxfId="7"/>
+    <tableColumn id="12" name="Column12" dataDxfId="6"/>
+    <tableColumn id="13" name="Column13" dataDxfId="5"/>
+    <tableColumn id="14" name="Column14" dataDxfId="4"/>
+    <tableColumn id="15" name="Column15" dataDxfId="3"/>
+    <tableColumn id="16" name="Column16" dataDxfId="2"/>
+    <tableColumn id="17" name="Column17" dataDxfId="1"/>
+    <tableColumn id="18" name="Column18" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3356,76 +4297,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T28"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="27"/>
-    <col min="2" max="2" width="5.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="27"/>
-    <col min="5" max="5" width="5.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="27"/>
-    <col min="8" max="8" width="4.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.77734375" style="27" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="27"/>
+    <col min="10" max="10" width="9.77734375" style="27" customWidth="1"/>
     <col min="11" max="11" width="12.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="27"/>
+    <col min="12" max="13" width="10.6640625" style="27" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="243" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="27" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="27" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B2" s="252" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B2" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="94" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="248" t="s">
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="246" t="s">
+      <c r="O2" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="246" t="s">
+      <c r="P2" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="250" t="s">
+      <c r="Q2" s="313" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="212" t="s">
+      <c r="S2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="212" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:19" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
@@ -3462,396 +4395,364 @@
       <c r="M3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="249"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="247"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="213"/>
-    </row>
-    <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35">
-        <f>IF(L4&gt;0, C4/L4,"RF")</f>
-        <v>-9.9261059795819158</v>
-      </c>
-      <c r="C4" s="36">
-        <f>(D4/P4)-1</f>
-        <v>-1</v>
-      </c>
-      <c r="D4" s="37">
-        <f>'[1]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="35">
-        <f>IF(L4&gt;0, F4/L4,"RF")</f>
-        <v>4.0291686922702974</v>
-      </c>
-      <c r="F4" s="36">
-        <f>(G4/P4)-1</f>
-        <v>0.40591634832010981</v>
-      </c>
-      <c r="G4" s="37">
-        <f>'[1]دارایی فعلی'!$G$4</f>
-        <v>28706</v>
-      </c>
-      <c r="H4" s="35">
-        <f>IF(L4&gt;0, I4/L4,"RF")</f>
-        <v>1.3179387457462326</v>
-      </c>
-      <c r="I4" s="36">
-        <f>(J4/P4)-1</f>
-        <v>0.13277500244881968</v>
-      </c>
-      <c r="J4" s="37">
-        <f>'[1]دارایی فعلی'!$J$4</f>
-        <v>23129</v>
-      </c>
-      <c r="K4" s="38">
-        <f>IF(L4&gt;0, N4-M4*Q4, 0)</f>
-        <v>5440765</v>
-      </c>
-      <c r="L4" s="39">
-        <f>IF(1-(M4/P4)&gt;0, 1-(M4/P4), 0)</f>
-        <v>0.10074444117935155</v>
-      </c>
-      <c r="M4" s="40">
-        <f>'[1]دارایی فعلی'!$M$4</f>
-        <v>18361</v>
-      </c>
-      <c r="N4" s="41">
-        <f>Q4*P4</f>
-        <v>54005610</v>
-      </c>
-      <c r="O4" s="36">
-        <f>IF( (P4-M4)*Q4/سرمایه!F5&gt;0, (P4-M4)*Q4/سرمایه!F5, "Risk free")</f>
-        <v>8.7337710783804909E-3</v>
-      </c>
-      <c r="P4" s="42">
-        <f>'[1]دارایی فعلی'!$Q$4</f>
-        <v>20418</v>
-      </c>
-      <c r="Q4" s="43">
-        <f>'[1]دارایی فعلی'!$R$4</f>
-        <v>2645</v>
-      </c>
-      <c r="R4" s="244" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35">
+      <c r="N3" s="87"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="316"/>
+      <c r="Q3" s="314"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="83"/>
+    </row>
+    <row r="4" spans="2:19" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="238" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="239" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="240" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="241" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="239" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="240" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="241" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="239" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="240" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="242" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="243" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="244" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="245" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="239" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="246" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="247" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="248" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="237">
         <f>IF(L5&gt;0, C5/L5,"RF")</f>
-        <v>-8.2701402805611224</v>
+        <v>-6.9987631416202873</v>
       </c>
       <c r="C5" s="36">
         <f>(D5/P5)-1</f>
         <v>-1</v>
       </c>
       <c r="D5" s="37">
-        <f>'[2]دارایی فعلی'!$D$4</f>
+        <f>'[11]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="E5" s="35">
         <f>IF(L5&gt;0, F5/L5,"RF")</f>
-        <v>2.1507014028056113</v>
+        <v>2.2158317872603588</v>
       </c>
       <c r="F5" s="36">
         <f>(G5/P5)-1</f>
-        <v>0.26005621789279831</v>
+        <v>0.31660334010780233</v>
       </c>
       <c r="G5" s="37">
-        <f>'[2]دارایی فعلی'!$G$4</f>
-        <v>52000</v>
+        <f>'[11]دارایی فعلی'!$G$4</f>
+        <v>14900</v>
       </c>
       <c r="H5" s="35">
         <f>IF(L5&gt;0, I5/L5,"RF")</f>
-        <v>1.1971943887775558</v>
+        <v>1.0902906617192336</v>
       </c>
       <c r="I5" s="36">
         <f>(J5/P5)-1</f>
-        <v>0.14476107395560733</v>
+        <v>0.155783334806044</v>
       </c>
       <c r="J5" s="37">
-        <f>'[2]دارایی فعلی'!$J$4</f>
-        <v>47242</v>
+        <f>'[11]دارایی فعلی'!$J$4</f>
+        <v>13080</v>
       </c>
       <c r="K5" s="38">
         <f>IF(L5&gt;0, N5-M5*Q5, 0)</f>
-        <v>1217560</v>
+        <v>10554159</v>
       </c>
       <c r="L5" s="39">
         <f>IF(1-(M5/P5)&gt;0, 1-(M5/P5), 0)</f>
-        <v>0.12091693321702046</v>
+        <v>0.142882389325793</v>
       </c>
       <c r="M5" s="40">
-        <f>'[2]دارایی فعلی'!$M$4</f>
-        <v>36278</v>
+        <f>'[11]دارایی فعلی'!$M$4</f>
+        <v>9700</v>
       </c>
       <c r="N5" s="41">
         <f>Q5*P5</f>
-        <v>10069392</v>
+        <v>73866059</v>
       </c>
       <c r="O5" s="36">
-        <f>IF( (P5-M5)*Q5/سرمایه!F5&gt;0, (P5-M5)*Q5/سرمایه!F5, "Risk free")</f>
-        <v>1.9544843995638389E-3</v>
+        <f>IF( (P5-M5)*Q5/سرمایه!F4&gt;0, (P5-M5)*Q5/سرمایه!F4, "Risk free")</f>
+        <v>1.6942030878163119E-2</v>
       </c>
       <c r="P5" s="42">
-        <f>'[2]دارایی فعلی'!$Q$4</f>
-        <v>41268</v>
+        <f>'[11]دارایی فعلی'!$Q$4</f>
+        <v>11317</v>
       </c>
       <c r="Q5" s="43">
-        <f>'[2]دارایی فعلی'!$R$4</f>
-        <v>244</v>
-      </c>
-      <c r="R5" s="244" t="s">
-        <v>97</v>
+        <f>'[11]دارایی فعلی'!$R$4</f>
+        <v>6527</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>85</v>
       </c>
       <c r="S5" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="237">
         <f>IF(L6&gt;0, C6/L6,"RF")</f>
-        <v>-14.744597249508836</v>
+        <v>-9.1052989130434803</v>
       </c>
       <c r="C6" s="36">
         <f>(D6/P6)-1</f>
         <v>-1</v>
       </c>
       <c r="D6" s="37">
-        <f>'[3]دارایی فعلی'!$D$4</f>
+        <f>'[9]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="E6" s="35">
         <f>IF(L6&gt;0, F6/L6,"RF")</f>
-        <v>4.3958742632612964</v>
+        <v>3.2153532608695659</v>
       </c>
       <c r="F6" s="36">
         <f>(G6/P6)-1</f>
-        <v>0.29813457694870094</v>
+        <v>0.35312989629187497</v>
       </c>
       <c r="G6" s="37">
-        <f>'[3]دارایی فعلی'!$G$4</f>
-        <v>19485</v>
+        <f>'[9]دارایی فعلی'!$G$4</f>
+        <v>18136</v>
       </c>
       <c r="H6" s="35">
         <f>IF(L6&gt;0, I6/L6,"RF")</f>
-        <v>2.0265225933202342</v>
+        <v>1.6732336956521745</v>
       </c>
       <c r="I6" s="36">
         <f>(J6/P6)-1</f>
-        <v>0.13744170552964685</v>
+        <v>0.18376482876967848</v>
       </c>
       <c r="J6" s="37">
-        <f>'[3]دارایی فعلی'!$J$4</f>
-        <v>17073</v>
+        <f>'[9]دارایی فعلی'!$J$4</f>
+        <v>15866</v>
       </c>
       <c r="K6" s="38">
         <f>IF(L6&gt;0, N6-M6*Q6, 0)</f>
-        <v>684096</v>
+        <v>7203968</v>
       </c>
       <c r="L6" s="39">
         <f>IF(1-(M6/P6)&gt;0, 1-(M6/P6), 0)</f>
-        <v>6.7821452365089963E-2</v>
+        <v>0.10982615832276355</v>
       </c>
       <c r="M6" s="40">
-        <f>'[3]دارایی فعلی'!$M$4</f>
-        <v>13992</v>
+        <f>'[9]دارایی فعلی'!$M$4</f>
+        <v>11931</v>
       </c>
       <c r="N6" s="41">
         <f>Q6*P6</f>
-        <v>10086720</v>
+        <v>65594282</v>
       </c>
       <c r="O6" s="36">
-        <f>IF( (P6-M6)*Q6/سرمایه!F5&gt;0, (P6-M6)*Q6/سرمایه!F5, "Risk free")</f>
-        <v>1.0981429743125793E-3</v>
+        <f>IF( (P6-M6)*Q6/سرمایه!F4&gt;0, (P6-M6)*Q6/سرمایه!F4, "Risk free")</f>
+        <v>1.1564147205030644E-2</v>
       </c>
       <c r="P6" s="42">
-        <f>'[3]دارایی فعلی'!$Q$4</f>
-        <v>15010</v>
+        <f>'[9]دارایی فعلی'!$Q$4</f>
+        <v>13403</v>
       </c>
       <c r="Q6" s="43">
-        <f>'[3]دارایی فعلی'!$R$4</f>
-        <v>672</v>
-      </c>
-      <c r="R6" s="244" t="s">
-        <v>98</v>
-      </c>
-      <c r="S6" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35">
-        <f t="shared" ref="B7:B23" si="0">IF(L7&gt;0, C7/L7,"RF")</f>
-        <v>-8.0857863751051298</v>
+        <f>'[9]دارایی فعلی'!$R$4</f>
+        <v>4894</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="237">
+        <f>IF(L7&gt;0, C7/L7,"RF")</f>
+        <v>-4.0096557514693538</v>
       </c>
       <c r="C7" s="36">
-        <f t="shared" ref="C7:C23" si="1">(D7/P7)-1</f>
+        <f>(D7/P7)-1</f>
         <v>-1</v>
       </c>
       <c r="D7" s="37">
-        <f>'[4]دارایی فعلی'!$D$4</f>
+        <f>'[12]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="E7" s="35">
-        <f t="shared" ref="E7:E23" si="2">IF(L7&gt;0, F7/L7,"RF")</f>
-        <v>-8.0857863751051298</v>
+        <f>IF(L7&gt;0, F7/L7,"RF")</f>
+        <v>-4.0096557514693538</v>
       </c>
       <c r="F7" s="36">
-        <f t="shared" ref="F7:F23" si="3">(G7/P7)-1</f>
+        <f>(G7/P7)-1</f>
         <v>-1</v>
       </c>
       <c r="G7" s="37">
-        <f>'[4]دارایی فعلی'!$G$4</f>
+        <f>'[12]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="H7" s="35">
-        <f t="shared" ref="H7:H23" si="4">IF(L7&gt;0, I7/L7,"RF")</f>
-        <v>1.705634987384357</v>
+        <f>IF(L7&gt;0, I7/L7,"RF")</f>
+        <v>0.72942905121746449</v>
       </c>
       <c r="I7" s="36">
-        <f t="shared" ref="I7:I23" si="5">(J7/P7)-1</f>
-        <v>0.21094237570210117</v>
+        <f>(J7/P7)-1</f>
+        <v>0.18191812375667471</v>
       </c>
       <c r="J7" s="37">
-        <f>'[4]دارایی فعلی'!$J$4</f>
-        <v>11642</v>
+        <f>'[12]دارایی فعلی'!$J$4</f>
+        <v>45154</v>
       </c>
       <c r="K7" s="38">
-        <f t="shared" ref="K7:K23" si="6">IF(L7&gt;0, N7-M7*Q7, 0)</f>
-        <v>3479014</v>
+        <f>IF(L7&gt;0, N7-M7*Q7, 0)</f>
+        <v>15092352</v>
       </c>
       <c r="L7" s="39">
-        <f t="shared" ref="L7:L23" si="7">IF(1-(M7/P7)&gt;0, 1-(M7/P7), 0)</f>
-        <v>0.12367380902850011</v>
+        <f>IF(1-(M7/P7)&gt;0, 1-(M7/P7), 0)</f>
+        <v>0.24939796879907861</v>
       </c>
       <c r="M7" s="40">
-        <f>'[4]دارایی فعلی'!$M$4</f>
-        <v>8425</v>
+        <f>'[12]دارایی فعلی'!$M$4</f>
+        <v>28676</v>
       </c>
       <c r="N7" s="41">
-        <f t="shared" ref="N7:N23" si="8">Q7*P7</f>
-        <v>28130564</v>
+        <f>Q7*P7</f>
+        <v>60515136</v>
       </c>
       <c r="O7" s="36">
-        <f>IF( (P7-M7)*Q7/سرمایه!F5&gt;0, (P7-M7)*Q7/سرمایه!F5, "Risk free")</f>
-        <v>5.5846763928382908E-3</v>
+        <f>IF( (P7-M7)*Q7/سرمایه!F4&gt;0, (P7-M7)*Q7/سرمایه!F4, "Risk free")</f>
+        <v>2.4226951063377661E-2</v>
       </c>
       <c r="P7" s="42">
-        <f>'[4]دارایی فعلی'!$Q$4</f>
-        <v>9614</v>
+        <f>'[12]دارایی فعلی'!$Q$4</f>
+        <v>38204</v>
       </c>
       <c r="Q7" s="43">
-        <f>'[4]دارایی فعلی'!$R$4</f>
-        <v>2926</v>
-      </c>
-      <c r="R7" s="244" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="T7" s="64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="35">
-        <f t="shared" si="0"/>
-        <v>3.3720508166969148</v>
+        <f>'[12]دارایی فعلی'!$R$4</f>
+        <v>1584</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="237">
+        <f>IF(L8&gt;0, C8/L8,"RF")</f>
+        <v>-9.9261059795819158</v>
       </c>
       <c r="C8" s="36">
-        <f t="shared" si="1"/>
-        <v>0.32717027645712271</v>
+        <f>(D8/P8)-1</f>
+        <v>-1</v>
       </c>
       <c r="D8" s="37">
-        <f>'[5]دارایی فعلی'!$D$4</f>
-        <v>7537</v>
+        <f>'[1]دارایی فعلی'!$D$4</f>
+        <v>0</v>
       </c>
       <c r="E8" s="35">
-        <f t="shared" si="2"/>
-        <v>2.6987295825771334</v>
+        <f>IF(L8&gt;0, F8/L8,"RF")</f>
+        <v>4.0291686922702974</v>
       </c>
       <c r="F8" s="36">
-        <f t="shared" si="3"/>
-        <v>0.26184187356929045</v>
+        <f>(G8/P8)-1</f>
+        <v>0.40591634832010981</v>
       </c>
       <c r="G8" s="37">
-        <f>'[5]دارایی فعلی'!$G$4</f>
-        <v>7166</v>
+        <f>'[1]دارایی فعلی'!$G$4</f>
+        <v>28706</v>
       </c>
       <c r="H8" s="35">
-        <f t="shared" si="4"/>
-        <v>0.89292196007259439</v>
+        <f>IF(L8&gt;0, I8/L8,"RF")</f>
+        <v>1.3179387457462326</v>
       </c>
       <c r="I8" s="36">
-        <f t="shared" si="5"/>
-        <v>8.6634970945588918E-2</v>
+        <f>(J8/P8)-1</f>
+        <v>0.13277500244881968</v>
       </c>
       <c r="J8" s="37">
-        <f>'[5]دارایی فعلی'!$J$4</f>
-        <v>6171</v>
+        <f>'[1]دارایی فعلی'!$J$4</f>
+        <v>23129</v>
       </c>
       <c r="K8" s="38">
-        <f t="shared" si="6"/>
-        <v>3917610</v>
+        <f>IF(L8&gt;0, N8-M8*Q8, 0)</f>
+        <v>5440765</v>
       </c>
       <c r="L8" s="39">
-        <f t="shared" si="7"/>
-        <v>9.7024123965486875E-2</v>
+        <f>IF(1-(M8/P8)&gt;0, 1-(M8/P8), 0)</f>
+        <v>0.10074444117935155</v>
       </c>
       <c r="M8" s="40">
-        <f>'[5]دارایی فعلی'!$M$4</f>
-        <v>5128</v>
+        <f>'[1]دارایی فعلی'!$M$4</f>
+        <v>18361</v>
       </c>
       <c r="N8" s="41">
-        <f t="shared" si="8"/>
-        <v>40377690</v>
+        <f>Q8*P8</f>
+        <v>54005610</v>
       </c>
       <c r="O8" s="36">
-        <f>IF( (P8-M8)*Q8/سرمایه!F5&gt;0, (P8-M8)*Q8/سرمایه!F5, "Risk free")</f>
-        <v>6.2887312564270277E-3</v>
+        <f>IF( (P8-M8)*Q8/سرمایه!F4&gt;0, (P8-M8)*Q8/سرمایه!F4, "Risk free")</f>
+        <v>8.7337710783804909E-3</v>
       </c>
       <c r="P8" s="42">
-        <f>'[5]دارایی فعلی'!$Q$4</f>
-        <v>5679</v>
+        <f>'[1]دارایی فعلی'!$Q$4</f>
+        <v>20418</v>
       </c>
       <c r="Q8" s="43">
-        <f>'[5]دارایی فعلی'!$R$4</f>
-        <v>7110</v>
-      </c>
-      <c r="R8" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="35">
-        <f t="shared" si="0"/>
+        <f>'[1]دارایی فعلی'!$R$4</f>
+        <v>2645</v>
+      </c>
+      <c r="R8" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="237">
+        <f>IF(L9&gt;0, C9/L9,"RF")</f>
         <v>-6.6246575342465741</v>
       </c>
       <c r="C9" s="36">
-        <f t="shared" si="1"/>
+        <f>(D9/P9)-1</f>
         <v>-1</v>
       </c>
       <c r="D9" s="37">
@@ -3859,11 +4760,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="35">
-        <f t="shared" si="2"/>
+        <f>IF(L9&gt;0, F9/L9,"RF")</f>
         <v>4.3077625570776243</v>
       </c>
       <c r="F9" s="36">
-        <f t="shared" si="3"/>
+        <f>(G9/P9)-1</f>
         <v>0.65026192445547282</v>
       </c>
       <c r="G9" s="37">
@@ -3871,11 +4772,11 @@
         <v>11971</v>
       </c>
       <c r="H9" s="35">
-        <f t="shared" si="4"/>
+        <f>IF(L9&gt;0, I9/L9,"RF")</f>
         <v>2.261187214611871</v>
       </c>
       <c r="I9" s="36">
-        <f t="shared" si="5"/>
+        <f>(J9/P9)-1</f>
         <v>0.34132892197408315</v>
       </c>
       <c r="J9" s="37">
@@ -3883,11 +4784,11 @@
         <v>9730</v>
       </c>
       <c r="K9" s="38">
-        <f t="shared" si="6"/>
+        <f>IF(L9&gt;0, N9-M9*Q9, 0)</f>
         <v>6337860</v>
       </c>
       <c r="L9" s="39">
-        <f t="shared" si="7"/>
+        <f>IF(1-(M9/P9)&gt;0, 1-(M9/P9), 0)</f>
         <v>0.15095119933829615</v>
       </c>
       <c r="M9" s="40">
@@ -3895,11 +4796,11 @@
         <v>6159</v>
       </c>
       <c r="N9" s="41">
-        <f t="shared" si="8"/>
+        <f>Q9*P9</f>
         <v>41986152</v>
       </c>
       <c r="O9" s="36">
-        <f>IF( (P9-M9)*Q9/سرمایه!F5&gt;0, (P9-M9)*Q9/سرمایه!F5, "Risk free")</f>
+        <f>IF( (P9-M9)*Q9/سرمایه!F4&gt;0, (P9-M9)*Q9/سرمایه!F4, "Risk free")</f>
         <v>1.0173830034347114E-2</v>
       </c>
       <c r="P9" s="42">
@@ -3910,1068 +4811,1023 @@
         <f>'[6]دارایی فعلی'!$R$4</f>
         <v>5788</v>
       </c>
-      <c r="R9" s="244" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" s="64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="35">
-        <f t="shared" si="0"/>
+      <c r="R9" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="237">
+        <f>IF(L10&gt;0, C10/L10,"RF")</f>
+        <v>3.3720508166969148</v>
+      </c>
+      <c r="C10" s="36">
+        <f>(D10/P10)-1</f>
+        <v>0.32717027645712271</v>
+      </c>
+      <c r="D10" s="37">
+        <f>'[5]دارایی فعلی'!$D$4</f>
+        <v>7537</v>
+      </c>
+      <c r="E10" s="35">
+        <f>IF(L10&gt;0, F10/L10,"RF")</f>
+        <v>2.6987295825771334</v>
+      </c>
+      <c r="F10" s="36">
+        <f>(G10/P10)-1</f>
+        <v>0.26184187356929045</v>
+      </c>
+      <c r="G10" s="37">
+        <f>'[5]دارایی فعلی'!$G$4</f>
+        <v>7166</v>
+      </c>
+      <c r="H10" s="35">
+        <f>IF(L10&gt;0, I10/L10,"RF")</f>
+        <v>0.89292196007259439</v>
+      </c>
+      <c r="I10" s="36">
+        <f>(J10/P10)-1</f>
+        <v>8.6634970945588918E-2</v>
+      </c>
+      <c r="J10" s="37">
+        <f>'[5]دارایی فعلی'!$J$4</f>
+        <v>6171</v>
+      </c>
+      <c r="K10" s="38">
+        <f>IF(L10&gt;0, N10-M10*Q10, 0)</f>
+        <v>3917610</v>
+      </c>
+      <c r="L10" s="39">
+        <f>IF(1-(M10/P10)&gt;0, 1-(M10/P10), 0)</f>
+        <v>9.7024123965486875E-2</v>
+      </c>
+      <c r="M10" s="40">
+        <f>'[5]دارایی فعلی'!$M$4</f>
+        <v>5128</v>
+      </c>
+      <c r="N10" s="41">
+        <f>Q10*P10</f>
+        <v>40377690</v>
+      </c>
+      <c r="O10" s="36">
+        <f>IF( (P10-M10)*Q10/سرمایه!F4&gt;0, (P10-M10)*Q10/سرمایه!F4, "Risk free")</f>
+        <v>6.2887312564270277E-3</v>
+      </c>
+      <c r="P10" s="42">
+        <f>'[5]دارایی فعلی'!$Q$4</f>
+        <v>5679</v>
+      </c>
+      <c r="Q10" s="43">
+        <f>'[5]دارایی فعلی'!$R$4</f>
+        <v>7110</v>
+      </c>
+      <c r="R10" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="237">
+        <f>IF(L11&gt;0, C11/L11,"RF")</f>
+        <v>-8.0857863751051298</v>
+      </c>
+      <c r="C11" s="36">
+        <f>(D11/P11)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D11" s="37">
+        <f>'[4]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <f>IF(L11&gt;0, F11/L11,"RF")</f>
+        <v>-8.0857863751051298</v>
+      </c>
+      <c r="F11" s="36">
+        <f>(G11/P11)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="37">
+        <f>'[4]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <f>IF(L11&gt;0, I11/L11,"RF")</f>
+        <v>1.705634987384357</v>
+      </c>
+      <c r="I11" s="36">
+        <f>(J11/P11)-1</f>
+        <v>0.21094237570210117</v>
+      </c>
+      <c r="J11" s="37">
+        <f>'[4]دارایی فعلی'!$J$4</f>
+        <v>11642</v>
+      </c>
+      <c r="K11" s="38">
+        <f>IF(L11&gt;0, N11-M11*Q11, 0)</f>
+        <v>3479014</v>
+      </c>
+      <c r="L11" s="39">
+        <f>IF(1-(M11/P11)&gt;0, 1-(M11/P11), 0)</f>
+        <v>0.12367380902850011</v>
+      </c>
+      <c r="M11" s="40">
+        <f>'[4]دارایی فعلی'!$M$4</f>
+        <v>8425</v>
+      </c>
+      <c r="N11" s="41">
+        <f>Q11*P11</f>
+        <v>28130564</v>
+      </c>
+      <c r="O11" s="36">
+        <f>IF( (P11-M11)*Q11/سرمایه!F4&gt;0, (P11-M11)*Q11/سرمایه!F4, "Risk free")</f>
+        <v>5.5846763928382908E-3</v>
+      </c>
+      <c r="P11" s="42">
+        <f>'[4]دارایی فعلی'!$Q$4</f>
+        <v>9614</v>
+      </c>
+      <c r="Q11" s="43">
+        <f>'[4]دارایی فعلی'!$R$4</f>
+        <v>2926</v>
+      </c>
+      <c r="R11" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="237">
+        <f>IF(L12&gt;0, C12/L12,"RF")</f>
+        <v>-21.366132723112113</v>
+      </c>
+      <c r="C12" s="36">
+        <f>(D12/P12)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="37">
+        <f>'[14]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <f>IF(L12&gt;0, F12/L12,"RF")</f>
+        <v>11.478260869565208</v>
+      </c>
+      <c r="F12" s="36">
+        <f>(G12/P12)-1</f>
+        <v>0.53721752168790826</v>
+      </c>
+      <c r="G12" s="37">
+        <f>'[14]دارایی فعلی'!$G$4</f>
+        <v>28706</v>
+      </c>
+      <c r="H12" s="35">
+        <f>IF(L12&gt;0, I12/L12,"RF")</f>
+        <v>5.0972540045766559</v>
+      </c>
+      <c r="I12" s="36">
+        <f>(J12/P12)-1</f>
+        <v>0.23856699153903826</v>
+      </c>
+      <c r="J12" s="37">
+        <f>'[14]دارایی فعلی'!$J$4</f>
+        <v>23129</v>
+      </c>
+      <c r="K12" s="38">
+        <f>IF(L12&gt;0, N12-M12*Q12, 0)</f>
+        <v>1112602</v>
+      </c>
+      <c r="L12" s="39">
+        <f>IF(1-(M12/P12)&gt;0, 1-(M12/P12), 0)</f>
+        <v>4.680304166220417E-2</v>
+      </c>
+      <c r="M12" s="40">
+        <f>'[14]دارایی فعلی'!$M$4</f>
+        <v>17800</v>
+      </c>
+      <c r="N12" s="41">
+        <f>Q12*P12</f>
+        <v>23772002</v>
+      </c>
+      <c r="O12" s="36">
+        <f>IF( (P12-M12)*Q12/سرمایه!F4&gt;0, (P12-M12)*Q12/سرمایه!F4, "Risk free")</f>
+        <v>1.7860008968129098E-3</v>
+      </c>
+      <c r="P12" s="42">
+        <f>'[14]دارایی فعلی'!$Q$4</f>
+        <v>18674</v>
+      </c>
+      <c r="Q12" s="43">
+        <f>'[14]دارایی فعلی'!$R$4</f>
+        <v>1273</v>
+      </c>
+      <c r="R12" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="237">
+        <f>IF(L13&gt;0, C13/L13,"RF")</f>
+        <v>-5.9528619528619542</v>
+      </c>
+      <c r="C13" s="36">
+        <f>(D13/P13)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D13" s="37">
+        <f>'[13]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <f>IF(L13&gt;0, F13/L13,"RF")</f>
+        <v>-5.9528619528619542</v>
+      </c>
+      <c r="F13" s="36">
+        <f>(G13/P13)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G13" s="37">
+        <f>'[13]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <f>IF(L13&gt;0, I13/L13,"RF")</f>
+        <v>5.107744107744109</v>
+      </c>
+      <c r="I13" s="36">
+        <f>(J13/P13)-1</f>
+        <v>0.85803167420814486</v>
+      </c>
+      <c r="J13" s="37">
+        <f>'[13]دارایی فعلی'!$J$4</f>
+        <v>85410</v>
+      </c>
+      <c r="K13" s="38">
+        <f>IF(L13&gt;0, N13-M13*Q13, 0)</f>
+        <v>2818530</v>
+      </c>
+      <c r="L13" s="39">
+        <f>IF(1-(M13/P13)&gt;0, 1-(M13/P13), 0)</f>
+        <v>0.16798642533936647</v>
+      </c>
+      <c r="M13" s="40">
+        <f>'[13]دارایی فعلی'!$M$4</f>
+        <v>38246</v>
+      </c>
+      <c r="N13" s="41">
+        <f>Q13*P13</f>
+        <v>16778320</v>
+      </c>
+      <c r="O13" s="36">
+        <f>IF( (P13-M13)*Q13/سرمایه!F4&gt;0, (P13-M13)*Q13/سرمایه!F4, "Risk free")</f>
+        <v>4.5244365080182227E-3</v>
+      </c>
+      <c r="P13" s="42">
+        <f>'[13]دارایی فعلی'!$Q$4</f>
+        <v>45968</v>
+      </c>
+      <c r="Q13" s="43">
+        <f>'[13]دارایی فعلی'!$R$4</f>
+        <v>365</v>
+      </c>
+      <c r="R13" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="237">
+        <f>IF(L14&gt;0, C14/L14,"RF")</f>
+        <v>-4.7041457286432165</v>
+      </c>
+      <c r="C14" s="36">
+        <f>(D14/P14)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="37">
+        <f>'[10]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <f>IF(L14&gt;0, F14/L14,"RF")</f>
+        <v>-4.7041457286432165</v>
+      </c>
+      <c r="F14" s="36">
+        <f>(G14/P14)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G14" s="37">
+        <f>'[10]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="35">
+        <f>IF(L14&gt;0, I14/L14,"RF")</f>
+        <v>0.56030150753768826</v>
+      </c>
+      <c r="I14" s="36">
+        <f>(J14/P14)-1</f>
+        <v>0.11910802510348506</v>
+      </c>
+      <c r="J14" s="37">
+        <f>'[10]دارایی فعلی'!$J$4</f>
+        <v>8381</v>
+      </c>
+      <c r="K14" s="38">
+        <f>IF(L14&gt;0, N14-M14*Q14, 0)</f>
+        <v>2146016</v>
+      </c>
+      <c r="L14" s="39">
+        <f>IF(1-(M14/P14)&gt;0, 1-(M14/P14), 0)</f>
+        <v>0.2125784483909734</v>
+      </c>
+      <c r="M14" s="40">
+        <f>'[10]دارایی فعلی'!$M$4</f>
+        <v>5897</v>
+      </c>
+      <c r="N14" s="41">
+        <f>Q14*P14</f>
+        <v>10095172</v>
+      </c>
+      <c r="O14" s="36">
+        <f>IF( (P14-M14)*Q14/سرمایه!F4&gt;0, (P14-M14)*Q14/سرمایه!F4, "Risk free")</f>
+        <v>3.4448855031492423E-3</v>
+      </c>
+      <c r="P14" s="42">
+        <f>'[10]دارایی فعلی'!$Q$4</f>
+        <v>7489</v>
+      </c>
+      <c r="Q14" s="43">
+        <f>'[10]دارایی فعلی'!$R$4</f>
+        <v>1348</v>
+      </c>
+      <c r="R14" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="237">
+        <f>IF(L15&gt;0, C15/L15,"RF")</f>
+        <v>-14.744597249508836</v>
+      </c>
+      <c r="C15" s="36">
+        <f>(D15/P15)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D15" s="37">
+        <f>'[3]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <f>IF(L15&gt;0, F15/L15,"RF")</f>
+        <v>4.3958742632612964</v>
+      </c>
+      <c r="F15" s="36">
+        <f>(G15/P15)-1</f>
+        <v>0.29813457694870094</v>
+      </c>
+      <c r="G15" s="37">
+        <f>'[3]دارایی فعلی'!$G$4</f>
+        <v>19485</v>
+      </c>
+      <c r="H15" s="35">
+        <f>IF(L15&gt;0, I15/L15,"RF")</f>
+        <v>2.0265225933202342</v>
+      </c>
+      <c r="I15" s="36">
+        <f>(J15/P15)-1</f>
+        <v>0.13744170552964685</v>
+      </c>
+      <c r="J15" s="37">
+        <f>'[3]دارایی فعلی'!$J$4</f>
+        <v>17073</v>
+      </c>
+      <c r="K15" s="38">
+        <f>IF(L15&gt;0, N15-M15*Q15, 0)</f>
+        <v>684096</v>
+      </c>
+      <c r="L15" s="39">
+        <f>IF(1-(M15/P15)&gt;0, 1-(M15/P15), 0)</f>
+        <v>6.7821452365089963E-2</v>
+      </c>
+      <c r="M15" s="40">
+        <f>'[3]دارایی فعلی'!$M$4</f>
+        <v>13992</v>
+      </c>
+      <c r="N15" s="41">
+        <f>Q15*P15</f>
+        <v>10086720</v>
+      </c>
+      <c r="O15" s="36">
+        <f>IF( (P15-M15)*Q15/سرمایه!F4&gt;0, (P15-M15)*Q15/سرمایه!F4, "Risk free")</f>
+        <v>1.0981429743125793E-3</v>
+      </c>
+      <c r="P15" s="42">
+        <f>'[3]دارایی فعلی'!$Q$4</f>
+        <v>15010</v>
+      </c>
+      <c r="Q15" s="43">
+        <f>'[3]دارایی فعلی'!$R$4</f>
+        <v>672</v>
+      </c>
+      <c r="R15" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="237">
+        <f>IF(L16&gt;0, C16/L16,"RF")</f>
+        <v>-8.2701402805611224</v>
+      </c>
+      <c r="C16" s="36">
+        <f>(D16/P16)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D16" s="37">
+        <f>'[2]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <f>IF(L16&gt;0, F16/L16,"RF")</f>
+        <v>2.1507014028056113</v>
+      </c>
+      <c r="F16" s="36">
+        <f>(G16/P16)-1</f>
+        <v>0.26005621789279831</v>
+      </c>
+      <c r="G16" s="37">
+        <f>'[2]دارایی فعلی'!$G$4</f>
+        <v>52000</v>
+      </c>
+      <c r="H16" s="35">
+        <f>IF(L16&gt;0, I16/L16,"RF")</f>
+        <v>1.1971943887775558</v>
+      </c>
+      <c r="I16" s="36">
+        <f>(J16/P16)-1</f>
+        <v>0.14476107395560733</v>
+      </c>
+      <c r="J16" s="37">
+        <f>'[2]دارایی فعلی'!$J$4</f>
+        <v>47242</v>
+      </c>
+      <c r="K16" s="38">
+        <f>IF(L16&gt;0, N16-M16*Q16, 0)</f>
+        <v>1217560</v>
+      </c>
+      <c r="L16" s="39">
+        <f>IF(1-(M16/P16)&gt;0, 1-(M16/P16), 0)</f>
+        <v>0.12091693321702046</v>
+      </c>
+      <c r="M16" s="40">
+        <f>'[2]دارایی فعلی'!$M$4</f>
+        <v>36278</v>
+      </c>
+      <c r="N16" s="41">
+        <f>Q16*P16</f>
+        <v>10069392</v>
+      </c>
+      <c r="O16" s="36">
+        <f>IF( (P16-M16)*Q16/سرمایه!F4&gt;0, (P16-M16)*Q16/سرمایه!F4, "Risk free")</f>
+        <v>1.9544843995638389E-3</v>
+      </c>
+      <c r="P16" s="42">
+        <f>'[2]دارایی فعلی'!$Q$4</f>
+        <v>41268</v>
+      </c>
+      <c r="Q16" s="43">
+        <f>'[2]دارایی فعلی'!$R$4</f>
+        <v>244</v>
+      </c>
+      <c r="R16" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="237" t="str">
+        <f>IF(L17&gt;0, C17/L17,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="C17" s="36">
+        <f>(D17/P17)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D17" s="37">
+        <f>'[20]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="35" t="str">
+        <f>IF(L17&gt;0, F17/L17,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="F17" s="36">
+        <f>(G17/P17)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G17" s="37">
+        <f>'[20]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="35" t="str">
+        <f>IF(L17&gt;0, I17/L17,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="I17" s="36">
+        <f>(J17/P17)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J17" s="37">
+        <f>'[20]دارایی فعلی'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="38">
+        <f>IF(L17&gt;0, N17-M17*Q17, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="39">
+        <f>IF(1-(M17/P17)&gt;0, 1-(M17/P17), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="40">
+        <f>'[20]دارایی فعلی'!$M$4</f>
+        <v>4443</v>
+      </c>
+      <c r="N17" s="41">
+        <f>Q17*P17</f>
+        <v>5940291</v>
+      </c>
+      <c r="O17" s="36" t="str">
+        <f>IF( (P17-M17)*Q17/سرمایه!F4&gt;0, (P17-M17)*Q17/سرمایه!F4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="P17" s="42">
+        <f>'[20]دارایی فعلی'!$Q$4</f>
+        <v>4443</v>
+      </c>
+      <c r="Q17" s="43">
+        <f>'[20]دارایی فعلی'!$R$4</f>
+        <v>1337</v>
+      </c>
+      <c r="R17" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="237">
+        <f>IF(L18&gt;0, C18/L18,"RF")</f>
+        <v>-7.6788511749347288</v>
+      </c>
+      <c r="C18" s="36">
+        <f>(D18/P18)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D18" s="37">
+        <f>'[8]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <f>IF(L18&gt;0, F18/L18,"RF")</f>
+        <v>-7.6788511749347288</v>
+      </c>
+      <c r="F18" s="36">
+        <f>(G18/P18)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G18" s="37">
+        <f>'[8]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <f>IF(L18&gt;0, I18/L18,"RF")</f>
+        <v>3.8511749347258499</v>
+      </c>
+      <c r="I18" s="36">
+        <f>(J18/P18)-1</f>
+        <v>0.50153009180550834</v>
+      </c>
+      <c r="J18" s="37">
+        <f>'[8]دارایی فعلی'!$J$4</f>
+        <v>17664</v>
+      </c>
+      <c r="K18" s="38">
+        <f>IF(L18&gt;0, N18-M18*Q18, 0)</f>
+        <v>657228</v>
+      </c>
+      <c r="L18" s="39">
+        <f>IF(1-(M18/P18)&gt;0, 1-(M18/P18), 0)</f>
+        <v>0.13022781366882008</v>
+      </c>
+      <c r="M18" s="40">
+        <f>'[8]دارایی فعلی'!$M$4</f>
+        <v>10232</v>
+      </c>
+      <c r="N18" s="41">
+        <f>Q18*P18</f>
+        <v>5046756</v>
+      </c>
+      <c r="O18" s="36">
+        <f>IF( (P18-M18)*Q18/سرمایه!F4&gt;0, (P18-M18)*Q18/سرمایه!F4, "Risk free")</f>
+        <v>1.0550132009564562E-3</v>
+      </c>
+      <c r="P18" s="42">
+        <f>'[8]دارایی فعلی'!$Q$4</f>
+        <v>11764</v>
+      </c>
+      <c r="Q18" s="43">
+        <f>'[8]دارایی فعلی'!$R$4</f>
+        <v>429</v>
+      </c>
+      <c r="R18" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="237">
+        <f>IF(L19&gt;0, C19/L19,"RF")</f>
+        <v>-5.250225022502252</v>
+      </c>
+      <c r="C19" s="36">
+        <f>(D19/P19)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D19" s="37">
+        <f>'[15]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="35">
+        <f>IF(L19&gt;0, F19/L19,"RF")</f>
+        <v>-5.250225022502252</v>
+      </c>
+      <c r="F19" s="36">
+        <f>(G19/P19)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="37">
+        <f>'[15]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <f>IF(L19&gt;0, I19/L19,"RF")</f>
+        <v>0.35553555355535599</v>
+      </c>
+      <c r="I19" s="36">
+        <f>(J19/P19)-1</f>
+        <v>6.7718155323161389E-2</v>
+      </c>
+      <c r="J19" s="37">
+        <f>'[15]دارایی فعلی'!$J$4</f>
+        <v>6228</v>
+      </c>
+      <c r="K19" s="38">
+        <f>IF(L19&gt;0, N19-M19*Q19, 0)</f>
+        <v>589941</v>
+      </c>
+      <c r="L19" s="39">
+        <f>IF(1-(M19/P19)&gt;0, 1-(M19/P19), 0)</f>
+        <v>0.19046802674438534</v>
+      </c>
+      <c r="M19" s="40">
+        <f>'[15]دارایی فعلی'!$M$4</f>
+        <v>4722</v>
+      </c>
+      <c r="N19" s="41">
+        <f>Q19*P19</f>
+        <v>3097323</v>
+      </c>
+      <c r="O19" s="36">
+        <f>IF( (P19-M19)*Q19/سرمایه!F4&gt;0, (P19-M19)*Q19/سرمایه!F4, "Risk free")</f>
+        <v>9.47000953680386E-4</v>
+      </c>
+      <c r="P19" s="42">
+        <f>'[15]دارایی فعلی'!$Q$4</f>
+        <v>5833</v>
+      </c>
+      <c r="Q19" s="43">
+        <f>'[15]دارایی فعلی'!$R$4</f>
+        <v>531</v>
+      </c>
+      <c r="R19" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="237">
+        <f>IF(L20&gt;0, C20/L20,"RF")</f>
         <v>-5.0946209834901461</v>
       </c>
-      <c r="C10" s="36">
-        <f t="shared" si="1"/>
+      <c r="C20" s="36">
+        <f>(D20/P20)-1</f>
         <v>-1</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D20" s="37">
         <f>'[7]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E10" s="35">
-        <f t="shared" si="2"/>
+      <c r="E20" s="35">
+        <f>IF(L20&gt;0, F20/L20,"RF")</f>
         <v>-5.0946209834901461</v>
       </c>
-      <c r="F10" s="36">
-        <f t="shared" si="3"/>
+      <c r="F20" s="36">
+        <f>(G20/P20)-1</f>
         <v>-1</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G20" s="37">
         <f>'[7]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H10" s="35">
-        <f t="shared" si="4"/>
+      <c r="H20" s="35">
+        <f>IF(L20&gt;0, I20/L20,"RF")</f>
         <v>0.2787147168471506</v>
       </c>
-      <c r="I10" s="36">
-        <f t="shared" si="5"/>
+      <c r="I20" s="36">
+        <f>(J20/P20)-1</f>
         <v>5.4707645132064942E-2</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J20" s="37">
         <f>'[7]دارایی فعلی'!$J$4</f>
         <v>30268</v>
       </c>
-      <c r="K10" s="38">
-        <f t="shared" si="6"/>
+      <c r="K20" s="38">
+        <f>IF(L20&gt;0, N20-M20*Q20, 0)</f>
         <v>602731</v>
       </c>
-      <c r="L10" s="39">
-        <f t="shared" si="7"/>
+      <c r="L20" s="39">
+        <f>IF(1-(M20/P20)&gt;0, 1-(M20/P20), 0)</f>
         <v>0.19628545543243436</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M20" s="40">
         <f>'[7]دارایی فعلی'!$M$4</f>
         <v>23065</v>
       </c>
-      <c r="N10" s="41">
-        <f t="shared" si="8"/>
+      <c r="N20" s="41">
+        <f>Q20*P20</f>
         <v>3070686</v>
       </c>
-      <c r="O10" s="36">
-        <f>IF( (P10-M10)*Q10/سرمایه!F5&gt;0, (P10-M10)*Q10/سرمایه!F5, "Risk free")</f>
+      <c r="O20" s="36">
+        <f>IF( (P20-M20)*Q20/سرمایه!F4&gt;0, (P20-M20)*Q20/سرمایه!F4, "Risk free")</f>
         <v>9.6753206136331038E-4</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P20" s="42">
         <f>'[7]دارایی فعلی'!$Q$4</f>
         <v>28698</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q20" s="43">
         <f>'[7]دارایی فعلی'!$R$4</f>
         <v>107</v>
       </c>
-      <c r="R10" s="244" t="s">
-        <v>102</v>
-      </c>
-      <c r="S10" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="35">
-        <f t="shared" si="0"/>
-        <v>-7.6788511749347288</v>
-      </c>
-      <c r="C11" s="36">
-        <f t="shared" si="1"/>
+      <c r="R20" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="237" t="str">
+        <f>IF(L21&gt;0, C21/L21,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="C21" s="36">
+        <f>(D21/P21)-1</f>
         <v>-1</v>
       </c>
-      <c r="D11" s="37">
-        <f>'[8]دارایی فعلی'!$D$4</f>
+      <c r="D21" s="37">
+        <f>'[17]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="35">
-        <f t="shared" si="2"/>
-        <v>-7.6788511749347288</v>
-      </c>
-      <c r="F11" s="36">
-        <f t="shared" si="3"/>
+      <c r="E21" s="35" t="str">
+        <f>IF(L21&gt;0, F21/L21,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="F21" s="36">
+        <f>(G21/P21)-1</f>
         <v>-1</v>
       </c>
-      <c r="G11" s="37">
-        <f>'[8]دارایی فعلی'!$G$4</f>
+      <c r="G21" s="37">
+        <f>'[17]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H11" s="35">
-        <f t="shared" si="4"/>
-        <v>3.8511749347258499</v>
-      </c>
-      <c r="I11" s="36">
-        <f t="shared" si="5"/>
-        <v>0.50153009180550834</v>
-      </c>
-      <c r="J11" s="37">
-        <f>'[8]دارایی فعلی'!$J$4</f>
-        <v>17664</v>
-      </c>
-      <c r="K11" s="38">
-        <f t="shared" si="6"/>
-        <v>657228</v>
-      </c>
-      <c r="L11" s="39">
-        <f t="shared" si="7"/>
-        <v>0.13022781366882008</v>
-      </c>
-      <c r="M11" s="40">
-        <f>'[8]دارایی فعلی'!$M$4</f>
-        <v>10232</v>
-      </c>
-      <c r="N11" s="41">
-        <f t="shared" si="8"/>
-        <v>5046756</v>
-      </c>
-      <c r="O11" s="36">
-        <f>IF( (P11-M11)*Q11/سرمایه!F5&gt;0, (P11-M11)*Q11/سرمایه!F5, "Risk free")</f>
-        <v>1.0550132009564562E-3</v>
-      </c>
-      <c r="P11" s="42">
-        <f>'[8]دارایی فعلی'!$Q$4</f>
-        <v>11764</v>
-      </c>
-      <c r="Q11" s="43">
-        <f>'[8]دارایی فعلی'!$R$4</f>
-        <v>429</v>
-      </c>
-      <c r="R11" s="244" t="s">
-        <v>103</v>
-      </c>
-      <c r="S11" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" s="64">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="35">
-        <f t="shared" si="0"/>
-        <v>-9.1052989130434803</v>
-      </c>
-      <c r="C12" s="36">
-        <f t="shared" si="1"/>
+      <c r="H21" s="35" t="str">
+        <f>IF(L21&gt;0, I21/L21,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="I21" s="36">
+        <f>(J21/P21)-1</f>
         <v>-1</v>
       </c>
-      <c r="D12" s="37">
-        <f>'[9]دارایی فعلی'!$D$4</f>
+      <c r="J21" s="37">
+        <f>'[17]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
-      <c r="E12" s="35">
-        <f t="shared" si="2"/>
-        <v>3.2153532608695659</v>
-      </c>
-      <c r="F12" s="36">
-        <f t="shared" si="3"/>
-        <v>0.35312989629187497</v>
-      </c>
-      <c r="G12" s="37">
-        <f>'[9]دارایی فعلی'!$G$4</f>
-        <v>18136</v>
-      </c>
-      <c r="H12" s="35">
-        <f t="shared" si="4"/>
-        <v>1.6732336956521745</v>
-      </c>
-      <c r="I12" s="36">
-        <f t="shared" si="5"/>
-        <v>0.18376482876967848</v>
-      </c>
-      <c r="J12" s="37">
-        <f>'[9]دارایی فعلی'!$J$4</f>
-        <v>15866</v>
-      </c>
-      <c r="K12" s="38">
-        <f t="shared" si="6"/>
-        <v>7203968</v>
-      </c>
-      <c r="L12" s="39">
-        <f t="shared" si="7"/>
-        <v>0.10982615832276355</v>
-      </c>
-      <c r="M12" s="40">
-        <f>'[9]دارایی فعلی'!$M$4</f>
-        <v>11931</v>
-      </c>
-      <c r="N12" s="41">
-        <f t="shared" si="8"/>
-        <v>65594282</v>
-      </c>
-      <c r="O12" s="36">
-        <f>IF( (P12-M12)*Q12/سرمایه!F5&gt;0, (P12-M12)*Q12/سرمایه!F5, "Risk free")</f>
-        <v>1.1564147205030644E-2</v>
-      </c>
-      <c r="P12" s="42">
-        <f>'[9]دارایی فعلی'!$Q$4</f>
-        <v>13403</v>
-      </c>
-      <c r="Q12" s="43">
-        <f>'[9]دارایی فعلی'!$R$4</f>
-        <v>4894</v>
-      </c>
-      <c r="R12" s="244" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" s="64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="35">
-        <f t="shared" si="0"/>
-        <v>-4.7041457286432165</v>
-      </c>
-      <c r="C13" s="36">
-        <f t="shared" si="1"/>
+      <c r="K21" s="38">
+        <f>IF(L21&gt;0, N21-M21*Q21, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="39">
+        <f>IF(1-(M21/P21)&gt;0, 1-(M21/P21), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="40">
+        <f>'[17]دارایی فعلی'!$M$4</f>
+        <v>13310</v>
+      </c>
+      <c r="N21" s="41">
+        <f>Q21*P21</f>
+        <v>2675310</v>
+      </c>
+      <c r="O21" s="36" t="str">
+        <f>IF( (P21-M21)*Q21/سرمایه!F4&gt;0, (P21-M21)*Q21/سرمایه!F4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="P21" s="42">
+        <f>'[17]دارایی فعلی'!$Q$4</f>
+        <v>13310</v>
+      </c>
+      <c r="Q21" s="43">
+        <f>'[17]دارایی فعلی'!$R$4</f>
+        <v>201</v>
+      </c>
+      <c r="R21" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S21" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="237" t="str">
+        <f>IF(L22&gt;0, C22/L22,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="C22" s="36">
+        <f>(D22/P22)-1</f>
         <v>-1</v>
       </c>
-      <c r="D13" s="37">
-        <f>'[10]دارایی فعلی'!$D$4</f>
+      <c r="D22" s="37">
+        <f>'[23]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E13" s="35">
-        <f t="shared" si="2"/>
-        <v>-4.7041457286432165</v>
-      </c>
-      <c r="F13" s="36">
-        <f t="shared" si="3"/>
+      <c r="E22" s="35" t="str">
+        <f>IF(L22&gt;0, F22/L22,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="F22" s="36">
+        <f>(G22/P22)-1</f>
         <v>-1</v>
       </c>
-      <c r="G13" s="37">
-        <f>'[10]دارایی فعلی'!$G$4</f>
+      <c r="G22" s="37">
+        <f>'[23]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H13" s="35">
-        <f t="shared" si="4"/>
-        <v>0.56030150753768826</v>
-      </c>
-      <c r="I13" s="36">
-        <f t="shared" si="5"/>
-        <v>0.11910802510348506</v>
-      </c>
-      <c r="J13" s="37">
-        <f>'[10]دارایی فعلی'!$J$4</f>
-        <v>8381</v>
-      </c>
-      <c r="K13" s="38">
-        <f t="shared" si="6"/>
-        <v>2146016</v>
-      </c>
-      <c r="L13" s="39">
-        <f t="shared" si="7"/>
-        <v>0.2125784483909734</v>
-      </c>
-      <c r="M13" s="40">
-        <f>'[10]دارایی فعلی'!$M$4</f>
-        <v>5897</v>
-      </c>
-      <c r="N13" s="41">
-        <f t="shared" si="8"/>
-        <v>10095172</v>
-      </c>
-      <c r="O13" s="36">
-        <f>IF( (P13-M13)*Q13/سرمایه!F5&gt;0, (P13-M13)*Q13/سرمایه!F5, "Risk free")</f>
-        <v>3.4448855031492423E-3</v>
-      </c>
-      <c r="P13" s="42">
-        <f>'[10]دارایی فعلی'!$Q$4</f>
-        <v>7489</v>
-      </c>
-      <c r="Q13" s="43">
-        <f>'[10]دارایی فعلی'!$R$4</f>
-        <v>1348</v>
-      </c>
-      <c r="R13" s="244" t="s">
-        <v>105</v>
-      </c>
-      <c r="S13" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="T13" s="64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="35">
-        <f t="shared" si="0"/>
-        <v>-6.9987631416202873</v>
-      </c>
-      <c r="C14" s="36">
-        <f t="shared" si="1"/>
+      <c r="H22" s="35" t="str">
+        <f>IF(L22&gt;0, I22/L22,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="I22" s="36">
+        <f>(J22/P22)-1</f>
         <v>-1</v>
       </c>
-      <c r="D14" s="37">
-        <f>'[11]دارایی فعلی'!$D$4</f>
+      <c r="J22" s="37">
+        <f>'[23]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
-      <c r="E14" s="35">
-        <f t="shared" si="2"/>
-        <v>2.2158317872603588</v>
-      </c>
-      <c r="F14" s="36">
-        <f t="shared" si="3"/>
-        <v>0.31660334010780233</v>
-      </c>
-      <c r="G14" s="37">
-        <f>'[11]دارایی فعلی'!$G$4</f>
-        <v>14900</v>
-      </c>
-      <c r="H14" s="35">
-        <f t="shared" si="4"/>
-        <v>1.0902906617192336</v>
-      </c>
-      <c r="I14" s="36">
-        <f t="shared" si="5"/>
-        <v>0.155783334806044</v>
-      </c>
-      <c r="J14" s="37">
-        <f>'[11]دارایی فعلی'!$J$4</f>
-        <v>13080</v>
-      </c>
-      <c r="K14" s="38">
-        <f t="shared" si="6"/>
-        <v>10554159</v>
-      </c>
-      <c r="L14" s="39">
-        <f t="shared" si="7"/>
-        <v>0.142882389325793</v>
-      </c>
-      <c r="M14" s="40">
-        <f>'[11]دارایی فعلی'!$M$4</f>
-        <v>9700</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="8"/>
-        <v>73866059</v>
-      </c>
-      <c r="O14" s="36">
-        <f>IF( (P14-M14)*Q14/سرمایه!F5&gt;0, (P14-M14)*Q14/سرمایه!F5, "Risk free")</f>
-        <v>1.6942030878163119E-2</v>
-      </c>
-      <c r="P14" s="42">
-        <f>'[11]دارایی فعلی'!$Q$4</f>
-        <v>11317</v>
-      </c>
-      <c r="Q14" s="43">
-        <f>'[11]دارایی فعلی'!$R$4</f>
-        <v>6527</v>
-      </c>
-      <c r="R14" s="244" t="s">
-        <v>106</v>
-      </c>
-      <c r="S14" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="64">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="35">
-        <f t="shared" si="0"/>
-        <v>-4.0096557514693538</v>
-      </c>
-      <c r="C15" s="36">
-        <f t="shared" si="1"/>
+      <c r="K22" s="38">
+        <f>IF(L22&gt;0, N22-M22*Q22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="39">
+        <f>IF(1-(M22/P22)&gt;0, 1-(M22/P22), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="40">
+        <f>'[23]دارایی فعلی'!$M$4</f>
+        <v>5707</v>
+      </c>
+      <c r="N22" s="41">
+        <f>Q22*P22</f>
+        <v>2105883</v>
+      </c>
+      <c r="O22" s="36" t="str">
+        <f>IF( (P22-M22)*Q22/سرمایه!F4&gt;0, (P22-M22)*Q22/سرمایه!F4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="P22" s="42">
+        <f>'[23]دارایی فعلی'!$Q$4</f>
+        <v>5707</v>
+      </c>
+      <c r="Q22" s="43">
+        <f>'[23]دارایی فعلی'!$R$4</f>
+        <v>369</v>
+      </c>
+      <c r="R22" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="237" t="str">
+        <f>IF(L23&gt;0, C23/L23,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="C23" s="36">
+        <f>(D23/P23)-1</f>
         <v>-1</v>
       </c>
-      <c r="D15" s="37">
-        <f>'[12]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="35">
-        <f t="shared" si="2"/>
-        <v>-4.0096557514693538</v>
-      </c>
-      <c r="F15" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G15" s="37">
-        <f>'[12]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="35">
-        <f t="shared" si="4"/>
-        <v>0.72942905121746449</v>
-      </c>
-      <c r="I15" s="36">
-        <f t="shared" si="5"/>
-        <v>0.18191812375667471</v>
-      </c>
-      <c r="J15" s="37">
-        <f>'[12]دارایی فعلی'!$J$4</f>
-        <v>45154</v>
-      </c>
-      <c r="K15" s="38">
-        <f t="shared" si="6"/>
-        <v>15092352</v>
-      </c>
-      <c r="L15" s="39">
-        <f t="shared" si="7"/>
-        <v>0.24939796879907861</v>
-      </c>
-      <c r="M15" s="40">
-        <f>'[12]دارایی فعلی'!$M$4</f>
-        <v>28676</v>
-      </c>
-      <c r="N15" s="41">
-        <f t="shared" si="8"/>
-        <v>60515136</v>
-      </c>
-      <c r="O15" s="36">
-        <f>IF( (P15-M15)*Q15/سرمایه!F5&gt;0, (P15-M15)*Q15/سرمایه!F5, "Risk free")</f>
-        <v>2.4226951063377661E-2</v>
-      </c>
-      <c r="P15" s="42">
-        <f>'[12]دارایی فعلی'!$Q$4</f>
-        <v>38204</v>
-      </c>
-      <c r="Q15" s="43">
-        <f>'[12]دارایی فعلی'!$R$4</f>
-        <v>1584</v>
-      </c>
-      <c r="R15" s="244" t="s">
-        <v>107</v>
-      </c>
-      <c r="S15" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="T15" s="64">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="35">
-        <f t="shared" si="0"/>
-        <v>-5.9528619528619542</v>
-      </c>
-      <c r="C16" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D16" s="37">
-        <f>'[13]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="35">
-        <f t="shared" si="2"/>
-        <v>-5.9528619528619542</v>
-      </c>
-      <c r="F16" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G16" s="37">
-        <f>'[13]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="35">
-        <f t="shared" si="4"/>
-        <v>5.107744107744109</v>
-      </c>
-      <c r="I16" s="36">
-        <f t="shared" si="5"/>
-        <v>0.85803167420814486</v>
-      </c>
-      <c r="J16" s="37">
-        <f>'[13]دارایی فعلی'!$J$4</f>
-        <v>85410</v>
-      </c>
-      <c r="K16" s="38">
-        <f t="shared" si="6"/>
-        <v>2818530</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="7"/>
-        <v>0.16798642533936647</v>
-      </c>
-      <c r="M16" s="40">
-        <f>'[13]دارایی فعلی'!$M$4</f>
-        <v>38246</v>
-      </c>
-      <c r="N16" s="41">
-        <f t="shared" si="8"/>
-        <v>16778320</v>
-      </c>
-      <c r="O16" s="36">
-        <f>IF( (P16-M16)*Q16/سرمایه!F5&gt;0, (P16-M16)*Q16/سرمایه!F5, "Risk free")</f>
-        <v>4.5244365080182227E-3</v>
-      </c>
-      <c r="P16" s="42">
-        <f>'[13]دارایی فعلی'!$Q$4</f>
-        <v>45968</v>
-      </c>
-      <c r="Q16" s="43">
-        <f>'[13]دارایی فعلی'!$R$4</f>
-        <v>365</v>
-      </c>
-      <c r="R16" s="244" t="s">
-        <v>108</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="T16" s="64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="35">
-        <f t="shared" si="0"/>
-        <v>-21.366132723112113</v>
-      </c>
-      <c r="C17" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D17" s="37">
-        <f>'[14]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="35">
-        <f t="shared" si="2"/>
-        <v>11.478260869565208</v>
-      </c>
-      <c r="F17" s="36">
-        <f t="shared" si="3"/>
-        <v>0.53721752168790826</v>
-      </c>
-      <c r="G17" s="37">
-        <f>'[14]دارایی فعلی'!$G$4</f>
-        <v>28706</v>
-      </c>
-      <c r="H17" s="35">
-        <f t="shared" si="4"/>
-        <v>5.0972540045766559</v>
-      </c>
-      <c r="I17" s="36">
-        <f t="shared" si="5"/>
-        <v>0.23856699153903826</v>
-      </c>
-      <c r="J17" s="37">
-        <f>'[14]دارایی فعلی'!$J$4</f>
-        <v>23129</v>
-      </c>
-      <c r="K17" s="38">
-        <f t="shared" si="6"/>
-        <v>1112602</v>
-      </c>
-      <c r="L17" s="39">
-        <f t="shared" si="7"/>
-        <v>4.680304166220417E-2</v>
-      </c>
-      <c r="M17" s="40">
-        <f>'[14]دارایی فعلی'!$M$4</f>
-        <v>17800</v>
-      </c>
-      <c r="N17" s="41">
-        <f t="shared" si="8"/>
-        <v>23772002</v>
-      </c>
-      <c r="O17" s="36">
-        <f>IF( (P17-M17)*Q17/سرمایه!F5&gt;0, (P17-M17)*Q17/سرمایه!F5, "Risk free")</f>
-        <v>1.7860008968129098E-3</v>
-      </c>
-      <c r="P17" s="42">
-        <f>'[14]دارایی فعلی'!$Q$4</f>
-        <v>18674</v>
-      </c>
-      <c r="Q17" s="43">
-        <f>'[14]دارایی فعلی'!$R$4</f>
-        <v>1273</v>
-      </c>
-      <c r="R17" s="244" t="s">
-        <v>109</v>
-      </c>
-      <c r="S17" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" s="64">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="35">
-        <f t="shared" si="0"/>
-        <v>-5.250225022502252</v>
-      </c>
-      <c r="C18" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D18" s="37">
-        <f>'[15]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
-        <f t="shared" si="2"/>
-        <v>-5.250225022502252</v>
-      </c>
-      <c r="F18" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G18" s="37">
-        <f>'[15]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <f t="shared" si="4"/>
-        <v>0.35553555355535599</v>
-      </c>
-      <c r="I18" s="36">
-        <f t="shared" si="5"/>
-        <v>6.7718155323161389E-2</v>
-      </c>
-      <c r="J18" s="37">
-        <f>'[15]دارایی فعلی'!$J$4</f>
-        <v>6228</v>
-      </c>
-      <c r="K18" s="38">
-        <f t="shared" si="6"/>
-        <v>589941</v>
-      </c>
-      <c r="L18" s="39">
-        <f t="shared" si="7"/>
-        <v>0.19046802674438534</v>
-      </c>
-      <c r="M18" s="40">
-        <f>'[15]دارایی فعلی'!$M$4</f>
-        <v>4722</v>
-      </c>
-      <c r="N18" s="41">
-        <f t="shared" si="8"/>
-        <v>3097323</v>
-      </c>
-      <c r="O18" s="36">
-        <f>IF( (P18-M18)*Q18/سرمایه!F5&gt;0, (P18-M18)*Q18/سرمایه!F5, "Risk free")</f>
-        <v>9.47000953680386E-4</v>
-      </c>
-      <c r="P18" s="42">
-        <f>'[15]دارایی فعلی'!$Q$4</f>
-        <v>5833</v>
-      </c>
-      <c r="Q18" s="43">
-        <f>'[15]دارایی فعلی'!$R$4</f>
-        <v>531</v>
-      </c>
-      <c r="R18" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="S18" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="T18" s="64">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>RF</v>
-      </c>
-      <c r="C19" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="D23" s="37">
         <f>'[16]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E19" s="35" t="str">
-        <f t="shared" si="2"/>
+      <c r="E23" s="35" t="str">
+        <f>IF(L23&gt;0, F23/L23,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="F19" s="36">
-        <f t="shared" ref="F19" si="9">(G19/P19)-1</f>
+      <c r="F23" s="36">
+        <f>(G23/P23)-1</f>
         <v>-1</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G23" s="37">
         <f>'[16]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H19" s="35" t="str">
-        <f t="shared" ref="H19" si="10">IF(L19&gt;0, I19/L19,"RF")</f>
+      <c r="H23" s="35" t="str">
+        <f>IF(L23&gt;0, I23/L23,"RF")</f>
         <v>RF</v>
       </c>
-      <c r="I19" s="36">
-        <f t="shared" ref="I19" si="11">(J19/P19)-1</f>
+      <c r="I23" s="36">
+        <f>(J23/P23)-1</f>
         <v>-1</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J23" s="37">
         <f>'[16]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
-      <c r="K19" s="38">
-        <f t="shared" ref="K19" si="12">IF(L19&gt;0, N19-M19*Q19, 0)</f>
+      <c r="K23" s="38">
+        <f>IF(L23&gt;0, N23-M23*Q23, 0)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="39">
-        <f t="shared" ref="L19" si="13">IF(1-(M19/P19)&gt;0, 1-(M19/P19), 0)</f>
+      <c r="L23" s="39">
+        <f>IF(1-(M23/P23)&gt;0, 1-(M23/P23), 0)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M23" s="40">
         <f>'[16]دارایی فعلی'!$M$4</f>
         <v>3450</v>
       </c>
-      <c r="N19" s="41">
-        <f t="shared" ref="N19" si="14">Q19*P19</f>
+      <c r="N23" s="41">
+        <f>Q23*P23</f>
         <v>1449000</v>
       </c>
-      <c r="O19" s="36" t="str">
-        <f>IF( (P19-M19)*Q19/سرمایه!F5&gt;0, (P19-M19)*Q19/سرمایه!F5, "Risk free")</f>
+      <c r="O23" s="36" t="str">
+        <f>IF( (P23-M23)*Q23/سرمایه!F4&gt;0, (P23-M23)*Q23/سرمایه!F4, "Risk free")</f>
         <v>Risk free</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P23" s="42">
         <f>'[16]دارایی فعلی'!$Q$4</f>
         <v>3450</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q23" s="43">
         <f>'[16]دارایی فعلی'!$R$4</f>
         <v>420</v>
       </c>
-      <c r="R19" s="244" t="s">
-        <v>112</v>
-      </c>
-      <c r="S19" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="T19" s="64">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>RF</v>
-      </c>
-      <c r="C20" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D20" s="37">
-        <f>'[17]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>RF</v>
-      </c>
-      <c r="F20" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G20" s="37">
-        <f>'[17]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v>RF</v>
-      </c>
-      <c r="I20" s="36">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="J20" s="37">
-        <f>'[17]دارایی فعلی'!$J$4</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="40">
-        <f>'[17]دارایی فعلی'!$M$4</f>
-        <v>13310</v>
-      </c>
-      <c r="N20" s="41">
-        <f t="shared" si="8"/>
-        <v>2675310</v>
-      </c>
-      <c r="O20" s="36" t="str">
-        <f>IF( (P20-M20)*Q20/سرمایه!F5&gt;0, (P20-M20)*Q20/سرمایه!F5, "Risk free")</f>
-        <v>Risk free</v>
-      </c>
-      <c r="P20" s="42">
-        <f>'[17]دارایی فعلی'!$Q$4</f>
-        <v>13310</v>
-      </c>
-      <c r="Q20" s="43">
-        <f>'[17]دارایی فعلی'!$R$4</f>
-        <v>201</v>
-      </c>
-      <c r="R20" s="244" t="s">
-        <v>113</v>
-      </c>
-      <c r="S20" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="T20" s="64">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>RF</v>
-      </c>
-      <c r="C21" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D21" s="37">
-        <f>'[18]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>RF</v>
-      </c>
-      <c r="F21" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G21" s="37">
-        <f>'[18]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v>RF</v>
-      </c>
-      <c r="I21" s="36">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="J21" s="37">
-        <f>'[18]دارایی فعلی'!$J$4</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="40">
-        <f>'[18]دارایی فعلی'!$M$4</f>
-        <v>23838</v>
-      </c>
-      <c r="N21" s="41">
-        <f t="shared" si="8"/>
-        <v>882006</v>
-      </c>
-      <c r="O21" s="36" t="str">
-        <f>IF( (P21-M21)*Q21/سرمایه!F5&gt;0, (P21-M21)*Q21/سرمایه!F5, "Risk free")</f>
-        <v>Risk free</v>
-      </c>
-      <c r="P21" s="42">
-        <f>'[18]دارایی فعلی'!$Q$4</f>
-        <v>23838</v>
-      </c>
-      <c r="Q21" s="43">
-        <f>'[18]دارایی فعلی'!$R$4</f>
-        <v>37</v>
-      </c>
-      <c r="R21" s="244" t="s">
-        <v>114</v>
-      </c>
-      <c r="S21" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" s="64">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>RF</v>
-      </c>
-      <c r="C22" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D22" s="37">
-        <f>'[19]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>RF</v>
-      </c>
-      <c r="F22" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G22" s="37">
-        <f>'[19]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v>RF</v>
-      </c>
-      <c r="I22" s="36">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="J22" s="37">
-        <f>'[19]دارایی فعلی'!$J$4</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="40">
-        <f>'[19]دارایی فعلی'!$M$4</f>
-        <v>20185</v>
-      </c>
-      <c r="N22" s="41">
-        <f t="shared" si="8"/>
-        <v>423885</v>
-      </c>
-      <c r="O22" s="36" t="str">
-        <f>IF( (P22-M22)*Q22/سرمایه!F5&gt;0, (P22-M22)*Q22/سرمایه!F5, "Risk free")</f>
-        <v>Risk free</v>
-      </c>
-      <c r="P22" s="42">
-        <f>'[19]دارایی فعلی'!$Q$4</f>
-        <v>20185</v>
-      </c>
-      <c r="Q22" s="43">
-        <f>'[19]دارایی فعلی'!$R$4</f>
-        <v>21</v>
-      </c>
-      <c r="R22" s="244" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="T22" s="64">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>RF</v>
-      </c>
-      <c r="C23" s="36">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="D23" s="37">
-        <f>'[20]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>RF</v>
-      </c>
-      <c r="F23" s="36">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G23" s="37">
-        <f>'[20]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v>RF</v>
-      </c>
-      <c r="I23" s="36">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="J23" s="37">
-        <f>'[20]دارایی فعلی'!$J$4</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="40">
-        <f>'[20]دارایی فعلی'!$M$4</f>
-        <v>4443</v>
-      </c>
-      <c r="N23" s="41">
-        <f t="shared" si="8"/>
-        <v>5940291</v>
-      </c>
-      <c r="O23" s="36" t="str">
-        <f>IF( (P23-M23)*Q23/سرمایه!F5&gt;0, (P23-M23)*Q23/سرمایه!F5, "Risk free")</f>
-        <v>Risk free</v>
-      </c>
-      <c r="P23" s="42">
-        <f>'[20]دارایی فعلی'!$Q$4</f>
-        <v>4443</v>
-      </c>
-      <c r="Q23" s="43">
-        <f>'[20]دارایی فعلی'!$R$4</f>
-        <v>1337</v>
-      </c>
-      <c r="R23" s="244" t="s">
-        <v>111</v>
-      </c>
-      <c r="S23" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="T23" s="64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="35" t="str">
+      <c r="R23" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="S23" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="237" t="str">
         <f>IF(L24&gt;0, C24/L24,"RF")</f>
         <v>RF</v>
       </c>
@@ -5024,7 +5880,7 @@
         <v>1155482</v>
       </c>
       <c r="O24" s="36" t="str">
-        <f>IF( (P24-M24)*Q24/سرمایه!F5&gt;0, (P24-M24)*Q24/سرمایه!F5, "Risk free")</f>
+        <f>IF( (P24-M24)*Q24/سرمایه!F4&gt;0, (P24-M24)*Q24/سرمایه!F4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="P24" s="42">
@@ -5035,23 +5891,20 @@
         <f>'[21]دارایی فعلی'!$R$4</f>
         <v>67</v>
       </c>
-      <c r="R24" s="244" t="s">
-        <v>116</v>
-      </c>
-      <c r="S24" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="T24" s="64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="35" t="str">
-        <f t="shared" ref="B25:B26" si="15">IF(L25&gt;0, C25/L25,"RF")</f>
+      <c r="R24" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="S24" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="237" t="str">
+        <f>IF(L25&gt;0, C25/L25,"RF")</f>
         <v>RF</v>
       </c>
       <c r="C25" s="36">
-        <f t="shared" ref="C25:C26" si="16">(D25/P25)-1</f>
+        <f>(D25/P25)-1</f>
         <v>-1</v>
       </c>
       <c r="D25" s="37">
@@ -5059,11 +5912,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="35" t="str">
-        <f t="shared" ref="E25:E26" si="17">IF(L25&gt;0, F25/L25,"RF")</f>
+        <f>IF(L25&gt;0, F25/L25,"RF")</f>
         <v>RF</v>
       </c>
       <c r="F25" s="36">
-        <f t="shared" ref="F25:F26" si="18">(G25/P25)-1</f>
+        <f>(G25/P25)-1</f>
         <v>-1</v>
       </c>
       <c r="G25" s="37">
@@ -5071,11 +5924,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="35" t="str">
-        <f t="shared" ref="H25:H26" si="19">IF(L25&gt;0, I25/L25,"RF")</f>
+        <f>IF(L25&gt;0, I25/L25,"RF")</f>
         <v>RF</v>
       </c>
       <c r="I25" s="36">
-        <f t="shared" ref="I25:I26" si="20">(J25/P25)-1</f>
+        <f>(J25/P25)-1</f>
         <v>-1</v>
       </c>
       <c r="J25" s="37">
@@ -5083,11 +5936,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="38">
-        <f t="shared" ref="K25:K26" si="21">IF(L25&gt;0, N25-M25*Q25, 0)</f>
+        <f>IF(L25&gt;0, N25-M25*Q25, 0)</f>
         <v>0</v>
       </c>
       <c r="L25" s="39">
-        <f t="shared" ref="L25:L26" si="22">IF(1-(M25/P25)&gt;0, 1-(M25/P25), 0)</f>
+        <f>IF(1-(M25/P25)&gt;0, 1-(M25/P25), 0)</f>
         <v>0</v>
       </c>
       <c r="M25" s="40">
@@ -5095,11 +5948,11 @@
         <v>29923</v>
       </c>
       <c r="N25" s="41">
-        <f t="shared" ref="N25:N26" si="23">Q25*P25</f>
+        <f>Q25*P25</f>
         <v>1137074</v>
       </c>
       <c r="O25" s="36" t="str">
-        <f>IF( (P25-M25)*Q25/سرمایه!F5&gt;0, (P25-M25)*Q25/سرمایه!F5, "Risk free")</f>
+        <f>IF( (P25-M25)*Q25/سرمایه!F4&gt;0, (P25-M25)*Q25/سرمایه!F4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="P25" s="42">
@@ -5110,114 +5963,159 @@
         <f>'[22]دارایی فعلی'!$R$4</f>
         <v>38</v>
       </c>
-      <c r="R25" s="244" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="T25" s="64">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="35" t="str">
-        <f t="shared" si="15"/>
+      <c r="R25" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="S25" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="237" t="str">
+        <f>IF(L26&gt;0, C26/L26,"RF")</f>
         <v>RF</v>
       </c>
       <c r="C26" s="36">
-        <f t="shared" si="16"/>
+        <f>(D26/P26)-1</f>
         <v>-1</v>
       </c>
       <c r="D26" s="37">
-        <f>'[23]دارایی فعلی'!$D$4</f>
+        <f>'[18]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="E26" s="35" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(L26&gt;0, F26/L26,"RF")</f>
         <v>RF</v>
       </c>
       <c r="F26" s="36">
-        <f t="shared" si="18"/>
+        <f>(G26/P26)-1</f>
         <v>-1</v>
       </c>
       <c r="G26" s="37">
-        <f>'[23]دارایی فعلی'!$G$4</f>
+        <f>'[18]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="H26" s="35" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(L26&gt;0, I26/L26,"RF")</f>
         <v>RF</v>
       </c>
       <c r="I26" s="36">
-        <f t="shared" si="20"/>
+        <f>(J26/P26)-1</f>
         <v>-1</v>
       </c>
       <c r="J26" s="37">
-        <f>'[23]دارایی فعلی'!$J$4</f>
+        <f>'[18]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="K26" s="38">
-        <f t="shared" si="21"/>
+        <f>IF(L26&gt;0, N26-M26*Q26, 0)</f>
         <v>0</v>
       </c>
       <c r="L26" s="39">
-        <f t="shared" si="22"/>
+        <f>IF(1-(M26/P26)&gt;0, 1-(M26/P26), 0)</f>
         <v>0</v>
       </c>
       <c r="M26" s="40">
-        <f>'[23]دارایی فعلی'!$M$4</f>
-        <v>5707</v>
+        <f>'[18]دارایی فعلی'!$M$4</f>
+        <v>23838</v>
       </c>
       <c r="N26" s="41">
-        <f t="shared" si="23"/>
-        <v>2105883</v>
+        <f>Q26*P26</f>
+        <v>882006</v>
       </c>
       <c r="O26" s="36" t="str">
-        <f>IF( (P26-M26)*Q26/سرمایه!F5&gt;0, (P26-M26)*Q26/سرمایه!F5, "Risk free")</f>
+        <f>IF( (P26-M26)*Q26/سرمایه!F4&gt;0, (P26-M26)*Q26/سرمایه!F4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="P26" s="42">
-        <f>'[23]دارایی فعلی'!$Q$4</f>
-        <v>5707</v>
+        <f>'[18]دارایی فعلی'!$Q$4</f>
+        <v>23838</v>
       </c>
       <c r="Q26" s="43">
-        <f>'[23]دارایی فعلی'!$R$4</f>
-        <v>369</v>
-      </c>
-      <c r="R26" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="S26" s="64" t="s">
+        <f>'[18]دارایی فعلی'!$R$4</f>
+        <v>37</v>
+      </c>
+      <c r="R26" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="T26" s="64">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="244"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-    </row>
-    <row r="28" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="35"/>
+      <c r="S26" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="237" t="str">
+        <f>IF(L27&gt;0, C27/L27,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="C27" s="36">
+        <f>(D27/P27)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="37">
+        <f>'[19]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="35" t="str">
+        <f>IF(L27&gt;0, F27/L27,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="F27" s="36">
+        <f>(G27/P27)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G27" s="37">
+        <f>'[19]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="35" t="str">
+        <f>IF(L27&gt;0, I27/L27,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="I27" s="36">
+        <f>(J27/P27)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J27" s="37">
+        <f>'[19]دارایی فعلی'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="38">
+        <f>IF(L27&gt;0, N27-M27*Q27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="39">
+        <f>IF(1-(M27/P27)&gt;0, 1-(M27/P27), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="40">
+        <f>'[19]دارایی فعلی'!$M$4</f>
+        <v>20185</v>
+      </c>
+      <c r="N27" s="41">
+        <f>Q27*P27</f>
+        <v>423885</v>
+      </c>
+      <c r="O27" s="36" t="str">
+        <f>IF( (P27-M27)*Q27/سرمایه!F4&gt;0, (P27-M27)*Q27/سرمایه!F4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="P27" s="42">
+        <f>'[19]دارایی فعلی'!$Q$4</f>
+        <v>20185</v>
+      </c>
+      <c r="Q27" s="43">
+        <f>'[19]دارایی فعلی'!$R$4</f>
+        <v>21</v>
+      </c>
+      <c r="R27" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="S27" s="65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="237"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="35"/>
@@ -5233,15 +6131,33 @@
       <c r="O28" s="36"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
-      <c r="R28" s="245"/>
+      <c r="R28" s="75"/>
       <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
+    </row>
+    <row r="29" spans="2:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B29" s="249"/>
+      <c r="C29" s="250"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="250"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="255"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="250"/>
+      <c r="P29" s="257"/>
+      <c r="Q29" s="258"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="N2:N3"/>
@@ -5251,165 +6167,205 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L6"/>
+  <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="34"/>
+    <col min="1" max="1" width="4.109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" style="34" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="34" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" style="34" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="34" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="34" customWidth="1"/>
     <col min="9" max="9" width="20" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.88671875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="34"/>
+    <col min="10" max="10" width="11.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="34" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="237" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="235" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="236"/>
-      <c r="F3" s="233" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="255" t="s">
+    <row r="1" spans="2:15" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="297" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="298"/>
+      <c r="D2" s="289" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="290"/>
+      <c r="F2" s="307" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="281" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="282"/>
+      <c r="I2" s="277" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="267" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="259" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="260" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="299" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="300" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="291" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="292" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="308"/>
+      <c r="G3" s="283" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="284" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="278"/>
+      <c r="J3" s="270" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="271" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="232" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="230" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="262" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="262" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="239" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="239" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="242" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="242" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="233"/>
-      <c r="G4" s="257" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="257" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="232"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="240">
-        <f>C5/'مجموع واریز'!C26</f>
-        <v>5.1658387649754153E-2</v>
-      </c>
-      <c r="C5" s="241">
-        <f>K5-'مجموع واریز'!C26</f>
-        <v>31636824</v>
-      </c>
-      <c r="D5" s="260">
-        <f>E5/'مجموع واریز'!C26</f>
+      <c r="N3" s="261"/>
+      <c r="O3" s="262"/>
+    </row>
+    <row r="4" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="301">
+        <f>C4/'مجموع واریز'!C26</f>
+        <v>5.0972223873221381E-2</v>
+      </c>
+      <c r="C4" s="302">
+        <f>N4-'مجموع واریز'!C26</f>
+        <v>31216601</v>
+      </c>
+      <c r="D4" s="293">
+        <f>E4/'مجموع واریز'!C26</f>
         <v>1.7199486185839687E-2</v>
       </c>
-      <c r="E5" s="261">
-        <f>F5-'مجموع واریز'!C26</f>
+      <c r="E4" s="294">
+        <f>F4-'مجموع واریز'!C26</f>
         <v>10533374</v>
       </c>
-      <c r="F5" s="234">
-        <f>J5+L5</f>
+      <c r="F4" s="305">
+        <f>M4+O4</f>
         <v>622957134</v>
       </c>
-      <c r="G5" s="258">
-        <f>(F5-I5)/F5*100</f>
+      <c r="G4" s="285">
+        <f>(F4-I4)/F4*100</f>
         <v>9.9291634406421281</v>
       </c>
-      <c r="H5" s="259">
-        <f>SUM(پرتفوی!K4:K28)</f>
+      <c r="H4" s="286">
+        <f>SUM(پرتفوی!K5:K29)</f>
         <v>61854432</v>
       </c>
-      <c r="I5" s="228">
-        <f>L5+J5-SUM(پرتفوی!K4:K28)</f>
+      <c r="I4" s="279">
+        <f>O4+M4-SUM(پرتفوی!K5:K29)</f>
         <v>561102702</v>
       </c>
-      <c r="J5" s="229">
-        <f>SUMPRODUCT(پرتفوی!P4:P28*پرتفوی!Q4:Q28)</f>
+      <c r="J4" s="272">
+        <f>K4/M4</f>
+        <v>4.474363221739365E-2</v>
+      </c>
+      <c r="K4" s="90">
+        <f>L4-M4</f>
+        <v>20683227</v>
+      </c>
+      <c r="L4" s="90">
+        <f>N4-O4</f>
+        <v>482944022</v>
+      </c>
+      <c r="M4" s="273">
+        <f>SUMPRODUCT(پرتفوی!P5:P29*پرتفوی!Q5:Q29)</f>
         <v>462260795</v>
       </c>
-      <c r="K5" s="65">
-        <v>644060584</v>
-      </c>
-      <c r="L5" s="65">
+      <c r="N4" s="263">
+        <v>643640361</v>
+      </c>
+      <c r="O4" s="264">
         <v>160696339</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="240"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="234"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+    <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="303"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="280"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="275"/>
+      <c r="L5" s="275"/>
+      <c r="M5" s="276"/>
+      <c r="N5" s="265"/>
+      <c r="O5" s="266"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+  <mergeCells count="22">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -5418,282 +6374,276 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="27"/>
     <col min="2" max="2" width="7.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="225" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="27"/>
     <col min="6" max="7" width="10" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="219" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="226" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="220" t="s">
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="94" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="221"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="220"/>
-    </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="227">
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="72">
         <v>2400000</v>
       </c>
-      <c r="D4" s="223" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="222" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="227">
+      <c r="D4" s="69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="72">
         <v>-1270000</v>
       </c>
-      <c r="D5" s="223" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="227">
+      <c r="D5" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="72">
         <v>2820000</v>
       </c>
-      <c r="D6" s="223" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="227">
+      <c r="D6" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="72">
         <v>27000</v>
       </c>
-      <c r="D7" s="223" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="222" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="227">
+      <c r="D7" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="72">
         <v>-760000</v>
       </c>
-      <c r="D8" s="223" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="227">
+      <c r="D8" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="72">
         <v>30000000</v>
       </c>
-      <c r="D9" s="223" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="227">
+      <c r="D9" s="69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="72">
         <v>3000000</v>
       </c>
-      <c r="D10" s="223" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="222" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="227">
+      <c r="D10" s="69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="72">
         <v>2465204</v>
       </c>
-      <c r="D11" s="223" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="227">
+      <c r="D11" s="69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="72">
         <v>20000000</v>
       </c>
-      <c r="D12" s="223" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="227">
+      <c r="D12" s="69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="72">
         <v>4000000</v>
       </c>
-      <c r="D13" s="223" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="D13" s="69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="72">
         <v>18700000</v>
       </c>
-      <c r="D14" s="223" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="227">
+      <c r="D14" s="69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="72">
         <v>323000000</v>
       </c>
-      <c r="D15" s="223" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="27">
-        <v>483091245</v>
-      </c>
-      <c r="G15" s="27">
-        <v>160696339</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="227">
+      <c r="D15" s="69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="72">
         <v>2000000</v>
       </c>
-      <c r="D16" s="223" t="s">
-        <v>134</v>
+      <c r="D16" s="69" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="227">
+      <c r="B17" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="72">
         <v>33966647</v>
       </c>
-      <c r="D17" s="223" t="s">
-        <v>135</v>
+      <c r="D17" s="69" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="227">
+      <c r="B18" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="72">
         <v>10000000</v>
       </c>
-      <c r="D18" s="223" t="s">
-        <v>135</v>
+      <c r="D18" s="69" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="227">
+      <c r="B19" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="72">
         <v>48800000</v>
       </c>
-      <c r="D19" s="223" t="s">
-        <v>135</v>
+      <c r="D19" s="69" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="227">
+      <c r="B20" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="72">
         <v>70000000</v>
       </c>
-      <c r="D20" s="223" t="s">
-        <v>135</v>
+      <c r="D20" s="69" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="222" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="227">
+      <c r="B21" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="72">
         <v>3274909</v>
       </c>
-      <c r="D21" s="223" t="s">
-        <v>136</v>
+      <c r="D21" s="69" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="222" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="227">
+      <c r="B22" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="72">
         <v>50000000</v>
       </c>
-      <c r="D22" s="223" t="s">
-        <v>137</v>
+      <c r="D22" s="69" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="222" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="227">
+      <c r="B23" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="72">
         <v>-10000000</v>
       </c>
-      <c r="D23" s="223" t="s">
-        <v>138</v>
+      <c r="D23" s="69" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="222"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="223"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="69"/>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="223"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="223"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="69"/>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="227">
+      <c r="C26" s="72">
         <f>SUM(C4:C25)</f>
         <v>612423760</v>
       </c>
-      <c r="D26" s="224" t="s">
-        <v>139</v>
+      <c r="D26" s="70" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5708,276 +6658,263 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W6"/>
+  <dimension ref="B2:X6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="66">
+    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="111">
         <v>0.05</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="72">
+      <c r="C3" s="112"/>
+      <c r="D3" s="113">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74">
+      <c r="E3" s="114"/>
+      <c r="F3" s="115">
         <v>0.04</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76">
+      <c r="G3" s="116"/>
+      <c r="H3" s="117">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="90">
+      <c r="I3" s="118"/>
+      <c r="J3" s="97">
         <v>0.03</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92">
+      <c r="K3" s="98"/>
+      <c r="L3" s="99">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M3" s="93"/>
-      <c r="N3" s="88">
+      <c r="M3" s="100"/>
+      <c r="N3" s="95">
         <v>0.02</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="80">
+      <c r="O3" s="96"/>
+      <c r="P3" s="109">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="78">
+      <c r="Q3" s="110"/>
+      <c r="R3" s="107">
         <v>0.01</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="86">
+      <c r="S3" s="108"/>
+      <c r="T3" s="105">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U3" s="87"/>
-      <c r="V3" s="82" t="s">
+      <c r="U3" s="106"/>
+      <c r="V3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="X3" s="101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="R4" s="60" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="S4" s="61" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="T4" s="62" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="U4" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-    </row>
-    <row r="5" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68">
+        <v>74</v>
+      </c>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+    </row>
+    <row r="5" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="309">
         <f>C5*W5</f>
-        <v>138560961.04503539</v>
-      </c>
-      <c r="C5" s="70">
-        <f>سرمایه!I5*5/((W5-V5)*100)</f>
-        <v>6016.5419472442636</v>
-      </c>
-      <c r="D5" s="68">
+        <v>131185587.72109213</v>
+      </c>
+      <c r="C5" s="310">
+        <f>سرمایه!I4*5/((W5-V5)*100)</f>
+        <v>5614.9862591110214</v>
+      </c>
+      <c r="D5" s="309">
         <f>E5*W5</f>
-        <v>124704864.94053183</v>
-      </c>
-      <c r="E5" s="70">
-        <f>سرمایه!I5*4.5/((W5-V5)*100)</f>
-        <v>5414.8877525198368</v>
-      </c>
-      <c r="F5" s="68">
+        <v>118067028.94898292</v>
+      </c>
+      <c r="E5" s="310">
+        <f>سرمایه!I4*4.5/((W5-V5)*100)</f>
+        <v>5053.4876331999194</v>
+      </c>
+      <c r="F5" s="309">
         <f>G5*W5</f>
-        <v>110848768.83602831</v>
-      </c>
-      <c r="G5" s="70">
-        <f>سرمایه!I5*4/((W5-V5)*100)</f>
-        <v>4813.2335577954109</v>
-      </c>
-      <c r="H5" s="68">
+        <v>104948470.17687368</v>
+      </c>
+      <c r="G5" s="310">
+        <f>سرمایه!I4*4/((W5-V5)*100)</f>
+        <v>4491.9890072888165</v>
+      </c>
+      <c r="H5" s="309">
         <f>I5*W5</f>
-        <v>96992672.731524765</v>
-      </c>
-      <c r="I5" s="70">
-        <f>سرمایه!I5*3.5/((W5-V5)*100)</f>
-        <v>4211.5793630709841</v>
-      </c>
-      <c r="J5" s="68">
+        <v>91829911.404764488</v>
+      </c>
+      <c r="I5" s="310">
+        <f>سرمایه!I4*3.5/((W5-V5)*100)</f>
+        <v>3930.4903813777146</v>
+      </c>
+      <c r="J5" s="309">
         <f>K5*W5</f>
-        <v>83136576.627021238</v>
-      </c>
-      <c r="K5" s="70">
-        <f>سرمایه!I5*3/((W5-V5)*100)</f>
-        <v>3609.9251683465582</v>
-      </c>
-      <c r="L5" s="68">
+        <v>78711352.632655278</v>
+      </c>
+      <c r="K5" s="310">
+        <f>سرمایه!I4*3/((W5-V5)*100)</f>
+        <v>3368.9917554666126</v>
+      </c>
+      <c r="L5" s="309">
         <f>M5*W5</f>
-        <v>69280480.522517696</v>
-      </c>
-      <c r="M5" s="70">
-        <f>سرمایه!I5*2.5/((W5-V5)*100)</f>
-        <v>3008.2709736221318</v>
-      </c>
-      <c r="N5" s="68">
+        <v>65592793.860546067</v>
+      </c>
+      <c r="M5" s="310">
+        <f>سرمایه!I4*2.5/((W5-V5)*100)</f>
+        <v>2807.4931295555107</v>
+      </c>
+      <c r="N5" s="309">
         <f>O5*W5</f>
-        <v>55424384.418014154</v>
-      </c>
-      <c r="O5" s="70">
-        <f>سرمایه!I5*2/((W5-V5)*100)</f>
-        <v>2406.6167788977054</v>
-      </c>
-      <c r="P5" s="68">
+        <v>52474235.088436842</v>
+      </c>
+      <c r="O5" s="310">
+        <f>سرمایه!I4*2/((W5-V5)*100)</f>
+        <v>2245.9945036444083</v>
+      </c>
+      <c r="P5" s="309">
         <f>Q5*W5</f>
-        <v>41568288.313510619</v>
-      </c>
-      <c r="Q5" s="70">
-        <f>سرمایه!I5*1.5/((W5-V5)*100)</f>
-        <v>1804.9625841732791</v>
-      </c>
-      <c r="R5" s="68">
+        <v>39355676.316327639</v>
+      </c>
+      <c r="Q5" s="310">
+        <f>سرمایه!I4*1.5/((W5-V5)*100)</f>
+        <v>1684.4958777333063</v>
+      </c>
+      <c r="R5" s="309">
         <f>U5*W5</f>
-        <v>13856096.104503538</v>
-      </c>
-      <c r="S5" s="70">
-        <f>سرمایه!I5*1/((W5-V5)*100)</f>
-        <v>1203.3083894488527</v>
-      </c>
-      <c r="T5" s="68">
+        <v>13118558.77210921</v>
+      </c>
+      <c r="S5" s="310">
+        <f>سرمایه!I4*1/((W5-V5)*100)</f>
+        <v>1122.9972518222041</v>
+      </c>
+      <c r="T5" s="309">
         <f>U5*W5</f>
-        <v>13856096.104503538</v>
-      </c>
-      <c r="U5" s="70">
-        <f>سرمایه!I5*0.5/((W5-V5)*100)</f>
-        <v>601.65419472442636</v>
-      </c>
-      <c r="V5" s="84">
+        <v>13118558.77210921</v>
+      </c>
+      <c r="U5" s="310">
+        <f>سرمایه!I4*0.5/((W5-V5)*100)</f>
+        <v>561.49862591110207</v>
+      </c>
+      <c r="V5" s="103">
         <v>18367</v>
       </c>
-      <c r="W5" s="84">
+      <c r="W5" s="103">
+        <f>X5*1.01448</f>
+        <v>23363.474400000003</v>
+      </c>
+      <c r="X5" s="103">
         <v>23030</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
+    <row r="6" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="311"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="311"/>
+      <c r="I6" s="312"/>
+      <c r="J6" s="311"/>
+      <c r="K6" s="312"/>
+      <c r="L6" s="311"/>
+      <c r="M6" s="312"/>
+      <c r="N6" s="311"/>
+      <c r="O6" s="312"/>
+      <c r="P6" s="311"/>
+      <c r="Q6" s="312"/>
+      <c r="R6" s="311"/>
+      <c r="S6" s="312"/>
+      <c r="T6" s="311"/>
+      <c r="U6" s="312"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="P3:Q3"/>
+  <mergeCells count="36">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -5990,6 +6927,30 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -6023,44 +6984,44 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="132" t="s">
+      <c r="G2" s="173"/>
+      <c r="H2" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="158" t="s">
+      <c r="I2" s="183"/>
+      <c r="J2" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="159"/>
-      <c r="L2" s="124" t="s">
+      <c r="K2" s="149"/>
+      <c r="L2" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="128" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="129"/>
-      <c r="P2" s="97" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="128" t="s">
+      <c r="Q2" s="175"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="129"/>
-      <c r="U2" s="82" t="s">
+      <c r="T2" s="124"/>
+      <c r="U2" s="101" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6074,7 +7035,7 @@
       <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
@@ -6120,401 +7081,401 @@
       <c r="T3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="121"/>
+      <c r="U3" s="177"/>
     </row>
     <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
-      <c r="B4" s="108">
+      <c r="B4" s="150">
         <v>1</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="129">
         <v>2</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="152">
         <v>3</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="130"/>
-      <c r="I4" s="116" t="s">
+      <c r="H4" s="167"/>
+      <c r="I4" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="142" t="s">
+      <c r="K4" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="108">
+      <c r="L4" s="150">
         <v>25070</v>
       </c>
-      <c r="M4" s="125" t="s">
+      <c r="M4" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="112" t="s">
+      <c r="N4" s="167"/>
+      <c r="O4" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="P4" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="164" t="s">
+      <c r="S4" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="126" t="s">
+      <c r="T4" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="106" t="s">
+      <c r="U4" s="146" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="107"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="160"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
-      <c r="B6" s="138">
+      <c r="B6" s="156">
         <v>1</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="135">
         <v>2</v>
       </c>
-      <c r="D6" s="134">
+      <c r="D6" s="158">
         <v>3</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="134" t="s">
+      <c r="G6" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="144"/>
-      <c r="I6" s="140" t="s">
+      <c r="H6" s="119"/>
+      <c r="I6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="136" t="s">
+      <c r="J6" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="138" t="s">
+      <c r="L6" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="134">
+      <c r="M6" s="158">
         <v>25070</v>
       </c>
-      <c r="N6" s="144"/>
-      <c r="O6" s="140" t="s">
+      <c r="N6" s="119"/>
+      <c r="O6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="138" t="s">
+      <c r="P6" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="160" t="s">
+      <c r="R6" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="166" t="s">
+      <c r="S6" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="152" t="s">
+      <c r="T6" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="146" t="s">
+      <c r="U6" s="154" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="147"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="136"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="155"/>
     </row>
     <row r="8" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="106"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="146"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="107"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="160"/>
     </row>
     <row r="10" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="146"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="154"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="147"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="157"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="155"/>
     </row>
     <row r="12" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="106"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="146"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="163"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="107"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="160"/>
     </row>
     <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="140"/>
-      <c r="U14" s="146"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="154"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="147"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="157"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="155"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="106"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="146"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="163"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="157"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="147"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -6547,38 +7508,100 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J16:J17"/>
@@ -6603,100 +7626,38 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T4:T5" r:id="rId1" display="tot_990106.png"/>
@@ -6734,41 +7695,41 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="118" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="120"/>
-      <c r="M2" s="104" t="s">
+      <c r="L2" s="173"/>
+      <c r="M2" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="204" t="s">
+      <c r="O2" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="103" t="s">
+      <c r="Q2" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="128" t="s">
+      <c r="R2" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="129"/>
-      <c r="T2" s="203" t="s">
+      <c r="S2" s="124"/>
+      <c r="T2" s="185" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6806,359 +7767,359 @@
       <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="103"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="184"/>
       <c r="R3" s="24" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="203"/>
+      <c r="T3" s="185"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="201">
+      <c r="B4" s="186">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>-9.9261059795819158</v>
       </c>
-      <c r="C4" s="195">
+      <c r="C4" s="187">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="202">
+      <c r="D4" s="188">
         <v>0</v>
       </c>
-      <c r="E4" s="201">
+      <c r="E4" s="186">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>4.124939231891104</v>
       </c>
-      <c r="F4" s="195">
+      <c r="F4" s="187">
         <f>(G4/P4)-1</f>
         <v>0.41556469781565286</v>
       </c>
-      <c r="G4" s="202">
+      <c r="G4" s="188">
         <v>28903</v>
       </c>
-      <c r="H4" s="201">
+      <c r="H4" s="186">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>3.068546426835197</v>
       </c>
-      <c r="I4" s="195">
+      <c r="I4" s="187">
         <f>(J4/P4)-1</f>
         <v>0.30913899500440789</v>
       </c>
-      <c r="J4" s="202">
+      <c r="J4" s="188">
         <v>26730</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="195">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0.10074444117935155</v>
       </c>
-      <c r="L4" s="193">
+      <c r="L4" s="196">
         <v>18361</v>
       </c>
-      <c r="M4" s="194">
+      <c r="M4" s="197">
         <f>P4*Q4</f>
         <v>69543708</v>
       </c>
-      <c r="N4" s="195">
+      <c r="N4" s="187">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
         <v>1.1120860317460318E-2</v>
       </c>
-      <c r="O4" s="200">
+      <c r="O4" s="193">
         <v>630000000</v>
       </c>
-      <c r="P4" s="200">
+      <c r="P4" s="193">
         <v>20418</v>
       </c>
-      <c r="Q4" s="196">
+      <c r="Q4" s="194">
         <v>3406</v>
       </c>
-      <c r="R4" s="164" t="s">
+      <c r="R4" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="116" t="s">
+      <c r="S4" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="199" t="s">
+      <c r="T4" s="192" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="201"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="202"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="196"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="199"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="192"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="201"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="199"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="192"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="201"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="199"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="192"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="178"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="168"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="206"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="179"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="169"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="207"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="180"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="190"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="188"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="218"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="216"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="181"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="189"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
+      <c r="P11" s="211"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="219"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="217"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="178"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="168"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="206"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="179"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="169"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="205"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="205"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="207"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="180"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="190"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="188"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="208"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="208"/>
+      <c r="N14" s="210"/>
+      <c r="O14" s="210"/>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="220"/>
+      <c r="T14" s="216"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="181"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="189"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="211"/>
+      <c r="O15" s="211"/>
+      <c r="P15" s="211"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="219"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="217"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="178"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="174"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="168"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="214"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="206"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="179"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="171"/>
-      <c r="O17" s="171"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="169"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="205"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="203"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="205"/>
+      <c r="R17" s="215"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="207"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="S20" s="31"/>
@@ -7170,6 +8131,124 @@
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
@@ -7194,124 +8273,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990106.png"/>
@@ -7344,158 +8305,186 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="212" t="s">
+      <c r="F2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="203" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="185" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="100"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="104"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="189"/>
       <c r="H3" s="29" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="203"/>
+      <c r="J3" s="185"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="209">
+      <c r="B4" s="232">
         <f>D4-(F4*G4)</f>
         <v>4378033</v>
       </c>
-      <c r="C4" s="210">
+      <c r="C4" s="236">
         <f>E4/F4-1</f>
         <v>0.28176119110588704</v>
       </c>
-      <c r="D4" s="209">
+      <c r="D4" s="232">
         <f>E4*G4</f>
         <v>19916131</v>
       </c>
-      <c r="E4" s="209">
+      <c r="E4" s="232">
         <v>26171</v>
       </c>
-      <c r="F4" s="214">
+      <c r="F4" s="225">
         <v>20418</v>
       </c>
-      <c r="G4" s="211">
+      <c r="G4" s="224">
         <v>761</v>
       </c>
-      <c r="H4" s="205" t="s">
+      <c r="H4" s="230" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="218" t="s">
+      <c r="I4" s="229" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="211" t="s">
+      <c r="J4" s="224" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="209"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="218"/>
-      <c r="J5" s="211"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="224"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="209"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="211"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="224"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="209"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="211"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="224"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="207"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="211"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="224"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="211"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="211"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="224"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="211"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="233"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="224"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="211"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="234"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -7512,34 +8501,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4:H5" r:id="rId1" display="tech_990112.png"/>

--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="بازدهی ماهانه" sheetId="10" r:id="rId3"/>
     <sheet name="واریز و برداشت" sheetId="9" r:id="rId4"/>
     <sheet name="مدیریت سرمایه" sheetId="8" r:id="rId5"/>
+    <sheet name="واچ لیست" sheetId="11" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -37,13 +37,16 @@
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
   <si>
     <t>تاریخ</t>
   </si>
@@ -427,13 +430,43 @@
   </si>
   <si>
     <t>مجموع سود</t>
+  </si>
+  <si>
+    <t>98/01/17</t>
+  </si>
+  <si>
+    <t>دتماد</t>
+  </si>
+  <si>
+    <t>ذوب</t>
+  </si>
+  <si>
+    <t>99/01/20</t>
+  </si>
+  <si>
+    <t>..\ذوب\ذوب.xlsx</t>
+  </si>
+  <si>
+    <t>98/01/20</t>
+  </si>
+  <si>
+    <t>..\صبا\صبا.xlsx</t>
+  </si>
+  <si>
+    <t>صبا</t>
+  </si>
+  <si>
+    <t>98/01/25</t>
+  </si>
+  <si>
+    <t>98/01/26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +502,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="IRANSans"/>
     </font>
   </fonts>
   <fills count="25">
@@ -617,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -902,8 +941,49 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -919,58 +999,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1063,17 +1091,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1200,28 +1217,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1321,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,13 +1354,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,10 +1369,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,16 +1447,10 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,7 +1465,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1488,351 +1477,319 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="17" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,16 +1802,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2896,19 +2853,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>14900</v>
+            <v>205000</v>
           </cell>
           <cell r="J4">
-            <v>13080</v>
+            <v>51000</v>
           </cell>
           <cell r="M4">
             <v>9700</v>
           </cell>
           <cell r="Q4">
-            <v>11317</v>
+            <v>11855.212407512807</v>
           </cell>
           <cell r="R4">
-            <v>6527</v>
+            <v>8785</v>
           </cell>
         </row>
       </sheetData>
@@ -2939,22 +2896,22 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>8381</v>
+            <v>85410</v>
           </cell>
           <cell r="M4">
-            <v>5897</v>
+            <v>48109</v>
           </cell>
           <cell r="Q4">
-            <v>7489</v>
+            <v>52317.840155945421</v>
           </cell>
           <cell r="R4">
-            <v>1348</v>
+            <v>513</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2976,25 +2933,25 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>19485</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>17073</v>
+            <v>8381</v>
           </cell>
           <cell r="M4">
-            <v>13992</v>
+            <v>5897</v>
           </cell>
           <cell r="Q4">
-            <v>15010</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>672</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3016,25 +2973,25 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>52000</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>47242</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>36278</v>
+            <v>13992</v>
           </cell>
           <cell r="Q4">
-            <v>41268</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>244</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3062,13 +3019,13 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>4443</v>
+            <v>36278</v>
           </cell>
           <cell r="Q4">
-            <v>4443</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>1337</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3099,22 +3056,22 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>17664</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>10232</v>
+            <v>4443</v>
           </cell>
           <cell r="Q4">
-            <v>11764</v>
+            <v>4443</v>
           </cell>
           <cell r="R4">
-            <v>429</v>
+            <v>1337</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3139,22 +3096,22 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>6228</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>4722</v>
+            <v>10232</v>
           </cell>
           <cell r="Q4">
-            <v>5833</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>531</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3179,22 +3136,22 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>30268</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>23065</v>
+            <v>4722</v>
           </cell>
           <cell r="Q4">
-            <v>28698</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>107</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3222,13 +3179,13 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>13310</v>
+            <v>23065</v>
           </cell>
           <cell r="Q4">
-            <v>13310</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>201</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3265,10 +3222,10 @@
             <v>5707</v>
           </cell>
           <cell r="Q4">
-            <v>5707</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>369</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3302,13 +3259,13 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>3450</v>
+            <v>13310</v>
           </cell>
           <cell r="Q4">
-            <v>3450</v>
+            <v>13310</v>
           </cell>
           <cell r="R4">
-            <v>420</v>
+            <v>201</v>
           </cell>
         </row>
       </sheetData>
@@ -3352,9 +3309,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3385,10 +3342,10 @@
             <v>17246</v>
           </cell>
           <cell r="Q4">
-            <v>17246</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>67</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3425,10 +3382,10 @@
             <v>29923</v>
           </cell>
           <cell r="Q4">
-            <v>29923</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>38</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -3462,13 +3419,13 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>23838</v>
+            <v>3450</v>
           </cell>
           <cell r="Q4">
-            <v>23838</v>
+            <v>3450</v>
           </cell>
           <cell r="R4">
-            <v>37</v>
+            <v>420</v>
           </cell>
         </row>
       </sheetData>
@@ -3502,6 +3459,46 @@
             <v>0</v>
           </cell>
           <cell r="M4">
+            <v>23838</v>
+          </cell>
+          <cell r="Q4">
+            <v>23838</v>
+          </cell>
+          <cell r="R4">
+            <v>37</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
             <v>20185</v>
           </cell>
           <cell r="Q4">
@@ -3509,6 +3506,46 @@
           </cell>
           <cell r="R4">
             <v>21</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>12172</v>
+          </cell>
+          <cell r="Q4">
+            <v>12172</v>
+          </cell>
+          <cell r="R4">
+            <v>811</v>
           </cell>
         </row>
       </sheetData>
@@ -3539,16 +3576,16 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>45154</v>
+            <v>4584</v>
           </cell>
           <cell r="M4">
-            <v>28676</v>
+            <v>2461</v>
           </cell>
           <cell r="Q4">
-            <v>38204</v>
+            <v>3451</v>
           </cell>
           <cell r="R4">
-            <v>1584</v>
+            <v>18967</v>
           </cell>
         </row>
       </sheetData>
@@ -3576,19 +3613,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>28706</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>23129</v>
+            <v>45154</v>
           </cell>
           <cell r="M4">
-            <v>18361</v>
+            <v>28676</v>
           </cell>
           <cell r="Q4">
-            <v>20418</v>
+            <v>38204</v>
           </cell>
           <cell r="R4">
-            <v>2645</v>
+            <v>1584</v>
           </cell>
         </row>
       </sheetData>
@@ -3616,19 +3653,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>11971</v>
+            <v>28706</v>
           </cell>
           <cell r="J4">
-            <v>9730</v>
+            <v>23129</v>
           </cell>
           <cell r="M4">
-            <v>6159</v>
+            <v>24317</v>
           </cell>
           <cell r="Q4">
-            <v>7254</v>
+            <v>20418</v>
           </cell>
           <cell r="R4">
-            <v>5788</v>
+            <v>2645</v>
           </cell>
         </row>
       </sheetData>
@@ -3653,22 +3690,22 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="D4">
-            <v>7537</v>
+            <v>0</v>
           </cell>
           <cell r="G4">
-            <v>7166</v>
+            <v>11971</v>
           </cell>
           <cell r="J4">
-            <v>6171</v>
+            <v>9730</v>
           </cell>
           <cell r="M4">
-            <v>5128</v>
+            <v>6159</v>
           </cell>
           <cell r="Q4">
-            <v>5679</v>
+            <v>7672.9017128508658</v>
           </cell>
           <cell r="R4">
-            <v>7110</v>
+            <v>11151</v>
           </cell>
         </row>
       </sheetData>
@@ -3699,22 +3736,22 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>11642</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>8425</v>
+            <v>5128</v>
           </cell>
           <cell r="Q4">
-            <v>9614</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>2926</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3736,19 +3773,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>28706</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>23129</v>
+            <v>11642</v>
           </cell>
           <cell r="M4">
-            <v>17800</v>
+            <v>8425</v>
           </cell>
           <cell r="Q4">
-            <v>18674</v>
+            <v>9614</v>
           </cell>
           <cell r="R4">
-            <v>1273</v>
+            <v>2926</v>
           </cell>
         </row>
       </sheetData>
@@ -3776,19 +3813,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>28706</v>
           </cell>
           <cell r="J4">
-            <v>85410</v>
+            <v>23129</v>
           </cell>
           <cell r="M4">
-            <v>38246</v>
+            <v>21213</v>
           </cell>
           <cell r="Q4">
-            <v>45968</v>
+            <v>18674</v>
           </cell>
           <cell r="R4">
-            <v>365</v>
+            <v>1273</v>
           </cell>
         </row>
       </sheetData>
@@ -3802,7 +3839,26 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:T29" totalsRowShown="0" tableBorderDxfId="31">
-  <autoFilter ref="B4:T29"/>
+  <autoFilter ref="B4:T29">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="0"/>
+        <filter val="11151"/>
+        <filter val="1273"/>
+        <filter val="1337"/>
+        <filter val="1584"/>
+        <filter val="18967"/>
+        <filter val="201"/>
+        <filter val="21"/>
+        <filter val="2645"/>
+        <filter val="2926"/>
+        <filter val="37"/>
+        <filter val="420"/>
+        <filter val="4894"/>
+        <filter val="811"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B5:T29">
     <sortCondition descending="1" ref="N4:N29"/>
   </sortState>
@@ -4140,12 +4196,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="8" width="9.77734375" style="11" customWidth="1"/>
@@ -4157,52 +4213,52 @@
     <col min="15" max="15" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="53" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="51" customWidth="1"/>
     <col min="19" max="19" width="16.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+    <row r="1" spans="2:20" ht="15" thickBot="1"/>
+    <row r="2" spans="2:20" ht="18.600000000000001">
+      <c r="B2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="115" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="123" t="s">
+      <c r="L2" s="104"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="127" t="s">
+      <c r="P2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="121" t="s">
+      <c r="Q2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="113" t="s">
+      <c r="R2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="111" t="s">
+      <c r="S2" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="19.2" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -4239,80 +4295,80 @@
       <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="124"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="114"/>
-    </row>
-    <row r="4" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="102"/>
+    </row>
+    <row r="4" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="54" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="58">
-        <f t="shared" ref="B5:B27" si="0">IF(L5&gt;0, C5/L5,"RF")</f>
-        <v>-6.9987631416202873</v>
+    <row r="5" spans="2:20" ht="19.2" hidden="1" thickBot="1">
+      <c r="B5" s="55">
+        <f t="shared" ref="B5:B28" si="0">IF(L5&gt;0, C5/L5,"RF")</f>
+        <v>-5.5007164798174815</v>
       </c>
       <c r="C5" s="16">
-        <f t="shared" ref="C5:C27" si="1">(D5/P5)-1</f>
+        <f t="shared" ref="C5:C28" si="1">(D5/P5)-1</f>
         <v>-1</v>
       </c>
       <c r="D5" s="17">
@@ -4320,69 +4376,69 @@
         <v>0</v>
       </c>
       <c r="E5" s="15">
-        <f t="shared" ref="E5:E27" si="2">IF(L5&gt;0, F5/L5,"RF")</f>
-        <v>2.2158317872603588</v>
+        <f t="shared" ref="E5:E28" si="2">IF(L5&gt;0, F5/L5,"RF")</f>
+        <v>89.61751840292311</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" ref="F5:F27" si="3">(G5/P5)-1</f>
-        <v>0.31660334010780233</v>
+        <f t="shared" ref="F5:F28" si="3">(G5/P5)-1</f>
+        <v>16.291971915247064</v>
       </c>
       <c r="G5" s="17">
         <f>'[1]دارایی فعلی'!$G$4</f>
-        <v>14900</v>
+        <v>205000</v>
       </c>
       <c r="H5" s="15">
-        <f t="shared" ref="H5:H27" si="4">IF(L5&gt;0, I5/L5,"RF")</f>
-        <v>1.0902906617192336</v>
+        <f t="shared" ref="H5:H28" si="4">IF(L5&gt;0, I5/L5,"RF")</f>
+        <v>18.162844393449689</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" ref="I5:I27" si="5">(J5/P5)-1</f>
-        <v>0.155783334806044</v>
+        <f t="shared" ref="I5:I28" si="5">(J5/P5)-1</f>
+        <v>3.3019052081834159</v>
       </c>
       <c r="J5" s="17">
         <f>'[1]دارایی فعلی'!$J$4</f>
-        <v>13080</v>
+        <v>51000</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" ref="K5:K27" si="6">IF(L5&gt;0, N5-M5*Q5, 0)</f>
-        <v>10554159</v>
+        <f t="shared" ref="K5:K28" si="6">IF(L5&gt;0, N5-M5*Q5, 0)</f>
+        <v>18933541</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" ref="L5:L27" si="7">IF(1-(M5/P5)&gt;0, 1-(M5/P5), 0)</f>
-        <v>0.142882389325793</v>
+        <f t="shared" ref="L5:L28" si="7">IF(1-(M5/P5)&gt;0, 1-(M5/P5), 0)</f>
+        <v>0.18179449962001692</v>
       </c>
       <c r="M5" s="20">
         <f>'[1]دارایی فعلی'!$M$4</f>
         <v>9700</v>
       </c>
       <c r="N5" s="21">
-        <f t="shared" ref="N5:N27" si="8">Q5*P5</f>
-        <v>73866059</v>
+        <f t="shared" ref="N5:N28" si="8">Q5*P5</f>
+        <v>104148041</v>
       </c>
       <c r="O5" s="16">
         <f>IF( (P5-M5)*Q5/سرمایه!F4&gt;0, (P5-M5)*Q5/سرمایه!F4, "Risk free")</f>
-        <v>1.6942030878163119E-2</v>
+        <v>3.2881530658847517E-2</v>
       </c>
       <c r="P5" s="22">
         <f>'[1]دارایی فعلی'!$Q$4</f>
-        <v>11317</v>
+        <v>11855.212407512807</v>
       </c>
       <c r="Q5" s="23">
         <f>'[1]دارایی فعلی'!$R$4</f>
-        <v>6527</v>
-      </c>
-      <c r="R5" s="54" t="s">
+        <v>8785</v>
+      </c>
+      <c r="R5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58">
+    <row r="6" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B6" s="55">
         <f t="shared" si="0"/>
         <v>-9.1052989130434803</v>
       </c>
@@ -4436,7 +4492,7 @@
       </c>
       <c r="O6" s="16">
         <f>IF( (P6-M6)*Q6/سرمایه!F4&gt;0, (P6-M6)*Q6/سرمایه!F4, "Risk free")</f>
-        <v>1.1564147205030644E-2</v>
+        <v>1.2510998056695066E-2</v>
       </c>
       <c r="P6" s="22">
         <f>'[2]دارایی فعلی'!$Q$4</f>
@@ -4446,20 +4502,20 @@
         <f>'[2]دارایی فعلی'!$R$4</f>
         <v>4894</v>
       </c>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="58">
+    <row r="7" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B7" s="55">
         <f t="shared" si="0"/>
-        <v>-4.0096557514693538</v>
+        <v>-3.485858585858586</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="1"/>
@@ -4471,7 +4527,7 @@
       </c>
       <c r="E7" s="15">
         <f t="shared" si="2"/>
-        <v>-4.0096557514693538</v>
+        <v>-3.485858585858586</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" si="3"/>
@@ -4483,58 +4539,58 @@
       </c>
       <c r="H7" s="15">
         <f t="shared" si="4"/>
-        <v>0.72942905121746449</v>
+        <v>1.1444444444444446</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="5"/>
-        <v>0.18191812375667471</v>
+        <v>0.32831063459866705</v>
       </c>
       <c r="J7" s="17">
         <f>'[3]دارایی فعلی'!$J$4</f>
-        <v>45154</v>
+        <v>4584</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="6"/>
-        <v>15092352</v>
+        <v>18777330</v>
       </c>
       <c r="L7" s="19">
         <f t="shared" si="7"/>
-        <v>0.24939796879907861</v>
+        <v>0.28687337003767022</v>
       </c>
       <c r="M7" s="20">
         <f>'[3]دارایی فعلی'!$M$4</f>
-        <v>28676</v>
+        <v>2461</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="8"/>
-        <v>60515136</v>
+        <v>65455117</v>
       </c>
       <c r="O7" s="16">
         <f>IF( (P7-M7)*Q7/سرمایه!F4&gt;0, (P7-M7)*Q7/سرمایه!F4, "Risk free")</f>
-        <v>2.4226951063377661E-2</v>
+        <v>3.2610241902784956E-2</v>
       </c>
       <c r="P7" s="22">
         <f>'[3]دارایی فعلی'!$Q$4</f>
-        <v>38204</v>
+        <v>3451</v>
       </c>
       <c r="Q7" s="23">
         <f>'[3]دارایی فعلی'!$R$4</f>
-        <v>1584</v>
-      </c>
-      <c r="R7" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="58">
+        <v>18967</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" s="53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B8" s="55">
         <f t="shared" si="0"/>
-        <v>-9.9261059795819158</v>
+        <v>-4.0096557514693538</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" si="1"/>
@@ -4546,70 +4602,70 @@
       </c>
       <c r="E8" s="15">
         <f t="shared" si="2"/>
-        <v>4.0291686922702974</v>
+        <v>-4.0096557514693538</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="3"/>
-        <v>0.40591634832010981</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="17">
         <f>'[4]دارایی فعلی'!$G$4</f>
-        <v>28706</v>
+        <v>0</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="4"/>
-        <v>1.3179387457462326</v>
+        <v>0.72942905121746449</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="5"/>
-        <v>0.13277500244881968</v>
+        <v>0.18191812375667471</v>
       </c>
       <c r="J8" s="17">
         <f>'[4]دارایی فعلی'!$J$4</f>
-        <v>23129</v>
+        <v>45154</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="6"/>
-        <v>5440765</v>
+        <v>15092352</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="7"/>
-        <v>0.10074444117935155</v>
+        <v>0.24939796879907861</v>
       </c>
       <c r="M8" s="20">
         <f>'[4]دارایی فعلی'!$M$4</f>
-        <v>18361</v>
+        <v>28676</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="8"/>
-        <v>54005610</v>
+        <v>60515136</v>
       </c>
       <c r="O8" s="16">
         <f>IF( (P8-M8)*Q8/سرمایه!F4&gt;0, (P8-M8)*Q8/سرمایه!F4, "Risk free")</f>
-        <v>8.7337710783804909E-3</v>
+        <v>2.6210608728822488E-2</v>
       </c>
       <c r="P8" s="22">
         <f>'[4]دارایی فعلی'!$Q$4</f>
-        <v>20418</v>
+        <v>38204</v>
       </c>
       <c r="Q8" s="23">
         <f>'[4]دارایی فعلی'!$R$4</f>
-        <v>2645</v>
-      </c>
-      <c r="R8" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" s="55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="58">
+    <row r="9" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B9" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-6.6246575342465741</v>
+        <v>RF</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" si="1"/>
@@ -4619,147 +4675,147 @@
         <f>'[5]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4.3077625570776243</v>
+        <v>RF</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="3"/>
-        <v>0.65026192445547282</v>
+        <v>0.40591634832010981</v>
       </c>
       <c r="G9" s="17">
         <f>'[5]دارایی فعلی'!$G$4</f>
-        <v>11971</v>
-      </c>
-      <c r="H9" s="15">
+        <v>28706</v>
+      </c>
+      <c r="H9" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>2.261187214611871</v>
+        <v>RF</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="5"/>
-        <v>0.34132892197408315</v>
+        <v>0.13277500244881968</v>
       </c>
       <c r="J9" s="17">
         <f>'[5]دارایی فعلی'!$J$4</f>
-        <v>9730</v>
+        <v>23129</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="6"/>
-        <v>6337860</v>
+        <v>0</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="7"/>
-        <v>0.15095119933829615</v>
+        <v>0</v>
       </c>
       <c r="M9" s="20">
         <f>'[5]دارایی فعلی'!$M$4</f>
-        <v>6159</v>
+        <v>24317</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="8"/>
-        <v>41986152</v>
-      </c>
-      <c r="O9" s="16">
+        <v>54005610</v>
+      </c>
+      <c r="O9" s="16" t="str">
         <f>IF( (P9-M9)*Q9/سرمایه!F4&gt;0, (P9-M9)*Q9/سرمایه!F4, "Risk free")</f>
-        <v>1.0173830034347114E-2</v>
+        <v>Risk free</v>
       </c>
       <c r="P9" s="22">
         <f>'[5]دارایی فعلی'!$Q$4</f>
-        <v>7254</v>
+        <v>20418</v>
       </c>
       <c r="Q9" s="23">
         <f>'[5]دارایی فعلی'!$R$4</f>
-        <v>5788</v>
-      </c>
-      <c r="R9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="T9" s="55" t="s">
+        <v>2645</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="58">
+    <row r="10" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B10" s="55">
         <f t="shared" si="0"/>
-        <v>3.3720508166969148</v>
+        <v>-5.0682958132082652</v>
       </c>
       <c r="C10" s="16">
         <f t="shared" si="1"/>
-        <v>0.32717027645712271</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="17">
         <f>'[6]دارایی فعلی'!$D$4</f>
-        <v>7537</v>
+        <v>0</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="2"/>
-        <v>2.6987295825771334</v>
+        <v>2.8390867456350768</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" si="3"/>
-        <v>0.26184187356929045</v>
+        <v>0.56016595129200164</v>
       </c>
       <c r="G10" s="17">
         <f>'[6]دارایی فعلی'!$G$4</f>
-        <v>7166</v>
+        <v>11971</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="4"/>
-        <v>0.89292196007259439</v>
+        <v>1.3588057069275394</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="5"/>
-        <v>8.6634970945588918E-2</v>
+        <v>0.268099131740972</v>
       </c>
       <c r="J10" s="17">
         <f>'[6]دارایی فعلی'!$J$4</f>
-        <v>6171</v>
+        <v>9730</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="6"/>
-        <v>3917610</v>
+        <v>16881518</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="7"/>
-        <v>9.7024123965486875E-2</v>
+        <v>0.19730497919911139</v>
       </c>
       <c r="M10" s="20">
         <f>'[6]دارایی فعلی'!$M$4</f>
-        <v>5128</v>
+        <v>6159</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="8"/>
-        <v>40377690</v>
+        <v>85560527</v>
       </c>
       <c r="O10" s="16">
         <f>IF( (P10-M10)*Q10/سرمایه!F4&gt;0, (P10-M10)*Q10/سرمایه!F4, "Risk free")</f>
-        <v>6.2887312564270277E-3</v>
+        <v>2.9317820247405708E-2</v>
       </c>
       <c r="P10" s="22">
         <f>'[6]دارایی فعلی'!$Q$4</f>
-        <v>5679</v>
+        <v>7672.9017128508658</v>
       </c>
       <c r="Q10" s="23">
         <f>'[6]دارایی فعلی'!$R$4</f>
-        <v>7110</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" s="55" t="s">
+        <v>11151</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="58">
+    <row r="11" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B11" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-8.0857863751051298</v>
+        <v>RF</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" si="1"/>
@@ -4769,9 +4825,9 @@
         <f>'[7]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-8.0857863751051298</v>
+        <v>RF</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" si="3"/>
@@ -4781,60 +4837,60 @@
         <f>'[7]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>1.705634987384357</v>
+        <v>RF</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="5"/>
-        <v>0.21094237570210117</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="17">
         <f>'[7]دارایی فعلی'!$J$4</f>
-        <v>11642</v>
+        <v>0</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="6"/>
-        <v>3479014</v>
+        <v>0</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="7"/>
-        <v>0.12367380902850011</v>
+        <v>0</v>
       </c>
       <c r="M11" s="20">
         <f>'[7]دارایی فعلی'!$M$4</f>
-        <v>8425</v>
+        <v>5128</v>
       </c>
       <c r="N11" s="21">
         <f t="shared" si="8"/>
-        <v>28130564</v>
-      </c>
-      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="str">
         <f>IF( (P11-M11)*Q11/سرمایه!F4&gt;0, (P11-M11)*Q11/سرمایه!F4, "Risk free")</f>
-        <v>5.5846763928382908E-3</v>
+        <v>Risk free</v>
       </c>
       <c r="P11" s="22">
         <f>'[7]دارایی فعلی'!$Q$4</f>
-        <v>9614</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="23">
         <f>'[7]دارایی فعلی'!$R$4</f>
-        <v>2926</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="T11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="T11" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="58">
+    <row r="12" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B12" s="55">
         <f t="shared" si="0"/>
-        <v>-21.366132723112113</v>
+        <v>-8.0857863751051298</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" si="1"/>
@@ -4846,70 +4902,70 @@
       </c>
       <c r="E12" s="15">
         <f t="shared" si="2"/>
-        <v>11.478260869565208</v>
+        <v>-8.0857863751051298</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="3"/>
-        <v>0.53721752168790826</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="17">
         <f>'[8]دارایی فعلی'!$G$4</f>
-        <v>28706</v>
+        <v>0</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="4"/>
-        <v>5.0972540045766559</v>
+        <v>1.705634987384357</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="5"/>
-        <v>0.23856699153903826</v>
+        <v>0.21094237570210117</v>
       </c>
       <c r="J12" s="17">
         <f>'[8]دارایی فعلی'!$J$4</f>
-        <v>23129</v>
+        <v>11642</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="6"/>
-        <v>1112602</v>
+        <v>3479014</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="7"/>
-        <v>4.680304166220417E-2</v>
+        <v>0.12367380902850011</v>
       </c>
       <c r="M12" s="20">
         <f>'[8]دارایی فعلی'!$M$4</f>
-        <v>17800</v>
+        <v>8425</v>
       </c>
       <c r="N12" s="21">
         <f t="shared" si="8"/>
-        <v>23772002</v>
+        <v>28130564</v>
       </c>
       <c r="O12" s="16">
         <f>IF( (P12-M12)*Q12/سرمایه!F4&gt;0, (P12-M12)*Q12/سرمایه!F4, "Risk free")</f>
-        <v>1.7860008968129098E-3</v>
+        <v>6.0419393025086905E-3</v>
       </c>
       <c r="P12" s="22">
         <f>'[8]دارایی فعلی'!$Q$4</f>
-        <v>18674</v>
+        <v>9614</v>
       </c>
       <c r="Q12" s="23">
         <f>'[8]دارایی فعلی'!$R$4</f>
-        <v>1273</v>
-      </c>
-      <c r="R12" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" s="55" t="s">
+        <v>2926</v>
+      </c>
+      <c r="R12" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58">
+    <row r="13" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B13" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-5.9528619528619542</v>
+        <v>RF</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="1"/>
@@ -4919,72 +4975,72 @@
         <f>'[9]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-5.9528619528619542</v>
+        <v>RF</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.53721752168790826</v>
       </c>
       <c r="G13" s="17">
         <f>'[9]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
+        <v>28706</v>
+      </c>
+      <c r="H13" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>5.107744107744109</v>
+        <v>RF</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="5"/>
-        <v>0.85803167420814486</v>
+        <v>0.23856699153903826</v>
       </c>
       <c r="J13" s="17">
         <f>'[9]دارایی فعلی'!$J$4</f>
-        <v>85410</v>
+        <v>23129</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="6"/>
-        <v>2818530</v>
+        <v>0</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="7"/>
-        <v>0.16798642533936647</v>
+        <v>0</v>
       </c>
       <c r="M13" s="20">
         <f>'[9]دارایی فعلی'!$M$4</f>
-        <v>38246</v>
+        <v>21213</v>
       </c>
       <c r="N13" s="21">
         <f t="shared" si="8"/>
-        <v>16778320</v>
-      </c>
-      <c r="O13" s="16">
+        <v>23772002</v>
+      </c>
+      <c r="O13" s="16" t="str">
         <f>IF( (P13-M13)*Q13/سرمایه!F4&gt;0, (P13-M13)*Q13/سرمایه!F4, "Risk free")</f>
-        <v>4.5244365080182227E-3</v>
+        <v>Risk free</v>
       </c>
       <c r="P13" s="22">
         <f>'[9]دارایی فعلی'!$Q$4</f>
-        <v>45968</v>
+        <v>18674</v>
       </c>
       <c r="Q13" s="23">
         <f>'[9]دارایی فعلی'!$R$4</f>
-        <v>365</v>
-      </c>
-      <c r="R13" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="T13" s="55" t="s">
+        <v>1273</v>
+      </c>
+      <c r="R13" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="58">
+    <row r="14" spans="2:20" ht="19.2" hidden="1" thickBot="1">
+      <c r="B14" s="55">
         <f t="shared" si="0"/>
-        <v>-4.7041457286432165</v>
+        <v>-12.430464977873081</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" si="1"/>
@@ -4996,7 +5052,7 @@
       </c>
       <c r="E14" s="15">
         <f t="shared" si="2"/>
-        <v>-4.7041457286432165</v>
+        <v>-12.430464977873081</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" si="3"/>
@@ -5008,58 +5064,58 @@
       </c>
       <c r="H14" s="15">
         <f t="shared" si="4"/>
-        <v>0.56030150753768826</v>
+        <v>7.8625366176732792</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="5"/>
-        <v>0.11910802510348506</v>
+        <v>0.63252152125194283</v>
       </c>
       <c r="J14" s="17">
         <f>'[10]دارایی فعلی'!$J$4</f>
-        <v>8381</v>
+        <v>85410</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="6"/>
-        <v>2146016</v>
+        <v>2159135</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="7"/>
-        <v>0.2125784483909734</v>
+        <v>8.0447513570896634E-2</v>
       </c>
       <c r="M14" s="20">
         <f>'[10]دارایی فعلی'!$M$4</f>
-        <v>5897</v>
+        <v>48109</v>
       </c>
       <c r="N14" s="21">
         <f t="shared" si="8"/>
-        <v>10095172</v>
+        <v>26839052</v>
       </c>
       <c r="O14" s="16">
         <f>IF( (P14-M14)*Q14/سرمایه!F4&gt;0, (P14-M14)*Q14/سرمایه!F4, "Risk free")</f>
-        <v>3.4448855031492423E-3</v>
+        <v>3.7497298418236059E-3</v>
       </c>
       <c r="P14" s="22">
         <f>'[10]دارایی فعلی'!$Q$4</f>
-        <v>7489</v>
+        <v>52317.840155945421</v>
       </c>
       <c r="Q14" s="23">
         <f>'[10]دارایی فعلی'!$R$4</f>
-        <v>1348</v>
-      </c>
-      <c r="R14" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="R14" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="T14" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="58">
+    <row r="15" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B15" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-14.744597249508836</v>
+        <v>RF</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="1"/>
@@ -5069,72 +5125,72 @@
         <f>'[11]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>4.3958742632612964</v>
+        <v>RF</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" si="3"/>
-        <v>0.29813457694870094</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="17">
         <f>'[11]دارایی فعلی'!$G$4</f>
-        <v>19485</v>
-      </c>
-      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>2.0265225933202342</v>
+        <v>RF</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="5"/>
-        <v>0.13744170552964685</v>
+        <v>8380</v>
       </c>
       <c r="J15" s="17">
         <f>'[11]دارایی فعلی'!$J$4</f>
-        <v>17073</v>
+        <v>8381</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="6"/>
-        <v>684096</v>
+        <v>0</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="7"/>
-        <v>6.7821452365089963E-2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="20">
         <f>'[11]دارایی فعلی'!$M$4</f>
-        <v>13992</v>
+        <v>5897</v>
       </c>
       <c r="N15" s="21">
         <f t="shared" si="8"/>
-        <v>10086720</v>
-      </c>
-      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16" t="str">
         <f>IF( (P15-M15)*Q15/سرمایه!F4&gt;0, (P15-M15)*Q15/سرمایه!F4, "Risk free")</f>
-        <v>1.0981429743125793E-3</v>
+        <v>Risk free</v>
       </c>
       <c r="P15" s="22">
         <f>'[11]دارایی فعلی'!$Q$4</f>
-        <v>15010</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="23">
         <f>'[11]دارایی فعلی'!$R$4</f>
-        <v>672</v>
-      </c>
-      <c r="R15" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="58">
+    <row r="16" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B16" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-8.2701402805611224</v>
+        <v>RF</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="1"/>
@@ -5144,70 +5200,70 @@
         <f>'[12]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>2.1507014028056113</v>
+        <v>RF</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" si="3"/>
-        <v>0.26005621789279831</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="17">
         <f>'[12]دارایی فعلی'!$G$4</f>
-        <v>52000</v>
-      </c>
-      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>1.1971943887775558</v>
+        <v>RF</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="5"/>
-        <v>0.14476107395560733</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="17">
         <f>'[12]دارایی فعلی'!$J$4</f>
-        <v>47242</v>
+        <v>0</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="6"/>
-        <v>1217560</v>
+        <v>0</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="7"/>
-        <v>0.12091693321702046</v>
+        <v>0</v>
       </c>
       <c r="M16" s="20">
         <f>'[12]دارایی فعلی'!$M$4</f>
-        <v>36278</v>
+        <v>13992</v>
       </c>
       <c r="N16" s="21">
         <f t="shared" si="8"/>
-        <v>10069392</v>
-      </c>
-      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16" t="str">
         <f>IF( (P16-M16)*Q16/سرمایه!F4&gt;0, (P16-M16)*Q16/سرمایه!F4, "Risk free")</f>
-        <v>1.9544843995638389E-3</v>
+        <v>Risk free</v>
       </c>
       <c r="P16" s="22">
         <f>'[12]دارایی فعلی'!$Q$4</f>
-        <v>41268</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="23">
         <f>'[12]دارایی فعلی'!$R$4</f>
-        <v>244</v>
-      </c>
-      <c r="R16" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="58" t="str">
+    <row r="17" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B17" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5253,11 +5309,11 @@
       </c>
       <c r="M17" s="20">
         <f>'[13]دارایی فعلی'!$M$4</f>
-        <v>4443</v>
+        <v>36278</v>
       </c>
       <c r="N17" s="21">
         <f t="shared" si="8"/>
-        <v>5940291</v>
+        <v>0</v>
       </c>
       <c r="O17" s="16" t="str">
         <f>IF( (P17-M17)*Q17/سرمایه!F4&gt;0, (P17-M17)*Q17/سرمایه!F4, "Risk free")</f>
@@ -5265,26 +5321,26 @@
       </c>
       <c r="P17" s="22">
         <f>'[13]دارایی فعلی'!$Q$4</f>
-        <v>4443</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="23">
         <f>'[13]دارایی فعلی'!$R$4</f>
-        <v>1337</v>
-      </c>
-      <c r="R17" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="58">
+    <row r="18" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B18" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-7.6788511749347288</v>
+        <v>RF</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
@@ -5294,9 +5350,9 @@
         <f>'[14]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-7.6788511749347288</v>
+        <v>RF</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" si="3"/>
@@ -5306,60 +5362,60 @@
         <f>'[14]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>3.8511749347258499</v>
+        <v>RF</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="5"/>
-        <v>0.50153009180550834</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="17">
         <f>'[14]دارایی فعلی'!$J$4</f>
-        <v>17664</v>
+        <v>0</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="6"/>
-        <v>657228</v>
+        <v>0</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="7"/>
-        <v>0.13022781366882008</v>
+        <v>0</v>
       </c>
       <c r="M18" s="20">
         <f>'[14]دارایی فعلی'!$M$4</f>
-        <v>10232</v>
+        <v>4443</v>
       </c>
       <c r="N18" s="21">
         <f t="shared" si="8"/>
-        <v>5046756</v>
-      </c>
-      <c r="O18" s="16">
+        <v>5940291</v>
+      </c>
+      <c r="O18" s="16" t="str">
         <f>IF( (P18-M18)*Q18/سرمایه!F4&gt;0, (P18-M18)*Q18/سرمایه!F4, "Risk free")</f>
-        <v>1.0550132009564562E-3</v>
+        <v>Risk free</v>
       </c>
       <c r="P18" s="22">
         <f>'[14]دارایی فعلی'!$Q$4</f>
-        <v>11764</v>
+        <v>4443</v>
       </c>
       <c r="Q18" s="23">
         <f>'[14]دارایی فعلی'!$R$4</f>
-        <v>429</v>
-      </c>
-      <c r="R18" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="T18" s="55" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R18" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="T18" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="58">
+    <row r="19" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B19" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-5.250225022502252</v>
+        <v>RF</v>
       </c>
       <c r="C19" s="16">
         <f t="shared" si="1"/>
@@ -5369,9 +5425,9 @@
         <f>'[15]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-5.250225022502252</v>
+        <v>RF</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="3"/>
@@ -5381,60 +5437,60 @@
         <f>'[15]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>0.35553555355535599</v>
+        <v>RF</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="5"/>
-        <v>6.7718155323161389E-2</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="17">
         <f>'[15]دارایی فعلی'!$J$4</f>
-        <v>6228</v>
+        <v>0</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="6"/>
-        <v>589941</v>
+        <v>0</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="7"/>
-        <v>0.19046802674438534</v>
+        <v>0</v>
       </c>
       <c r="M19" s="20">
         <f>'[15]دارایی فعلی'!$M$4</f>
-        <v>4722</v>
+        <v>10232</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" si="8"/>
-        <v>3097323</v>
-      </c>
-      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="O19" s="16" t="str">
         <f>IF( (P19-M19)*Q19/سرمایه!F4&gt;0, (P19-M19)*Q19/سرمایه!F4, "Risk free")</f>
-        <v>9.47000953680386E-4</v>
+        <v>Risk free</v>
       </c>
       <c r="P19" s="22">
         <f>'[15]دارایی فعلی'!$Q$4</f>
-        <v>5833</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="23">
         <f>'[15]دارایی فعلی'!$R$4</f>
-        <v>531</v>
-      </c>
-      <c r="R19" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="T19" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="T19" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="58">
+    <row r="20" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B20" s="55" t="str">
         <f t="shared" si="0"/>
-        <v>-5.0946209834901461</v>
+        <v>RF</v>
       </c>
       <c r="C20" s="16">
         <f t="shared" si="1"/>
@@ -5444,9 +5500,9 @@
         <f>'[16]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>-5.0946209834901461</v>
+        <v>RF</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="3"/>
@@ -5456,58 +5512,58 @@
         <f>'[16]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>0.2787147168471506</v>
+        <v>RF</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="5"/>
-        <v>5.4707645132064942E-2</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="17">
         <f>'[16]دارایی فعلی'!$J$4</f>
-        <v>30268</v>
+        <v>0</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="6"/>
-        <v>602731</v>
+        <v>0</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="7"/>
-        <v>0.19628545543243436</v>
+        <v>0</v>
       </c>
       <c r="M20" s="20">
         <f>'[16]دارایی فعلی'!$M$4</f>
-        <v>23065</v>
+        <v>4722</v>
       </c>
       <c r="N20" s="21">
         <f t="shared" si="8"/>
-        <v>3070686</v>
-      </c>
-      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="O20" s="16" t="str">
         <f>IF( (P20-M20)*Q20/سرمایه!F4&gt;0, (P20-M20)*Q20/سرمایه!F4, "Risk free")</f>
-        <v>9.6753206136331038E-4</v>
+        <v>Risk free</v>
       </c>
       <c r="P20" s="22">
         <f>'[16]دارایی فعلی'!$Q$4</f>
-        <v>28698</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="23">
         <f>'[16]دارایی فعلی'!$R$4</f>
-        <v>107</v>
-      </c>
-      <c r="R20" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="T20" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="T20" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="58" t="str">
+    <row r="21" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B21" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5553,11 +5609,11 @@
       </c>
       <c r="M21" s="20">
         <f>'[17]دارایی فعلی'!$M$4</f>
-        <v>13310</v>
+        <v>23065</v>
       </c>
       <c r="N21" s="21">
         <f t="shared" si="8"/>
-        <v>2675310</v>
+        <v>0</v>
       </c>
       <c r="O21" s="16" t="str">
         <f>IF( (P21-M21)*Q21/سرمایه!F4&gt;0, (P21-M21)*Q21/سرمایه!F4, "Risk free")</f>
@@ -5565,24 +5621,24 @@
       </c>
       <c r="P21" s="22">
         <f>'[17]دارایی فعلی'!$Q$4</f>
-        <v>13310</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="23">
         <f>'[17]دارایی فعلی'!$R$4</f>
-        <v>201</v>
-      </c>
-      <c r="R21" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="T21" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="T21" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="58" t="str">
+    <row r="22" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B22" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5632,7 +5688,7 @@
       </c>
       <c r="N22" s="21">
         <f t="shared" si="8"/>
-        <v>2105883</v>
+        <v>0</v>
       </c>
       <c r="O22" s="16" t="str">
         <f>IF( (P22-M22)*Q22/سرمایه!F4&gt;0, (P22-M22)*Q22/سرمایه!F4, "Risk free")</f>
@@ -5640,24 +5696,24 @@
       </c>
       <c r="P22" s="22">
         <f>'[18]دارایی فعلی'!$Q$4</f>
-        <v>5707</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="23">
         <f>'[18]دارایی فعلی'!$R$4</f>
-        <v>369</v>
-      </c>
-      <c r="R22" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="S22" s="89" t="s">
+      <c r="S22" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="T22" s="55" t="s">
+      <c r="T22" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="58" t="str">
+    <row r="23" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B23" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5703,11 +5759,11 @@
       </c>
       <c r="M23" s="20">
         <f>'[19]دارایی فعلی'!$M$4</f>
-        <v>3450</v>
+        <v>13310</v>
       </c>
       <c r="N23" s="21">
         <f t="shared" si="8"/>
-        <v>1449000</v>
+        <v>2675310</v>
       </c>
       <c r="O23" s="16" t="str">
         <f>IF( (P23-M23)*Q23/سرمایه!F4&gt;0, (P23-M23)*Q23/سرمایه!F4, "Risk free")</f>
@@ -5715,24 +5771,24 @@
       </c>
       <c r="P23" s="22">
         <f>'[19]دارایی فعلی'!$Q$4</f>
-        <v>3450</v>
+        <v>13310</v>
       </c>
       <c r="Q23" s="23">
         <f>'[19]دارایی فعلی'!$R$4</f>
-        <v>420</v>
-      </c>
-      <c r="R23" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="T23" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="R23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="58" t="str">
+    <row r="24" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B24" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5782,7 +5838,7 @@
       </c>
       <c r="N24" s="21">
         <f t="shared" si="8"/>
-        <v>1155482</v>
+        <v>0</v>
       </c>
       <c r="O24" s="16" t="str">
         <f>IF( (P24-M24)*Q24/سرمایه!F4&gt;0, (P24-M24)*Q24/سرمایه!F4, "Risk free")</f>
@@ -5790,24 +5846,24 @@
       </c>
       <c r="P24" s="22">
         <f>'[20]دارایی فعلی'!$Q$4</f>
-        <v>17246</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="23">
         <f>'[20]دارایی فعلی'!$R$4</f>
-        <v>67</v>
-      </c>
-      <c r="R24" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="89" t="s">
+      <c r="S24" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="T24" s="55" t="s">
+      <c r="T24" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="58" t="str">
+    <row r="25" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B25" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5857,7 +5913,7 @@
       </c>
       <c r="N25" s="21">
         <f t="shared" si="8"/>
-        <v>1137074</v>
+        <v>0</v>
       </c>
       <c r="O25" s="16" t="str">
         <f>IF( (P25-M25)*Q25/سرمایه!F4&gt;0, (P25-M25)*Q25/سرمایه!F4, "Risk free")</f>
@@ -5865,24 +5921,24 @@
       </c>
       <c r="P25" s="22">
         <f>'[21]دارایی فعلی'!$Q$4</f>
-        <v>29923</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="23">
         <f>'[21]دارایی فعلی'!$R$4</f>
-        <v>38</v>
-      </c>
-      <c r="R25" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="S25" s="89" t="s">
+      <c r="S25" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="T25" s="55" t="s">
+      <c r="T25" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="58" t="str">
+    <row r="26" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B26" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -5928,11 +5984,11 @@
       </c>
       <c r="M26" s="20">
         <f>'[22]دارایی فعلی'!$M$4</f>
-        <v>23838</v>
+        <v>3450</v>
       </c>
       <c r="N26" s="21">
         <f t="shared" si="8"/>
-        <v>882006</v>
+        <v>1449000</v>
       </c>
       <c r="O26" s="16" t="str">
         <f>IF( (P26-M26)*Q26/سرمایه!F4&gt;0, (P26-M26)*Q26/سرمایه!F4, "Risk free")</f>
@@ -5940,24 +5996,24 @@
       </c>
       <c r="P26" s="22">
         <f>'[22]دارایی فعلی'!$Q$4</f>
-        <v>23838</v>
+        <v>3450</v>
       </c>
       <c r="Q26" s="23">
         <f>'[22]دارایی فعلی'!$R$4</f>
-        <v>37</v>
-      </c>
-      <c r="R26" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="T26" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="R26" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="58" t="str">
+    <row r="27" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B27" s="55" t="str">
         <f t="shared" si="0"/>
         <v>RF</v>
       </c>
@@ -6003,11 +6059,11 @@
       </c>
       <c r="M27" s="20">
         <f>'[23]دارایی فعلی'!$M$4</f>
-        <v>20185</v>
+        <v>23838</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" si="8"/>
-        <v>423885</v>
+        <v>882006</v>
       </c>
       <c r="O27" s="16" t="str">
         <f>IF( (P27-M27)*Q27/سرمایه!F4&gt;0, (P27-M27)*Q27/سرمایه!F4, "Risk free")</f>
@@ -6015,63 +6071,171 @@
       </c>
       <c r="P27" s="22">
         <f>'[23]دارایی فعلی'!$Q$4</f>
-        <v>20185</v>
+        <v>23838</v>
       </c>
       <c r="Q27" s="23">
         <f>'[23]دارایی فعلی'!$R$4</f>
+        <v>37</v>
+      </c>
+      <c r="R27" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="T27" s="53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B28" s="55" t="str">
+        <f t="shared" si="0"/>
+        <v>RF</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D28" s="17">
+        <f>'[24]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>RF</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G28" s="17">
+        <f>'[24]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>RF</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="J28" s="17">
+        <f>'[24]دارایی فعلی'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <f>'[24]دارایی فعلی'!$M$4</f>
+        <v>20185</v>
+      </c>
+      <c r="N28" s="21">
+        <f t="shared" si="8"/>
+        <v>423885</v>
+      </c>
+      <c r="O28" s="16" t="str">
+        <f>IF( (P28-M28)*Q28/سرمایه!F4&gt;0, (P28-M28)*Q28/سرمایه!F4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="P28" s="22">
+        <f>'[24]دارایی فعلی'!$Q$4</f>
+        <v>20185</v>
+      </c>
+      <c r="Q28" s="23">
+        <f>'[24]دارایی فعلی'!$R$4</f>
         <v>21</v>
       </c>
-      <c r="R27" s="54" t="s">
+      <c r="R28" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="S27" s="89" t="s">
+      <c r="S28" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="T27" s="55" t="s">
+      <c r="T28" s="53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="58"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="55"/>
-    </row>
-    <row r="29" spans="2:20" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="56"/>
+    <row r="29" spans="2:20" ht="19.2" thickBot="1">
+      <c r="B29" s="55" t="str">
+        <f t="shared" ref="B29" si="9">IF(L29&gt;0, C29/L29,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" ref="C29" si="10">(D29/P29)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D29" s="17">
+        <f>'[25]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="15" t="str">
+        <f t="shared" ref="E29" si="11">IF(L29&gt;0, F29/L29,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" ref="F29" si="12">(G29/P29)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G29" s="17">
+        <f>'[25]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="str">
+        <f t="shared" ref="H29" si="13">IF(L29&gt;0, I29/L29,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="14">(J29/P29)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J29" s="17">
+        <f>'[25]دارایی فعلی'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" ref="K29" si="15">IF(L29&gt;0, N29-M29*Q29, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <f t="shared" ref="L29" si="16">IF(1-(M29/P29)&gt;0, 1-(M29/P29), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="20">
+        <f>'[25]دارایی فعلی'!$M$4</f>
+        <v>12172</v>
+      </c>
+      <c r="N29" s="21">
+        <f t="shared" ref="N29" si="17">Q29*P29</f>
+        <v>9871492</v>
+      </c>
+      <c r="O29" s="16" t="str">
+        <f>IF( (P29-M29)*Q29/سرمایه!F4&gt;0, (P29-M29)*Q29/سرمایه!F4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="P29" s="22">
+        <f>'[25]دارایی فعلی'!$Q$4</f>
+        <v>12172</v>
+      </c>
+      <c r="Q29" s="23">
+        <f>'[25]دارایی فعلی'!$R$4</f>
+        <v>811</v>
+      </c>
+      <c r="R29" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="S29" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="T29" s="53" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6086,47 +6250,49 @@
     <mergeCell ref="P2:P3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="S8" r:id="rId1"/>
-    <hyperlink ref="S23" r:id="rId2"/>
-    <hyperlink ref="S16" r:id="rId3"/>
-    <hyperlink ref="S15" r:id="rId4"/>
-    <hyperlink ref="S21" r:id="rId5"/>
-    <hyperlink ref="S26" r:id="rId6"/>
-    <hyperlink ref="S11" r:id="rId7"/>
-    <hyperlink ref="S10" r:id="rId8"/>
-    <hyperlink ref="S9" r:id="rId9"/>
-    <hyperlink ref="S20" r:id="rId10"/>
-    <hyperlink ref="S18" r:id="rId11"/>
-    <hyperlink ref="S27" r:id="rId12"/>
-    <hyperlink ref="S17" r:id="rId13"/>
+    <hyperlink ref="S9" r:id="rId1"/>
+    <hyperlink ref="S26" r:id="rId2"/>
+    <hyperlink ref="S17" r:id="rId3"/>
+    <hyperlink ref="S16" r:id="rId4"/>
+    <hyperlink ref="S23" r:id="rId5"/>
+    <hyperlink ref="S27" r:id="rId6"/>
+    <hyperlink ref="S12" r:id="rId7"/>
+    <hyperlink ref="S11" r:id="rId8"/>
+    <hyperlink ref="S10" r:id="rId9"/>
+    <hyperlink ref="S21" r:id="rId10"/>
+    <hyperlink ref="S19" r:id="rId11"/>
+    <hyperlink ref="S28" r:id="rId12"/>
+    <hyperlink ref="S18" r:id="rId13"/>
     <hyperlink ref="S6" r:id="rId14"/>
-    <hyperlink ref="S14" r:id="rId15"/>
+    <hyperlink ref="S15" r:id="rId15"/>
     <hyperlink ref="S5" r:id="rId16"/>
     <hyperlink ref="S24" r:id="rId17"/>
-    <hyperlink ref="S7" r:id="rId18"/>
-    <hyperlink ref="S13" r:id="rId19"/>
+    <hyperlink ref="S8" r:id="rId18"/>
+    <hyperlink ref="S14" r:id="rId19"/>
     <hyperlink ref="S25" r:id="rId20"/>
-    <hyperlink ref="S12" r:id="rId21"/>
-    <hyperlink ref="S19" r:id="rId22"/>
+    <hyperlink ref="S13" r:id="rId21"/>
+    <hyperlink ref="S20" r:id="rId22"/>
     <hyperlink ref="S22" r:id="rId23"/>
+    <hyperlink ref="S7" r:id="rId24"/>
+    <hyperlink ref="S29" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O5"/>
+  <dimension ref="B1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" style="14" customWidth="1"/>
@@ -6146,146 +6312,149 @@
     <col min="16" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+    <row r="1" spans="2:15" ht="17.399999999999999" thickBot="1"/>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B2" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="139" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="140"/>
-      <c r="F2" s="145" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="143" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="163" t="s">
+      <c r="J2" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="168" t="s">
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="153" t="s">
+      <c r="O2" s="141" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+    <row r="3" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B3" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="82" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="144"/>
-      <c r="J3" s="80" t="s">
+      <c r="I3" s="132"/>
+      <c r="J3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="154"/>
-    </row>
-    <row r="4" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="129">
-        <f>C4/'واریز و برداشت'!C26</f>
-        <v>8.0608889178303597E-2</v>
-      </c>
-      <c r="C4" s="131">
-        <f>N4-'واریز و برداشت'!C26</f>
-        <v>49366799</v>
-      </c>
-      <c r="D4" s="135">
-        <f>E4/'واریز و برداشت'!C26</f>
-        <v>1.7199486185839687E-2</v>
-      </c>
-      <c r="E4" s="137">
-        <f>F4-'واریز و برداشت'!C26</f>
-        <v>10533374</v>
-      </c>
-      <c r="F4" s="147">
+      <c r="N3" s="157"/>
+      <c r="O3" s="142"/>
+    </row>
+    <row r="4" spans="2:15" ht="16.8" customHeight="1">
+      <c r="B4" s="117">
+        <f>C4/'واریز و برداشت'!C32</f>
+        <v>0.19945101371351662</v>
+      </c>
+      <c r="C4" s="119">
+        <f>N4-'واریز و برداشت'!C32</f>
+        <v>111178734</v>
+      </c>
+      <c r="D4" s="123">
+        <f>E4/'واریز و برداشت'!C32</f>
+        <v>3.2985777283695263E-2</v>
+      </c>
+      <c r="E4" s="125">
+        <f>F4-'واریز و برداشت'!C32</f>
+        <v>18387056</v>
+      </c>
+      <c r="F4" s="135">
         <f>M4+O4</f>
-        <v>622957134</v>
-      </c>
-      <c r="G4" s="149">
+        <v>575810816</v>
+      </c>
+      <c r="G4" s="137">
         <f>(F4-I4)/F4*100</f>
-        <v>9.9291634406421281</v>
-      </c>
-      <c r="H4" s="151">
+        <v>14.332286873888803</v>
+      </c>
+      <c r="H4" s="139">
         <f>SUM(پرتفوی!K5:K29)</f>
-        <v>61854432</v>
-      </c>
-      <c r="I4" s="157">
+        <v>82526858</v>
+      </c>
+      <c r="I4" s="145">
         <f>O4+M4-SUM(پرتفوی!K5:K29)</f>
-        <v>561102702</v>
-      </c>
-      <c r="J4" s="166">
+        <v>493283958</v>
+      </c>
+      <c r="J4" s="154">
         <f>K4/M4</f>
-        <v>8.4007610898518881E-2</v>
-      </c>
-      <c r="K4" s="161">
+        <v>0.17335739019848614</v>
+      </c>
+      <c r="K4" s="149">
         <f>L4-M4</f>
-        <v>38833425</v>
-      </c>
-      <c r="L4" s="161">
+        <v>92791678</v>
+      </c>
+      <c r="L4" s="149">
         <f>N4-O4</f>
-        <v>501094220</v>
-      </c>
-      <c r="M4" s="159">
+        <v>628053993</v>
+      </c>
+      <c r="M4" s="147">
         <f>SUMPRODUCT(پرتفوی!P5:P29*پرتفوی!Q5:Q29)</f>
-        <v>462260795</v>
-      </c>
-      <c r="N4" s="170">
-        <v>661790559</v>
-      </c>
-      <c r="O4" s="155">
-        <v>160696339</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="130"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="156"/>
+        <v>535262315</v>
+      </c>
+      <c r="N4" s="158">
+        <v>668602494</v>
+      </c>
+      <c r="O4" s="143">
+        <v>40548501</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="B5" s="118"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="144"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="M8" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6319,279 +6488,284 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="10.109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="14"/>
+    <col min="9" max="10" width="8.88671875" style="14"/>
+    <col min="11" max="11" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="172" t="s">
+    <row r="2" spans="2:11" ht="17.399999999999999" thickBot="1"/>
+    <row r="3" spans="2:11" ht="18.600000000000001">
+      <c r="B3" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="118" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="111" t="s">
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="174" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+      <c r="H3" s="162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="18.600000000000001">
+      <c r="B4" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="175"/>
-    </row>
-    <row r="5" spans="2:8" ht="16.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="163"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.8" hidden="1" customHeight="1">
+      <c r="B5" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="87" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B6" s="96">
+    <row r="6" spans="2:11" ht="18.600000000000001">
+      <c r="B6" s="83">
         <f>Table3[[#This Row],[Column4]]/(Table3[[#This Row],[Column6]]-Table3[[#This Row],[Column5]])</f>
         <v>1.2172157438205764E-2</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="80">
         <f>Table3[[#This Row],[Column9]]-(Table3[[#This Row],[Column6]]-Table3[[#This Row],[Column5]])</f>
         <v>7576240</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="97">
         <f>Table3[[#This Row],[Column6]]-Table3[[#This Row],[Column5]]</f>
         <v>622423760</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>2030000</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="80">
         <v>624453760</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="79">
         <v>630000000</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="77" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B7" s="96">
+    <row r="7" spans="2:11" ht="18.600000000000001">
+      <c r="B7" s="83">
         <f>Table3[[#This Row],[Column4]]/(G6+Table3[[#This Row],[Column42]])</f>
-        <v>6.7404127419354837E-2</v>
-      </c>
-      <c r="C7" s="93">
+        <v>0.1833672460176991</v>
+      </c>
+      <c r="C7" s="80">
         <f>Table3[[#This Row],[Column9]]-(G6+Table3[[#This Row],[Column42]])</f>
-        <v>41790559</v>
-      </c>
-      <c r="D7" s="88">
+        <v>103602494</v>
+      </c>
+      <c r="D7" s="75">
         <f>Table3[[#This Row],[Column6]]-Table3[[#This Row],[Column5]]</f>
-        <v>-10000000</v>
-      </c>
-      <c r="E7" s="101">
-        <v>10000000</v>
-      </c>
-      <c r="F7" s="93">
-        <v>0</v>
-      </c>
-      <c r="G7" s="92">
-        <v>661790559</v>
-      </c>
-      <c r="H7" s="90" t="s">
+        <v>-65000000</v>
+      </c>
+      <c r="E7" s="88">
+        <v>169500000</v>
+      </c>
+      <c r="F7" s="80">
+        <v>104500000</v>
+      </c>
+      <c r="G7" s="79">
+        <v>668602494</v>
+      </c>
+      <c r="H7" s="77" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="90"/>
-    </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="90"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B10" s="96"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="90"/>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B11" s="96"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="90"/>
-    </row>
-    <row r="12" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B12" s="96"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="90"/>
-    </row>
-    <row r="13" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B13" s="96"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="90"/>
-    </row>
-    <row r="14" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B14" s="96"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="90"/>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B15" s="96"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="90"/>
-    </row>
-    <row r="16" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B16" s="96"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B17" s="96"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B18" s="96"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="90"/>
-    </row>
-    <row r="19" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B19" s="96"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="90"/>
-    </row>
-    <row r="20" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B20" s="96"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="90"/>
-    </row>
-    <row r="21" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B21" s="96"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="90"/>
-    </row>
-    <row r="22" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="97"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="91"/>
-    </row>
-    <row r="23" spans="2:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:8" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="108">
+      <c r="K7" s="79">
+        <v>634455199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.600000000000001">
+      <c r="B8" s="83"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="2:11" ht="18.600000000000001">
+      <c r="B9" s="83"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="2:11" ht="18.600000000000001">
+      <c r="B10" s="83"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="77"/>
+    </row>
+    <row r="11" spans="2:11" ht="18.600000000000001">
+      <c r="B11" s="83"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="2:11" ht="18.600000000000001">
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="77"/>
+    </row>
+    <row r="13" spans="2:11" ht="18.600000000000001">
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="77"/>
+    </row>
+    <row r="14" spans="2:11" ht="18.600000000000001">
+      <c r="B14" s="83"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="2:11" ht="18.600000000000001">
+      <c r="B15" s="83"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="2:11" ht="18.600000000000001">
+      <c r="B16" s="83"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="2:8" ht="18.600000000000001">
+      <c r="B17" s="83"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="2:8" ht="18.600000000000001">
+      <c r="B18" s="83"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="2:8" ht="18.600000000000001">
+      <c r="B19" s="83"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="2:8" ht="18.600000000000001">
+      <c r="B20" s="83"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="2:8" ht="18.600000000000001">
+      <c r="B21" s="83"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="2:8" ht="17.399999999999999" thickBot="1">
+      <c r="B22" s="84"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="2:8" ht="17.399999999999999" thickBot="1"/>
+    <row r="24" spans="2:8" ht="19.2" thickBot="1">
+      <c r="B24" s="95">
         <f>SUM(Table3[Column4])</f>
-        <v>49366799</v>
-      </c>
-      <c r="C24" s="109" t="s">
+        <v>111178734</v>
+      </c>
+      <c r="C24" s="96" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6612,275 +6786,341 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="48" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="11"/>
     <col min="6" max="7" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+    <row r="2" spans="2:4" ht="15" customHeight="1">
+      <c r="B2" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="180" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-    </row>
-    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="D2" s="168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1">
+      <c r="B4" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>2400000</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:4" ht="15" customHeight="1">
+      <c r="B5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>-1270000</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="2:4" ht="15" customHeight="1">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>2820000</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:4" ht="15" customHeight="1">
+      <c r="B7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>27000</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+    <row r="8" spans="2:4" ht="15" customHeight="1">
+      <c r="B8" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>-760000</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
+    <row r="9" spans="2:4" ht="15" customHeight="1">
+      <c r="B9" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>30000000</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="2:4" ht="15" customHeight="1">
+      <c r="B10" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>3000000</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="2:4" ht="15" customHeight="1">
+      <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="49">
         <v>2465204</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="2:4" ht="15" customHeight="1">
+      <c r="B12" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="49">
         <v>20000000</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="2:4" ht="15" customHeight="1">
+      <c r="B13" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="49">
         <v>4000000</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+    <row r="14" spans="2:4" ht="15" customHeight="1">
+      <c r="B14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="49">
         <v>18700000</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="s">
+    <row r="15" spans="2:4" ht="15" customHeight="1">
+      <c r="B15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="49">
         <v>323000000</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="s">
+    <row r="16" spans="2:4" ht="15" customHeight="1">
+      <c r="B16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="49">
         <v>2000000</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="2:4" ht="15" customHeight="1">
+      <c r="B17" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="49">
         <v>33966647</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
+    <row r="18" spans="2:4" ht="15" customHeight="1">
+      <c r="B18" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <v>10000000</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
+    <row r="19" spans="2:4" ht="15" customHeight="1">
+      <c r="B19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="49">
         <v>48800000</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
+    <row r="20" spans="2:4" ht="15" customHeight="1">
+      <c r="B20" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="49">
         <v>70000000</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
+    <row r="21" spans="2:4" ht="15" customHeight="1">
+      <c r="B21" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="49">
         <v>3274909</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="47" t="s">
+    <row r="22" spans="2:4" ht="15" customHeight="1">
+      <c r="B22" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="49">
         <v>50000000</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+    <row r="23" spans="2:4" ht="15" customHeight="1">
+      <c r="B23" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="49">
         <v>-10000000</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="48"/>
-    </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="51">
-        <f>SUM(C4:C25)</f>
-        <v>612423760</v>
-      </c>
-      <c r="D26" s="49" t="s">
+    <row r="24" spans="2:4" ht="15" customHeight="1">
+      <c r="B24" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="49">
+        <v>46500000</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1">
+      <c r="B25" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="49">
+        <v>-56500000</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1">
+      <c r="B26" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="49">
+        <v>-80000000</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1">
+      <c r="B27" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="49">
+        <v>50000000</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1">
+      <c r="B28" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="49">
+        <v>-23000000</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15" customHeight="1">
+      <c r="B29" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="49">
+        <v>8000000</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1">
+      <c r="B30" s="46"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1">
+      <c r="B31" s="46"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" customHeight="1">
+      <c r="C32" s="49">
+        <f>SUM(C4:C29)</f>
+        <v>557423760</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6898,11 +7138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -6929,59 +7169,59 @@
     <col min="23" max="23" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="202">
+    <row r="2" spans="2:24" ht="15" thickBot="1"/>
+    <row r="3" spans="2:24" ht="14.4" customHeight="1">
+      <c r="B3" s="190">
         <v>0.05</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204">
+      <c r="C3" s="191"/>
+      <c r="D3" s="192">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="206">
+      <c r="E3" s="193"/>
+      <c r="F3" s="194">
         <v>0.04</v>
       </c>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208">
+      <c r="G3" s="195"/>
+      <c r="H3" s="196">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I3" s="209"/>
-      <c r="J3" s="185">
+      <c r="I3" s="197"/>
+      <c r="J3" s="173">
         <v>0.03</v>
       </c>
-      <c r="K3" s="186"/>
-      <c r="L3" s="189">
+      <c r="K3" s="174"/>
+      <c r="L3" s="177">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M3" s="190"/>
-      <c r="N3" s="181">
+      <c r="M3" s="178"/>
+      <c r="N3" s="169">
         <v>0.02</v>
       </c>
-      <c r="O3" s="182"/>
-      <c r="P3" s="200">
+      <c r="O3" s="170"/>
+      <c r="P3" s="188">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q3" s="201"/>
-      <c r="R3" s="198">
+      <c r="Q3" s="189"/>
+      <c r="R3" s="186">
         <v>0.01</v>
       </c>
-      <c r="S3" s="199"/>
-      <c r="T3" s="194">
+      <c r="S3" s="187"/>
+      <c r="T3" s="182">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U3" s="195"/>
-      <c r="V3" s="174" t="s">
+      <c r="U3" s="183"/>
+      <c r="V3" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="174" t="s">
+      <c r="W3" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="174" t="s">
+      <c r="X3" s="162" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>23</v>
       </c>
@@ -7042,126 +7282,126 @@
       <c r="U4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="191"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-    </row>
-    <row r="5" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="187">
+      <c r="V4" s="179"/>
+      <c r="W4" s="179"/>
+      <c r="X4" s="179"/>
+    </row>
+    <row r="5" spans="2:24" ht="14.4" customHeight="1">
+      <c r="B5" s="175">
         <f>C5*W5</f>
-        <v>179695690.64468727</v>
-      </c>
-      <c r="C5" s="183">
+        <v>86588850.975599647</v>
+      </c>
+      <c r="C5" s="171">
         <f>سرمایه!I4*5/((W5-V5)*100)</f>
-        <v>29571.091174861012</v>
-      </c>
-      <c r="D5" s="187">
+        <v>25091.026367747018</v>
+      </c>
+      <c r="D5" s="175">
         <f>E5*W5</f>
-        <v>161726121.58021855</v>
-      </c>
-      <c r="E5" s="183">
+        <v>77929965.878039673</v>
+      </c>
+      <c r="E5" s="171">
         <f>سرمایه!I4*4.5/((W5-V5)*100)</f>
-        <v>26613.982057374913</v>
-      </c>
-      <c r="F5" s="187">
+        <v>22581.923730972314</v>
+      </c>
+      <c r="F5" s="175">
         <f>G5*W5</f>
-        <v>143756552.51574981</v>
-      </c>
-      <c r="G5" s="183">
+        <v>69271080.780479714</v>
+      </c>
+      <c r="G5" s="171">
         <f>سرمایه!I4*4/((W5-V5)*100)</f>
-        <v>23656.87293988881</v>
-      </c>
-      <c r="H5" s="187">
+        <v>20072.821094197614</v>
+      </c>
+      <c r="H5" s="175">
         <f>I5*W5</f>
-        <v>125786983.4512811</v>
-      </c>
-      <c r="I5" s="183">
+        <v>60612195.682919741</v>
+      </c>
+      <c r="I5" s="171">
         <f>سرمایه!I4*3.5/((W5-V5)*100)</f>
-        <v>20699.763822402711</v>
-      </c>
-      <c r="J5" s="187">
+        <v>17563.71845742291</v>
+      </c>
+      <c r="J5" s="175">
         <f>K5*W5</f>
-        <v>107817414.38681236</v>
-      </c>
-      <c r="K5" s="183">
+        <v>51953310.585359782</v>
+      </c>
+      <c r="K5" s="171">
         <f>سرمایه!I4*3/((W5-V5)*100)</f>
-        <v>17742.654704916607</v>
-      </c>
-      <c r="L5" s="187">
+        <v>15054.615820648211</v>
+      </c>
+      <c r="L5" s="175">
         <f>M5*W5</f>
-        <v>89847845.322343633</v>
-      </c>
-      <c r="M5" s="183">
+        <v>43294425.487799823</v>
+      </c>
+      <c r="M5" s="171">
         <f>سرمایه!I4*2.5/((W5-V5)*100)</f>
-        <v>14785.545587430506</v>
-      </c>
-      <c r="N5" s="187">
+        <v>12545.513183873509</v>
+      </c>
+      <c r="N5" s="175">
         <f>O5*W5</f>
-        <v>71878276.257874906</v>
-      </c>
-      <c r="O5" s="183">
+        <v>34635540.390239857</v>
+      </c>
+      <c r="O5" s="171">
         <f>سرمایه!I4*2/((W5-V5)*100)</f>
-        <v>11828.436469944405</v>
-      </c>
-      <c r="P5" s="187">
+        <v>10036.410547098807</v>
+      </c>
+      <c r="P5" s="175">
         <f>Q5*W5</f>
-        <v>53908707.19340618</v>
-      </c>
-      <c r="Q5" s="183">
+        <v>25976655.292679891</v>
+      </c>
+      <c r="Q5" s="171">
         <f>سرمایه!I4*1.5/((W5-V5)*100)</f>
-        <v>8871.3273524583037</v>
-      </c>
-      <c r="R5" s="187">
+        <v>7527.3079103241053</v>
+      </c>
+      <c r="R5" s="175">
         <f>S5*W5</f>
-        <v>35939138.128937453</v>
-      </c>
-      <c r="S5" s="183">
+        <v>17317770.195119929</v>
+      </c>
+      <c r="S5" s="171">
         <f>سرمایه!I4*1/((W5-V5)*100)</f>
-        <v>5914.2182349722025</v>
-      </c>
-      <c r="T5" s="187">
+        <v>5018.2052735494035</v>
+      </c>
+      <c r="T5" s="175">
         <f>U5*W5</f>
-        <v>17969569.064468727</v>
-      </c>
-      <c r="U5" s="183">
+        <v>8658885.0975599643</v>
+      </c>
+      <c r="U5" s="171">
         <f>سرمایه!I4*0.5/((W5-V5)*100)</f>
-        <v>2957.1091174861012</v>
-      </c>
-      <c r="V5" s="192">
-        <v>5128</v>
-      </c>
-      <c r="W5" s="196">
-        <f>X5*1.01448</f>
-        <v>6076.7352000000001</v>
-      </c>
-      <c r="X5" s="192">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="188"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="184"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="184"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="184"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="184"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="184"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="193"/>
+        <v>2509.1026367747018</v>
+      </c>
+      <c r="V5" s="180">
+        <v>2468</v>
+      </c>
+      <c r="W5" s="184">
+        <f>X5*1.0144</f>
+        <v>3450.9888000000001</v>
+      </c>
+      <c r="X5" s="180">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="176"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="181"/>
+      <c r="W6" s="185"/>
+      <c r="X6" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -7205,4 +7445,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F3:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="6:6">
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
@@ -43,13 +43,15 @@
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId36"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
   <si>
     <t>تاریخ</t>
   </si>
@@ -523,13 +525,68 @@
   </si>
   <si>
     <t>* اطلاعات اسفند 1398 در نمودار نیامده است.</t>
+  </si>
+  <si>
+    <t>99/02/07</t>
+  </si>
+  <si>
+    <t>با توجه به اینکه مبلغ زیادی از این سهم داری و برخورد قیمت به سقف کانال بهتره الان ورود نکنی</t>
+  </si>
+  <si>
+    <t>کف خ روند کوتاه مدت شکسته شده، ورود نکنی بهتره. اینی که زاییدی رو بزرگ کن فعلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برخورد به سقف کانال و برگشت، امکان این وجود دارد که پولبک به سقف کانال شکسته شده بزند و رشد کند. </t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>نه داداش نوکرتم</t>
+  </si>
+  <si>
+    <t>وساخت</t>
+  </si>
+  <si>
+    <t>بلههههههه</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">*** </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>یعنی اینکه اگر پایانی قشنگ بود</t>
+    </r>
+  </si>
+  <si>
+    <t>..\وساخت\وساخت.xlsx</t>
+  </si>
+  <si>
+    <t>سخوز</t>
+  </si>
+  <si>
+    <t>..\سخوز\سخوز.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +633,20 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
@@ -1512,7 +1583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,6 +1918,20 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,6 +1977,84 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1941,84 +2104,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2045,83 +2130,80 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3288,7 +3370,7 @@
                   <c:v>116833000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95928151</c:v>
+                  <c:v>169345151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,8 +3386,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-145616816"/>
-        <c:axId val="-145610288"/>
+        <c:axId val="899688208"/>
+        <c:axId val="899684400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3394,7 +3476,7 @@
                   <c:v>0.20678407079646019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4659743407600279E-2</c:v>
+                  <c:v>0.11439273071939601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3411,11 +3493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-145618448"/>
-        <c:axId val="-145623344"/>
+        <c:axId val="899684944"/>
+        <c:axId val="899693648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-145616816"/>
+        <c:axId val="899688208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145610288"/>
+        <c:crossAx val="899684400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3463,7 +3545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-145610288"/>
+        <c:axId val="899684400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,12 +3593,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145616816"/>
+        <c:crossAx val="899688208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-145623344"/>
+        <c:axId val="899693648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3550,12 +3632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145618448"/>
+        <c:crossAx val="899684944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-145618448"/>
+        <c:axId val="899684944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3564,7 +3646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-145623344"/>
+        <c:crossAx val="899693648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3875,6 +3957,12 @@
                 <c:pt idx="2">
                   <c:v>41106166</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>59583000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10634000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3889,11 +3977,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-145617904"/>
-        <c:axId val="-267973616"/>
+        <c:axId val="899686032"/>
+        <c:axId val="899688752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-145617904"/>
+        <c:axId val="899686032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +4024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-267973616"/>
+        <c:crossAx val="899688752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3944,7 +4032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-267973616"/>
+        <c:axId val="899688752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,7 +4083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-145617904"/>
+        <c:crossAx val="899686032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5896,6 +5984,86 @@
             <v>0</v>
           </cell>
           <cell r="G4">
+            <v>65000</v>
+          </cell>
+          <cell r="J4">
+            <v>45000</v>
+          </cell>
+          <cell r="M4">
+            <v>23215</v>
+          </cell>
+          <cell r="Q4">
+            <v>33374</v>
+          </cell>
+          <cell r="R4">
+            <v>3016</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>22500</v>
+          </cell>
+          <cell r="J4">
+            <v>20000</v>
+          </cell>
+          <cell r="M4">
+            <v>10266</v>
+          </cell>
+          <cell r="Q4">
+            <v>15065</v>
+          </cell>
+          <cell r="R4">
+            <v>3351</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
             <v>0</v>
           </cell>
           <cell r="J4">
@@ -5920,7 +6088,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6237,8 +6405,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B4:T31" totalsRowShown="0" tableBorderDxfId="30">
-  <autoFilter ref="B4:T31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B4:T33" totalsRowShown="0" tableBorderDxfId="30">
+  <autoFilter ref="B4:T33">
     <filterColumn colId="3">
       <filters>
         <filter val="11151"/>
@@ -6261,8 +6429,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B5:T31">
-    <sortCondition descending="1" ref="H4:H31"/>
+  <sortState ref="B5:T33">
+    <sortCondition descending="1" ref="H4:H33"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="Column1" dataDxfId="29"/>
@@ -6610,11 +6778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T31"/>
+  <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6643,52 +6811,52 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="118" t="s">
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="120"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="126"/>
     </row>
     <row r="3" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="115"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="72" t="s">
         <v>10</v>
       </c>
@@ -6805,10 +6973,10 @@
       </c>
       <c r="G5" s="4">
         <f>IF( (F5-I5)*E5/سرمایه!K4&gt;0,(F5-I5)*E5/سرمایه!K4, "Risk free")</f>
-        <v>3.5751179534356615E-2</v>
+        <v>3.5796148828384007E-2</v>
       </c>
       <c r="H5" s="61">
-        <f t="shared" ref="H5:H31" si="0">E5*F5</f>
+        <f>E5*F5</f>
         <v>172491677</v>
       </c>
       <c r="I5" s="6">
@@ -6816,11 +6984,11 @@
         <v>48109</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" ref="J5:J31" si="1">IF(1-(I5/F5)&gt;0, 1-(I5/F5), 0)</f>
+        <f>IF(1-(I5/F5)&gt;0, 1-(I5/F5), 0)</f>
         <v>0.28627900695753561</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" ref="K5:K31" si="2">IF(J5&gt;0, H5-I5*E5, 0)</f>
+        <f>IF(J5&gt;0, H5-I5*E5, 0)</f>
         <v>49380746</v>
       </c>
       <c r="L5" s="61">
@@ -6828,11 +6996,11 @@
         <v>85410</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" ref="M5:M31" si="3">(L5/F5)-1</f>
+        <f>(L5/F5)-1</f>
         <v>0.2670999192616117</v>
       </c>
       <c r="N5" s="62">
-        <f t="shared" ref="N5:N31" si="4">IF(J5&gt;0, M5/J5,"RF")</f>
+        <f>IF(J5&gt;0, M5/J5,"RF")</f>
         <v>0.93300560910926733</v>
       </c>
       <c r="O5" s="61">
@@ -6840,11 +7008,11 @@
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P31" si="5">(O5/F5)-1</f>
+        <f>(O5/F5)-1</f>
         <v>-1</v>
       </c>
       <c r="Q5" s="62">
-        <f t="shared" ref="Q5:Q31" si="6">IF(J5&gt;0, P5/J5,"RF")</f>
+        <f>IF(J5&gt;0, P5/J5,"RF")</f>
         <v>-3.4930958110677399</v>
       </c>
       <c r="R5" s="61">
@@ -6852,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="71">
-        <f t="shared" ref="S5:S31" si="7">(R5/F5)-1</f>
+        <f>(R5/F5)-1</f>
         <v>-1</v>
       </c>
       <c r="T5" s="70" t="str">
@@ -6880,10 +7048,10 @@
       </c>
       <c r="G6" s="4">
         <f>IF( (F6-I6)*E6/سرمایه!K4&gt;0,(F6-I6)*E6/سرمایه!K4, "Risk free")</f>
-        <v>1.252840326040155E-2</v>
+        <v>1.2544161997798432E-2</v>
       </c>
       <c r="H6" s="61">
-        <f t="shared" si="0"/>
+        <f>E6*F6</f>
         <v>154963194</v>
       </c>
       <c r="I6" s="6">
@@ -6891,11 +7059,11 @@
         <v>24317</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I6/F6)&gt;0, 1-(I6/F6), 0)</f>
         <v>0.11166946520216925</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J6&gt;0, H6-I6*E6, 0)</f>
         <v>17304657</v>
       </c>
       <c r="L6" s="61">
@@ -6903,11 +7071,11 @@
         <v>56000</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="3"/>
+        <f>(L6/F6)-1</f>
         <v>1.0457502960348122</v>
       </c>
       <c r="N6" s="62">
-        <f t="shared" si="4"/>
+        <f>IF(J6&gt;0, M6/J6,"RF")</f>
         <v>9.3646933308184046</v>
       </c>
       <c r="O6" s="61">
@@ -6915,11 +7083,11 @@
         <v>28706</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="5"/>
+        <f>(O6/F6)-1</f>
         <v>4.8666214249559303E-2</v>
       </c>
       <c r="Q6" s="62">
-        <f t="shared" si="6"/>
+        <f>IF(J6&gt;0, P6/J6,"RF")</f>
         <v>0.4358059220705745</v>
       </c>
       <c r="R6" s="61">
@@ -6927,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="71">
-        <f t="shared" si="7"/>
+        <f>(R6/F6)-1</f>
         <v>-1</v>
       </c>
       <c r="T6" s="70" t="str">
@@ -6955,10 +7123,10 @@
       </c>
       <c r="G7" s="4">
         <f>IF( (F7-I7)*E7/سرمایه!K4&gt;0,(F7-I7)*E7/سرمایه!K4, "Risk free")</f>
-        <v>2.1037076442272085E-2</v>
+        <v>2.106353773637009E-2</v>
       </c>
       <c r="H7" s="61">
-        <f t="shared" si="0"/>
+        <f>E7*F7</f>
         <v>120612434</v>
       </c>
       <c r="I7" s="6">
@@ -6966,11 +7134,11 @@
         <v>21213</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I7/F7)&gt;0, 1-(I7/F7), 0)</f>
         <v>0.24091318810463602</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J7&gt;0, H7-I7*E7, 0)</f>
         <v>29057126</v>
       </c>
       <c r="L7" s="61">
@@ -6978,11 +7146,11 @@
         <v>45250</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="3"/>
+        <f>(L7/F7)-1</f>
         <v>0.61922774894004728</v>
       </c>
       <c r="N7" s="62">
-        <f t="shared" si="4"/>
+        <f>IF(J7&gt;0, M7/J7,"RF")</f>
         <v>2.5703356209420032</v>
       </c>
       <c r="O7" s="61">
@@ -6990,11 +7158,11 @@
         <v>51666</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="5"/>
+        <f>(O7/F7)-1</f>
         <v>0.84881814092235319</v>
       </c>
       <c r="Q7" s="62">
-        <f t="shared" si="6"/>
+        <f>IF(J7&gt;0, P7/J7,"RF")</f>
         <v>3.5233361344821246</v>
       </c>
       <c r="R7" s="61">
@@ -7002,7 +7170,7 @@
         <v>67750</v>
       </c>
       <c r="S7" s="71">
-        <f t="shared" si="7"/>
+        <f>(R7/F7)-1</f>
         <v>1.4243686185787445</v>
       </c>
       <c r="T7" s="70" t="str">
@@ -7030,10 +7198,10 @@
       </c>
       <c r="G8" s="4">
         <f>IF( (F8-I8)*E8/سرمایه!K4&gt;0,(F8-I8)*E8/سرمایه!K4, "Risk free")</f>
-        <v>1.3707699424227051E-2</v>
+        <v>1.3724941528512166E-2</v>
       </c>
       <c r="H8" s="61">
-        <f t="shared" si="0"/>
+        <f>E8*F8</f>
         <v>104148041</v>
       </c>
       <c r="I8" s="6">
@@ -7041,11 +7209,11 @@
         <v>9700</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I8/F8)&gt;0, 1-(I8/F8), 0)</f>
         <v>0.18179449962001692</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J8&gt;0, H8-I8*E8, 0)</f>
         <v>18933541</v>
       </c>
       <c r="L8" s="61">
@@ -7053,11 +7221,11 @@
         <v>51000</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="3"/>
+        <f>(L8/F8)-1</f>
         <v>3.3019052081834159</v>
       </c>
       <c r="N8" s="62">
-        <f t="shared" si="4"/>
+        <f>IF(J8&gt;0, M8/J8,"RF")</f>
         <v>18.162844393449689</v>
       </c>
       <c r="O8" s="61">
@@ -7065,11 +7233,11 @@
         <v>205000</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="5"/>
+        <f>(O8/F8)-1</f>
         <v>16.291971915247064</v>
       </c>
       <c r="Q8" s="62">
-        <f t="shared" si="6"/>
+        <f>IF(J8&gt;0, P8/J8,"RF")</f>
         <v>89.61751840292311</v>
       </c>
       <c r="R8" s="61">
@@ -7077,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="71">
-        <f t="shared" si="7"/>
+        <f>(R8/F8)-1</f>
         <v>-1</v>
       </c>
       <c r="T8" s="70" t="str">
@@ -7087,76 +7255,76 @@
     </row>
     <row r="9" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="32" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E9" s="9">
-        <f>'[5]دارایی فعلی'!$R$4</f>
-        <v>8544</v>
+        <f>'[26]دارایی فعلی'!$R$4</f>
+        <v>3016</v>
       </c>
       <c r="F9" s="8">
-        <f>'[5]دارایی فعلی'!$Q$4</f>
-        <v>11666</v>
+        <f>'[26]دارایی فعلی'!$Q$4</f>
+        <v>33374</v>
       </c>
       <c r="G9" s="4">
         <f>IF( (F9-I9)*E9/سرمایه!K4&gt;0,(F9-I9)*E9/سرمایه!K4, "Risk free")</f>
-        <v>1.7728424989376674E-2</v>
+        <v>2.2210634020349156E-2</v>
       </c>
       <c r="H9" s="61">
-        <f t="shared" si="0"/>
-        <v>99674304</v>
+        <f>E9*F9</f>
+        <v>100655984</v>
       </c>
       <c r="I9" s="6">
-        <f>'[5]دارایی فعلی'!$M$4</f>
-        <v>8800</v>
+        <f>'[26]دارایی فعلی'!$M$4</f>
+        <v>23215</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.24567118121035492</v>
+        <f>IF(1-(I9/F9)&gt;0, 1-(I9/F9), 0)</f>
+        <v>0.30439863366692632</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="2"/>
-        <v>24487104</v>
+        <f>IF(J9&gt;0, H9-I9*E9, 0)</f>
+        <v>30639544</v>
       </c>
       <c r="L9" s="61">
-        <f>'[5]دارایی فعلی'!$J$4</f>
-        <v>14670</v>
+        <f>'[26]دارایی فعلی'!$J$4</f>
+        <v>45000</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="3"/>
-        <v>0.25750042859591971</v>
+        <f>(L9/F9)-1</f>
+        <v>0.34835500689159216</v>
       </c>
       <c r="N9" s="62">
-        <f t="shared" si="4"/>
-        <v>1.0481507327285411</v>
+        <f>IF(J9&gt;0, M9/J9,"RF")</f>
+        <v>1.1444039767693668</v>
       </c>
       <c r="O9" s="61">
-        <f>'[5]دارایی فعلی'!$G$4</f>
-        <v>30340</v>
+        <f>'[26]دارایی فعلی'!$G$4</f>
+        <v>65000</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="5"/>
-        <v>1.6007200411452085</v>
+        <f>(O9/F9)-1</f>
+        <v>0.94762389884341114</v>
       </c>
       <c r="Q9" s="62">
-        <f t="shared" si="6"/>
-        <v>6.5157013258897418</v>
+        <f>IF(J9&gt;0, P9/J9,"RF")</f>
+        <v>3.1131016832365397</v>
       </c>
       <c r="R9" s="61">
-        <f>'[5]دارایی فعلی'!$D$4</f>
+        <f>'[26]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S9" s="71">
-        <f t="shared" si="7"/>
+        <f>(R9/F9)-1</f>
         <v>-1</v>
       </c>
       <c r="T9" s="70" t="str">
-        <f>IF(AA8&gt;0,#REF!/ AA8,"RF")</f>
+        <f>IF(AA7&gt;0,#REF!/ AA7,"RF")</f>
         <v>RF</v>
       </c>
     </row>
@@ -7165,69 +7333,69 @@
         <v>14</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E10" s="9">
-        <f>'[6]دارایی فعلی'!$R$4</f>
-        <v>1354</v>
+        <f>'[5]دارایی فعلی'!$R$4</f>
+        <v>8544</v>
       </c>
       <c r="F10" s="8">
-        <f>'[6]دارایی فعلی'!$Q$4</f>
-        <v>73543</v>
+        <f>'[5]دارایی فعلی'!$Q$4</f>
+        <v>11666</v>
       </c>
       <c r="G10" s="4">
         <f>IF( (F10-I10)*E10/سرمایه!K4&gt;0,(F10-I10)*E10/سرمایه!K4, "Risk free")</f>
-        <v>4.1916893510434748E-3</v>
+        <v>1.7750724526521277E-2</v>
       </c>
       <c r="H10" s="61">
-        <f t="shared" si="0"/>
-        <v>99577222</v>
+        <f>E10*F10</f>
+        <v>99674304</v>
       </c>
       <c r="I10" s="6">
-        <f>'[6]دارایی فعلی'!$M$4</f>
-        <v>69267</v>
+        <f>'[5]دارایی فعلی'!$M$4</f>
+        <v>8800</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8142855200359E-2</v>
+        <f>IF(1-(I10/F10)&gt;0, 1-(I10/F10), 0)</f>
+        <v>0.24567118121035492</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
-        <v>5789704</v>
+        <f>IF(J10&gt;0, H10-I10*E10, 0)</f>
+        <v>24487104</v>
       </c>
       <c r="L10" s="61">
-        <f>'[6]دارایی فعلی'!$J$4</f>
-        <v>96800</v>
+        <f>'[5]دارایی فعلی'!$J$4</f>
+        <v>14670</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="3"/>
-        <v>0.31623675944685425</v>
+        <f>(L10/F10)-1</f>
+        <v>0.25750042859591971</v>
       </c>
       <c r="N10" s="62">
-        <f t="shared" si="4"/>
-        <v>5.4389616463985018</v>
+        <f>IF(J10&gt;0, M10/J10,"RF")</f>
+        <v>1.0481507327285411</v>
       </c>
       <c r="O10" s="61">
-        <f>'[6]دارایی فعلی'!$G$4</f>
-        <v>0</v>
+        <f>'[5]دارایی فعلی'!$G$4</f>
+        <v>30340</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f>(O10/F10)-1</f>
+        <v>1.6007200411452085</v>
       </c>
       <c r="Q10" s="62">
-        <f t="shared" si="6"/>
-        <v>-17.199017773620199</v>
+        <f>IF(J10&gt;0, P10/J10,"RF")</f>
+        <v>6.5157013258897418</v>
       </c>
       <c r="R10" s="61">
-        <f>'[6]دارایی فعلی'!$D$4</f>
+        <f>'[5]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S10" s="71">
-        <f t="shared" si="7"/>
+        <f>(R10/F10)-1</f>
         <v>-1</v>
       </c>
       <c r="T10" s="70" t="str">
@@ -7258,7 +7426,7 @@
         <v>Risk free</v>
       </c>
       <c r="H11" s="59">
-        <f t="shared" si="0"/>
+        <f>E11*F11</f>
         <v>0</v>
       </c>
       <c r="I11" s="35">
@@ -7266,11 +7434,11 @@
         <v>5128</v>
       </c>
       <c r="J11" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I11/F11)&gt;0, 1-(I11/F11), 0)</f>
         <v>0</v>
       </c>
       <c r="K11" s="36">
-        <f t="shared" si="2"/>
+        <f>IF(J11&gt;0, H11-I11*E11, 0)</f>
         <v>0</v>
       </c>
       <c r="L11" s="59">
@@ -7278,11 +7446,11 @@
         <v>0</v>
       </c>
       <c r="M11" s="33">
-        <f t="shared" si="3"/>
+        <f>(L11/F11)-1</f>
         <v>-1</v>
       </c>
       <c r="N11" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J11&gt;0, M11/J11,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O11" s="59">
@@ -7290,11 +7458,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="33">
-        <f t="shared" si="5"/>
+        <f>(O11/F11)-1</f>
         <v>-1</v>
       </c>
       <c r="Q11" s="60" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J11&gt;0, P11/J11,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R11" s="59">
@@ -7302,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="81">
-        <f t="shared" si="7"/>
+        <f>(R11/F11)-1</f>
         <v>-1</v>
       </c>
       <c r="T11" s="69" t="str">
@@ -7315,69 +7483,69 @@
         <v>14</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="E12" s="9">
-        <f>'[8]دارایی فعلی'!$R$4</f>
-        <v>11151</v>
+        <f>'[6]دارایی فعلی'!$R$4</f>
+        <v>1354</v>
       </c>
       <c r="F12" s="8">
-        <f>'[8]دارایی فعلی'!$Q$4</f>
-        <v>7672.9017128508658</v>
+        <f>'[6]دارایی فعلی'!$Q$4</f>
+        <v>73543</v>
       </c>
       <c r="G12" s="4">
         <f>IF( (F12-I12)*E12/سرمایه!K4&gt;0,(F12-I12)*E12/سرمایه!K4, "Risk free")</f>
-        <v>1.2222054742357944E-2</v>
+        <v>4.1969618291366083E-3</v>
       </c>
       <c r="H12" s="61">
-        <f t="shared" si="0"/>
-        <v>85560527</v>
+        <f>E12*F12</f>
+        <v>99577222</v>
       </c>
       <c r="I12" s="6">
-        <f>'[8]دارایی فعلی'!$M$4</f>
-        <v>6159</v>
+        <f>'[6]دارایی فعلی'!$M$4</f>
+        <v>69267</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.19730497919911139</v>
+        <f>IF(1-(I12/F12)&gt;0, 1-(I12/F12), 0)</f>
+        <v>5.8142855200359E-2</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="2"/>
-        <v>16881518</v>
+        <f>IF(J12&gt;0, H12-I12*E12, 0)</f>
+        <v>5789704</v>
       </c>
       <c r="L12" s="61">
-        <f>'[8]دارایی فعلی'!$J$4</f>
-        <v>9730</v>
+        <f>'[6]دارایی فعلی'!$J$4</f>
+        <v>96800</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="3"/>
-        <v>0.268099131740972</v>
+        <f>(L12/F12)-1</f>
+        <v>0.31623675944685425</v>
       </c>
       <c r="N12" s="62">
-        <f t="shared" si="4"/>
-        <v>1.3588057069275394</v>
+        <f>IF(J12&gt;0, M12/J12,"RF")</f>
+        <v>5.4389616463985018</v>
       </c>
       <c r="O12" s="61">
-        <f>'[8]دارایی فعلی'!$G$4</f>
-        <v>11971</v>
+        <f>'[6]دارایی فعلی'!$G$4</f>
+        <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="5"/>
-        <v>0.56016595129200164</v>
+        <f>(O12/F12)-1</f>
+        <v>-1</v>
       </c>
       <c r="Q12" s="62">
-        <f t="shared" si="6"/>
-        <v>2.8390867456350768</v>
+        <f>IF(J12&gt;0, P12/J12,"RF")</f>
+        <v>-17.199017773620199</v>
       </c>
       <c r="R12" s="61">
-        <f>'[8]دارایی فعلی'!$D$4</f>
+        <f>'[6]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S12" s="71">
-        <f t="shared" si="7"/>
+        <f>(R12/F12)-1</f>
         <v>-1</v>
       </c>
       <c r="T12" s="70" t="str">
@@ -7390,69 +7558,69 @@
         <v>14</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="9">
-        <f>'[9]دارایی فعلی'!$R$4</f>
-        <v>4894</v>
+        <f>'[8]دارایی فعلی'!$R$4</f>
+        <v>11151</v>
       </c>
       <c r="F13" s="8">
-        <f>'[9]دارایی فعلی'!$Q$4</f>
-        <v>13403</v>
+        <f>'[8]دارایی فعلی'!$Q$4</f>
+        <v>7672.9017128508658</v>
       </c>
       <c r="G13" s="4">
         <f>IF( (F13-I13)*E13/سرمایه!K4&gt;0,(F13-I13)*E13/سرمایه!K4, "Risk free")</f>
-        <v>5.2156027235343919E-3</v>
+        <v>1.2237428142074722E-2</v>
       </c>
       <c r="H13" s="61">
-        <f t="shared" si="0"/>
-        <v>65594282</v>
+        <f>E13*F13</f>
+        <v>85560527</v>
       </c>
       <c r="I13" s="6">
-        <f>'[9]دارایی فعلی'!$M$4</f>
-        <v>11931</v>
+        <f>'[8]دارایی فعلی'!$M$4</f>
+        <v>6159</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.10982615832276355</v>
+        <f>IF(1-(I13/F13)&gt;0, 1-(I13/F13), 0)</f>
+        <v>0.19730497919911139</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="2"/>
-        <v>7203968</v>
+        <f>IF(J13&gt;0, H13-I13*E13, 0)</f>
+        <v>16881518</v>
       </c>
       <c r="L13" s="61">
-        <f>'[9]دارایی فعلی'!$J$4</f>
-        <v>15866</v>
+        <f>'[8]دارایی فعلی'!$J$4</f>
+        <v>9730</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="3"/>
-        <v>0.18376482876967848</v>
+        <f>(L13/F13)-1</f>
+        <v>0.268099131740972</v>
       </c>
       <c r="N13" s="62">
-        <f t="shared" si="4"/>
-        <v>1.6732336956521745</v>
+        <f>IF(J13&gt;0, M13/J13,"RF")</f>
+        <v>1.3588057069275394</v>
       </c>
       <c r="O13" s="61">
-        <f>'[9]دارایی فعلی'!$G$4</f>
-        <v>18136</v>
+        <f>'[8]دارایی فعلی'!$G$4</f>
+        <v>11971</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="5"/>
-        <v>0.35312989629187497</v>
+        <f>(O13/F13)-1</f>
+        <v>0.56016595129200164</v>
       </c>
       <c r="Q13" s="62">
-        <f t="shared" si="6"/>
-        <v>3.2153532608695659</v>
+        <f>IF(J13&gt;0, P13/J13,"RF")</f>
+        <v>2.8390867456350768</v>
       </c>
       <c r="R13" s="61">
-        <f>'[9]دارایی فعلی'!$D$4</f>
+        <f>'[8]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S13" s="71">
-        <f t="shared" si="7"/>
+        <f>(R13/F13)-1</f>
         <v>-1</v>
       </c>
       <c r="T13" s="70" t="str">
@@ -7483,7 +7651,7 @@
         <v>Risk free</v>
       </c>
       <c r="H14" s="59">
-        <f t="shared" si="0"/>
+        <f>E14*F14</f>
         <v>0</v>
       </c>
       <c r="I14" s="35">
@@ -7491,11 +7659,11 @@
         <v>5897</v>
       </c>
       <c r="J14" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I14/F14)&gt;0, 1-(I14/F14), 0)</f>
         <v>0</v>
       </c>
       <c r="K14" s="36">
-        <f t="shared" si="2"/>
+        <f>IF(J14&gt;0, H14-I14*E14, 0)</f>
         <v>0</v>
       </c>
       <c r="L14" s="59">
@@ -7503,11 +7671,11 @@
         <v>8381</v>
       </c>
       <c r="M14" s="33">
-        <f t="shared" si="3"/>
+        <f>(L14/F14)-1</f>
         <v>8380</v>
       </c>
       <c r="N14" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J14&gt;0, M14/J14,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O14" s="59">
@@ -7515,11 +7683,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="33">
-        <f t="shared" si="5"/>
+        <f>(O14/F14)-1</f>
         <v>-1</v>
       </c>
       <c r="Q14" s="60" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J14&gt;0, P14/J14,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R14" s="59">
@@ -7527,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="81">
-        <f t="shared" si="7"/>
+        <f>(R14/F14)-1</f>
         <v>-1</v>
       </c>
       <c r="T14" s="69" t="str">
@@ -7558,7 +7726,7 @@
         <v>Risk free</v>
       </c>
       <c r="H15" s="61">
-        <f t="shared" si="0"/>
+        <f>E15*F15</f>
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -7566,11 +7734,11 @@
         <v>13992</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I15/F15)&gt;0, 1-(I15/F15), 0)</f>
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J15&gt;0, H15-I15*E15, 0)</f>
         <v>0</v>
       </c>
       <c r="L15" s="61">
@@ -7578,11 +7746,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="3"/>
+        <f>(L15/F15)-1</f>
         <v>-1</v>
       </c>
       <c r="N15" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J15&gt;0, M15/J15,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O15" s="61">
@@ -7590,11 +7758,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="5"/>
+        <f>(O15/F15)-1</f>
         <v>-1</v>
       </c>
       <c r="Q15" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J15&gt;0, P15/J15,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R15" s="61">
@@ -7602,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="71">
-        <f t="shared" si="7"/>
+        <f>(R15/F15)-1</f>
         <v>-1</v>
       </c>
       <c r="T15" s="70" t="str">
@@ -7633,7 +7801,7 @@
         <v>Risk free</v>
       </c>
       <c r="H16" s="61">
-        <f t="shared" si="0"/>
+        <f>E16*F16</f>
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -7641,11 +7809,11 @@
         <v>36278</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I16/F16)&gt;0, 1-(I16/F16), 0)</f>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J16&gt;0, H16-I16*E16, 0)</f>
         <v>0</v>
       </c>
       <c r="L16" s="61">
@@ -7653,11 +7821,11 @@
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="3"/>
+        <f>(L16/F16)-1</f>
         <v>-1</v>
       </c>
       <c r="N16" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J16&gt;0, M16/J16,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O16" s="61">
@@ -7665,11 +7833,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="5"/>
+        <f>(O16/F16)-1</f>
         <v>-1</v>
       </c>
       <c r="Q16" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J16&gt;0, P16/J16,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R16" s="61">
@@ -7677,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="71">
-        <f t="shared" si="7"/>
+        <f>(R16/F16)-1</f>
         <v>-1</v>
       </c>
       <c r="T16" s="70" t="str">
@@ -7687,72 +7855,72 @@
     </row>
     <row r="17" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="32" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E17" s="9">
-        <f>'[13]دارایی فعلی'!$R$4</f>
-        <v>18967</v>
+        <f>'[9]دارایی فعلی'!$R$4</f>
+        <v>4894</v>
       </c>
       <c r="F17" s="8">
-        <f>'[13]دارایی فعلی'!$Q$4</f>
-        <v>3451</v>
+        <f>'[9]دارایی فعلی'!$Q$4</f>
+        <v>13403</v>
       </c>
       <c r="G17" s="4">
         <f>IF( (F17-I17)*E17/سرمایه!K4&gt;0,(F17-I17)*E17/سرمایه!K4, "Risk free")</f>
-        <v>1.3594604180460551E-2</v>
+        <v>5.2221631216935425E-3</v>
       </c>
       <c r="H17" s="61">
-        <f t="shared" si="0"/>
-        <v>65455117</v>
+        <f>E17*F17</f>
+        <v>65594282</v>
       </c>
       <c r="I17" s="6">
-        <f>'[13]دارایی فعلی'!$M$4</f>
-        <v>2461</v>
+        <f>'[9]دارایی فعلی'!$M$4</f>
+        <v>11931</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.28687337003767022</v>
+        <f>IF(1-(I17/F17)&gt;0, 1-(I17/F17), 0)</f>
+        <v>0.10982615832276355</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="2"/>
-        <v>18777330</v>
+        <f>IF(J17&gt;0, H17-I17*E17, 0)</f>
+        <v>7203968</v>
       </c>
       <c r="L17" s="61">
-        <f>'[13]دارایی فعلی'!$J$4</f>
-        <v>4584</v>
+        <f>'[9]دارایی فعلی'!$J$4</f>
+        <v>15866</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="3"/>
-        <v>0.32831063459866705</v>
+        <f>(L17/F17)-1</f>
+        <v>0.18376482876967848</v>
       </c>
       <c r="N17" s="62">
-        <f t="shared" si="4"/>
-        <v>1.1444444444444446</v>
+        <f>IF(J17&gt;0, M17/J17,"RF")</f>
+        <v>1.6732336956521745</v>
       </c>
       <c r="O17" s="61">
-        <f>'[13]دارایی فعلی'!$G$4</f>
-        <v>0</v>
+        <f>'[9]دارایی فعلی'!$G$4</f>
+        <v>18136</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
+        <f>(O17/F17)-1</f>
+        <v>0.35312989629187497</v>
       </c>
       <c r="Q17" s="62">
-        <f t="shared" si="6"/>
-        <v>-3.485858585858586</v>
+        <f>IF(J17&gt;0, P17/J17,"RF")</f>
+        <v>3.2153532608695659</v>
       </c>
       <c r="R17" s="61">
-        <f>'[13]دارایی فعلی'!$D$4</f>
+        <f>'[9]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S17" s="71">
-        <f t="shared" si="7"/>
+        <f>(R17/F17)-1</f>
         <v>-1</v>
       </c>
       <c r="T17" s="70" t="str">
@@ -7783,7 +7951,7 @@
         <v>Risk free</v>
       </c>
       <c r="H18" s="59">
-        <f t="shared" si="0"/>
+        <f>E18*F18</f>
         <v>0</v>
       </c>
       <c r="I18" s="35">
@@ -7791,11 +7959,11 @@
         <v>10232</v>
       </c>
       <c r="J18" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I18/F18)&gt;0, 1-(I18/F18), 0)</f>
         <v>0</v>
       </c>
       <c r="K18" s="36">
-        <f t="shared" si="2"/>
+        <f>IF(J18&gt;0, H18-I18*E18, 0)</f>
         <v>0</v>
       </c>
       <c r="L18" s="59">
@@ -7803,11 +7971,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="33">
-        <f t="shared" si="3"/>
+        <f>(L18/F18)-1</f>
         <v>-1</v>
       </c>
       <c r="N18" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J18&gt;0, M18/J18,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O18" s="59">
@@ -7815,11 +7983,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="33">
-        <f t="shared" si="5"/>
+        <f>(O18/F18)-1</f>
         <v>-1</v>
       </c>
       <c r="Q18" s="60" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J18&gt;0, P18/J18,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R18" s="59">
@@ -7827,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="81">
-        <f t="shared" si="7"/>
+        <f>(R18/F18)-1</f>
         <v>-1</v>
       </c>
       <c r="T18" s="69" t="str">
@@ -7858,7 +8026,7 @@
         <v>Risk free</v>
       </c>
       <c r="H19" s="61">
-        <f t="shared" si="0"/>
+        <f>E19*F19</f>
         <v>0</v>
       </c>
       <c r="I19" s="6">
@@ -7866,11 +8034,11 @@
         <v>4722</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I19/F19)&gt;0, 1-(I19/F19), 0)</f>
         <v>0</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J19&gt;0, H19-I19*E19, 0)</f>
         <v>0</v>
       </c>
       <c r="L19" s="61">
@@ -7878,11 +8046,11 @@
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="3"/>
+        <f>(L19/F19)-1</f>
         <v>-1</v>
       </c>
       <c r="N19" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J19&gt;0, M19/J19,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O19" s="61">
@@ -7890,11 +8058,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="5"/>
+        <f>(O19/F19)-1</f>
         <v>-1</v>
       </c>
       <c r="Q19" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J19&gt;0, P19/J19,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R19" s="61">
@@ -7902,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="71">
-        <f t="shared" si="7"/>
+        <f>(R19/F19)-1</f>
         <v>-1</v>
       </c>
       <c r="T19" s="70" t="str">
@@ -7933,7 +8101,7 @@
         <v>Risk free</v>
       </c>
       <c r="H20" s="61">
-        <f t="shared" si="0"/>
+        <f>E20*F20</f>
         <v>0</v>
       </c>
       <c r="I20" s="6">
@@ -7941,11 +8109,11 @@
         <v>23065</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I20/F20)&gt;0, 1-(I20/F20), 0)</f>
         <v>0</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J20&gt;0, H20-I20*E20, 0)</f>
         <v>0</v>
       </c>
       <c r="L20" s="61">
@@ -7953,11 +8121,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="3"/>
+        <f>(L20/F20)-1</f>
         <v>-1</v>
       </c>
       <c r="N20" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J20&gt;0, M20/J20,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O20" s="61">
@@ -7965,11 +8133,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="5"/>
+        <f>(O20/F20)-1</f>
         <v>-1</v>
       </c>
       <c r="Q20" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J20&gt;0, P20/J20,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R20" s="61">
@@ -7977,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="71">
-        <f t="shared" si="7"/>
+        <f>(R20/F20)-1</f>
         <v>-1</v>
       </c>
       <c r="T20" s="70" t="str">
@@ -8008,7 +8176,7 @@
         <v>Risk free</v>
       </c>
       <c r="H21" s="61">
-        <f t="shared" si="0"/>
+        <f>E21*F21</f>
         <v>0</v>
       </c>
       <c r="I21" s="6">
@@ -8016,11 +8184,11 @@
         <v>5707</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I21/F21)&gt;0, 1-(I21/F21), 0)</f>
         <v>0</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J21&gt;0, H21-I21*E21, 0)</f>
         <v>0</v>
       </c>
       <c r="L21" s="61">
@@ -8028,11 +8196,11 @@
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="3"/>
+        <f>(L21/F21)-1</f>
         <v>-1</v>
       </c>
       <c r="N21" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J21&gt;0, M21/J21,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O21" s="61">
@@ -8040,11 +8208,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="5"/>
+        <f>(O21/F21)-1</f>
         <v>-1</v>
       </c>
       <c r="Q21" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J21&gt;0, P21/J21,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R21" s="61">
@@ -8052,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="71">
-        <f t="shared" si="7"/>
+        <f>(R21/F21)-1</f>
         <v>-1</v>
       </c>
       <c r="T21" s="70" t="str">
@@ -8083,7 +8251,7 @@
         <v>Risk free</v>
       </c>
       <c r="H22" s="61">
-        <f t="shared" si="0"/>
+        <f>E22*F22</f>
         <v>0</v>
       </c>
       <c r="I22" s="6">
@@ -8091,11 +8259,11 @@
         <v>17246</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I22/F22)&gt;0, 1-(I22/F22), 0)</f>
         <v>0</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J22&gt;0, H22-I22*E22, 0)</f>
         <v>0</v>
       </c>
       <c r="L22" s="61">
@@ -8103,11 +8271,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="3"/>
+        <f>(L22/F22)-1</f>
         <v>-1</v>
       </c>
       <c r="N22" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J22&gt;0, M22/J22,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O22" s="61">
@@ -8115,11 +8283,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="5"/>
+        <f>(O22/F22)-1</f>
         <v>-1</v>
       </c>
       <c r="Q22" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J22&gt;0, P22/J22,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R22" s="61">
@@ -8127,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="71">
-        <f t="shared" si="7"/>
+        <f>(R22/F22)-1</f>
         <v>-1</v>
       </c>
       <c r="T22" s="70" t="str">
@@ -8158,7 +8326,7 @@
         <v>Risk free</v>
       </c>
       <c r="H23" s="61">
-        <f t="shared" si="0"/>
+        <f>E23*F23</f>
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -8166,11 +8334,11 @@
         <v>29923</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I23/F23)&gt;0, 1-(I23/F23), 0)</f>
         <v>0</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J23&gt;0, H23-I23*E23, 0)</f>
         <v>0</v>
       </c>
       <c r="L23" s="61">
@@ -8178,11 +8346,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="3"/>
+        <f>(L23/F23)-1</f>
         <v>-1</v>
       </c>
       <c r="N23" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J23&gt;0, M23/J23,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O23" s="61">
@@ -8190,11 +8358,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="5"/>
+        <f>(O23/F23)-1</f>
         <v>-1</v>
       </c>
       <c r="Q23" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J23&gt;0, P23/J23,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R23" s="61">
@@ -8202,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="71">
-        <f t="shared" si="7"/>
+        <f>(R23/F23)-1</f>
         <v>-1</v>
       </c>
       <c r="T23" s="70" t="str">
@@ -8212,72 +8380,72 @@
     </row>
     <row r="24" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E24" s="9">
-        <f>'[20]دارایی فعلی'!$R$4</f>
-        <v>1584</v>
+        <f>'[13]دارایی فعلی'!$R$4</f>
+        <v>18967</v>
       </c>
       <c r="F24" s="8">
-        <f>'[20]دارایی فعلی'!$Q$4</f>
-        <v>38204</v>
+        <f>'[13]دارایی فعلی'!$Q$4</f>
+        <v>3451</v>
       </c>
       <c r="G24" s="4">
         <f>IF( (F24-I24)*E24/سرمایه!K4&gt;0,(F24-I24)*E24/سرمایه!K4, "Risk free")</f>
-        <v>1.0926715970384616E-2</v>
+        <v>1.3611704028928199E-2</v>
       </c>
       <c r="H24" s="61">
-        <f t="shared" si="0"/>
-        <v>60515136</v>
+        <f>E24*F24</f>
+        <v>65455117</v>
       </c>
       <c r="I24" s="6">
-        <f>'[20]دارایی فعلی'!$M$4</f>
-        <v>28676</v>
+        <f>'[13]دارایی فعلی'!$M$4</f>
+        <v>2461</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.24939796879907861</v>
+        <f>IF(1-(I24/F24)&gt;0, 1-(I24/F24), 0)</f>
+        <v>0.28687337003767022</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="2"/>
-        <v>15092352</v>
+        <f>IF(J24&gt;0, H24-I24*E24, 0)</f>
+        <v>18777330</v>
       </c>
       <c r="L24" s="61">
-        <f>'[20]دارایی فعلی'!$J$4</f>
-        <v>45154</v>
+        <f>'[13]دارایی فعلی'!$J$4</f>
+        <v>4584</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="3"/>
-        <v>0.18191812375667471</v>
+        <f>(L24/F24)-1</f>
+        <v>0.32831063459866705</v>
       </c>
       <c r="N24" s="62">
-        <f t="shared" si="4"/>
-        <v>0.72942905121746449</v>
+        <f>IF(J24&gt;0, M24/J24,"RF")</f>
+        <v>1.1444444444444446</v>
       </c>
       <c r="O24" s="61">
-        <f>'[20]دارایی فعلی'!$G$4</f>
+        <f>'[13]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="5"/>
+        <f>(O24/F24)-1</f>
         <v>-1</v>
       </c>
       <c r="Q24" s="62">
-        <f t="shared" si="6"/>
-        <v>-4.0096557514693538</v>
+        <f>IF(J24&gt;0, P24/J24,"RF")</f>
+        <v>-3.485858585858586</v>
       </c>
       <c r="R24" s="61">
-        <f>'[20]دارایی فعلی'!$D$4</f>
+        <f>'[13]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S24" s="71">
-        <f t="shared" si="7"/>
+        <f>(R24/F24)-1</f>
         <v>-1</v>
       </c>
       <c r="T24" s="70" t="str">
@@ -8290,69 +8458,69 @@
         <v>14</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="E25" s="9">
-        <f>'[21]دارایی فعلی'!$R$4</f>
-        <v>3636</v>
+        <f>'[20]دارایی فعلی'!$R$4</f>
+        <v>1584</v>
       </c>
       <c r="F25" s="8">
-        <f>'[21]دارایی فعلی'!$Q$4</f>
-        <v>8725</v>
-      </c>
-      <c r="G25" s="4" t="str">
+        <f>'[20]دارایی فعلی'!$Q$4</f>
+        <v>38204</v>
+      </c>
+      <c r="G25" s="4">
         <f>IF( (F25-I25)*E25/سرمایه!K4&gt;0,(F25-I25)*E25/سرمایه!K4, "Risk free")</f>
-        <v>Risk free</v>
+        <v>1.0940460040080381E-2</v>
       </c>
       <c r="H25" s="61">
-        <f t="shared" si="0"/>
-        <v>31724100</v>
+        <f>E25*F25</f>
+        <v>60515136</v>
       </c>
       <c r="I25" s="6">
-        <f>'[21]دارایی فعلی'!$M$4</f>
-        <v>8725</v>
+        <f>'[20]دارایی فعلی'!$M$4</f>
+        <v>28676</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(1-(I25/F25)&gt;0, 1-(I25/F25), 0)</f>
+        <v>0.24939796879907861</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J25&gt;0, H25-I25*E25, 0)</f>
+        <v>15092352</v>
       </c>
       <c r="L25" s="61">
-        <f>'[21]دارایی فعلی'!$J$4</f>
-        <v>0</v>
+        <f>'[20]دارایی فعلی'!$J$4</f>
+        <v>45154</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="3"/>
+        <f>(L25/F25)-1</f>
+        <v>0.18191812375667471</v>
+      </c>
+      <c r="N25" s="62">
+        <f>IF(J25&gt;0, M25/J25,"RF")</f>
+        <v>0.72942905121746449</v>
+      </c>
+      <c r="O25" s="61">
+        <f>'[20]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <f>(O25/F25)-1</f>
         <v>-1</v>
       </c>
-      <c r="N25" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>RF</v>
-      </c>
-      <c r="O25" s="61">
-        <f>'[21]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>RF</v>
+      <c r="Q25" s="62">
+        <f>IF(J25&gt;0, P25/J25,"RF")</f>
+        <v>-4.0096557514693538</v>
       </c>
       <c r="R25" s="61">
-        <f>'[21]دارایی فعلی'!$D$4</f>
+        <f>'[20]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S25" s="71">
-        <f t="shared" si="7"/>
+        <f>(R25/F25)-1</f>
         <v>-1</v>
       </c>
       <c r="T25" s="70" t="str">
@@ -8362,76 +8530,76 @@
     </row>
     <row r="26" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="E26" s="9">
-        <f>'[22]دارایی فعلی'!$R$4</f>
-        <v>2926</v>
+        <f>'[27]دارایی فعلی'!$R$4</f>
+        <v>3351</v>
       </c>
       <c r="F26" s="8">
-        <f>'[22]دارایی فعلی'!$Q$4</f>
-        <v>9614</v>
+        <f>'[27]دارایی فعلی'!$Q$4</f>
+        <v>15065</v>
       </c>
       <c r="G26" s="4">
         <f>IF( (F26-I26)*E26/سرمایه!K4&gt;0,(F26-I26)*E26/سرمایه!K4, "Risk free")</f>
-        <v>2.5187722785018308E-3</v>
+        <v>1.1657457377822264E-2</v>
       </c>
       <c r="H26" s="61">
-        <f t="shared" si="0"/>
-        <v>28130564</v>
+        <f>E26*F26</f>
+        <v>50482815</v>
       </c>
       <c r="I26" s="6">
-        <f>'[22]دارایی فعلی'!$M$4</f>
-        <v>8425</v>
+        <f>'[27]دارایی فعلی'!$M$4</f>
+        <v>10266</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.12367380902850011</v>
+        <f>IF(1-(I26/F26)&gt;0, 1-(I26/F26), 0)</f>
+        <v>0.3185529372718221</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="2"/>
-        <v>3479014</v>
+        <f>IF(J26&gt;0, H26-I26*E26, 0)</f>
+        <v>16081449</v>
       </c>
       <c r="L26" s="61">
-        <f>'[22]دارایی فعلی'!$J$4</f>
-        <v>11642</v>
+        <f>'[27]دارایی فعلی'!$J$4</f>
+        <v>20000</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="3"/>
-        <v>0.21094237570210117</v>
+        <f>(L26/F26)-1</f>
+        <v>0.32758048456687683</v>
       </c>
       <c r="N26" s="62">
-        <f t="shared" si="4"/>
-        <v>1.705634987384357</v>
+        <f>IF(J26&gt;0, M26/J26,"RF")</f>
+        <v>1.0283392373411127</v>
       </c>
       <c r="O26" s="61">
-        <f>'[22]دارایی فعلی'!$G$4</f>
-        <v>0</v>
+        <f>'[27]دارایی فعلی'!$G$4</f>
+        <v>22500</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="5"/>
+        <f>(O26/F26)-1</f>
+        <v>0.4935280451377364</v>
+      </c>
+      <c r="Q26" s="62">
+        <f>IF(J26&gt;0, P26/J26,"RF")</f>
+        <v>1.5492811002292142</v>
+      </c>
+      <c r="R26" s="61">
+        <f>'[27]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="71">
+        <f>(R26/F26)-1</f>
         <v>-1</v>
       </c>
-      <c r="Q26" s="62">
-        <f t="shared" si="6"/>
-        <v>-8.0857863751051298</v>
-      </c>
-      <c r="R26" s="61">
-        <f>'[22]دارایی فعلی'!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="71">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
       <c r="T26" s="70" t="str">
-        <f>IF(AA25&gt;0,#REF!/ AA25,"RF")</f>
+        <f>IF(AA24&gt;0,#REF!/ AA24,"RF")</f>
         <v>RF</v>
       </c>
     </row>
@@ -8440,69 +8608,69 @@
         <v>14</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E27" s="9">
-        <f>'[23]دارایی فعلی'!$R$4</f>
-        <v>1337</v>
+        <f>'[21]دارایی فعلی'!$R$4</f>
+        <v>3636</v>
       </c>
       <c r="F27" s="8">
-        <f>'[23]دارایی فعلی'!$Q$4</f>
-        <v>4443</v>
+        <f>'[21]دارایی فعلی'!$Q$4</f>
+        <v>8725</v>
       </c>
       <c r="G27" s="4" t="str">
         <f>IF( (F27-I27)*E27/سرمایه!K4&gt;0,(F27-I27)*E27/سرمایه!K4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="H27" s="61">
-        <f t="shared" si="0"/>
-        <v>5940291</v>
+        <f>E27*F27</f>
+        <v>31724100</v>
       </c>
       <c r="I27" s="6">
-        <f>'[23]دارایی فعلی'!$M$4</f>
-        <v>4443</v>
+        <f>'[21]دارایی فعلی'!$M$4</f>
+        <v>8725</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I27/F27)&gt;0, 1-(I27/F27), 0)</f>
         <v>0</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J27&gt;0, H27-I27*E27, 0)</f>
         <v>0</v>
       </c>
       <c r="L27" s="61">
-        <f>'[23]دارایی فعلی'!$J$4</f>
+        <f>'[21]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="3"/>
+        <f>(L27/F27)-1</f>
         <v>-1</v>
       </c>
       <c r="N27" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J27&gt;0, M27/J27,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O27" s="61">
-        <f>'[23]دارایی فعلی'!$G$4</f>
+        <f>'[21]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="5"/>
+        <f>(O27/F27)-1</f>
         <v>-1</v>
       </c>
       <c r="Q27" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J27&gt;0, P27/J27,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R27" s="61">
-        <f>'[23]دارایی فعلی'!$D$4</f>
+        <f>'[21]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S27" s="71">
-        <f t="shared" si="7"/>
+        <f>(R27/F27)-1</f>
         <v>-1</v>
       </c>
       <c r="T27" s="70" t="str">
@@ -8515,69 +8683,69 @@
         <v>14</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E28" s="9">
-        <f>'[24]دارایی فعلی'!$R$4</f>
-        <v>201</v>
+        <f>'[22]دارایی فعلی'!$R$4</f>
+        <v>2926</v>
       </c>
       <c r="F28" s="8">
-        <f>'[24]دارایی فعلی'!$Q$4</f>
-        <v>13310</v>
-      </c>
-      <c r="G28" s="4" t="str">
+        <f>'[22]دارایی فعلی'!$Q$4</f>
+        <v>9614</v>
+      </c>
+      <c r="G28" s="4">
         <f>IF( (F28-I28)*E28/سرمایه!K4&gt;0,(F28-I28)*E28/سرمایه!K4, "Risk free")</f>
-        <v>Risk free</v>
+        <v>2.5219404931637037E-3</v>
       </c>
       <c r="H28" s="61">
-        <f t="shared" si="0"/>
-        <v>2675310</v>
+        <f>E28*F28</f>
+        <v>28130564</v>
       </c>
       <c r="I28" s="6">
-        <f>'[24]دارایی فعلی'!$M$4</f>
-        <v>13310</v>
+        <f>'[22]دارایی فعلی'!$M$4</f>
+        <v>8425</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(1-(I28/F28)&gt;0, 1-(I28/F28), 0)</f>
+        <v>0.12367380902850011</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(J28&gt;0, H28-I28*E28, 0)</f>
+        <v>3479014</v>
       </c>
       <c r="L28" s="61">
-        <f>'[24]دارایی فعلی'!$J$4</f>
-        <v>0</v>
+        <f>'[22]دارایی فعلی'!$J$4</f>
+        <v>11642</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="3"/>
+        <f>(L28/F28)-1</f>
+        <v>0.21094237570210117</v>
+      </c>
+      <c r="N28" s="62">
+        <f>IF(J28&gt;0, M28/J28,"RF")</f>
+        <v>1.705634987384357</v>
+      </c>
+      <c r="O28" s="61">
+        <f>'[22]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <f>(O28/F28)-1</f>
         <v>-1</v>
       </c>
-      <c r="N28" s="62" t="str">
-        <f t="shared" si="4"/>
-        <v>RF</v>
-      </c>
-      <c r="O28" s="61">
-        <f>'[24]دارایی فعلی'!$G$4</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Q28" s="62" t="str">
-        <f t="shared" si="6"/>
-        <v>RF</v>
+      <c r="Q28" s="62">
+        <f>IF(J28&gt;0, P28/J28,"RF")</f>
+        <v>-8.0857863751051298</v>
       </c>
       <c r="R28" s="61">
-        <f>'[24]دارایی فعلی'!$D$4</f>
+        <f>'[22]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S28" s="71">
-        <f t="shared" si="7"/>
+        <f>(R28/F28)-1</f>
         <v>-1</v>
       </c>
       <c r="T28" s="70" t="str">
@@ -8590,69 +8758,69 @@
         <v>14</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="9">
-        <f>'[25]دارایی فعلی'!$R$4</f>
-        <v>420</v>
+        <f>'[23]دارایی فعلی'!$R$4</f>
+        <v>1337</v>
       </c>
       <c r="F29" s="8">
-        <f>'[25]دارایی فعلی'!$Q$4</f>
-        <v>3450</v>
+        <f>'[23]دارایی فعلی'!$Q$4</f>
+        <v>4443</v>
       </c>
       <c r="G29" s="4" t="str">
         <f>IF( (F29-I29)*E29/سرمایه!K4&gt;0,(F29-I29)*E29/سرمایه!K4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="H29" s="61">
-        <f t="shared" si="0"/>
-        <v>1449000</v>
+        <f>E29*F29</f>
+        <v>5940291</v>
       </c>
       <c r="I29" s="6">
-        <f>'[25]دارایی فعلی'!$M$4</f>
-        <v>3450</v>
+        <f>'[23]دارایی فعلی'!$M$4</f>
+        <v>4443</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I29/F29)&gt;0, 1-(I29/F29), 0)</f>
         <v>0</v>
       </c>
       <c r="K29" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J29&gt;0, H29-I29*E29, 0)</f>
         <v>0</v>
       </c>
       <c r="L29" s="61">
-        <f>'[25]دارایی فعلی'!$J$4</f>
+        <f>'[23]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="3"/>
+        <f>(L29/F29)-1</f>
         <v>-1</v>
       </c>
       <c r="N29" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J29&gt;0, M29/J29,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O29" s="61">
-        <f>'[25]دارایی فعلی'!$G$4</f>
+        <f>'[23]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="5"/>
+        <f>(O29/F29)-1</f>
         <v>-1</v>
       </c>
       <c r="Q29" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J29&gt;0, P29/J29,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R29" s="61">
-        <f>'[25]دارایی فعلی'!$D$4</f>
+        <f>'[23]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S29" s="71">
-        <f t="shared" si="7"/>
+        <f>(R29/F29)-1</f>
         <v>-1</v>
       </c>
       <c r="T29" s="70" t="str">
@@ -8661,73 +8829,73 @@
       </c>
     </row>
     <row r="30" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="9">
-        <f>'[26]دارایی فعلی'!$R$4</f>
-        <v>37</v>
+        <f>'[24]دارایی فعلی'!$R$4</f>
+        <v>201</v>
       </c>
       <c r="F30" s="8">
-        <f>'[26]دارایی فعلی'!$Q$4</f>
-        <v>23838</v>
+        <f>'[24]دارایی فعلی'!$Q$4</f>
+        <v>13310</v>
       </c>
       <c r="G30" s="4" t="str">
         <f>IF( (F30-I30)*E30/سرمایه!K4&gt;0,(F30-I30)*E30/سرمایه!K4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="H30" s="61">
-        <f t="shared" si="0"/>
-        <v>882006</v>
+        <f>E30*F30</f>
+        <v>2675310</v>
       </c>
       <c r="I30" s="6">
-        <f>'[26]دارایی فعلی'!$M$4</f>
-        <v>23838</v>
+        <f>'[24]دارایی فعلی'!$M$4</f>
+        <v>13310</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I30/F30)&gt;0, 1-(I30/F30), 0)</f>
         <v>0</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J30&gt;0, H30-I30*E30, 0)</f>
         <v>0</v>
       </c>
       <c r="L30" s="61">
-        <f>'[26]دارایی فعلی'!$J$4</f>
+        <f>'[24]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="3"/>
+        <f>(L30/F30)-1</f>
         <v>-1</v>
       </c>
       <c r="N30" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J30&gt;0, M30/J30,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O30" s="61">
-        <f>'[26]دارایی فعلی'!$G$4</f>
+        <f>'[24]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="5"/>
+        <f>(O30/F30)-1</f>
         <v>-1</v>
       </c>
       <c r="Q30" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J30&gt;0, P30/J30,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R30" s="61">
-        <f>'[26]دارایی فعلی'!$D$4</f>
+        <f>'[24]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S30" s="71">
-        <f t="shared" si="7"/>
+        <f>(R30/F30)-1</f>
         <v>-1</v>
       </c>
       <c r="T30" s="70" t="str">
@@ -8736,77 +8904,227 @@
       </c>
     </row>
     <row r="31" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>42</v>
+        <v>101</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="E31" s="9">
-        <f>'[27]دارایی فعلی'!$R$4</f>
-        <v>21</v>
+        <f>'[25]دارایی فعلی'!$R$4</f>
+        <v>420</v>
       </c>
       <c r="F31" s="8">
-        <f>'[27]دارایی فعلی'!$Q$4</f>
-        <v>20185</v>
+        <f>'[25]دارایی فعلی'!$Q$4</f>
+        <v>3450</v>
       </c>
       <c r="G31" s="4" t="str">
         <f>IF( (F31-I31)*E31/سرمایه!K4&gt;0,(F31-I31)*E31/سرمایه!K4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="H31" s="61">
-        <f t="shared" si="0"/>
-        <v>423885</v>
+        <f>E31*F31</f>
+        <v>1449000</v>
       </c>
       <c r="I31" s="6">
-        <f>'[27]دارایی فعلی'!$M$4</f>
-        <v>20185</v>
+        <f>'[25]دارایی فعلی'!$M$4</f>
+        <v>3450</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(1-(I31/F31)&gt;0, 1-(I31/F31), 0)</f>
         <v>0</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(J31&gt;0, H31-I31*E31, 0)</f>
         <v>0</v>
       </c>
       <c r="L31" s="61">
-        <f>'[27]دارایی فعلی'!$J$4</f>
+        <f>'[25]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="3"/>
+        <f>(L31/F31)-1</f>
         <v>-1</v>
       </c>
       <c r="N31" s="62" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(J31&gt;0, M31/J31,"RF")</f>
         <v>RF</v>
       </c>
       <c r="O31" s="61">
-        <f>'[27]دارایی فعلی'!$G$4</f>
+        <f>'[25]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="5"/>
+        <f>(O31/F31)-1</f>
         <v>-1</v>
       </c>
       <c r="Q31" s="62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(J31&gt;0, P31/J31,"RF")</f>
         <v>RF</v>
       </c>
       <c r="R31" s="61">
-        <f>'[27]دارایی فعلی'!$D$4</f>
+        <f>'[25]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S31" s="71">
-        <f t="shared" si="7"/>
+        <f>(R31/F31)-1</f>
         <v>-1</v>
       </c>
       <c r="T31" s="70" t="str">
         <f>IF(AA30&gt;0,#REF!/ AA30,"RF")</f>
+        <v>RF</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="9">
+        <f>'[28]دارایی فعلی'!$R$4</f>
+        <v>37</v>
+      </c>
+      <c r="F32" s="8">
+        <f>'[28]دارایی فعلی'!$Q$4</f>
+        <v>23838</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>IF( (F32-I32)*E32/سرمایه!K4&gt;0,(F32-I32)*E32/سرمایه!K4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="H32" s="61">
+        <f>E32*F32</f>
+        <v>882006</v>
+      </c>
+      <c r="I32" s="6">
+        <f>'[28]دارایی فعلی'!$M$4</f>
+        <v>23838</v>
+      </c>
+      <c r="J32" s="5">
+        <f>IF(1-(I32/F32)&gt;0, 1-(I32/F32), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <f>IF(J32&gt;0, H32-I32*E32, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="61">
+        <f>'[28]دارایی فعلی'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <f>(L32/F32)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="62" t="str">
+        <f>IF(J32&gt;0, M32/J32,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="O32" s="61">
+        <f>'[28]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <f>(O32/F32)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="62" t="str">
+        <f>IF(J32&gt;0, P32/J32,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="R32" s="61">
+        <f>'[28]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="71">
+        <f>(R32/F32)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="T32" s="70" t="str">
+        <f>IF(AA29&gt;0,#REF!/ AA29,"RF")</f>
+        <v>RF</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="9">
+        <f>'[29]دارایی فعلی'!$R$4</f>
+        <v>21</v>
+      </c>
+      <c r="F33" s="8">
+        <f>'[29]دارایی فعلی'!$Q$4</f>
+        <v>20185</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>IF( (F33-I33)*E33/سرمایه!K4&gt;0,(F33-I33)*E33/سرمایه!K4, "Risk free")</f>
+        <v>Risk free</v>
+      </c>
+      <c r="H33" s="61">
+        <f>E33*F33</f>
+        <v>423885</v>
+      </c>
+      <c r="I33" s="6">
+        <f>'[29]دارایی فعلی'!$M$4</f>
+        <v>20185</v>
+      </c>
+      <c r="J33" s="5">
+        <f>IF(1-(I33/F33)&gt;0, 1-(I33/F33), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <f>IF(J33&gt;0, H33-I33*E33, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="61">
+        <f>'[29]دارایی فعلی'!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f>(L33/F33)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="62" t="str">
+        <f>IF(J33&gt;0, M33/J33,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="O33" s="61">
+        <f>'[29]دارایی فعلی'!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <f>(O33/F33)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="62" t="str">
+        <f>IF(J33&gt;0, P33/J33,"RF")</f>
+        <v>RF</v>
+      </c>
+      <c r="R33" s="61">
+        <f>'[29]دارایی فعلی'!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="71">
+        <f>(R33/F33)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="T33" s="70" t="str">
+        <f>IF(AA32&gt;0,#REF!/ AA32,"RF")</f>
         <v>RF</v>
       </c>
     </row>
@@ -8824,37 +9142,39 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2"/>
+    <hyperlink ref="C31" r:id="rId2"/>
     <hyperlink ref="C16" r:id="rId3"/>
     <hyperlink ref="C15" r:id="rId4"/>
-    <hyperlink ref="C28" r:id="rId5"/>
-    <hyperlink ref="C30" r:id="rId6"/>
-    <hyperlink ref="C26" r:id="rId7"/>
+    <hyperlink ref="C30" r:id="rId5"/>
+    <hyperlink ref="C32" r:id="rId6"/>
+    <hyperlink ref="C28" r:id="rId7"/>
     <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId9"/>
     <hyperlink ref="C20" r:id="rId10"/>
     <hyperlink ref="C18" r:id="rId11"/>
-    <hyperlink ref="C31" r:id="rId12"/>
-    <hyperlink ref="C27" r:id="rId13"/>
-    <hyperlink ref="C13" r:id="rId14"/>
+    <hyperlink ref="C33" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
     <hyperlink ref="C14" r:id="rId15"/>
     <hyperlink ref="C8" r:id="rId16"/>
     <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId18"/>
     <hyperlink ref="C5" r:id="rId19"/>
     <hyperlink ref="C23" r:id="rId20"/>
     <hyperlink ref="C7" r:id="rId21"/>
     <hyperlink ref="C19" r:id="rId22"/>
     <hyperlink ref="C21" r:id="rId23"/>
-    <hyperlink ref="C17" r:id="rId24"/>
-    <hyperlink ref="C25" r:id="rId25"/>
-    <hyperlink ref="C10" r:id="rId26"/>
-    <hyperlink ref="C9" r:id="rId27"/>
+    <hyperlink ref="C24" r:id="rId24"/>
+    <hyperlink ref="C27" r:id="rId25"/>
+    <hyperlink ref="C12" r:id="rId26"/>
+    <hyperlink ref="C10" r:id="rId27"/>
+    <hyperlink ref="C9" r:id="rId28"/>
+    <hyperlink ref="C26" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId28"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8863,7 +9183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8887,40 +9209,40 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="144" t="s">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="148" t="s">
+      <c r="I2" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="149"/>
-      <c r="K2" s="160" t="s">
+      <c r="J2" s="154"/>
+      <c r="K2" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="164" t="s">
+      <c r="L2" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="165"/>
-      <c r="N2" s="154" t="s">
+      <c r="M2" s="144"/>
+      <c r="N2" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="155"/>
+      <c r="O2" s="134"/>
     </row>
     <row r="3" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="130"/>
-      <c r="C3" s="128"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="80" t="s">
         <v>93</v>
       </c>
@@ -8933,14 +9255,14 @@
       <c r="G3" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="145"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="161"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="79" t="s">
         <v>70</v>
       </c>
@@ -8955,92 +9277,79 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="133">
-        <v>281416946</v>
-      </c>
-      <c r="C4" s="131">
-        <v>1579512000</v>
-      </c>
-      <c r="D4" s="138">
-        <f>SUMPRODUCT(پرتفوی!E5:E31*پرتفوی!F5:F31)</f>
-        <v>1099817090</v>
-      </c>
-      <c r="E4" s="140">
+      <c r="B4" s="165">
+        <v>128542957</v>
+      </c>
+      <c r="C4" s="163">
+        <v>1649729000</v>
+      </c>
+      <c r="D4" s="170">
+        <f>SUMPRODUCT(پرتفوی!E5:E33*پرتفوی!F5:F33)</f>
+        <v>1250955889</v>
+      </c>
+      <c r="E4" s="172">
         <f>C4-B4</f>
-        <v>1298095054</v>
-      </c>
-      <c r="F4" s="140">
+        <v>1521186043</v>
+      </c>
+      <c r="F4" s="172">
         <f>E4-D4</f>
-        <v>198277964</v>
-      </c>
-      <c r="G4" s="142">
+        <v>270230154</v>
+      </c>
+      <c r="G4" s="174">
         <f>F4/D4</f>
-        <v>0.18028267227598727</v>
-      </c>
-      <c r="H4" s="146">
-        <f>B4+D4-SUM(پرتفوی!K5:K37)</f>
-        <v>1174846976</v>
-      </c>
-      <c r="I4" s="150">
-        <f>SUM(پرتفوی!K5:K31)</f>
-        <v>206387060</v>
-      </c>
-      <c r="J4" s="152">
+        <v>0.21601893110397277</v>
+      </c>
+      <c r="H4" s="151">
+        <f>B4+D4-SUM(پرتفوی!K5:K39)</f>
+        <v>1126390793</v>
+      </c>
+      <c r="I4" s="155">
+        <f>SUM(پرتفوی!K5:K33)</f>
+        <v>253108053</v>
+      </c>
+      <c r="J4" s="157">
         <f>(K4-H4)/K4*100</f>
-        <v>14.942222289691678</v>
-      </c>
-      <c r="K4" s="162">
+        <v>18.347826367083456</v>
+      </c>
+      <c r="K4" s="141">
         <f>D4+B4</f>
-        <v>1381234036</v>
-      </c>
-      <c r="L4" s="166">
+        <v>1379498846</v>
+      </c>
+      <c r="L4" s="145">
         <f>K4-'واریز و برداشت'!C36</f>
-        <v>22059427</v>
-      </c>
-      <c r="M4" s="168">
+        <v>23524237</v>
+      </c>
+      <c r="M4" s="147">
         <f>L4/'واریز و برداشت'!C36</f>
-        <v>1.6230016992614376E-2</v>
-      </c>
-      <c r="N4" s="156">
+        <v>1.7348582225554049E-2</v>
+      </c>
+      <c r="N4" s="135">
         <f>C4-'واریز و برداشت'!C36</f>
-        <v>220337391</v>
-      </c>
-      <c r="O4" s="158">
+        <v>293754391</v>
+      </c>
+      <c r="O4" s="137">
         <f>N4/'واریز و برداشت'!C36</f>
-        <v>0.16211117360565702</v>
+        <v>0.21663708822441527</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="134"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="159"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:C5"/>
@@ -9050,6 +9359,19 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -9060,7 +9382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9082,21 +9406,21 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="121" t="s">
+      <c r="B2" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175" t="s">
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="176"/>
+      <c r="H2" s="182"/>
       <c r="J2" s="47" t="s">
         <v>144</v>
       </c>
@@ -9105,8 +9429,8 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="172"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="179"/>
       <c r="D3" s="104" t="s">
         <v>48</v>
       </c>
@@ -9123,11 +9447,11 @@
         <v>69</v>
       </c>
       <c r="J3" s="87">
-        <v>1538405834</v>
+        <v>1639095000</v>
       </c>
       <c r="K3" s="87">
         <f>C7-J3</f>
-        <v>41106166</v>
+        <v>10634000</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="18.600000000000001" hidden="1" x14ac:dyDescent="0.3">
@@ -9210,23 +9534,25 @@
         <v>136</v>
       </c>
       <c r="C7" s="102">
-        <v>1579512000</v>
+        <v>1649729000</v>
       </c>
       <c r="D7" s="106">
         <v>801750849</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="41">
+        <v>3200000</v>
+      </c>
       <c r="F7" s="45">
         <f>Table6910[[#This Row],[Column2]]-Table6910[[#This Row],[Column3]]</f>
-        <v>801750849</v>
+        <v>798550849</v>
       </c>
       <c r="G7" s="102">
         <f>Table6910[[#This Row],[Column1]]-(C6+Table6910[[#This Row],[Column4]])</f>
-        <v>95928151</v>
+        <v>169345151</v>
       </c>
       <c r="H7" s="90">
         <f>Table6910[[#This Row],[Column5]]/(C6+Table6910[[#This Row],[Column4]])</f>
-        <v>6.4659743407600279E-2</v>
+        <v>0.11439273071939601</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
@@ -9354,14 +9680,14 @@
       </c>
       <c r="G19" s="109">
         <f>SUM(Table6910[Column5])</f>
-        <v>220337391</v>
-      </c>
-      <c r="J19" s="170" t="s">
+        <v>293754391</v>
+      </c>
+      <c r="J19" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9393,6 +9719,7 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
@@ -9486,8 +9813,12 @@
       <c r="E3" s="28">
         <v>41106166</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="28">
+        <v>59583000</v>
+      </c>
+      <c r="G3" s="28">
+        <v>10634000</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -9518,7 +9849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -9531,20 +9862,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="177" t="s">
+      <c r="B2" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="183" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
@@ -9855,9 +10186,15 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="29">
+        <v>-3200000</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="28"/>
@@ -9879,8 +10216,8 @@
         <v>66</v>
       </c>
       <c r="C36" s="29">
-        <f>SUM(C4:C31)</f>
-        <v>1359174609</v>
+        <f>SUM(C4:C32)</f>
+        <v>1355974609</v>
       </c>
     </row>
   </sheetData>
@@ -9897,7 +10234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9929,64 +10268,64 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="185">
+      <c r="E2" s="200">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="188">
+      <c r="F2" s="201"/>
+      <c r="G2" s="202">
         <v>0.01</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="190">
+      <c r="H2" s="203"/>
+      <c r="I2" s="204">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J2" s="191"/>
-      <c r="K2" s="178">
+      <c r="J2" s="205"/>
+      <c r="K2" s="190">
         <v>0.02</v>
       </c>
-      <c r="L2" s="179"/>
-      <c r="M2" s="182">
+      <c r="L2" s="191"/>
+      <c r="M2" s="192">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N2" s="183"/>
-      <c r="O2" s="180">
+      <c r="N2" s="193"/>
+      <c r="O2" s="194">
         <v>0.03</v>
       </c>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="198">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="196">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R2" s="199"/>
-      <c r="S2" s="196">
+      <c r="R2" s="197"/>
+      <c r="S2" s="198">
         <v>0.04</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="194">
+      <c r="T2" s="199"/>
+      <c r="U2" s="188">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="V2" s="195"/>
-      <c r="W2" s="192">
+      <c r="V2" s="189"/>
+      <c r="W2" s="186">
         <v>0.05</v>
       </c>
-      <c r="X2" s="193"/>
+      <c r="X2" s="187"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="203" t="s">
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="203" t="s">
+      <c r="F3" s="112" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="26" t="s">
@@ -10045,134 +10384,150 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="201">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="202">
+      <c r="B4" s="207">
+        <v>14850</v>
+      </c>
+      <c r="C4" s="184">
         <f>B4*1.0144</f>
-        <v>20288</v>
-      </c>
-      <c r="D4" s="201">
-        <v>18000</v>
-      </c>
-      <c r="E4" s="202">
+        <v>15063.84</v>
+      </c>
+      <c r="D4" s="207">
+        <v>10266</v>
+      </c>
+      <c r="E4" s="184">
         <f>سرمایه!H4*0.5/((C4-D4)*100)</f>
-        <v>2567.4103496503499</v>
-      </c>
-      <c r="F4" s="202">
+        <v>1173.8519760975773</v>
+      </c>
+      <c r="F4" s="184">
         <f>E4*C4</f>
-        <v>52087621.173706301</v>
-      </c>
-      <c r="G4" s="202">
+        <v>17682718.351617731</v>
+      </c>
+      <c r="G4" s="184">
         <f>سرمایه!H4*1/((C4-D4)*100)</f>
-        <v>5134.8206993006997</v>
-      </c>
-      <c r="H4" s="202">
+        <v>2347.7039521951547</v>
+      </c>
+      <c r="H4" s="184">
         <f>G4*C4</f>
-        <v>104175242.3474126</v>
-      </c>
-      <c r="I4" s="202">
+        <v>35365436.703235462</v>
+      </c>
+      <c r="I4" s="184">
         <f>سرمایه!H4*1.5/((C4-D4)*100)</f>
-        <v>7702.2310489510492</v>
-      </c>
-      <c r="J4" s="202">
+        <v>3521.5559282927316</v>
+      </c>
+      <c r="J4" s="184">
         <f>I4*C4</f>
-        <v>156262863.52111888</v>
-      </c>
-      <c r="K4" s="202">
+        <v>53048155.054853179</v>
+      </c>
+      <c r="K4" s="184">
         <f>سرمایه!H4*2/((C4-D4)*100)</f>
-        <v>10269.641398601399</v>
-      </c>
-      <c r="L4" s="202">
+        <v>4695.4079043903093</v>
+      </c>
+      <c r="L4" s="184">
         <f>K4*C4</f>
-        <v>208350484.6948252</v>
-      </c>
-      <c r="M4" s="202">
+        <v>70730873.406470925</v>
+      </c>
+      <c r="M4" s="184">
         <f>سرمایه!H4*2.5/((C4-D4)*100)</f>
-        <v>12837.051748251748</v>
-      </c>
-      <c r="N4" s="202">
+        <v>5869.2598804878862</v>
+      </c>
+      <c r="N4" s="184">
         <f>M4*C4</f>
-        <v>260438105.86853147</v>
-      </c>
-      <c r="O4" s="202">
+        <v>88413591.758088633</v>
+      </c>
+      <c r="O4" s="184">
         <f>سرمایه!H4*3/((C4-D4)*100)</f>
-        <v>15404.462097902098</v>
-      </c>
-      <c r="P4" s="202">
+        <v>7043.1118565854631</v>
+      </c>
+      <c r="P4" s="184">
         <f>O4*C4</f>
-        <v>312525727.04223776</v>
-      </c>
-      <c r="Q4" s="202">
+        <v>106096310.10970636</v>
+      </c>
+      <c r="Q4" s="184">
         <f>سرمایه!H4*3.5/((C4-D4)*100)</f>
-        <v>17971.872447552447</v>
-      </c>
-      <c r="R4" s="202">
+        <v>8216.9638326830409</v>
+      </c>
+      <c r="R4" s="184">
         <f>Q4*C4</f>
-        <v>364613348.21594405</v>
-      </c>
-      <c r="S4" s="202">
+        <v>123779028.4613241</v>
+      </c>
+      <c r="S4" s="184">
         <f>سرمایه!H4*4/((C4-D4)*100)</f>
-        <v>20539.282797202799</v>
-      </c>
-      <c r="T4" s="202">
+        <v>9390.8158087806187</v>
+      </c>
+      <c r="T4" s="184">
         <f>S4*C4</f>
-        <v>416700969.3896504</v>
-      </c>
-      <c r="U4" s="202">
+        <v>141461746.81294185</v>
+      </c>
+      <c r="U4" s="184">
         <f>سرمایه!H4*4.5/((C4-D4)*100)</f>
-        <v>23106.693146853147</v>
-      </c>
-      <c r="V4" s="202">
+        <v>10564.667784878195</v>
+      </c>
+      <c r="V4" s="184">
         <f>U4*C4</f>
-        <v>468788590.56335664</v>
-      </c>
-      <c r="W4" s="202">
+        <v>159144465.16455954</v>
+      </c>
+      <c r="W4" s="184">
         <f>سرمایه!H4*5/((C4-D4)*100)</f>
-        <v>25674.103496503496</v>
-      </c>
-      <c r="X4" s="202">
+        <v>11738.519760975772</v>
+      </c>
+      <c r="X4" s="184">
         <f>W4*C4</f>
-        <v>520876211.73706293</v>
+        <v>176827183.51617727</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="184"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="187"/>
-      <c r="R5" s="187"/>
-      <c r="S5" s="187"/>
-      <c r="T5" s="187"/>
-      <c r="U5" s="187"/>
-      <c r="V5" s="187"/>
-      <c r="W5" s="187"/>
-      <c r="X5" s="187"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -10183,22 +10538,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -10207,12 +10546,97 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="113"/>
+    <col min="2" max="2" width="85.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="114"/>
+    <col min="4" max="16384" width="8.88671875" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A1" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A2" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A3" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A4" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A5" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B6" s="116"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B7" s="117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B8" s="116"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B9" s="116"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B10" s="116"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B11" s="116"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B12" s="116"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B13" s="116"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
@@ -45,8 +45,13 @@
     <externalReference r:id="rId34"/>
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
+    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
+    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -585,7 +590,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1977,6 +1982,87 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2023,87 +2109,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2130,12 +2135,69 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2146,63 +2208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3226,7 +3231,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3370,11 +3375,16 @@
                   <c:v>116833000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169345151</c:v>
+                  <c:v>218739151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D52-4FFB-B963-9B3160B2AEC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3476,12 +3486,17 @@
                   <c:v>0.20678407079646019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11439273071939601</c:v>
+                  <c:v>0.14775840140903887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D52-4FFB-B963-9B3160B2AEC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3725,7 +3740,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3963,9 +3978,20 @@
                 <c:pt idx="4">
                   <c:v>10634000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>37337000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12057000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-438B-4B8D-84DA-BD56160D76D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5424,19 +5450,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>18136</v>
           </cell>
           <cell r="J4">
-            <v>4584</v>
+            <v>15866</v>
           </cell>
           <cell r="M4">
-            <v>2461</v>
+            <v>11931</v>
           </cell>
           <cell r="Q4">
-            <v>3451</v>
+            <v>13403</v>
           </cell>
           <cell r="R4">
-            <v>18967</v>
+            <v>4894</v>
           </cell>
         </row>
       </sheetData>
@@ -5747,16 +5773,16 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>45154</v>
+            <v>4584</v>
           </cell>
           <cell r="M4">
-            <v>28676</v>
+            <v>2461</v>
           </cell>
           <cell r="Q4">
-            <v>38204</v>
+            <v>3451</v>
           </cell>
           <cell r="R4">
-            <v>1584</v>
+            <v>18967</v>
           </cell>
         </row>
       </sheetData>
@@ -5787,16 +5813,16 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>45154</v>
           </cell>
           <cell r="M4">
-            <v>8725</v>
+            <v>28676</v>
           </cell>
           <cell r="Q4">
-            <v>8725</v>
+            <v>38204</v>
           </cell>
           <cell r="R4">
-            <v>3636</v>
+            <v>1584</v>
           </cell>
         </row>
       </sheetData>
@@ -5820,23 +5846,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
+          <cell r="R4">
             <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>11642</v>
-          </cell>
-          <cell r="M4">
-            <v>8425</v>
-          </cell>
-          <cell r="Q4">
-            <v>9614</v>
-          </cell>
-          <cell r="R4">
-            <v>2926</v>
           </cell>
         </row>
       </sheetData>
@@ -5864,25 +5875,22 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>22500</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>20000</v>
           </cell>
           <cell r="M4">
-            <v>4443</v>
+            <v>10266</v>
           </cell>
           <cell r="Q4">
-            <v>4443</v>
-          </cell>
-          <cell r="R4">
-            <v>1337</v>
+            <v>15065</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5898,7 +5906,7 @@
       <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="D4">
             <v>0</v>
@@ -5910,19 +5918,19 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>13310</v>
+            <v>8725</v>
           </cell>
           <cell r="Q4">
-            <v>13310</v>
+            <v>8725</v>
           </cell>
           <cell r="R4">
-            <v>201</v>
+            <v>3636</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5947,16 +5955,13 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>11642</v>
           </cell>
           <cell r="M4">
-            <v>3450</v>
+            <v>8425</v>
           </cell>
           <cell r="Q4">
-            <v>3450</v>
-          </cell>
-          <cell r="R4">
-            <v>420</v>
+            <v>9614</v>
           </cell>
         </row>
       </sheetData>
@@ -5980,29 +5985,14 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
+          <cell r="R4">
             <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>65000</v>
-          </cell>
-          <cell r="J4">
-            <v>45000</v>
-          </cell>
-          <cell r="M4">
-            <v>23215</v>
-          </cell>
-          <cell r="Q4">
-            <v>33374</v>
-          </cell>
-          <cell r="R4">
-            <v>3016</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6024,25 +6014,22 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>22500</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>20000</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>10266</v>
+            <v>4443</v>
           </cell>
           <cell r="Q4">
-            <v>15065</v>
-          </cell>
-          <cell r="R4">
-            <v>3351</v>
+            <v>4443</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6060,23 +6047,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
+          <cell r="R4">
             <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-          <cell r="M4">
-            <v>23838</v>
-          </cell>
-          <cell r="Q4">
-            <v>23838</v>
-          </cell>
-          <cell r="R4">
-            <v>37</v>
           </cell>
         </row>
       </sheetData>
@@ -6110,13 +6082,10 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>20185</v>
+            <v>13310</v>
           </cell>
           <cell r="Q4">
-            <v>20185</v>
-          </cell>
-          <cell r="R4">
-            <v>21</v>
+            <v>13310</v>
           </cell>
         </row>
       </sheetData>
@@ -6168,6 +6137,179 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>3450</v>
+          </cell>
+          <cell r="Q4">
+            <v>3450</v>
+          </cell>
+          <cell r="R4">
+            <v>420</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>23838</v>
+          </cell>
+          <cell r="Q4">
+            <v>23838</v>
+          </cell>
+          <cell r="R4">
+            <v>37</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>20185</v>
+          </cell>
+          <cell r="Q4">
+            <v>20185</v>
+          </cell>
+          <cell r="R4">
+            <v>21</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="Q4">
+            <v>33375.001766784451</v>
+          </cell>
+          <cell r="R4">
+            <v>4528</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="دارایی فعلی"/>
+      <sheetName val="تحلیل"/>
+      <sheetName val="تاریخچه خرید"/>
+      <sheetName val="تاریخچه فروش"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="R4">
+            <v>5753</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6224,19 +6366,13 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>30340</v>
+            <v>65000</v>
           </cell>
           <cell r="J4">
-            <v>14670</v>
+            <v>45000</v>
           </cell>
           <cell r="M4">
-            <v>8800</v>
-          </cell>
-          <cell r="Q4">
-            <v>11666</v>
-          </cell>
-          <cell r="R4">
-            <v>8544</v>
+            <v>23215</v>
           </cell>
         </row>
       </sheetData>
@@ -6260,19 +6396,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4"/>
-          <cell r="G4"/>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>30340</v>
+          </cell>
           <cell r="J4">
-            <v>96800</v>
+            <v>14670</v>
           </cell>
           <cell r="M4">
-            <v>69267</v>
+            <v>8800</v>
           </cell>
           <cell r="Q4">
-            <v>73543</v>
+            <v>11666</v>
           </cell>
           <cell r="R4">
-            <v>1354</v>
+            <v>8544</v>
           </cell>
         </row>
       </sheetData>
@@ -6336,23 +6476,19 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>11971</v>
-          </cell>
+          <cell r="D4"/>
+          <cell r="G4"/>
           <cell r="J4">
-            <v>9730</v>
+            <v>96800</v>
           </cell>
           <cell r="M4">
-            <v>6159</v>
+            <v>69267</v>
           </cell>
           <cell r="Q4">
-            <v>7672.9017128508658</v>
+            <v>73543</v>
           </cell>
           <cell r="R4">
-            <v>11151</v>
+            <v>1354</v>
           </cell>
         </row>
       </sheetData>
@@ -6380,19 +6516,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>18136</v>
+            <v>11971</v>
           </cell>
           <cell r="J4">
-            <v>15866</v>
+            <v>9730</v>
           </cell>
           <cell r="M4">
-            <v>11931</v>
+            <v>6159</v>
           </cell>
           <cell r="Q4">
-            <v>13403</v>
+            <v>7672.9017128508658</v>
           </cell>
           <cell r="R4">
-            <v>4894</v>
+            <v>11151</v>
           </cell>
         </row>
       </sheetData>
@@ -6410,11 +6546,9 @@
     <filterColumn colId="3">
       <filters>
         <filter val="11151"/>
-        <filter val="1337"/>
         <filter val="1354"/>
         <filter val="1584"/>
         <filter val="18967"/>
-        <filter val="201"/>
         <filter val="21"/>
         <filter val="2559"/>
         <filter val="2926"/>
@@ -6781,36 +6915,34 @@
   <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="30" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="30" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
@@ -6849,7 +6981,7 @@
       <c r="S2" s="125"/>
       <c r="T2" s="126"/>
     </row>
-    <row r="3" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="121"/>
       <c r="C3" s="128"/>
       <c r="D3" s="121"/>
@@ -6894,7 +7026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
         <v>72</v>
       </c>
@@ -6953,7 +7085,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="32" t="s">
         <v>14</v>
       </c>
@@ -6973,10 +7105,10 @@
       </c>
       <c r="G5" s="4">
         <f>IF( (F5-I5)*E5/سرمایه!K4&gt;0,(F5-I5)*E5/سرمایه!K4, "Risk free")</f>
-        <v>3.5796148828384007E-2</v>
+        <v>3.6039576003406605E-2</v>
       </c>
       <c r="H5" s="61">
-        <f>E5*F5</f>
+        <f t="shared" ref="H5:H33" si="0">E5*F5</f>
         <v>172491677</v>
       </c>
       <c r="I5" s="6">
@@ -6984,11 +7116,11 @@
         <v>48109</v>
       </c>
       <c r="J5" s="5">
-        <f>IF(1-(I5/F5)&gt;0, 1-(I5/F5), 0)</f>
+        <f t="shared" ref="J5:J33" si="1">IF(1-(I5/F5)&gt;0, 1-(I5/F5), 0)</f>
         <v>0.28627900695753561</v>
       </c>
       <c r="K5" s="7">
-        <f>IF(J5&gt;0, H5-I5*E5, 0)</f>
+        <f t="shared" ref="K5:K33" si="2">IF(J5&gt;0, H5-I5*E5, 0)</f>
         <v>49380746</v>
       </c>
       <c r="L5" s="61">
@@ -6996,11 +7128,11 @@
         <v>85410</v>
       </c>
       <c r="M5" s="4">
-        <f>(L5/F5)-1</f>
+        <f t="shared" ref="M5:M33" si="3">(L5/F5)-1</f>
         <v>0.2670999192616117</v>
       </c>
       <c r="N5" s="62">
-        <f>IF(J5&gt;0, M5/J5,"RF")</f>
+        <f t="shared" ref="N5:N33" si="4">IF(J5&gt;0, M5/J5,"RF")</f>
         <v>0.93300560910926733</v>
       </c>
       <c r="O5" s="61">
@@ -7008,11 +7140,11 @@
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <f>(O5/F5)-1</f>
+        <f t="shared" ref="P5:P33" si="5">(O5/F5)-1</f>
         <v>-1</v>
       </c>
       <c r="Q5" s="62">
-        <f>IF(J5&gt;0, P5/J5,"RF")</f>
+        <f t="shared" ref="Q5:Q33" si="6">IF(J5&gt;0, P5/J5,"RF")</f>
         <v>-3.4930958110677399</v>
       </c>
       <c r="R5" s="61">
@@ -7020,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="71">
-        <f>(R5/F5)-1</f>
+        <f t="shared" ref="S5:S33" si="7">(R5/F5)-1</f>
         <v>-1</v>
       </c>
       <c r="T5" s="70" t="str">
@@ -7028,7 +7160,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
@@ -7048,10 +7180,10 @@
       </c>
       <c r="G6" s="4">
         <f>IF( (F6-I6)*E6/سرمایه!K4&gt;0,(F6-I6)*E6/سرمایه!K4, "Risk free")</f>
-        <v>1.2544161997798432E-2</v>
+        <v>1.2629466982219789E-2</v>
       </c>
       <c r="H6" s="61">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>154963194</v>
       </c>
       <c r="I6" s="6">
@@ -7059,11 +7191,11 @@
         <v>24317</v>
       </c>
       <c r="J6" s="5">
-        <f>IF(1-(I6/F6)&gt;0, 1-(I6/F6), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.11166946520216925</v>
       </c>
       <c r="K6" s="7">
-        <f>IF(J6&gt;0, H6-I6*E6, 0)</f>
+        <f t="shared" si="2"/>
         <v>17304657</v>
       </c>
       <c r="L6" s="61">
@@ -7071,11 +7203,11 @@
         <v>56000</v>
       </c>
       <c r="M6" s="4">
-        <f>(L6/F6)-1</f>
+        <f t="shared" si="3"/>
         <v>1.0457502960348122</v>
       </c>
       <c r="N6" s="62">
-        <f>IF(J6&gt;0, M6/J6,"RF")</f>
+        <f t="shared" si="4"/>
         <v>9.3646933308184046</v>
       </c>
       <c r="O6" s="61">
@@ -7083,11 +7215,11 @@
         <v>28706</v>
       </c>
       <c r="P6" s="4">
-        <f>(O6/F6)-1</f>
+        <f t="shared" si="5"/>
         <v>4.8666214249559303E-2</v>
       </c>
       <c r="Q6" s="62">
-        <f>IF(J6&gt;0, P6/J6,"RF")</f>
+        <f t="shared" si="6"/>
         <v>0.4358059220705745</v>
       </c>
       <c r="R6" s="61">
@@ -7095,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="71">
-        <f>(R6/F6)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T6" s="70" t="str">
@@ -7103,7 +7235,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -7123,10 +7255,10 @@
       </c>
       <c r="G7" s="4">
         <f>IF( (F7-I7)*E7/سرمایه!K4&gt;0,(F7-I7)*E7/سرمایه!K4, "Risk free")</f>
-        <v>2.106353773637009E-2</v>
+        <v>2.1206777656165056E-2</v>
       </c>
       <c r="H7" s="61">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>120612434</v>
       </c>
       <c r="I7" s="6">
@@ -7134,11 +7266,11 @@
         <v>21213</v>
       </c>
       <c r="J7" s="5">
-        <f>IF(1-(I7/F7)&gt;0, 1-(I7/F7), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.24091318810463602</v>
       </c>
       <c r="K7" s="7">
-        <f>IF(J7&gt;0, H7-I7*E7, 0)</f>
+        <f t="shared" si="2"/>
         <v>29057126</v>
       </c>
       <c r="L7" s="61">
@@ -7146,11 +7278,11 @@
         <v>45250</v>
       </c>
       <c r="M7" s="4">
-        <f>(L7/F7)-1</f>
+        <f t="shared" si="3"/>
         <v>0.61922774894004728</v>
       </c>
       <c r="N7" s="62">
-        <f>IF(J7&gt;0, M7/J7,"RF")</f>
+        <f t="shared" si="4"/>
         <v>2.5703356209420032</v>
       </c>
       <c r="O7" s="61">
@@ -7158,11 +7290,11 @@
         <v>51666</v>
       </c>
       <c r="P7" s="4">
-        <f>(O7/F7)-1</f>
+        <f t="shared" si="5"/>
         <v>0.84881814092235319</v>
       </c>
       <c r="Q7" s="62">
-        <f>IF(J7&gt;0, P7/J7,"RF")</f>
+        <f t="shared" si="6"/>
         <v>3.5233361344821246</v>
       </c>
       <c r="R7" s="61">
@@ -7170,7 +7302,7 @@
         <v>67750</v>
       </c>
       <c r="S7" s="71">
-        <f>(R7/F7)-1</f>
+        <f t="shared" si="7"/>
         <v>1.4243686185787445</v>
       </c>
       <c r="T7" s="70" t="str">
@@ -7178,7 +7310,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>14</v>
       </c>
@@ -7198,10 +7330,10 @@
       </c>
       <c r="G8" s="4">
         <f>IF( (F8-I8)*E8/سرمایه!K4&gt;0,(F8-I8)*E8/سرمایه!K4, "Risk free")</f>
-        <v>1.3724941528512166E-2</v>
+        <v>1.3818276254536849E-2</v>
       </c>
       <c r="H8" s="61">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>104148041</v>
       </c>
       <c r="I8" s="6">
@@ -7209,11 +7341,11 @@
         <v>9700</v>
       </c>
       <c r="J8" s="5">
-        <f>IF(1-(I8/F8)&gt;0, 1-(I8/F8), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.18179449962001692</v>
       </c>
       <c r="K8" s="7">
-        <f>IF(J8&gt;0, H8-I8*E8, 0)</f>
+        <f t="shared" si="2"/>
         <v>18933541</v>
       </c>
       <c r="L8" s="61">
@@ -7221,11 +7353,11 @@
         <v>51000</v>
       </c>
       <c r="M8" s="4">
-        <f>(L8/F8)-1</f>
+        <f t="shared" si="3"/>
         <v>3.3019052081834159</v>
       </c>
       <c r="N8" s="62">
-        <f>IF(J8&gt;0, M8/J8,"RF")</f>
+        <f t="shared" si="4"/>
         <v>18.162844393449689</v>
       </c>
       <c r="O8" s="61">
@@ -7233,11 +7365,11 @@
         <v>205000</v>
       </c>
       <c r="P8" s="4">
-        <f>(O8/F8)-1</f>
+        <f t="shared" si="5"/>
         <v>16.291971915247064</v>
       </c>
       <c r="Q8" s="62">
-        <f>IF(J8&gt;0, P8/J8,"RF")</f>
+        <f t="shared" si="6"/>
         <v>89.61751840292311</v>
       </c>
       <c r="R8" s="61">
@@ -7245,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="71">
-        <f>(R8/F8)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T8" s="70" t="str">
@@ -7253,7 +7385,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
         <v>158</v>
       </c>
@@ -7264,63 +7396,63 @@
         <v>164</v>
       </c>
       <c r="E9" s="9">
-        <f>'[26]دارایی فعلی'!$R$4</f>
-        <v>3016</v>
+        <f>'[33]دارایی فعلی'!$R$4</f>
+        <v>4528</v>
       </c>
       <c r="F9" s="8">
-        <f>'[26]دارایی فعلی'!$Q$4</f>
-        <v>33374</v>
+        <f>'[33]دارایی فعلی'!$Q$4</f>
+        <v>33375.001766784451</v>
       </c>
       <c r="G9" s="4">
         <f>IF( (F9-I9)*E9/سرمایه!K4&gt;0,(F9-I9)*E9/سرمایه!K4, "Risk free")</f>
-        <v>2.2210634020349156E-2</v>
+        <v>3.357547983932456E-2</v>
       </c>
       <c r="H9" s="61">
-        <f>E9*F9</f>
-        <v>100655984</v>
+        <f t="shared" si="0"/>
+        <v>151122008</v>
       </c>
       <c r="I9" s="6">
-        <f>'[26]دارایی فعلی'!$M$4</f>
+        <f>'[5]دارایی فعلی'!$M$4</f>
         <v>23215</v>
       </c>
       <c r="J9" s="5">
-        <f>IF(1-(I9/F9)&gt;0, 1-(I9/F9), 0)</f>
-        <v>0.30439863366692632</v>
+        <f t="shared" si="1"/>
+        <v>0.30441951247762666</v>
       </c>
       <c r="K9" s="7">
-        <f>IF(J9&gt;0, H9-I9*E9, 0)</f>
-        <v>30639544</v>
+        <f t="shared" si="2"/>
+        <v>46004488</v>
       </c>
       <c r="L9" s="61">
-        <f>'[26]دارایی فعلی'!$J$4</f>
+        <f>'[5]دارایی فعلی'!$J$4</f>
         <v>45000</v>
       </c>
       <c r="M9" s="4">
-        <f>(L9/F9)-1</f>
-        <v>0.34835500689159216</v>
+        <f t="shared" si="3"/>
+        <v>0.3483145353653585</v>
       </c>
       <c r="N9" s="62">
-        <f>IF(J9&gt;0, M9/J9,"RF")</f>
-        <v>1.1444039767693668</v>
+        <f t="shared" si="4"/>
+        <v>1.14419254051909</v>
       </c>
       <c r="O9" s="61">
-        <f>'[26]دارایی فعلی'!$G$4</f>
+        <f>'[5]دارایی فعلی'!$G$4</f>
         <v>65000</v>
       </c>
       <c r="P9" s="4">
-        <f>(O9/F9)-1</f>
-        <v>0.94762389884341114</v>
+        <f t="shared" si="5"/>
+        <v>0.94756543997218468</v>
       </c>
       <c r="Q9" s="62">
-        <f>IF(J9&gt;0, P9/J9,"RF")</f>
-        <v>3.1131016832365397</v>
+        <f t="shared" si="6"/>
+        <v>3.1126961352118521</v>
       </c>
       <c r="R9" s="61">
-        <f>'[26]دارایی فعلی'!$D$4</f>
+        <f>'[5]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S9" s="71">
-        <f>(R9/F9)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T9" s="70" t="str">
@@ -7328,7 +7460,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>14</v>
       </c>
@@ -7339,63 +7471,63 @@
         <v>140</v>
       </c>
       <c r="E10" s="9">
-        <f>'[5]دارایی فعلی'!$R$4</f>
+        <f>'[6]دارایی فعلی'!$R$4</f>
         <v>8544</v>
       </c>
       <c r="F10" s="8">
-        <f>'[5]دارایی فعلی'!$Q$4</f>
+        <f>'[6]دارایی فعلی'!$Q$4</f>
         <v>11666</v>
       </c>
       <c r="G10" s="4">
         <f>IF( (F10-I10)*E10/سرمایه!K4&gt;0,(F10-I10)*E10/سرمایه!K4, "Risk free")</f>
-        <v>1.7750724526521277E-2</v>
+        <v>1.787143607978952E-2</v>
       </c>
       <c r="H10" s="61">
-        <f>E10*F10</f>
+        <f t="shared" si="0"/>
         <v>99674304</v>
       </c>
       <c r="I10" s="6">
-        <f>'[5]دارایی فعلی'!$M$4</f>
+        <f>'[6]دارایی فعلی'!$M$4</f>
         <v>8800</v>
       </c>
       <c r="J10" s="5">
-        <f>IF(1-(I10/F10)&gt;0, 1-(I10/F10), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.24567118121035492</v>
       </c>
       <c r="K10" s="7">
-        <f>IF(J10&gt;0, H10-I10*E10, 0)</f>
+        <f t="shared" si="2"/>
         <v>24487104</v>
       </c>
       <c r="L10" s="61">
-        <f>'[5]دارایی فعلی'!$J$4</f>
+        <f>'[6]دارایی فعلی'!$J$4</f>
         <v>14670</v>
       </c>
       <c r="M10" s="4">
-        <f>(L10/F10)-1</f>
+        <f t="shared" si="3"/>
         <v>0.25750042859591971</v>
       </c>
       <c r="N10" s="62">
-        <f>IF(J10&gt;0, M10/J10,"RF")</f>
+        <f t="shared" si="4"/>
         <v>1.0481507327285411</v>
       </c>
       <c r="O10" s="61">
-        <f>'[5]دارایی فعلی'!$G$4</f>
+        <f>'[6]دارایی فعلی'!$G$4</f>
         <v>30340</v>
       </c>
       <c r="P10" s="4">
-        <f>(O10/F10)-1</f>
+        <f t="shared" si="5"/>
         <v>1.6007200411452085</v>
       </c>
       <c r="Q10" s="62">
-        <f>IF(J10&gt;0, P10/J10,"RF")</f>
+        <f t="shared" si="6"/>
         <v>6.5157013258897418</v>
       </c>
       <c r="R10" s="61">
-        <f>'[5]دارایی فعلی'!$D$4</f>
+        <f>'[6]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S10" s="71">
-        <f>(R10/F10)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T10" s="70" t="str">
@@ -7403,7 +7535,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="54" t="s">
         <v>14</v>
       </c>
@@ -7426,7 +7558,7 @@
         <v>Risk free</v>
       </c>
       <c r="H11" s="59">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="35">
@@ -7434,11 +7566,11 @@
         <v>5128</v>
       </c>
       <c r="J11" s="34">
-        <f>IF(1-(I11/F11)&gt;0, 1-(I11/F11), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="36">
-        <f>IF(J11&gt;0, H11-I11*E11, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="59">
@@ -7446,11 +7578,11 @@
         <v>0</v>
       </c>
       <c r="M11" s="33">
-        <f>(L11/F11)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N11" s="60" t="str">
-        <f>IF(J11&gt;0, M11/J11,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O11" s="59">
@@ -7458,11 +7590,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="33">
-        <f>(O11/F11)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q11" s="60" t="str">
-        <f>IF(J11&gt;0, P11/J11,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R11" s="59">
@@ -7470,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="81">
-        <f>(R11/F11)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T11" s="69" t="str">
@@ -7478,7 +7610,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
@@ -7489,63 +7621,63 @@
         <v>138</v>
       </c>
       <c r="E12" s="9">
-        <f>'[6]دارایی فعلی'!$R$4</f>
+        <f>'[8]دارایی فعلی'!$R$4</f>
         <v>1354</v>
       </c>
       <c r="F12" s="8">
-        <f>'[6]دارایی فعلی'!$Q$4</f>
+        <f>'[8]دارایی فعلی'!$Q$4</f>
         <v>73543</v>
       </c>
       <c r="G12" s="4">
         <f>IF( (F12-I12)*E12/سرمایه!K4&gt;0,(F12-I12)*E12/سرمایه!K4, "Risk free")</f>
-        <v>4.1969618291366083E-3</v>
+        <v>4.2255027363342643E-3</v>
       </c>
       <c r="H12" s="61">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>99577222</v>
       </c>
       <c r="I12" s="6">
-        <f>'[6]دارایی فعلی'!$M$4</f>
+        <f>'[8]دارایی فعلی'!$M$4</f>
         <v>69267</v>
       </c>
       <c r="J12" s="5">
-        <f>IF(1-(I12/F12)&gt;0, 1-(I12/F12), 0)</f>
+        <f t="shared" si="1"/>
         <v>5.8142855200359E-2</v>
       </c>
       <c r="K12" s="7">
-        <f>IF(J12&gt;0, H12-I12*E12, 0)</f>
+        <f t="shared" si="2"/>
         <v>5789704</v>
       </c>
       <c r="L12" s="61">
-        <f>'[6]دارایی فعلی'!$J$4</f>
+        <f>'[8]دارایی فعلی'!$J$4</f>
         <v>96800</v>
       </c>
       <c r="M12" s="4">
-        <f>(L12/F12)-1</f>
+        <f t="shared" si="3"/>
         <v>0.31623675944685425</v>
       </c>
       <c r="N12" s="62">
-        <f>IF(J12&gt;0, M12/J12,"RF")</f>
+        <f t="shared" si="4"/>
         <v>5.4389616463985018</v>
       </c>
       <c r="O12" s="61">
-        <f>'[6]دارایی فعلی'!$G$4</f>
+        <f>'[8]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
-        <f>(O12/F12)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q12" s="62">
-        <f>IF(J12&gt;0, P12/J12,"RF")</f>
+        <f t="shared" si="6"/>
         <v>-17.199017773620199</v>
       </c>
       <c r="R12" s="61">
-        <f>'[6]دارایی فعلی'!$D$4</f>
+        <f>'[8]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S12" s="71">
-        <f>(R12/F12)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T12" s="70" t="str">
@@ -7553,7 +7685,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
@@ -7564,63 +7696,63 @@
         <v>28</v>
       </c>
       <c r="E13" s="9">
-        <f>'[8]دارایی فعلی'!$R$4</f>
+        <f>'[9]دارایی فعلی'!$R$4</f>
         <v>11151</v>
       </c>
       <c r="F13" s="8">
-        <f>'[8]دارایی فعلی'!$Q$4</f>
+        <f>'[9]دارایی فعلی'!$Q$4</f>
         <v>7672.9017128508658</v>
       </c>
       <c r="G13" s="4">
         <f>IF( (F13-I13)*E13/سرمایه!K4&gt;0,(F13-I13)*E13/سرمایه!K4, "Risk free")</f>
-        <v>1.2237428142074722E-2</v>
+        <v>1.2320647221770948E-2</v>
       </c>
       <c r="H13" s="61">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>85560527</v>
       </c>
       <c r="I13" s="6">
-        <f>'[8]دارایی فعلی'!$M$4</f>
+        <f>'[9]دارایی فعلی'!$M$4</f>
         <v>6159</v>
       </c>
       <c r="J13" s="5">
-        <f>IF(1-(I13/F13)&gt;0, 1-(I13/F13), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.19730497919911139</v>
       </c>
       <c r="K13" s="7">
-        <f>IF(J13&gt;0, H13-I13*E13, 0)</f>
+        <f t="shared" si="2"/>
         <v>16881518</v>
       </c>
       <c r="L13" s="61">
-        <f>'[8]دارایی فعلی'!$J$4</f>
+        <f>'[9]دارایی فعلی'!$J$4</f>
         <v>9730</v>
       </c>
       <c r="M13" s="4">
-        <f>(L13/F13)-1</f>
+        <f t="shared" si="3"/>
         <v>0.268099131740972</v>
       </c>
       <c r="N13" s="62">
-        <f>IF(J13&gt;0, M13/J13,"RF")</f>
+        <f t="shared" si="4"/>
         <v>1.3588057069275394</v>
       </c>
       <c r="O13" s="61">
-        <f>'[8]دارایی فعلی'!$G$4</f>
+        <f>'[9]دارایی فعلی'!$G$4</f>
         <v>11971</v>
       </c>
       <c r="P13" s="4">
-        <f>(O13/F13)-1</f>
+        <f t="shared" si="5"/>
         <v>0.56016595129200164</v>
       </c>
       <c r="Q13" s="62">
-        <f>IF(J13&gt;0, P13/J13,"RF")</f>
+        <f t="shared" si="6"/>
         <v>2.8390867456350768</v>
       </c>
       <c r="R13" s="61">
-        <f>'[8]دارایی فعلی'!$D$4</f>
+        <f>'[9]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S13" s="71">
-        <f>(R13/F13)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T13" s="70" t="str">
@@ -7628,7 +7760,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="54" t="s">
         <v>14</v>
       </c>
@@ -7651,7 +7783,7 @@
         <v>Risk free</v>
       </c>
       <c r="H14" s="59">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="35">
@@ -7659,11 +7791,11 @@
         <v>5897</v>
       </c>
       <c r="J14" s="34">
-        <f>IF(1-(I14/F14)&gt;0, 1-(I14/F14), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="36">
-        <f>IF(J14&gt;0, H14-I14*E14, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="59">
@@ -7671,11 +7803,11 @@
         <v>8381</v>
       </c>
       <c r="M14" s="33">
-        <f>(L14/F14)-1</f>
+        <f t="shared" si="3"/>
         <v>8380</v>
       </c>
       <c r="N14" s="60" t="str">
-        <f>IF(J14&gt;0, M14/J14,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O14" s="59">
@@ -7683,11 +7815,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="33">
-        <f>(O14/F14)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q14" s="60" t="str">
-        <f>IF(J14&gt;0, P14/J14,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R14" s="59">
@@ -7695,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="81">
-        <f>(R14/F14)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T14" s="69" t="str">
@@ -7703,7 +7835,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>14</v>
       </c>
@@ -7726,7 +7858,7 @@
         <v>Risk free</v>
       </c>
       <c r="H15" s="61">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -7734,11 +7866,11 @@
         <v>13992</v>
       </c>
       <c r="J15" s="5">
-        <f>IF(1-(I15/F15)&gt;0, 1-(I15/F15), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <f>IF(J15&gt;0, H15-I15*E15, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="61">
@@ -7746,11 +7878,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <f>(L15/F15)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N15" s="62" t="str">
-        <f>IF(J15&gt;0, M15/J15,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O15" s="61">
@@ -7758,11 +7890,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <f>(O15/F15)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q15" s="62" t="str">
-        <f>IF(J15&gt;0, P15/J15,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R15" s="61">
@@ -7770,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="71">
-        <f>(R15/F15)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T15" s="70" t="str">
@@ -7778,7 +7910,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
         <v>14</v>
       </c>
@@ -7801,7 +7933,7 @@
         <v>Risk free</v>
       </c>
       <c r="H16" s="61">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -7809,11 +7941,11 @@
         <v>36278</v>
       </c>
       <c r="J16" s="5">
-        <f>IF(1-(I16/F16)&gt;0, 1-(I16/F16), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <f>IF(J16&gt;0, H16-I16*E16, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="61">
@@ -7821,11 +7953,11 @@
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f>(L16/F16)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N16" s="62" t="str">
-        <f>IF(J16&gt;0, M16/J16,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O16" s="61">
@@ -7833,11 +7965,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <f>(O16/F16)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q16" s="62" t="str">
-        <f>IF(J16&gt;0, P16/J16,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R16" s="61">
@@ -7845,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="71">
-        <f>(R16/F16)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T16" s="70" t="str">
@@ -7853,7 +7985,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
         <v>14</v>
       </c>
@@ -7864,63 +7996,63 @@
         <v>31</v>
       </c>
       <c r="E17" s="9">
-        <f>'[9]دارایی فعلی'!$R$4</f>
+        <f>'[13]دارایی فعلی'!$R$4</f>
         <v>4894</v>
       </c>
       <c r="F17" s="8">
-        <f>'[9]دارایی فعلی'!$Q$4</f>
+        <f>'[13]دارایی فعلی'!$Q$4</f>
         <v>13403</v>
       </c>
       <c r="G17" s="4">
         <f>IF( (F17-I17)*E17/سرمایه!K4&gt;0,(F17-I17)*E17/سرمایه!K4, "Risk free")</f>
-        <v>5.2221631216935425E-3</v>
+        <v>5.2576757803964548E-3</v>
       </c>
       <c r="H17" s="61">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>65594282</v>
       </c>
       <c r="I17" s="6">
-        <f>'[9]دارایی فعلی'!$M$4</f>
+        <f>'[13]دارایی فعلی'!$M$4</f>
         <v>11931</v>
       </c>
       <c r="J17" s="5">
-        <f>IF(1-(I17/F17)&gt;0, 1-(I17/F17), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.10982615832276355</v>
       </c>
       <c r="K17" s="7">
-        <f>IF(J17&gt;0, H17-I17*E17, 0)</f>
+        <f t="shared" si="2"/>
         <v>7203968</v>
       </c>
       <c r="L17" s="61">
-        <f>'[9]دارایی فعلی'!$J$4</f>
+        <f>'[13]دارایی فعلی'!$J$4</f>
         <v>15866</v>
       </c>
       <c r="M17" s="4">
-        <f>(L17/F17)-1</f>
+        <f t="shared" si="3"/>
         <v>0.18376482876967848</v>
       </c>
       <c r="N17" s="62">
-        <f>IF(J17&gt;0, M17/J17,"RF")</f>
+        <f t="shared" si="4"/>
         <v>1.6732336956521745</v>
       </c>
       <c r="O17" s="61">
-        <f>'[9]دارایی فعلی'!$G$4</f>
+        <f>'[13]دارایی فعلی'!$G$4</f>
         <v>18136</v>
       </c>
       <c r="P17" s="4">
-        <f>(O17/F17)-1</f>
+        <f t="shared" si="5"/>
         <v>0.35312989629187497</v>
       </c>
       <c r="Q17" s="62">
-        <f>IF(J17&gt;0, P17/J17,"RF")</f>
+        <f t="shared" si="6"/>
         <v>3.2153532608695659</v>
       </c>
       <c r="R17" s="61">
-        <f>'[9]دارایی فعلی'!$D$4</f>
+        <f>'[13]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S17" s="71">
-        <f>(R17/F17)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T17" s="70" t="str">
@@ -7928,7 +8060,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="54" t="s">
         <v>14</v>
       </c>
@@ -7951,7 +8083,7 @@
         <v>Risk free</v>
       </c>
       <c r="H18" s="59">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="35">
@@ -7959,11 +8091,11 @@
         <v>10232</v>
       </c>
       <c r="J18" s="34">
-        <f>IF(1-(I18/F18)&gt;0, 1-(I18/F18), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="36">
-        <f>IF(J18&gt;0, H18-I18*E18, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="59">
@@ -7971,11 +8103,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="33">
-        <f>(L18/F18)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N18" s="60" t="str">
-        <f>IF(J18&gt;0, M18/J18,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O18" s="59">
@@ -7983,11 +8115,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="33">
-        <f>(O18/F18)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q18" s="60" t="str">
-        <f>IF(J18&gt;0, P18/J18,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R18" s="59">
@@ -7995,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="81">
-        <f>(R18/F18)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T18" s="69" t="str">
@@ -8003,7 +8135,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
         <v>14</v>
       </c>
@@ -8026,7 +8158,7 @@
         <v>Risk free</v>
       </c>
       <c r="H19" s="61">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="6">
@@ -8034,11 +8166,11 @@
         <v>4722</v>
       </c>
       <c r="J19" s="5">
-        <f>IF(1-(I19/F19)&gt;0, 1-(I19/F19), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="7">
-        <f>IF(J19&gt;0, H19-I19*E19, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="61">
@@ -8046,11 +8178,11 @@
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>(L19/F19)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N19" s="62" t="str">
-        <f>IF(J19&gt;0, M19/J19,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O19" s="61">
@@ -8058,11 +8190,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <f>(O19/F19)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q19" s="62" t="str">
-        <f>IF(J19&gt;0, P19/J19,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R19" s="61">
@@ -8070,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="71">
-        <f>(R19/F19)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T19" s="70" t="str">
@@ -8078,7 +8210,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
         <v>14</v>
       </c>
@@ -8101,7 +8233,7 @@
         <v>Risk free</v>
       </c>
       <c r="H20" s="61">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="6">
@@ -8109,11 +8241,11 @@
         <v>23065</v>
       </c>
       <c r="J20" s="5">
-        <f>IF(1-(I20/F20)&gt;0, 1-(I20/F20), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="7">
-        <f>IF(J20&gt;0, H20-I20*E20, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="61">
@@ -8121,11 +8253,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f>(L20/F20)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N20" s="62" t="str">
-        <f>IF(J20&gt;0, M20/J20,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O20" s="61">
@@ -8133,11 +8265,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="4">
-        <f>(O20/F20)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q20" s="62" t="str">
-        <f>IF(J20&gt;0, P20/J20,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R20" s="61">
@@ -8145,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="71">
-        <f>(R20/F20)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T20" s="70" t="str">
@@ -8153,7 +8285,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
         <v>14</v>
       </c>
@@ -8176,7 +8308,7 @@
         <v>Risk free</v>
       </c>
       <c r="H21" s="61">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="6">
@@ -8184,11 +8316,11 @@
         <v>5707</v>
       </c>
       <c r="J21" s="5">
-        <f>IF(1-(I21/F21)&gt;0, 1-(I21/F21), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="7">
-        <f>IF(J21&gt;0, H21-I21*E21, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="61">
@@ -8196,11 +8328,11 @@
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>(L21/F21)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N21" s="62" t="str">
-        <f>IF(J21&gt;0, M21/J21,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O21" s="61">
@@ -8208,11 +8340,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f>(O21/F21)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q21" s="62" t="str">
-        <f>IF(J21&gt;0, P21/J21,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R21" s="61">
@@ -8220,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="71">
-        <f>(R21/F21)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T21" s="70" t="str">
@@ -8228,7 +8360,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
@@ -8251,7 +8383,7 @@
         <v>Risk free</v>
       </c>
       <c r="H22" s="61">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
@@ -8259,11 +8391,11 @@
         <v>17246</v>
       </c>
       <c r="J22" s="5">
-        <f>IF(1-(I22/F22)&gt;0, 1-(I22/F22), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="7">
-        <f>IF(J22&gt;0, H22-I22*E22, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="61">
@@ -8271,11 +8403,11 @@
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f>(L22/F22)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N22" s="62" t="str">
-        <f>IF(J22&gt;0, M22/J22,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O22" s="61">
@@ -8283,11 +8415,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="4">
-        <f>(O22/F22)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q22" s="62" t="str">
-        <f>IF(J22&gt;0, P22/J22,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R22" s="61">
@@ -8295,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="71">
-        <f>(R22/F22)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T22" s="70" t="str">
@@ -8303,7 +8435,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="19.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>14</v>
       </c>
@@ -8326,7 +8458,7 @@
         <v>Risk free</v>
       </c>
       <c r="H23" s="61">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -8334,11 +8466,11 @@
         <v>29923</v>
       </c>
       <c r="J23" s="5">
-        <f>IF(1-(I23/F23)&gt;0, 1-(I23/F23), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="7">
-        <f>IF(J23&gt;0, H23-I23*E23, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="61">
@@ -8346,11 +8478,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>(L23/F23)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N23" s="62" t="str">
-        <f>IF(J23&gt;0, M23/J23,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O23" s="61">
@@ -8358,11 +8490,11 @@
         <v>0</v>
       </c>
       <c r="P23" s="4">
-        <f>(O23/F23)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q23" s="62" t="str">
-        <f>IF(J23&gt;0, P23/J23,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R23" s="61">
@@ -8370,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="71">
-        <f>(R23/F23)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T23" s="70" t="str">
@@ -8378,7 +8510,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="32" t="s">
         <v>129</v>
       </c>
@@ -8389,63 +8521,63 @@
         <v>128</v>
       </c>
       <c r="E24" s="9">
-        <f>'[13]دارایی فعلی'!$R$4</f>
+        <f>'[20]دارایی فعلی'!$R$4</f>
         <v>18967</v>
       </c>
       <c r="F24" s="8">
-        <f>'[13]دارایی فعلی'!$Q$4</f>
+        <f>'[20]دارایی فعلی'!$Q$4</f>
         <v>3451</v>
       </c>
       <c r="G24" s="4">
         <f>IF( (F24-I24)*E24/سرمایه!K4&gt;0,(F24-I24)*E24/سرمایه!K4, "Risk free")</f>
-        <v>1.3611704028928199E-2</v>
+        <v>1.3704268697683243E-2</v>
       </c>
       <c r="H24" s="61">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>65455117</v>
       </c>
       <c r="I24" s="6">
-        <f>'[13]دارایی فعلی'!$M$4</f>
+        <f>'[20]دارایی فعلی'!$M$4</f>
         <v>2461</v>
       </c>
       <c r="J24" s="5">
-        <f>IF(1-(I24/F24)&gt;0, 1-(I24/F24), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.28687337003767022</v>
       </c>
       <c r="K24" s="7">
-        <f>IF(J24&gt;0, H24-I24*E24, 0)</f>
+        <f t="shared" si="2"/>
         <v>18777330</v>
       </c>
       <c r="L24" s="61">
-        <f>'[13]دارایی فعلی'!$J$4</f>
+        <f>'[20]دارایی فعلی'!$J$4</f>
         <v>4584</v>
       </c>
       <c r="M24" s="4">
-        <f>(L24/F24)-1</f>
+        <f t="shared" si="3"/>
         <v>0.32831063459866705</v>
       </c>
       <c r="N24" s="62">
-        <f>IF(J24&gt;0, M24/J24,"RF")</f>
+        <f t="shared" si="4"/>
         <v>1.1444444444444446</v>
       </c>
       <c r="O24" s="61">
-        <f>'[13]دارایی فعلی'!$G$4</f>
+        <f>'[20]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <f>(O24/F24)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q24" s="62">
-        <f>IF(J24&gt;0, P24/J24,"RF")</f>
+        <f t="shared" si="6"/>
         <v>-3.485858585858586</v>
       </c>
       <c r="R24" s="61">
-        <f>'[13]دارایی فعلی'!$D$4</f>
+        <f>'[20]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S24" s="71">
-        <f>(R24/F24)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T24" s="70" t="str">
@@ -8453,7 +8585,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
@@ -8464,63 +8596,63 @@
         <v>34</v>
       </c>
       <c r="E25" s="9">
-        <f>'[20]دارایی فعلی'!$R$4</f>
+        <f>'[21]دارایی فعلی'!$R$4</f>
         <v>1584</v>
       </c>
       <c r="F25" s="8">
-        <f>'[20]دارایی فعلی'!$Q$4</f>
+        <f>'[21]دارایی فعلی'!$Q$4</f>
         <v>38204</v>
       </c>
       <c r="G25" s="4">
         <f>IF( (F25-I25)*E25/سرمایه!K4&gt;0,(F25-I25)*E25/سرمایه!K4, "Risk free")</f>
-        <v>1.0940460040080381E-2</v>
+        <v>1.1014859252514447E-2</v>
       </c>
       <c r="H25" s="61">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>60515136</v>
       </c>
       <c r="I25" s="6">
-        <f>'[20]دارایی فعلی'!$M$4</f>
+        <f>'[21]دارایی فعلی'!$M$4</f>
         <v>28676</v>
       </c>
       <c r="J25" s="5">
-        <f>IF(1-(I25/F25)&gt;0, 1-(I25/F25), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.24939796879907861</v>
       </c>
       <c r="K25" s="7">
-        <f>IF(J25&gt;0, H25-I25*E25, 0)</f>
+        <f t="shared" si="2"/>
         <v>15092352</v>
       </c>
       <c r="L25" s="61">
-        <f>'[20]دارایی فعلی'!$J$4</f>
+        <f>'[21]دارایی فعلی'!$J$4</f>
         <v>45154</v>
       </c>
       <c r="M25" s="4">
-        <f>(L25/F25)-1</f>
+        <f t="shared" si="3"/>
         <v>0.18191812375667471</v>
       </c>
       <c r="N25" s="62">
-        <f>IF(J25&gt;0, M25/J25,"RF")</f>
+        <f t="shared" si="4"/>
         <v>0.72942905121746449</v>
       </c>
       <c r="O25" s="61">
-        <f>'[20]دارایی فعلی'!$G$4</f>
+        <f>'[21]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f>(O25/F25)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q25" s="62">
-        <f>IF(J25&gt;0, P25/J25,"RF")</f>
+        <f t="shared" si="6"/>
         <v>-4.0096557514693538</v>
       </c>
       <c r="R25" s="61">
-        <f>'[20]دارایی فعلی'!$D$4</f>
+        <f>'[21]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S25" s="71">
-        <f>(R25/F25)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T25" s="70" t="str">
@@ -8528,7 +8660,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="32" t="s">
         <v>158</v>
       </c>
@@ -8539,63 +8671,63 @@
         <v>168</v>
       </c>
       <c r="E26" s="9">
-        <f>'[27]دارایی فعلی'!$R$4</f>
-        <v>3351</v>
+        <f>'[22]دارایی فعلی'!$R$4</f>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f>'[27]دارایی فعلی'!$Q$4</f>
+        <f>'[23]دارایی فعلی'!$Q$4</f>
         <v>15065</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="4" t="str">
         <f>IF( (F26-I26)*E26/سرمایه!K4&gt;0,(F26-I26)*E26/سرمایه!K4, "Risk free")</f>
-        <v>1.1657457377822264E-2</v>
+        <v>Risk free</v>
       </c>
       <c r="H26" s="61">
-        <f>E26*F26</f>
-        <v>50482815</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I26" s="6">
-        <f>'[27]دارایی فعلی'!$M$4</f>
+        <f>'[23]دارایی فعلی'!$M$4</f>
         <v>10266</v>
       </c>
       <c r="J26" s="5">
-        <f>IF(1-(I26/F26)&gt;0, 1-(I26/F26), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.3185529372718221</v>
       </c>
       <c r="K26" s="7">
-        <f>IF(J26&gt;0, H26-I26*E26, 0)</f>
-        <v>16081449</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L26" s="61">
-        <f>'[27]دارایی فعلی'!$J$4</f>
+        <f>'[23]دارایی فعلی'!$J$4</f>
         <v>20000</v>
       </c>
       <c r="M26" s="4">
-        <f>(L26/F26)-1</f>
+        <f t="shared" si="3"/>
         <v>0.32758048456687683</v>
       </c>
       <c r="N26" s="62">
-        <f>IF(J26&gt;0, M26/J26,"RF")</f>
+        <f t="shared" si="4"/>
         <v>1.0283392373411127</v>
       </c>
       <c r="O26" s="61">
-        <f>'[27]دارایی فعلی'!$G$4</f>
+        <f>'[23]دارایی فعلی'!$G$4</f>
         <v>22500</v>
       </c>
       <c r="P26" s="4">
-        <f>(O26/F26)-1</f>
+        <f t="shared" si="5"/>
         <v>0.4935280451377364</v>
       </c>
       <c r="Q26" s="62">
-        <f>IF(J26&gt;0, P26/J26,"RF")</f>
+        <f t="shared" si="6"/>
         <v>1.5492811002292142</v>
       </c>
       <c r="R26" s="61">
-        <f>'[27]دارایی فعلی'!$D$4</f>
+        <f>'[23]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S26" s="71">
-        <f>(R26/F26)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T26" s="70" t="str">
@@ -8603,7 +8735,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="32" t="s">
         <v>14</v>
       </c>
@@ -8614,11 +8746,11 @@
         <v>134</v>
       </c>
       <c r="E27" s="9">
-        <f>'[21]دارایی فعلی'!$R$4</f>
+        <f>'[24]دارایی فعلی'!$R$4</f>
         <v>3636</v>
       </c>
       <c r="F27" s="8">
-        <f>'[21]دارایی فعلی'!$Q$4</f>
+        <f>'[24]دارایی فعلی'!$Q$4</f>
         <v>8725</v>
       </c>
       <c r="G27" s="4" t="str">
@@ -8626,51 +8758,51 @@
         <v>Risk free</v>
       </c>
       <c r="H27" s="61">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>31724100</v>
       </c>
       <c r="I27" s="6">
-        <f>'[21]دارایی فعلی'!$M$4</f>
+        <f>'[24]دارایی فعلی'!$M$4</f>
         <v>8725</v>
       </c>
       <c r="J27" s="5">
-        <f>IF(1-(I27/F27)&gt;0, 1-(I27/F27), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="7">
-        <f>IF(J27&gt;0, H27-I27*E27, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="61">
-        <f>'[21]دارایی فعلی'!$J$4</f>
+        <f>'[24]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <f>(L27/F27)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N27" s="62" t="str">
-        <f>IF(J27&gt;0, M27/J27,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O27" s="61">
-        <f>'[21]دارایی فعلی'!$G$4</f>
+        <f>'[24]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P27" s="4">
-        <f>(O27/F27)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q27" s="62" t="str">
-        <f>IF(J27&gt;0, P27/J27,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R27" s="61">
-        <f>'[21]دارایی فعلی'!$D$4</f>
+        <f>'[24]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S27" s="71">
-        <f>(R27/F27)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T27" s="70" t="str">
@@ -8678,7 +8810,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="32" t="s">
         <v>14</v>
       </c>
@@ -8689,63 +8821,63 @@
         <v>26</v>
       </c>
       <c r="E28" s="9">
-        <f>'[22]دارایی فعلی'!$R$4</f>
-        <v>2926</v>
+        <f>'[34]دارایی فعلی'!$R$4</f>
+        <v>5753</v>
       </c>
       <c r="F28" s="8">
-        <f>'[22]دارایی فعلی'!$Q$4</f>
+        <f>'[25]دارایی فعلی'!$Q$4</f>
         <v>9614</v>
       </c>
       <c r="G28" s="4">
         <f>IF( (F28-I28)*E28/سرمایه!K4&gt;0,(F28-I28)*E28/سرمایه!K4, "Risk free")</f>
-        <v>2.5219404931637037E-3</v>
+        <v>4.9922721784902624E-3</v>
       </c>
       <c r="H28" s="61">
-        <f>E28*F28</f>
-        <v>28130564</v>
+        <f t="shared" si="0"/>
+        <v>55309342</v>
       </c>
       <c r="I28" s="6">
-        <f>'[22]دارایی فعلی'!$M$4</f>
+        <f>'[25]دارایی فعلی'!$M$4</f>
         <v>8425</v>
       </c>
       <c r="J28" s="5">
-        <f>IF(1-(I28/F28)&gt;0, 1-(I28/F28), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.12367380902850011</v>
       </c>
       <c r="K28" s="7">
-        <f>IF(J28&gt;0, H28-I28*E28, 0)</f>
-        <v>3479014</v>
+        <f t="shared" si="2"/>
+        <v>6840317</v>
       </c>
       <c r="L28" s="61">
-        <f>'[22]دارایی فعلی'!$J$4</f>
+        <f>'[25]دارایی فعلی'!$J$4</f>
         <v>11642</v>
       </c>
       <c r="M28" s="4">
-        <f>(L28/F28)-1</f>
+        <f t="shared" si="3"/>
         <v>0.21094237570210117</v>
       </c>
       <c r="N28" s="62">
-        <f>IF(J28&gt;0, M28/J28,"RF")</f>
+        <f t="shared" si="4"/>
         <v>1.705634987384357</v>
       </c>
       <c r="O28" s="61">
-        <f>'[22]دارایی فعلی'!$G$4</f>
+        <f>'[25]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f>(O28/F28)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q28" s="62">
-        <f>IF(J28&gt;0, P28/J28,"RF")</f>
+        <f t="shared" si="6"/>
         <v>-8.0857863751051298</v>
       </c>
       <c r="R28" s="61">
-        <f>'[22]دارایی فعلی'!$D$4</f>
+        <f>'[25]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S28" s="71">
-        <f>(R28/F28)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T28" s="70" t="str">
@@ -8753,7 +8885,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="32" t="s">
         <v>14</v>
       </c>
@@ -8764,11 +8896,11 @@
         <v>38</v>
       </c>
       <c r="E29" s="9">
-        <f>'[23]دارایی فعلی'!$R$4</f>
-        <v>1337</v>
+        <f>'[26]دارایی فعلی'!$R$4</f>
+        <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>'[23]دارایی فعلی'!$Q$4</f>
+        <f>'[27]دارایی فعلی'!$Q$4</f>
         <v>4443</v>
       </c>
       <c r="G29" s="4" t="str">
@@ -8776,51 +8908,51 @@
         <v>Risk free</v>
       </c>
       <c r="H29" s="61">
-        <f>E29*F29</f>
-        <v>5940291</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f>'[23]دارایی فعلی'!$M$4</f>
+        <f>'[27]دارایی فعلی'!$M$4</f>
         <v>4443</v>
       </c>
       <c r="J29" s="5">
-        <f>IF(1-(I29/F29)&gt;0, 1-(I29/F29), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="7">
-        <f>IF(J29&gt;0, H29-I29*E29, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="61">
-        <f>'[23]دارایی فعلی'!$J$4</f>
+        <f>'[27]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <f>(L29/F29)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N29" s="62" t="str">
-        <f>IF(J29&gt;0, M29/J29,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O29" s="61">
-        <f>'[23]دارایی فعلی'!$G$4</f>
+        <f>'[27]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P29" s="4">
-        <f>(O29/F29)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q29" s="62" t="str">
-        <f>IF(J29&gt;0, P29/J29,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R29" s="61">
-        <f>'[23]دارایی فعلی'!$D$4</f>
+        <f>'[27]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S29" s="71">
-        <f>(R29/F29)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T29" s="70" t="str">
@@ -8828,7 +8960,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" ht="20.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="53" t="s">
         <v>14</v>
       </c>
@@ -8839,11 +8971,11 @@
         <v>40</v>
       </c>
       <c r="E30" s="9">
-        <f>'[24]دارایی فعلی'!$R$4</f>
-        <v>201</v>
+        <f>'[28]دارایی فعلی'!$R$4</f>
+        <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>'[24]دارایی فعلی'!$Q$4</f>
+        <f>'[29]دارایی فعلی'!$Q$4</f>
         <v>13310</v>
       </c>
       <c r="G30" s="4" t="str">
@@ -8851,51 +8983,51 @@
         <v>Risk free</v>
       </c>
       <c r="H30" s="61">
-        <f>E30*F30</f>
-        <v>2675310</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I30" s="6">
-        <f>'[24]دارایی فعلی'!$M$4</f>
+        <f>'[29]دارایی فعلی'!$M$4</f>
         <v>13310</v>
       </c>
       <c r="J30" s="5">
-        <f>IF(1-(I30/F30)&gt;0, 1-(I30/F30), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="7">
-        <f>IF(J30&gt;0, H30-I30*E30, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="61">
-        <f>'[24]دارایی فعلی'!$J$4</f>
+        <f>'[29]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f>(L30/F30)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N30" s="62" t="str">
-        <f>IF(J30&gt;0, M30/J30,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O30" s="61">
-        <f>'[24]دارایی فعلی'!$G$4</f>
+        <f>'[29]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P30" s="4">
-        <f>(O30/F30)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q30" s="62" t="str">
-        <f>IF(J30&gt;0, P30/J30,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R30" s="61">
-        <f>'[24]دارایی فعلی'!$D$4</f>
+        <f>'[29]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S30" s="71">
-        <f>(R30/F30)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T30" s="70" t="str">
@@ -8903,7 +9035,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
         <v>14</v>
       </c>
@@ -8914,11 +9046,11 @@
         <v>39</v>
       </c>
       <c r="E31" s="9">
-        <f>'[25]دارایی فعلی'!$R$4</f>
+        <f>'[30]دارایی فعلی'!$R$4</f>
         <v>420</v>
       </c>
       <c r="F31" s="8">
-        <f>'[25]دارایی فعلی'!$Q$4</f>
+        <f>'[30]دارایی فعلی'!$Q$4</f>
         <v>3450</v>
       </c>
       <c r="G31" s="4" t="str">
@@ -8926,51 +9058,51 @@
         <v>Risk free</v>
       </c>
       <c r="H31" s="61">
-        <f>E31*F31</f>
+        <f t="shared" si="0"/>
         <v>1449000</v>
       </c>
       <c r="I31" s="6">
-        <f>'[25]دارایی فعلی'!$M$4</f>
+        <f>'[30]دارایی فعلی'!$M$4</f>
         <v>3450</v>
       </c>
       <c r="J31" s="5">
-        <f>IF(1-(I31/F31)&gt;0, 1-(I31/F31), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="7">
-        <f>IF(J31&gt;0, H31-I31*E31, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="61">
-        <f>'[25]دارایی فعلی'!$J$4</f>
+        <f>'[30]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f>(L31/F31)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N31" s="62" t="str">
-        <f>IF(J31&gt;0, M31/J31,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O31" s="61">
-        <f>'[25]دارایی فعلی'!$G$4</f>
+        <f>'[30]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P31" s="4">
-        <f>(O31/F31)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q31" s="62" t="str">
-        <f>IF(J31&gt;0, P31/J31,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R31" s="61">
-        <f>'[25]دارایی فعلی'!$D$4</f>
+        <f>'[30]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S31" s="71">
-        <f>(R31/F31)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T31" s="70" t="str">
@@ -8978,7 +9110,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="32" t="s">
         <v>14</v>
       </c>
@@ -8989,11 +9121,11 @@
         <v>41</v>
       </c>
       <c r="E32" s="9">
-        <f>'[28]دارایی فعلی'!$R$4</f>
+        <f>'[31]دارایی فعلی'!$R$4</f>
         <v>37</v>
       </c>
       <c r="F32" s="8">
-        <f>'[28]دارایی فعلی'!$Q$4</f>
+        <f>'[31]دارایی فعلی'!$Q$4</f>
         <v>23838</v>
       </c>
       <c r="G32" s="4" t="str">
@@ -9001,51 +9133,51 @@
         <v>Risk free</v>
       </c>
       <c r="H32" s="61">
-        <f>E32*F32</f>
+        <f t="shared" si="0"/>
         <v>882006</v>
       </c>
       <c r="I32" s="6">
-        <f>'[28]دارایی فعلی'!$M$4</f>
+        <f>'[31]دارایی فعلی'!$M$4</f>
         <v>23838</v>
       </c>
       <c r="J32" s="5">
-        <f>IF(1-(I32/F32)&gt;0, 1-(I32/F32), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="7">
-        <f>IF(J32&gt;0, H32-I32*E32, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="61">
-        <f>'[28]دارایی فعلی'!$J$4</f>
+        <f>'[31]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <f>(L32/F32)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N32" s="62" t="str">
-        <f>IF(J32&gt;0, M32/J32,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O32" s="61">
-        <f>'[28]دارایی فعلی'!$G$4</f>
+        <f>'[31]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f>(O32/F32)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q32" s="62" t="str">
-        <f>IF(J32&gt;0, P32/J32,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R32" s="61">
-        <f>'[28]دارایی فعلی'!$D$4</f>
+        <f>'[31]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S32" s="71">
-        <f>(R32/F32)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T32" s="70" t="str">
@@ -9053,7 +9185,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
         <v>14</v>
       </c>
@@ -9064,11 +9196,11 @@
         <v>42</v>
       </c>
       <c r="E33" s="9">
-        <f>'[29]دارایی فعلی'!$R$4</f>
+        <f>'[32]دارایی فعلی'!$R$4</f>
         <v>21</v>
       </c>
       <c r="F33" s="8">
-        <f>'[29]دارایی فعلی'!$Q$4</f>
+        <f>'[32]دارایی فعلی'!$Q$4</f>
         <v>20185</v>
       </c>
       <c r="G33" s="4" t="str">
@@ -9076,51 +9208,51 @@
         <v>Risk free</v>
       </c>
       <c r="H33" s="61">
-        <f>E33*F33</f>
+        <f t="shared" si="0"/>
         <v>423885</v>
       </c>
       <c r="I33" s="6">
-        <f>'[29]دارایی فعلی'!$M$4</f>
+        <f>'[32]دارایی فعلی'!$M$4</f>
         <v>20185</v>
       </c>
       <c r="J33" s="5">
-        <f>IF(1-(I33/F33)&gt;0, 1-(I33/F33), 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="7">
-        <f>IF(J33&gt;0, H33-I33*E33, 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="61">
-        <f>'[29]دارایی فعلی'!$J$4</f>
+        <f>'[32]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M33" s="4">
-        <f>(L33/F33)-1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="N33" s="62" t="str">
-        <f>IF(J33&gt;0, M33/J33,"RF")</f>
+        <f t="shared" si="4"/>
         <v>RF</v>
       </c>
       <c r="O33" s="61">
-        <f>'[29]دارایی فعلی'!$G$4</f>
+        <f>'[32]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P33" s="4">
-        <f>(O33/F33)-1</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="Q33" s="62" t="str">
-        <f>IF(J33&gt;0, P33/J33,"RF")</f>
+        <f t="shared" si="6"/>
         <v>RF</v>
       </c>
       <c r="R33" s="61">
-        <f>'[29]دارایی فعلی'!$D$4</f>
+        <f>'[32]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S33" s="71">
-        <f>(R33/F33)-1</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="T33" s="70" t="str">
@@ -9183,66 +9315,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="73" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="73" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="73" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="73" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="73" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="73" customWidth="1"/>
     <col min="10" max="10" width="7" style="73" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="73" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" style="73" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="73" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="73" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="73" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="73"/>
+    <col min="11" max="11" width="25.7109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="73" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="73" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="73" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="73" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="161" t="s">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="149" t="s">
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="153" t="s">
+      <c r="I2" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="154"/>
-      <c r="K2" s="139" t="s">
+      <c r="J2" s="155"/>
+      <c r="K2" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="143" t="s">
+      <c r="L2" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="144"/>
-      <c r="N2" s="133" t="s">
+      <c r="M2" s="171"/>
+      <c r="N2" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="134"/>
+      <c r="O2" s="161"/>
     </row>
-    <row r="3" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="162"/>
-      <c r="C3" s="160"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="136"/>
+      <c r="C3" s="134"/>
       <c r="D3" s="80" t="s">
         <v>93</v>
       </c>
@@ -9255,14 +9387,14 @@
       <c r="G3" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="150"/>
+      <c r="H3" s="151"/>
       <c r="I3" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="140"/>
+      <c r="K3" s="167"/>
       <c r="L3" s="79" t="s">
         <v>70</v>
       </c>
@@ -9276,80 +9408,93 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="165">
-        <v>128542957</v>
-      </c>
-      <c r="C4" s="163">
-        <v>1649729000</v>
-      </c>
-      <c r="D4" s="170">
+    <row r="4" spans="2:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="139">
+        <v>100678828</v>
+      </c>
+      <c r="C4" s="137">
+        <v>1699123000</v>
+      </c>
+      <c r="D4" s="144">
         <f>SUMPRODUCT(پرتفوی!E5:E33*پرتفوی!F5:F33)</f>
-        <v>1250955889</v>
-      </c>
-      <c r="E4" s="172">
+        <v>1269502275</v>
+      </c>
+      <c r="E4" s="146">
         <f>C4-B4</f>
-        <v>1521186043</v>
-      </c>
-      <c r="F4" s="172">
+        <v>1598444172</v>
+      </c>
+      <c r="F4" s="146">
         <f>E4-D4</f>
-        <v>270230154</v>
-      </c>
-      <c r="G4" s="174">
+        <v>328941897</v>
+      </c>
+      <c r="G4" s="148">
         <f>F4/D4</f>
-        <v>0.21601893110397277</v>
-      </c>
-      <c r="H4" s="151">
+        <v>0.25911091573270317</v>
+      </c>
+      <c r="H4" s="152">
         <f>B4+D4-SUM(پرتفوی!K5:K39)</f>
-        <v>1126390793</v>
-      </c>
-      <c r="I4" s="155">
+        <v>1114428252</v>
+      </c>
+      <c r="I4" s="156">
         <f>SUM(پرتفوی!K5:K33)</f>
-        <v>253108053</v>
-      </c>
-      <c r="J4" s="157">
+        <v>255752851</v>
+      </c>
+      <c r="J4" s="158">
         <f>(K4-H4)/K4*100</f>
-        <v>18.347826367083456</v>
-      </c>
-      <c r="K4" s="141">
+        <v>18.6656238682632</v>
+      </c>
+      <c r="K4" s="168">
         <f>D4+B4</f>
-        <v>1379498846</v>
-      </c>
-      <c r="L4" s="145">
+        <v>1370181103</v>
+      </c>
+      <c r="L4" s="172">
         <f>K4-'واریز و برداشت'!C36</f>
-        <v>23524237</v>
-      </c>
-      <c r="M4" s="147">
+        <v>14206494</v>
+      </c>
+      <c r="M4" s="174">
         <f>L4/'واریز و برداشت'!C36</f>
-        <v>1.7348582225554049E-2</v>
-      </c>
-      <c r="N4" s="135">
+        <v>1.0476961667060242E-2</v>
+      </c>
+      <c r="N4" s="162">
         <f>C4-'واریز و برداشت'!C36</f>
-        <v>293754391</v>
-      </c>
-      <c r="O4" s="137">
+        <v>343148391</v>
+      </c>
+      <c r="O4" s="164">
         <f>N4/'واریز و برداشت'!C36</f>
-        <v>0.21663708822441527</v>
+        <v>0.25306402400341699</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="166"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="138"/>
+    <row r="5" spans="2:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="140"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:C5"/>
@@ -9359,19 +9504,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -9382,30 +9514,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" style="3"/>
+    <col min="12" max="15" width="8.85546875" style="3"/>
     <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="3"/>
+    <col min="17" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B2" s="177" t="s">
         <v>0</v>
       </c>
@@ -9428,7 +9557,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="178"/>
       <c r="C3" s="179"/>
       <c r="D3" s="104" t="s">
@@ -9447,14 +9576,14 @@
         <v>69</v>
       </c>
       <c r="J3" s="87">
-        <v>1639095000</v>
+        <v>1687066000</v>
       </c>
       <c r="K3" s="87">
         <f>C7-J3</f>
-        <v>10634000</v>
+        <v>12057000</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="18.600000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="111" t="s">
         <v>122</v>
       </c>
@@ -9477,7 +9606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
         <v>122</v>
       </c>
@@ -9503,7 +9632,7 @@
         <v>1.2172157438205764E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="51" t="s">
         <v>123</v>
       </c>
@@ -9529,12 +9658,12 @@
         <v>0.20678407079646019</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B7" s="51" t="s">
         <v>136</v>
       </c>
       <c r="C7" s="102">
-        <v>1649729000</v>
+        <v>1699123000</v>
       </c>
       <c r="D7" s="106">
         <v>801750849</v>
@@ -9548,14 +9677,14 @@
       </c>
       <c r="G7" s="102">
         <f>Table6910[[#This Row],[Column1]]-(C6+Table6910[[#This Row],[Column4]])</f>
-        <v>169345151</v>
+        <v>218739151</v>
       </c>
       <c r="H7" s="90">
         <f>Table6910[[#This Row],[Column5]]/(C6+Table6910[[#This Row],[Column4]])</f>
-        <v>0.11439273071939601</v>
+        <v>0.14775840140903887</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B8" s="51" t="s">
         <v>146</v>
       </c>
@@ -9566,7 +9695,7 @@
       <c r="G8" s="102"/>
       <c r="H8" s="90"/>
     </row>
-    <row r="9" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
         <v>147</v>
       </c>
@@ -9577,7 +9706,7 @@
       <c r="G9" s="102"/>
       <c r="H9" s="90"/>
     </row>
-    <row r="10" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>148</v>
       </c>
@@ -9588,7 +9717,7 @@
       <c r="G10" s="102"/>
       <c r="H10" s="90"/>
     </row>
-    <row r="11" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>149</v>
       </c>
@@ -9599,7 +9728,7 @@
       <c r="G11" s="102"/>
       <c r="H11" s="90"/>
     </row>
-    <row r="12" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
         <v>150</v>
       </c>
@@ -9610,7 +9739,7 @@
       <c r="G12" s="102"/>
       <c r="H12" s="90"/>
     </row>
-    <row r="13" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
         <v>151</v>
       </c>
@@ -9621,7 +9750,7 @@
       <c r="G13" s="102"/>
       <c r="H13" s="90"/>
     </row>
-    <row r="14" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="51" t="s">
         <v>152</v>
       </c>
@@ -9632,7 +9761,7 @@
       <c r="G14" s="102"/>
       <c r="H14" s="90"/>
     </row>
-    <row r="15" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B15" s="51" t="s">
         <v>153</v>
       </c>
@@ -9643,7 +9772,7 @@
       <c r="G15" s="102"/>
       <c r="H15" s="90"/>
     </row>
-    <row r="16" spans="2:11" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B16" s="92" t="s">
         <v>154</v>
       </c>
@@ -9654,7 +9783,7 @@
       <c r="G16" s="103"/>
       <c r="H16" s="98"/>
     </row>
-    <row r="17" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="52" t="s">
         <v>155</v>
       </c>
@@ -9665,7 +9794,7 @@
       <c r="G17" s="87"/>
       <c r="H17" s="91"/>
     </row>
-    <row r="18" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="95"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
@@ -9674,13 +9803,13 @@
       <c r="G18" s="97"/>
       <c r="H18" s="86"/>
     </row>
-    <row r="19" spans="2:13" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="110" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="109">
         <f>SUM(Table6910[Column5])</f>
-        <v>293754391</v>
+        <v>343148391</v>
       </c>
       <c r="J19" s="176" t="s">
         <v>157</v>
@@ -9710,23 +9839,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>142</v>
       </c>
@@ -9800,7 +9929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:25" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="s">
         <v>156</v>
       </c>
@@ -9819,8 +9948,12 @@
       <c r="G3" s="28">
         <v>10634000</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="28">
+        <v>37337000</v>
+      </c>
+      <c r="I3" s="28">
+        <v>12057000</v>
+      </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
@@ -9853,15 +9986,15 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="183" t="s">
         <v>0</v>
       </c>
@@ -9872,12 +10005,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="183"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
     </row>
-    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>49</v>
       </c>
@@ -9888,7 +10021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
         <v>51</v>
       </c>
@@ -9899,7 +10032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>52</v>
       </c>
@@ -9910,7 +10043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>52</v>
       </c>
@@ -9921,7 +10054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
         <v>53</v>
       </c>
@@ -9932,7 +10065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>54</v>
       </c>
@@ -9943,7 +10076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
         <v>55</v>
       </c>
@@ -9954,7 +10087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>57</v>
       </c>
@@ -9965,7 +10098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>58</v>
       </c>
@@ -9976,7 +10109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>59</v>
       </c>
@@ -9987,7 +10120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>60</v>
       </c>
@@ -9998,7 +10131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>61</v>
       </c>
@@ -10009,7 +10142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
         <v>61</v>
       </c>
@@ -10020,7 +10153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
         <v>62</v>
       </c>
@@ -10031,7 +10164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
         <v>62</v>
       </c>
@@ -10042,7 +10175,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
         <v>62</v>
       </c>
@@ -10053,7 +10186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
         <v>62</v>
       </c>
@@ -10064,7 +10197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>63</v>
       </c>
@@ -10075,7 +10208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
         <v>64</v>
       </c>
@@ -10086,7 +10219,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
         <v>65</v>
       </c>
@@ -10097,7 +10230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
         <v>127</v>
       </c>
@@ -10108,7 +10241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
         <v>131</v>
       </c>
@@ -10119,7 +10252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>132</v>
       </c>
@@ -10130,7 +10263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
         <v>132</v>
       </c>
@@ -10141,7 +10274,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
         <v>133</v>
       </c>
@@ -10152,7 +10285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
         <v>133</v>
       </c>
@@ -10163,7 +10296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28" t="s">
         <v>137</v>
       </c>
@@ -10174,7 +10307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="28" t="s">
         <v>143</v>
       </c>
@@ -10185,7 +10318,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
         <v>158</v>
       </c>
@@ -10196,22 +10329,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
       <c r="D33" s="28"/>
     </row>
-    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
       <c r="D34" s="28"/>
     </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="28"/>
     </row>
-    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="48" t="s">
         <v>66</v>
       </c>
@@ -10234,40 +10367,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B2" s="177" t="s">
         <v>21</v>
       </c>
@@ -10277,51 +10410,51 @@
       <c r="D2" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="200">
+      <c r="E2" s="189">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="202">
+      <c r="F2" s="190"/>
+      <c r="G2" s="191">
         <v>0.01</v>
       </c>
-      <c r="H2" s="203"/>
-      <c r="I2" s="204">
+      <c r="H2" s="192"/>
+      <c r="I2" s="193">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J2" s="205"/>
-      <c r="K2" s="190">
+      <c r="J2" s="194"/>
+      <c r="K2" s="195">
         <v>0.02</v>
       </c>
-      <c r="L2" s="191"/>
-      <c r="M2" s="192">
+      <c r="L2" s="196"/>
+      <c r="M2" s="197">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N2" s="193"/>
-      <c r="O2" s="194">
+      <c r="N2" s="198"/>
+      <c r="O2" s="199">
         <v>0.03</v>
       </c>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="196">
+      <c r="P2" s="200"/>
+      <c r="Q2" s="201">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R2" s="197"/>
-      <c r="S2" s="198">
+      <c r="R2" s="202"/>
+      <c r="S2" s="203">
         <v>0.04</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="188">
+      <c r="T2" s="204"/>
+      <c r="U2" s="207">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="V2" s="189"/>
-      <c r="W2" s="186">
+      <c r="V2" s="208"/>
+      <c r="W2" s="205">
         <v>0.05</v>
       </c>
-      <c r="X2" s="187"/>
+      <c r="X2" s="206"/>
     </row>
-    <row r="3" spans="2:24" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
+    <row r="3" spans="2:24" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="112" t="s">
         <v>22</v>
       </c>
@@ -10383,145 +10516,125 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="207">
-        <v>14850</v>
-      </c>
-      <c r="C4" s="184">
+    <row r="4" spans="2:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="185">
+        <v>32903</v>
+      </c>
+      <c r="C4" s="187">
         <f>B4*1.0144</f>
-        <v>15063.84</v>
-      </c>
-      <c r="D4" s="207">
+        <v>33376.803200000002</v>
+      </c>
+      <c r="D4" s="185">
         <v>10266</v>
       </c>
-      <c r="E4" s="184">
+      <c r="E4" s="187">
         <f>سرمایه!H4*0.5/((C4-D4)*100)</f>
-        <v>1173.8519760975773</v>
-      </c>
-      <c r="F4" s="184">
+        <v>241.10547832452656</v>
+      </c>
+      <c r="F4" s="187">
         <f>E4*C4</f>
-        <v>17682718.351617731</v>
-      </c>
-      <c r="G4" s="184">
+        <v>8047330.1004795888</v>
+      </c>
+      <c r="G4" s="187">
         <f>سرمایه!H4*1/((C4-D4)*100)</f>
-        <v>2347.7039521951547</v>
-      </c>
-      <c r="H4" s="184">
+        <v>482.21095664905312</v>
+      </c>
+      <c r="H4" s="187">
         <f>G4*C4</f>
-        <v>35365436.703235462</v>
-      </c>
-      <c r="I4" s="184">
+        <v>16094660.200959178</v>
+      </c>
+      <c r="I4" s="187">
         <f>سرمایه!H4*1.5/((C4-D4)*100)</f>
-        <v>3521.5559282927316</v>
-      </c>
-      <c r="J4" s="184">
+        <v>723.3164349735797</v>
+      </c>
+      <c r="J4" s="187">
         <f>I4*C4</f>
-        <v>53048155.054853179</v>
-      </c>
-      <c r="K4" s="184">
+        <v>24141990.301438767</v>
+      </c>
+      <c r="K4" s="187">
         <f>سرمایه!H4*2/((C4-D4)*100)</f>
-        <v>4695.4079043903093</v>
-      </c>
-      <c r="L4" s="184">
+        <v>964.42191329810623</v>
+      </c>
+      <c r="L4" s="187">
         <f>K4*C4</f>
-        <v>70730873.406470925</v>
-      </c>
-      <c r="M4" s="184">
+        <v>32189320.401918355</v>
+      </c>
+      <c r="M4" s="187">
         <f>سرمایه!H4*2.5/((C4-D4)*100)</f>
-        <v>5869.2598804878862</v>
-      </c>
-      <c r="N4" s="184">
+        <v>1205.5273916226329</v>
+      </c>
+      <c r="N4" s="187">
         <f>M4*C4</f>
-        <v>88413591.758088633</v>
-      </c>
-      <c r="O4" s="184">
+        <v>40236650.502397947</v>
+      </c>
+      <c r="O4" s="187">
         <f>سرمایه!H4*3/((C4-D4)*100)</f>
-        <v>7043.1118565854631</v>
-      </c>
-      <c r="P4" s="184">
+        <v>1446.6328699471594</v>
+      </c>
+      <c r="P4" s="187">
         <f>O4*C4</f>
-        <v>106096310.10970636</v>
-      </c>
-      <c r="Q4" s="184">
+        <v>48283980.602877535</v>
+      </c>
+      <c r="Q4" s="187">
         <f>سرمایه!H4*3.5/((C4-D4)*100)</f>
-        <v>8216.9638326830409</v>
-      </c>
-      <c r="R4" s="184">
+        <v>1687.7383482716859</v>
+      </c>
+      <c r="R4" s="187">
         <f>Q4*C4</f>
-        <v>123779028.4613241</v>
-      </c>
-      <c r="S4" s="184">
+        <v>56331310.703357123</v>
+      </c>
+      <c r="S4" s="187">
         <f>سرمایه!H4*4/((C4-D4)*100)</f>
-        <v>9390.8158087806187</v>
-      </c>
-      <c r="T4" s="184">
+        <v>1928.8438265962125</v>
+      </c>
+      <c r="T4" s="187">
         <f>S4*C4</f>
-        <v>141461746.81294185</v>
-      </c>
-      <c r="U4" s="184">
+        <v>64378640.803836711</v>
+      </c>
+      <c r="U4" s="187">
         <f>سرمایه!H4*4.5/((C4-D4)*100)</f>
-        <v>10564.667784878195</v>
-      </c>
-      <c r="V4" s="184">
+        <v>2169.949304920739</v>
+      </c>
+      <c r="V4" s="187">
         <f>U4*C4</f>
-        <v>159144465.16455954</v>
-      </c>
-      <c r="W4" s="184">
+        <v>72425970.904316306</v>
+      </c>
+      <c r="W4" s="187">
         <f>سرمایه!H4*5/((C4-D4)*100)</f>
-        <v>11738.519760975772</v>
-      </c>
-      <c r="X4" s="184">
+        <v>2411.0547832452658</v>
+      </c>
+      <c r="X4" s="187">
         <f>W4*C4</f>
-        <v>176827183.51617727</v>
+        <v>80473301.004795894</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="208"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185"/>
-      <c r="X5" s="185"/>
+    <row r="5" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="186"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W2:X2"/>
@@ -10538,6 +10651,26 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -10552,15 +10685,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="113"/>
-    <col min="2" max="2" width="85.6640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="114"/>
-    <col min="4" max="16384" width="8.88671875" style="113"/>
+    <col min="1" max="1" width="8.85546875" style="113"/>
+    <col min="2" max="2" width="85.7109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="114"/>
+    <col min="4" max="16384" width="8.85546875" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="113" t="s">
         <v>17</v>
       </c>
@@ -10571,7 +10704,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="113" t="s">
         <v>35</v>
       </c>
@@ -10579,7 +10712,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="113" t="s">
         <v>33</v>
       </c>
@@ -10590,7 +10723,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="113" t="s">
         <v>138</v>
       </c>
@@ -10598,7 +10731,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="113" t="s">
         <v>164</v>
       </c>
@@ -10609,30 +10742,30 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="116"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="117" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="116"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="116"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="116"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="116"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="116"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="116"/>
     </row>
   </sheetData>

--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
@@ -1982,6 +1982,84 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2031,84 +2109,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2135,6 +2135,72 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,72 +2208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3375,7 +3375,7 @@
                   <c:v>116833000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218739151</c:v>
+                  <c:v>287929151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,7 +3486,7 @@
                   <c:v>0.20678407079646019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14775840140903887</c:v>
+                  <c:v>0.19449627959295576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3983,6 +3983,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12057000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69190000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,19 +5333,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>11971</v>
           </cell>
           <cell r="J4">
-            <v>8381</v>
+            <v>9730</v>
           </cell>
           <cell r="M4">
-            <v>5897</v>
+            <v>6159</v>
           </cell>
           <cell r="Q4">
-            <v>1</v>
+            <v>7672.9017128508658</v>
           </cell>
           <cell r="R4">
-            <v>0</v>
+            <v>11151</v>
           </cell>
         </row>
       </sheetData>
@@ -5373,10 +5376,10 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>8381</v>
           </cell>
           <cell r="M4">
-            <v>13992</v>
+            <v>5897</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5416,7 +5419,7 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>36278</v>
+            <v>13992</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5450,19 +5453,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>18136</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
-            <v>15866</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>11931</v>
+            <v>36278</v>
           </cell>
           <cell r="Q4">
-            <v>13403</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>4894</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -5490,19 +5493,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>18136</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>15866</v>
           </cell>
           <cell r="M4">
-            <v>10232</v>
+            <v>11931</v>
           </cell>
           <cell r="Q4">
-            <v>1</v>
+            <v>13403</v>
           </cell>
           <cell r="R4">
-            <v>0</v>
+            <v>4894</v>
           </cell>
         </row>
       </sheetData>
@@ -5536,7 +5539,7 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>4722</v>
+            <v>10232</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5576,7 +5579,7 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>23065</v>
+            <v>4722</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5616,7 +5619,7 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>5707</v>
+            <v>23065</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5656,7 +5659,7 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>17246</v>
+            <v>5707</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5696,7 +5699,7 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>29923</v>
+            <v>17246</v>
           </cell>
           <cell r="Q4">
             <v>1</v>
@@ -5773,16 +5776,16 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>4584</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>2461</v>
+            <v>29923</v>
           </cell>
           <cell r="Q4">
-            <v>3451</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>18967</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -5813,16 +5816,16 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>45154</v>
+            <v>4584</v>
           </cell>
           <cell r="M4">
-            <v>28676</v>
+            <v>2461</v>
           </cell>
           <cell r="Q4">
-            <v>38204</v>
+            <v>3451</v>
           </cell>
           <cell r="R4">
-            <v>1584</v>
+            <v>18967</v>
           </cell>
         </row>
       </sheetData>
@@ -5846,8 +5849,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>45154</v>
+          </cell>
+          <cell r="M4">
+            <v>28676</v>
+          </cell>
+          <cell r="Q4">
+            <v>38204</v>
+          </cell>
           <cell r="R4">
-            <v>0</v>
+            <v>1584</v>
           </cell>
         </row>
       </sheetData>
@@ -5871,26 +5889,14 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
+          <cell r="R4">
             <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>22500</v>
-          </cell>
-          <cell r="J4">
-            <v>20000</v>
-          </cell>
-          <cell r="M4">
-            <v>10266</v>
-          </cell>
-          <cell r="Q4">
-            <v>15065</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5906,25 +5912,22 @@
       <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="4">
           <cell r="D4">
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>22500</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>20000</v>
           </cell>
           <cell r="M4">
-            <v>8725</v>
+            <v>10266</v>
           </cell>
           <cell r="Q4">
-            <v>8725</v>
-          </cell>
-          <cell r="R4">
-            <v>3636</v>
+            <v>15065</v>
           </cell>
         </row>
       </sheetData>
@@ -5946,7 +5949,7 @@
       <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="D4">
             <v>0</v>
@@ -5955,19 +5958,22 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>11642</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>8425</v>
+            <v>8725</v>
           </cell>
           <cell r="Q4">
-            <v>9614</v>
+            <v>8725</v>
+          </cell>
+          <cell r="R4">
+            <v>3636</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5986,7 +5992,7 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="R4">
-            <v>0</v>
+            <v>5753</v>
           </cell>
         </row>
       </sheetData>
@@ -6017,13 +6023,13 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>11642</v>
           </cell>
           <cell r="M4">
-            <v>4443</v>
+            <v>8425</v>
           </cell>
           <cell r="Q4">
-            <v>4443</v>
+            <v>9614</v>
           </cell>
         </row>
       </sheetData>
@@ -6082,10 +6088,10 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>13310</v>
+            <v>4443</v>
           </cell>
           <cell r="Q4">
-            <v>13310</v>
+            <v>4443</v>
           </cell>
         </row>
       </sheetData>
@@ -6149,23 +6155,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
+          <cell r="R4">
             <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-          <cell r="M4">
-            <v>3450</v>
-          </cell>
-          <cell r="Q4">
-            <v>3450</v>
-          </cell>
-          <cell r="R4">
-            <v>420</v>
           </cell>
         </row>
       </sheetData>
@@ -6199,13 +6190,10 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>23838</v>
+            <v>13310</v>
           </cell>
           <cell r="Q4">
-            <v>23838</v>
-          </cell>
-          <cell r="R4">
-            <v>37</v>
+            <v>13310</v>
           </cell>
         </row>
       </sheetData>
@@ -6239,13 +6227,13 @@
             <v>0</v>
           </cell>
           <cell r="M4">
-            <v>20185</v>
+            <v>3450</v>
           </cell>
           <cell r="Q4">
-            <v>20185</v>
+            <v>3450</v>
           </cell>
           <cell r="R4">
-            <v>21</v>
+            <v>420</v>
           </cell>
         </row>
       </sheetData>
@@ -6269,17 +6257,29 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>23838</v>
+          </cell>
           <cell r="Q4">
-            <v>33375.001766784451</v>
+            <v>23838</v>
           </cell>
           <cell r="R4">
-            <v>4528</v>
+            <v>37</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6297,8 +6297,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>20185</v>
+          </cell>
+          <cell r="Q4">
+            <v>20185</v>
+          </cell>
           <cell r="R4">
-            <v>5753</v>
+            <v>21</v>
           </cell>
         </row>
       </sheetData>
@@ -6362,23 +6377,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>65000</v>
-          </cell>
-          <cell r="J4">
-            <v>45000</v>
-          </cell>
-          <cell r="M4">
-            <v>23215</v>
+          <cell r="Q4">
+            <v>33375.001766784451</v>
+          </cell>
+          <cell r="R4">
+            <v>4528</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6400,19 +6409,13 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>30340</v>
+            <v>65000</v>
           </cell>
           <cell r="J4">
-            <v>14670</v>
+            <v>45000</v>
           </cell>
           <cell r="M4">
-            <v>8800</v>
-          </cell>
-          <cell r="Q4">
-            <v>11666</v>
-          </cell>
-          <cell r="R4">
-            <v>8544</v>
+            <v>23215</v>
           </cell>
         </row>
       </sheetData>
@@ -6440,19 +6443,19 @@
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>0</v>
+            <v>30340</v>
           </cell>
           <cell r="J4">
-            <v>0</v>
+            <v>14670</v>
           </cell>
           <cell r="M4">
-            <v>5128</v>
+            <v>8800</v>
           </cell>
           <cell r="Q4">
-            <v>1</v>
+            <v>11666</v>
           </cell>
           <cell r="R4">
-            <v>0</v>
+            <v>8544</v>
           </cell>
         </row>
       </sheetData>
@@ -6476,19 +6479,23 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4"/>
-          <cell r="G4"/>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
           <cell r="J4">
-            <v>96800</v>
+            <v>0</v>
           </cell>
           <cell r="M4">
-            <v>69267</v>
+            <v>5128</v>
           </cell>
           <cell r="Q4">
-            <v>73543</v>
+            <v>1</v>
           </cell>
           <cell r="R4">
-            <v>1354</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -6512,23 +6519,19 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="4">
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>11971</v>
-          </cell>
+          <cell r="D4"/>
+          <cell r="G4"/>
           <cell r="J4">
-            <v>9730</v>
+            <v>96800</v>
           </cell>
           <cell r="M4">
-            <v>6159</v>
+            <v>69267</v>
           </cell>
           <cell r="Q4">
-            <v>7672.9017128508658</v>
+            <v>73543</v>
           </cell>
           <cell r="R4">
-            <v>11151</v>
+            <v>1354</v>
           </cell>
         </row>
       </sheetData>
@@ -7396,11 +7399,11 @@
         <v>164</v>
       </c>
       <c r="E9" s="9">
-        <f>'[33]دارایی فعلی'!$R$4</f>
+        <f>'[5]دارایی فعلی'!$R$4</f>
         <v>4528</v>
       </c>
       <c r="F9" s="8">
-        <f>'[33]دارایی فعلی'!$Q$4</f>
+        <f>'[5]دارایی فعلی'!$Q$4</f>
         <v>33375.001766784451</v>
       </c>
       <c r="G9" s="4">
@@ -7412,7 +7415,7 @@
         <v>151122008</v>
       </c>
       <c r="I9" s="6">
-        <f>'[5]دارایی فعلی'!$M$4</f>
+        <f>'[6]دارایی فعلی'!$M$4</f>
         <v>23215</v>
       </c>
       <c r="J9" s="5">
@@ -7424,7 +7427,7 @@
         <v>46004488</v>
       </c>
       <c r="L9" s="61">
-        <f>'[5]دارایی فعلی'!$J$4</f>
+        <f>'[6]دارایی فعلی'!$J$4</f>
         <v>45000</v>
       </c>
       <c r="M9" s="4">
@@ -7436,7 +7439,7 @@
         <v>1.14419254051909</v>
       </c>
       <c r="O9" s="61">
-        <f>'[5]دارایی فعلی'!$G$4</f>
+        <f>'[6]دارایی فعلی'!$G$4</f>
         <v>65000</v>
       </c>
       <c r="P9" s="4">
@@ -7448,7 +7451,7 @@
         <v>3.1126961352118521</v>
       </c>
       <c r="R9" s="61">
-        <f>'[5]دارایی فعلی'!$D$4</f>
+        <f>'[6]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S9" s="71">
@@ -7471,11 +7474,11 @@
         <v>140</v>
       </c>
       <c r="E10" s="9">
-        <f>'[6]دارایی فعلی'!$R$4</f>
+        <f>'[7]دارایی فعلی'!$R$4</f>
         <v>8544</v>
       </c>
       <c r="F10" s="8">
-        <f>'[6]دارایی فعلی'!$Q$4</f>
+        <f>'[7]دارایی فعلی'!$Q$4</f>
         <v>11666</v>
       </c>
       <c r="G10" s="4">
@@ -7487,7 +7490,7 @@
         <v>99674304</v>
       </c>
       <c r="I10" s="6">
-        <f>'[6]دارایی فعلی'!$M$4</f>
+        <f>'[7]دارایی فعلی'!$M$4</f>
         <v>8800</v>
       </c>
       <c r="J10" s="5">
@@ -7499,7 +7502,7 @@
         <v>24487104</v>
       </c>
       <c r="L10" s="61">
-        <f>'[6]دارایی فعلی'!$J$4</f>
+        <f>'[7]دارایی فعلی'!$J$4</f>
         <v>14670</v>
       </c>
       <c r="M10" s="4">
@@ -7511,7 +7514,7 @@
         <v>1.0481507327285411</v>
       </c>
       <c r="O10" s="61">
-        <f>'[6]دارایی فعلی'!$G$4</f>
+        <f>'[7]دارایی فعلی'!$G$4</f>
         <v>30340</v>
       </c>
       <c r="P10" s="4">
@@ -7523,7 +7526,7 @@
         <v>6.5157013258897418</v>
       </c>
       <c r="R10" s="61">
-        <f>'[6]دارایی فعلی'!$D$4</f>
+        <f>'[7]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S10" s="71">
@@ -7546,11 +7549,11 @@
         <v>27</v>
       </c>
       <c r="E11" s="38">
-        <f>'[7]دارایی فعلی'!$R$4</f>
+        <f>'[8]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F11" s="37">
-        <f>'[7]دارایی فعلی'!$Q$4</f>
+        <f>'[8]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G11" s="33" t="str">
@@ -7562,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="35">
-        <f>'[7]دارایی فعلی'!$M$4</f>
+        <f>'[8]دارایی فعلی'!$M$4</f>
         <v>5128</v>
       </c>
       <c r="J11" s="34">
@@ -7574,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="59">
-        <f>'[7]دارایی فعلی'!$J$4</f>
+        <f>'[8]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M11" s="33">
@@ -7586,7 +7589,7 @@
         <v>RF</v>
       </c>
       <c r="O11" s="59">
-        <f>'[7]دارایی فعلی'!$G$4</f>
+        <f>'[8]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P11" s="33">
@@ -7598,7 +7601,7 @@
         <v>RF</v>
       </c>
       <c r="R11" s="59">
-        <f>'[7]دارایی فعلی'!$D$4</f>
+        <f>'[8]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S11" s="81">
@@ -7621,11 +7624,11 @@
         <v>138</v>
       </c>
       <c r="E12" s="9">
-        <f>'[8]دارایی فعلی'!$R$4</f>
+        <f>'[9]دارایی فعلی'!$R$4</f>
         <v>1354</v>
       </c>
       <c r="F12" s="8">
-        <f>'[8]دارایی فعلی'!$Q$4</f>
+        <f>'[9]دارایی فعلی'!$Q$4</f>
         <v>73543</v>
       </c>
       <c r="G12" s="4">
@@ -7637,7 +7640,7 @@
         <v>99577222</v>
       </c>
       <c r="I12" s="6">
-        <f>'[8]دارایی فعلی'!$M$4</f>
+        <f>'[9]دارایی فعلی'!$M$4</f>
         <v>69267</v>
       </c>
       <c r="J12" s="5">
@@ -7649,7 +7652,7 @@
         <v>5789704</v>
       </c>
       <c r="L12" s="61">
-        <f>'[8]دارایی فعلی'!$J$4</f>
+        <f>'[9]دارایی فعلی'!$J$4</f>
         <v>96800</v>
       </c>
       <c r="M12" s="4">
@@ -7661,7 +7664,7 @@
         <v>5.4389616463985018</v>
       </c>
       <c r="O12" s="61">
-        <f>'[8]دارایی فعلی'!$G$4</f>
+        <f>'[9]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
@@ -7673,7 +7676,7 @@
         <v>-17.199017773620199</v>
       </c>
       <c r="R12" s="61">
-        <f>'[8]دارایی فعلی'!$D$4</f>
+        <f>'[9]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S12" s="71">
@@ -7696,11 +7699,11 @@
         <v>28</v>
       </c>
       <c r="E13" s="9">
-        <f>'[9]دارایی فعلی'!$R$4</f>
+        <f>'[10]دارایی فعلی'!$R$4</f>
         <v>11151</v>
       </c>
       <c r="F13" s="8">
-        <f>'[9]دارایی فعلی'!$Q$4</f>
+        <f>'[10]دارایی فعلی'!$Q$4</f>
         <v>7672.9017128508658</v>
       </c>
       <c r="G13" s="4">
@@ -7712,7 +7715,7 @@
         <v>85560527</v>
       </c>
       <c r="I13" s="6">
-        <f>'[9]دارایی فعلی'!$M$4</f>
+        <f>'[10]دارایی فعلی'!$M$4</f>
         <v>6159</v>
       </c>
       <c r="J13" s="5">
@@ -7724,7 +7727,7 @@
         <v>16881518</v>
       </c>
       <c r="L13" s="61">
-        <f>'[9]دارایی فعلی'!$J$4</f>
+        <f>'[10]دارایی فعلی'!$J$4</f>
         <v>9730</v>
       </c>
       <c r="M13" s="4">
@@ -7736,7 +7739,7 @@
         <v>1.3588057069275394</v>
       </c>
       <c r="O13" s="61">
-        <f>'[9]دارایی فعلی'!$G$4</f>
+        <f>'[10]دارایی فعلی'!$G$4</f>
         <v>11971</v>
       </c>
       <c r="P13" s="4">
@@ -7748,7 +7751,7 @@
         <v>2.8390867456350768</v>
       </c>
       <c r="R13" s="61">
-        <f>'[9]دارایی فعلی'!$D$4</f>
+        <f>'[10]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S13" s="71">
@@ -7771,11 +7774,11 @@
         <v>32</v>
       </c>
       <c r="E14" s="38">
-        <f>'[10]دارایی فعلی'!$R$4</f>
+        <f>'[11]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F14" s="37">
-        <f>'[10]دارایی فعلی'!$Q$4</f>
+        <f>'[11]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G14" s="33" t="str">
@@ -7787,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="35">
-        <f>'[10]دارایی فعلی'!$M$4</f>
+        <f>'[11]دارایی فعلی'!$M$4</f>
         <v>5897</v>
       </c>
       <c r="J14" s="34">
@@ -7799,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="59">
-        <f>'[10]دارایی فعلی'!$J$4</f>
+        <f>'[11]دارایی فعلی'!$J$4</f>
         <v>8381</v>
       </c>
       <c r="M14" s="33">
@@ -7811,7 +7814,7 @@
         <v>RF</v>
       </c>
       <c r="O14" s="59">
-        <f>'[10]دارایی فعلی'!$G$4</f>
+        <f>'[11]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P14" s="33">
@@ -7823,7 +7826,7 @@
         <v>RF</v>
       </c>
       <c r="R14" s="59">
-        <f>'[10]دارایی فعلی'!$D$4</f>
+        <f>'[11]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S14" s="81">
@@ -7846,11 +7849,11 @@
         <v>25</v>
       </c>
       <c r="E15" s="9">
-        <f>'[11]دارایی فعلی'!$R$4</f>
+        <f>'[12]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>'[11]دارایی فعلی'!$Q$4</f>
+        <f>'[12]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G15" s="4" t="str">
@@ -7862,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6">
-        <f>'[11]دارایی فعلی'!$M$4</f>
+        <f>'[12]دارایی فعلی'!$M$4</f>
         <v>13992</v>
       </c>
       <c r="J15" s="5">
@@ -7874,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="61">
-        <f>'[11]دارایی فعلی'!$J$4</f>
+        <f>'[12]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
@@ -7886,7 +7889,7 @@
         <v>RF</v>
       </c>
       <c r="O15" s="61">
-        <f>'[11]دارایی فعلی'!$G$4</f>
+        <f>'[12]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
@@ -7898,7 +7901,7 @@
         <v>RF</v>
       </c>
       <c r="R15" s="61">
-        <f>'[11]دارایی فعلی'!$D$4</f>
+        <f>'[12]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S15" s="71">
@@ -7921,11 +7924,11 @@
         <v>24</v>
       </c>
       <c r="E16" s="9">
-        <f>'[12]دارایی فعلی'!$R$4</f>
+        <f>'[13]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>'[12]دارایی فعلی'!$Q$4</f>
+        <f>'[13]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G16" s="4" t="str">
@@ -7937,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <f>'[12]دارایی فعلی'!$M$4</f>
+        <f>'[13]دارایی فعلی'!$M$4</f>
         <v>36278</v>
       </c>
       <c r="J16" s="5">
@@ -7949,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="61">
-        <f>'[12]دارایی فعلی'!$J$4</f>
+        <f>'[13]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
@@ -7961,7 +7964,7 @@
         <v>RF</v>
       </c>
       <c r="O16" s="61">
-        <f>'[12]دارایی فعلی'!$G$4</f>
+        <f>'[13]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
@@ -7973,7 +7976,7 @@
         <v>RF</v>
       </c>
       <c r="R16" s="61">
-        <f>'[12]دارایی فعلی'!$D$4</f>
+        <f>'[13]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S16" s="71">
@@ -7996,11 +7999,11 @@
         <v>31</v>
       </c>
       <c r="E17" s="9">
-        <f>'[13]دارایی فعلی'!$R$4</f>
+        <f>'[14]دارایی فعلی'!$R$4</f>
         <v>4894</v>
       </c>
       <c r="F17" s="8">
-        <f>'[13]دارایی فعلی'!$Q$4</f>
+        <f>'[14]دارایی فعلی'!$Q$4</f>
         <v>13403</v>
       </c>
       <c r="G17" s="4">
@@ -8012,7 +8015,7 @@
         <v>65594282</v>
       </c>
       <c r="I17" s="6">
-        <f>'[13]دارایی فعلی'!$M$4</f>
+        <f>'[14]دارایی فعلی'!$M$4</f>
         <v>11931</v>
       </c>
       <c r="J17" s="5">
@@ -8024,7 +8027,7 @@
         <v>7203968</v>
       </c>
       <c r="L17" s="61">
-        <f>'[13]دارایی فعلی'!$J$4</f>
+        <f>'[14]دارایی فعلی'!$J$4</f>
         <v>15866</v>
       </c>
       <c r="M17" s="4">
@@ -8036,7 +8039,7 @@
         <v>1.6732336956521745</v>
       </c>
       <c r="O17" s="61">
-        <f>'[13]دارایی فعلی'!$G$4</f>
+        <f>'[14]دارایی فعلی'!$G$4</f>
         <v>18136</v>
       </c>
       <c r="P17" s="4">
@@ -8048,7 +8051,7 @@
         <v>3.2153532608695659</v>
       </c>
       <c r="R17" s="61">
-        <f>'[13]دارایی فعلی'!$D$4</f>
+        <f>'[14]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S17" s="71">
@@ -8071,11 +8074,11 @@
         <v>30</v>
       </c>
       <c r="E18" s="38">
-        <f>'[14]دارایی فعلی'!$R$4</f>
+        <f>'[15]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F18" s="37">
-        <f>'[14]دارایی فعلی'!$Q$4</f>
+        <f>'[15]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G18" s="33" t="str">
@@ -8087,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="35">
-        <f>'[14]دارایی فعلی'!$M$4</f>
+        <f>'[15]دارایی فعلی'!$M$4</f>
         <v>10232</v>
       </c>
       <c r="J18" s="34">
@@ -8099,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="59">
-        <f>'[14]دارایی فعلی'!$J$4</f>
+        <f>'[15]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M18" s="33">
@@ -8111,7 +8114,7 @@
         <v>RF</v>
       </c>
       <c r="O18" s="59">
-        <f>'[14]دارایی فعلی'!$G$4</f>
+        <f>'[15]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P18" s="33">
@@ -8123,7 +8126,7 @@
         <v>RF</v>
       </c>
       <c r="R18" s="59">
-        <f>'[14]دارایی فعلی'!$D$4</f>
+        <f>'[15]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S18" s="81">
@@ -8146,11 +8149,11 @@
         <v>37</v>
       </c>
       <c r="E19" s="9">
-        <f>'[15]دارایی فعلی'!$R$4</f>
+        <f>'[16]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>'[15]دارایی فعلی'!$Q$4</f>
+        <f>'[16]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G19" s="4" t="str">
@@ -8162,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <f>'[15]دارایی فعلی'!$M$4</f>
+        <f>'[16]دارایی فعلی'!$M$4</f>
         <v>4722</v>
       </c>
       <c r="J19" s="5">
@@ -8174,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="61">
-        <f>'[15]دارایی فعلی'!$J$4</f>
+        <f>'[16]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
@@ -8186,7 +8189,7 @@
         <v>RF</v>
       </c>
       <c r="O19" s="61">
-        <f>'[15]دارایی فعلی'!$G$4</f>
+        <f>'[16]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
@@ -8198,7 +8201,7 @@
         <v>RF</v>
       </c>
       <c r="R19" s="61">
-        <f>'[15]دارایی فعلی'!$D$4</f>
+        <f>'[16]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S19" s="71">
@@ -8221,11 +8224,11 @@
         <v>29</v>
       </c>
       <c r="E20" s="9">
-        <f>'[16]دارایی فعلی'!$R$4</f>
+        <f>'[17]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>'[16]دارایی فعلی'!$Q$4</f>
+        <f>'[17]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G20" s="4" t="str">
@@ -8237,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6">
-        <f>'[16]دارایی فعلی'!$M$4</f>
+        <f>'[17]دارایی فعلی'!$M$4</f>
         <v>23065</v>
       </c>
       <c r="J20" s="5">
@@ -8249,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="61">
-        <f>'[16]دارایی فعلی'!$J$4</f>
+        <f>'[17]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
@@ -8261,7 +8264,7 @@
         <v>RF</v>
       </c>
       <c r="O20" s="61">
-        <f>'[16]دارایی فعلی'!$G$4</f>
+        <f>'[17]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
@@ -8273,7 +8276,7 @@
         <v>RF</v>
       </c>
       <c r="R20" s="61">
-        <f>'[16]دارایی فعلی'!$D$4</f>
+        <f>'[17]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S20" s="71">
@@ -8296,11 +8299,11 @@
         <v>45</v>
       </c>
       <c r="E21" s="9">
-        <f>'[17]دارایی فعلی'!$R$4</f>
+        <f>'[18]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>'[17]دارایی فعلی'!$Q$4</f>
+        <f>'[18]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G21" s="4" t="str">
@@ -8312,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6">
-        <f>'[17]دارایی فعلی'!$M$4</f>
+        <f>'[18]دارایی فعلی'!$M$4</f>
         <v>5707</v>
       </c>
       <c r="J21" s="5">
@@ -8324,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="61">
-        <f>'[17]دارایی فعلی'!$J$4</f>
+        <f>'[18]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
@@ -8336,7 +8339,7 @@
         <v>RF</v>
       </c>
       <c r="O21" s="61">
-        <f>'[17]دارایی فعلی'!$G$4</f>
+        <f>'[18]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
@@ -8348,7 +8351,7 @@
         <v>RF</v>
       </c>
       <c r="R21" s="61">
-        <f>'[17]دارایی فعلی'!$D$4</f>
+        <f>'[18]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S21" s="71">
@@ -8371,11 +8374,11 @@
         <v>43</v>
       </c>
       <c r="E22" s="9">
-        <f>'[18]دارایی فعلی'!$R$4</f>
+        <f>'[19]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>'[18]دارایی فعلی'!$Q$4</f>
+        <f>'[19]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G22" s="4" t="str">
@@ -8387,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f>'[18]دارایی فعلی'!$M$4</f>
+        <f>'[19]دارایی فعلی'!$M$4</f>
         <v>17246</v>
       </c>
       <c r="J22" s="5">
@@ -8399,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="61">
-        <f>'[18]دارایی فعلی'!$J$4</f>
+        <f>'[19]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
@@ -8411,7 +8414,7 @@
         <v>RF</v>
       </c>
       <c r="O22" s="61">
-        <f>'[18]دارایی فعلی'!$G$4</f>
+        <f>'[19]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P22" s="4">
@@ -8423,7 +8426,7 @@
         <v>RF</v>
       </c>
       <c r="R22" s="61">
-        <f>'[18]دارایی فعلی'!$D$4</f>
+        <f>'[19]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S22" s="71">
@@ -8446,11 +8449,11 @@
         <v>44</v>
       </c>
       <c r="E23" s="9">
-        <f>'[19]دارایی فعلی'!$R$4</f>
+        <f>'[20]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>'[19]دارایی فعلی'!$Q$4</f>
+        <f>'[20]دارایی فعلی'!$Q$4</f>
         <v>1</v>
       </c>
       <c r="G23" s="4" t="str">
@@ -8462,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6">
-        <f>'[19]دارایی فعلی'!$M$4</f>
+        <f>'[20]دارایی فعلی'!$M$4</f>
         <v>29923</v>
       </c>
       <c r="J23" s="5">
@@ -8474,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="61">
-        <f>'[19]دارایی فعلی'!$J$4</f>
+        <f>'[20]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
@@ -8486,7 +8489,7 @@
         <v>RF</v>
       </c>
       <c r="O23" s="61">
-        <f>'[19]دارایی فعلی'!$G$4</f>
+        <f>'[20]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P23" s="4">
@@ -8498,7 +8501,7 @@
         <v>RF</v>
       </c>
       <c r="R23" s="61">
-        <f>'[19]دارایی فعلی'!$D$4</f>
+        <f>'[20]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S23" s="71">
@@ -8521,11 +8524,11 @@
         <v>128</v>
       </c>
       <c r="E24" s="9">
-        <f>'[20]دارایی فعلی'!$R$4</f>
+        <f>'[21]دارایی فعلی'!$R$4</f>
         <v>18967</v>
       </c>
       <c r="F24" s="8">
-        <f>'[20]دارایی فعلی'!$Q$4</f>
+        <f>'[21]دارایی فعلی'!$Q$4</f>
         <v>3451</v>
       </c>
       <c r="G24" s="4">
@@ -8537,7 +8540,7 @@
         <v>65455117</v>
       </c>
       <c r="I24" s="6">
-        <f>'[20]دارایی فعلی'!$M$4</f>
+        <f>'[21]دارایی فعلی'!$M$4</f>
         <v>2461</v>
       </c>
       <c r="J24" s="5">
@@ -8549,7 +8552,7 @@
         <v>18777330</v>
       </c>
       <c r="L24" s="61">
-        <f>'[20]دارایی فعلی'!$J$4</f>
+        <f>'[21]دارایی فعلی'!$J$4</f>
         <v>4584</v>
       </c>
       <c r="M24" s="4">
@@ -8561,7 +8564,7 @@
         <v>1.1444444444444446</v>
       </c>
       <c r="O24" s="61">
-        <f>'[20]دارایی فعلی'!$G$4</f>
+        <f>'[21]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P24" s="4">
@@ -8573,7 +8576,7 @@
         <v>-3.485858585858586</v>
       </c>
       <c r="R24" s="61">
-        <f>'[20]دارایی فعلی'!$D$4</f>
+        <f>'[21]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S24" s="71">
@@ -8596,11 +8599,11 @@
         <v>34</v>
       </c>
       <c r="E25" s="9">
-        <f>'[21]دارایی فعلی'!$R$4</f>
+        <f>'[22]دارایی فعلی'!$R$4</f>
         <v>1584</v>
       </c>
       <c r="F25" s="8">
-        <f>'[21]دارایی فعلی'!$Q$4</f>
+        <f>'[22]دارایی فعلی'!$Q$4</f>
         <v>38204</v>
       </c>
       <c r="G25" s="4">
@@ -8612,7 +8615,7 @@
         <v>60515136</v>
       </c>
       <c r="I25" s="6">
-        <f>'[21]دارایی فعلی'!$M$4</f>
+        <f>'[22]دارایی فعلی'!$M$4</f>
         <v>28676</v>
       </c>
       <c r="J25" s="5">
@@ -8624,7 +8627,7 @@
         <v>15092352</v>
       </c>
       <c r="L25" s="61">
-        <f>'[21]دارایی فعلی'!$J$4</f>
+        <f>'[22]دارایی فعلی'!$J$4</f>
         <v>45154</v>
       </c>
       <c r="M25" s="4">
@@ -8636,7 +8639,7 @@
         <v>0.72942905121746449</v>
       </c>
       <c r="O25" s="61">
-        <f>'[21]دارایی فعلی'!$G$4</f>
+        <f>'[22]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P25" s="4">
@@ -8648,7 +8651,7 @@
         <v>-4.0096557514693538</v>
       </c>
       <c r="R25" s="61">
-        <f>'[21]دارایی فعلی'!$D$4</f>
+        <f>'[22]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S25" s="71">
@@ -8671,11 +8674,11 @@
         <v>168</v>
       </c>
       <c r="E26" s="9">
-        <f>'[22]دارایی فعلی'!$R$4</f>
+        <f>'[23]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <f>'[23]دارایی فعلی'!$Q$4</f>
+        <f>'[24]دارایی فعلی'!$Q$4</f>
         <v>15065</v>
       </c>
       <c r="G26" s="4" t="str">
@@ -8687,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6">
-        <f>'[23]دارایی فعلی'!$M$4</f>
+        <f>'[24]دارایی فعلی'!$M$4</f>
         <v>10266</v>
       </c>
       <c r="J26" s="5">
@@ -8699,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="61">
-        <f>'[23]دارایی فعلی'!$J$4</f>
+        <f>'[24]دارایی فعلی'!$J$4</f>
         <v>20000</v>
       </c>
       <c r="M26" s="4">
@@ -8711,7 +8714,7 @@
         <v>1.0283392373411127</v>
       </c>
       <c r="O26" s="61">
-        <f>'[23]دارایی فعلی'!$G$4</f>
+        <f>'[24]دارایی فعلی'!$G$4</f>
         <v>22500</v>
       </c>
       <c r="P26" s="4">
@@ -8723,7 +8726,7 @@
         <v>1.5492811002292142</v>
       </c>
       <c r="R26" s="61">
-        <f>'[23]دارایی فعلی'!$D$4</f>
+        <f>'[24]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S26" s="71">
@@ -8746,11 +8749,11 @@
         <v>134</v>
       </c>
       <c r="E27" s="9">
-        <f>'[24]دارایی فعلی'!$R$4</f>
+        <f>'[25]دارایی فعلی'!$R$4</f>
         <v>3636</v>
       </c>
       <c r="F27" s="8">
-        <f>'[24]دارایی فعلی'!$Q$4</f>
+        <f>'[25]دارایی فعلی'!$Q$4</f>
         <v>8725</v>
       </c>
       <c r="G27" s="4" t="str">
@@ -8762,7 +8765,7 @@
         <v>31724100</v>
       </c>
       <c r="I27" s="6">
-        <f>'[24]دارایی فعلی'!$M$4</f>
+        <f>'[25]دارایی فعلی'!$M$4</f>
         <v>8725</v>
       </c>
       <c r="J27" s="5">
@@ -8774,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="61">
-        <f>'[24]دارایی فعلی'!$J$4</f>
+        <f>'[25]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M27" s="4">
@@ -8786,7 +8789,7 @@
         <v>RF</v>
       </c>
       <c r="O27" s="61">
-        <f>'[24]دارایی فعلی'!$G$4</f>
+        <f>'[25]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P27" s="4">
@@ -8798,7 +8801,7 @@
         <v>RF</v>
       </c>
       <c r="R27" s="61">
-        <f>'[24]دارایی فعلی'!$D$4</f>
+        <f>'[25]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S27" s="71">
@@ -8821,11 +8824,11 @@
         <v>26</v>
       </c>
       <c r="E28" s="9">
-        <f>'[34]دارایی فعلی'!$R$4</f>
+        <f>'[26]دارایی فعلی'!$R$4</f>
         <v>5753</v>
       </c>
       <c r="F28" s="8">
-        <f>'[25]دارایی فعلی'!$Q$4</f>
+        <f>'[27]دارایی فعلی'!$Q$4</f>
         <v>9614</v>
       </c>
       <c r="G28" s="4">
@@ -8837,7 +8840,7 @@
         <v>55309342</v>
       </c>
       <c r="I28" s="6">
-        <f>'[25]دارایی فعلی'!$M$4</f>
+        <f>'[27]دارایی فعلی'!$M$4</f>
         <v>8425</v>
       </c>
       <c r="J28" s="5">
@@ -8849,7 +8852,7 @@
         <v>6840317</v>
       </c>
       <c r="L28" s="61">
-        <f>'[25]دارایی فعلی'!$J$4</f>
+        <f>'[27]دارایی فعلی'!$J$4</f>
         <v>11642</v>
       </c>
       <c r="M28" s="4">
@@ -8861,7 +8864,7 @@
         <v>1.705634987384357</v>
       </c>
       <c r="O28" s="61">
-        <f>'[25]دارایی فعلی'!$G$4</f>
+        <f>'[27]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P28" s="4">
@@ -8873,7 +8876,7 @@
         <v>-8.0857863751051298</v>
       </c>
       <c r="R28" s="61">
-        <f>'[25]دارایی فعلی'!$D$4</f>
+        <f>'[27]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S28" s="71">
@@ -8896,11 +8899,11 @@
         <v>38</v>
       </c>
       <c r="E29" s="9">
-        <f>'[26]دارایی فعلی'!$R$4</f>
+        <f>'[28]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>'[27]دارایی فعلی'!$Q$4</f>
+        <f>'[29]دارایی فعلی'!$Q$4</f>
         <v>4443</v>
       </c>
       <c r="G29" s="4" t="str">
@@ -8912,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f>'[27]دارایی فعلی'!$M$4</f>
+        <f>'[29]دارایی فعلی'!$M$4</f>
         <v>4443</v>
       </c>
       <c r="J29" s="5">
@@ -8924,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="61">
-        <f>'[27]دارایی فعلی'!$J$4</f>
+        <f>'[29]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M29" s="4">
@@ -8936,7 +8939,7 @@
         <v>RF</v>
       </c>
       <c r="O29" s="61">
-        <f>'[27]دارایی فعلی'!$G$4</f>
+        <f>'[29]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P29" s="4">
@@ -8948,7 +8951,7 @@
         <v>RF</v>
       </c>
       <c r="R29" s="61">
-        <f>'[27]دارایی فعلی'!$D$4</f>
+        <f>'[29]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S29" s="71">
@@ -8971,11 +8974,11 @@
         <v>40</v>
       </c>
       <c r="E30" s="9">
-        <f>'[28]دارایی فعلی'!$R$4</f>
+        <f>'[30]دارایی فعلی'!$R$4</f>
         <v>0</v>
       </c>
       <c r="F30" s="8">
-        <f>'[29]دارایی فعلی'!$Q$4</f>
+        <f>'[31]دارایی فعلی'!$Q$4</f>
         <v>13310</v>
       </c>
       <c r="G30" s="4" t="str">
@@ -8987,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <f>'[29]دارایی فعلی'!$M$4</f>
+        <f>'[31]دارایی فعلی'!$M$4</f>
         <v>13310</v>
       </c>
       <c r="J30" s="5">
@@ -8999,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="61">
-        <f>'[29]دارایی فعلی'!$J$4</f>
+        <f>'[31]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M30" s="4">
@@ -9011,7 +9014,7 @@
         <v>RF</v>
       </c>
       <c r="O30" s="61">
-        <f>'[29]دارایی فعلی'!$G$4</f>
+        <f>'[31]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P30" s="4">
@@ -9023,7 +9026,7 @@
         <v>RF</v>
       </c>
       <c r="R30" s="61">
-        <f>'[29]دارایی فعلی'!$D$4</f>
+        <f>'[31]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S30" s="71">
@@ -9046,11 +9049,11 @@
         <v>39</v>
       </c>
       <c r="E31" s="9">
-        <f>'[30]دارایی فعلی'!$R$4</f>
+        <f>'[32]دارایی فعلی'!$R$4</f>
         <v>420</v>
       </c>
       <c r="F31" s="8">
-        <f>'[30]دارایی فعلی'!$Q$4</f>
+        <f>'[32]دارایی فعلی'!$Q$4</f>
         <v>3450</v>
       </c>
       <c r="G31" s="4" t="str">
@@ -9062,7 +9065,7 @@
         <v>1449000</v>
       </c>
       <c r="I31" s="6">
-        <f>'[30]دارایی فعلی'!$M$4</f>
+        <f>'[32]دارایی فعلی'!$M$4</f>
         <v>3450</v>
       </c>
       <c r="J31" s="5">
@@ -9074,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="61">
-        <f>'[30]دارایی فعلی'!$J$4</f>
+        <f>'[32]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M31" s="4">
@@ -9086,7 +9089,7 @@
         <v>RF</v>
       </c>
       <c r="O31" s="61">
-        <f>'[30]دارایی فعلی'!$G$4</f>
+        <f>'[32]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P31" s="4">
@@ -9098,7 +9101,7 @@
         <v>RF</v>
       </c>
       <c r="R31" s="61">
-        <f>'[30]دارایی فعلی'!$D$4</f>
+        <f>'[32]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S31" s="71">
@@ -9121,11 +9124,11 @@
         <v>41</v>
       </c>
       <c r="E32" s="9">
-        <f>'[31]دارایی فعلی'!$R$4</f>
+        <f>'[33]دارایی فعلی'!$R$4</f>
         <v>37</v>
       </c>
       <c r="F32" s="8">
-        <f>'[31]دارایی فعلی'!$Q$4</f>
+        <f>'[33]دارایی فعلی'!$Q$4</f>
         <v>23838</v>
       </c>
       <c r="G32" s="4" t="str">
@@ -9137,7 +9140,7 @@
         <v>882006</v>
       </c>
       <c r="I32" s="6">
-        <f>'[31]دارایی فعلی'!$M$4</f>
+        <f>'[33]دارایی فعلی'!$M$4</f>
         <v>23838</v>
       </c>
       <c r="J32" s="5">
@@ -9149,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="61">
-        <f>'[31]دارایی فعلی'!$J$4</f>
+        <f>'[33]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M32" s="4">
@@ -9161,7 +9164,7 @@
         <v>RF</v>
       </c>
       <c r="O32" s="61">
-        <f>'[31]دارایی فعلی'!$G$4</f>
+        <f>'[33]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P32" s="4">
@@ -9173,7 +9176,7 @@
         <v>RF</v>
       </c>
       <c r="R32" s="61">
-        <f>'[31]دارایی فعلی'!$D$4</f>
+        <f>'[33]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S32" s="71">
@@ -9196,11 +9199,11 @@
         <v>42</v>
       </c>
       <c r="E33" s="9">
-        <f>'[32]دارایی فعلی'!$R$4</f>
+        <f>'[34]دارایی فعلی'!$R$4</f>
         <v>21</v>
       </c>
       <c r="F33" s="8">
-        <f>'[32]دارایی فعلی'!$Q$4</f>
+        <f>'[34]دارایی فعلی'!$Q$4</f>
         <v>20185</v>
       </c>
       <c r="G33" s="4" t="str">
@@ -9212,7 +9215,7 @@
         <v>423885</v>
       </c>
       <c r="I33" s="6">
-        <f>'[32]دارایی فعلی'!$M$4</f>
+        <f>'[34]دارایی فعلی'!$M$4</f>
         <v>20185</v>
       </c>
       <c r="J33" s="5">
@@ -9224,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="61">
-        <f>'[32]دارایی فعلی'!$J$4</f>
+        <f>'[34]دارایی فعلی'!$J$4</f>
         <v>0</v>
       </c>
       <c r="M33" s="4">
@@ -9236,7 +9239,7 @@
         <v>RF</v>
       </c>
       <c r="O33" s="61">
-        <f>'[32]دارایی فعلی'!$G$4</f>
+        <f>'[34]دارایی فعلی'!$G$4</f>
         <v>0</v>
       </c>
       <c r="P33" s="4">
@@ -9248,7 +9251,7 @@
         <v>RF</v>
       </c>
       <c r="R33" s="61">
-        <f>'[32]دارایی فعلی'!$D$4</f>
+        <f>'[34]دارایی فعلی'!$D$4</f>
         <v>0</v>
       </c>
       <c r="S33" s="71">
@@ -9315,9 +9318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
-    </sheetView>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9341,40 +9342,40 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="150" t="s">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="154" t="s">
+      <c r="I2" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="155"/>
-      <c r="K2" s="166" t="s">
+      <c r="J2" s="154"/>
+      <c r="K2" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="170" t="s">
+      <c r="L2" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="160" t="s">
+      <c r="M2" s="144"/>
+      <c r="N2" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="161"/>
+      <c r="O2" s="134"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="136"/>
-      <c r="C3" s="134"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="160"/>
       <c r="D3" s="80" t="s">
         <v>93</v>
       </c>
@@ -9387,14 +9388,14 @@
       <c r="G3" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="151"/>
+      <c r="H3" s="150"/>
       <c r="I3" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="167"/>
+      <c r="K3" s="140"/>
       <c r="L3" s="79" t="s">
         <v>70</v>
       </c>
@@ -9409,92 +9410,79 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="139">
+      <c r="B4" s="165">
         <v>100678828</v>
       </c>
-      <c r="C4" s="137">
-        <v>1699123000</v>
-      </c>
-      <c r="D4" s="144">
+      <c r="C4" s="163">
+        <v>1768313000</v>
+      </c>
+      <c r="D4" s="170">
         <f>SUMPRODUCT(پرتفوی!E5:E33*پرتفوی!F5:F33)</f>
         <v>1269502275</v>
       </c>
-      <c r="E4" s="146">
+      <c r="E4" s="172">
         <f>C4-B4</f>
-        <v>1598444172</v>
-      </c>
-      <c r="F4" s="146">
+        <v>1667634172</v>
+      </c>
+      <c r="F4" s="172">
         <f>E4-D4</f>
-        <v>328941897</v>
-      </c>
-      <c r="G4" s="148">
+        <v>398131897</v>
+      </c>
+      <c r="G4" s="174">
         <f>F4/D4</f>
-        <v>0.25911091573270317</v>
-      </c>
-      <c r="H4" s="152">
+        <v>0.31361259041461742</v>
+      </c>
+      <c r="H4" s="151">
         <f>B4+D4-SUM(پرتفوی!K5:K39)</f>
         <v>1114428252</v>
       </c>
-      <c r="I4" s="156">
+      <c r="I4" s="155">
         <f>SUM(پرتفوی!K5:K33)</f>
         <v>255752851</v>
       </c>
-      <c r="J4" s="158">
+      <c r="J4" s="157">
         <f>(K4-H4)/K4*100</f>
         <v>18.6656238682632</v>
       </c>
-      <c r="K4" s="168">
+      <c r="K4" s="141">
         <f>D4+B4</f>
         <v>1370181103</v>
       </c>
-      <c r="L4" s="172">
+      <c r="L4" s="145">
         <f>K4-'واریز و برداشت'!C36</f>
         <v>14206494</v>
       </c>
-      <c r="M4" s="174">
+      <c r="M4" s="147">
         <f>L4/'واریز و برداشت'!C36</f>
         <v>1.0476961667060242E-2</v>
       </c>
-      <c r="N4" s="162">
+      <c r="N4" s="135">
         <f>C4-'واریز و برداشت'!C36</f>
-        <v>343148391</v>
-      </c>
-      <c r="O4" s="164">
+        <v>412338391</v>
+      </c>
+      <c r="O4" s="137">
         <f>N4/'واریز و برداشت'!C36</f>
-        <v>0.25306402400341699</v>
+        <v>0.30409005320836358</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="140"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="165"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:C5"/>
@@ -9504,6 +9492,19 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -9514,7 +9515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9576,11 +9577,11 @@
         <v>69</v>
       </c>
       <c r="J3" s="87">
-        <v>1687066000</v>
+        <v>1699123000</v>
       </c>
       <c r="K3" s="87">
         <f>C7-J3</f>
-        <v>12057000</v>
+        <v>69190000</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
@@ -9663,7 +9664,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="102">
-        <v>1699123000</v>
+        <v>1768313000</v>
       </c>
       <c r="D7" s="106">
         <v>801750849</v>
@@ -9677,11 +9678,11 @@
       </c>
       <c r="G7" s="102">
         <f>Table6910[[#This Row],[Column1]]-(C6+Table6910[[#This Row],[Column4]])</f>
-        <v>218739151</v>
+        <v>287929151</v>
       </c>
       <c r="H7" s="90">
         <f>Table6910[[#This Row],[Column5]]/(C6+Table6910[[#This Row],[Column4]])</f>
-        <v>0.14775840140903887</v>
+        <v>0.19449627959295576</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
@@ -9809,7 +9810,7 @@
       </c>
       <c r="G19" s="109">
         <f>SUM(Table6910[Column5])</f>
-        <v>343148391</v>
+        <v>412338391</v>
       </c>
       <c r="J19" s="176" t="s">
         <v>157</v>
@@ -9839,7 +9840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="F3:J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9954,7 +9957,9 @@
       <c r="I3" s="28">
         <v>12057000</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="28">
+        <v>69190000</v>
+      </c>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -9973,7 +9978,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10367,9 +10372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10410,51 +10413,51 @@
       <c r="D2" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="189">
+      <c r="E2" s="200">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="191">
+      <c r="F2" s="201"/>
+      <c r="G2" s="202">
         <v>0.01</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193">
+      <c r="H2" s="203"/>
+      <c r="I2" s="204">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J2" s="194"/>
-      <c r="K2" s="195">
+      <c r="J2" s="205"/>
+      <c r="K2" s="190">
         <v>0.02</v>
       </c>
-      <c r="L2" s="196"/>
-      <c r="M2" s="197">
+      <c r="L2" s="191"/>
+      <c r="M2" s="192">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199">
+      <c r="N2" s="193"/>
+      <c r="O2" s="194">
         <v>0.03</v>
       </c>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="201">
+      <c r="P2" s="195"/>
+      <c r="Q2" s="196">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R2" s="202"/>
-      <c r="S2" s="203">
+      <c r="R2" s="197"/>
+      <c r="S2" s="198">
         <v>0.04</v>
       </c>
-      <c r="T2" s="204"/>
-      <c r="U2" s="207">
+      <c r="T2" s="199"/>
+      <c r="U2" s="188">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="V2" s="208"/>
-      <c r="W2" s="205">
+      <c r="V2" s="189"/>
+      <c r="W2" s="186">
         <v>0.05</v>
       </c>
-      <c r="X2" s="206"/>
+      <c r="X2" s="187"/>
     </row>
     <row r="3" spans="2:24" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
       <c r="E3" s="112" t="s">
         <v>22</v>
       </c>
@@ -10517,124 +10520,144 @@
       </c>
     </row>
     <row r="4" spans="2:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="185">
+      <c r="B4" s="207">
         <v>32903</v>
       </c>
-      <c r="C4" s="187">
+      <c r="C4" s="184">
         <f>B4*1.0144</f>
         <v>33376.803200000002</v>
       </c>
-      <c r="D4" s="185">
+      <c r="D4" s="207">
         <v>10266</v>
       </c>
-      <c r="E4" s="187">
+      <c r="E4" s="184">
         <f>سرمایه!H4*0.5/((C4-D4)*100)</f>
         <v>241.10547832452656</v>
       </c>
-      <c r="F4" s="187">
+      <c r="F4" s="184">
         <f>E4*C4</f>
         <v>8047330.1004795888</v>
       </c>
-      <c r="G4" s="187">
+      <c r="G4" s="184">
         <f>سرمایه!H4*1/((C4-D4)*100)</f>
         <v>482.21095664905312</v>
       </c>
-      <c r="H4" s="187">
+      <c r="H4" s="184">
         <f>G4*C4</f>
         <v>16094660.200959178</v>
       </c>
-      <c r="I4" s="187">
+      <c r="I4" s="184">
         <f>سرمایه!H4*1.5/((C4-D4)*100)</f>
         <v>723.3164349735797</v>
       </c>
-      <c r="J4" s="187">
+      <c r="J4" s="184">
         <f>I4*C4</f>
         <v>24141990.301438767</v>
       </c>
-      <c r="K4" s="187">
+      <c r="K4" s="184">
         <f>سرمایه!H4*2/((C4-D4)*100)</f>
         <v>964.42191329810623</v>
       </c>
-      <c r="L4" s="187">
+      <c r="L4" s="184">
         <f>K4*C4</f>
         <v>32189320.401918355</v>
       </c>
-      <c r="M4" s="187">
+      <c r="M4" s="184">
         <f>سرمایه!H4*2.5/((C4-D4)*100)</f>
         <v>1205.5273916226329</v>
       </c>
-      <c r="N4" s="187">
+      <c r="N4" s="184">
         <f>M4*C4</f>
         <v>40236650.502397947</v>
       </c>
-      <c r="O4" s="187">
+      <c r="O4" s="184">
         <f>سرمایه!H4*3/((C4-D4)*100)</f>
         <v>1446.6328699471594</v>
       </c>
-      <c r="P4" s="187">
+      <c r="P4" s="184">
         <f>O4*C4</f>
         <v>48283980.602877535</v>
       </c>
-      <c r="Q4" s="187">
+      <c r="Q4" s="184">
         <f>سرمایه!H4*3.5/((C4-D4)*100)</f>
         <v>1687.7383482716859</v>
       </c>
-      <c r="R4" s="187">
+      <c r="R4" s="184">
         <f>Q4*C4</f>
         <v>56331310.703357123</v>
       </c>
-      <c r="S4" s="187">
+      <c r="S4" s="184">
         <f>سرمایه!H4*4/((C4-D4)*100)</f>
         <v>1928.8438265962125</v>
       </c>
-      <c r="T4" s="187">
+      <c r="T4" s="184">
         <f>S4*C4</f>
         <v>64378640.803836711</v>
       </c>
-      <c r="U4" s="187">
+      <c r="U4" s="184">
         <f>سرمایه!H4*4.5/((C4-D4)*100)</f>
         <v>2169.949304920739</v>
       </c>
-      <c r="V4" s="187">
+      <c r="V4" s="184">
         <f>U4*C4</f>
         <v>72425970.904316306</v>
       </c>
-      <c r="W4" s="187">
+      <c r="W4" s="184">
         <f>سرمایه!H4*5/((C4-D4)*100)</f>
         <v>2411.0547832452658</v>
       </c>
-      <c r="X4" s="187">
+      <c r="X4" s="184">
         <f>W4*C4</f>
         <v>80473301.004795894</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="186"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="188"/>
-      <c r="O5" s="188"/>
-      <c r="P5" s="188"/>
-      <c r="Q5" s="188"/>
-      <c r="R5" s="188"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="188"/>
-      <c r="U5" s="188"/>
-      <c r="V5" s="188"/>
-      <c r="W5" s="188"/>
-      <c r="X5" s="188"/>
+      <c r="B5" s="208"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185"/>
+      <c r="X5" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W2:X2"/>
@@ -10651,26 +10674,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7455" tabRatio="602" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7452" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -675,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]#,##0"/>
   </numFmts>
@@ -2220,84 +2220,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,6 +2271,84 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -2373,22 +2373,37 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="24" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2421,31 +2436,16 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3469,7 +3469,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3624,7 +3624,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3D52-4FFB-B963-9B3160B2AEC7}"/>
             </c:ext>
@@ -3640,8 +3640,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-952698352"/>
-        <c:axId val="-952692912"/>
+        <c:axId val="-1935713312"/>
+        <c:axId val="-1935712768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3742,7 +3742,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3D52-4FFB-B963-9B3160B2AEC7}"/>
             </c:ext>
@@ -3758,11 +3758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-952688560"/>
-        <c:axId val="-952695632"/>
+        <c:axId val="-1935710048"/>
+        <c:axId val="-1935711136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-952698352"/>
+        <c:axId val="-1935713312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-952692912"/>
+        <c:crossAx val="-1935712768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3810,7 +3810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-952692912"/>
+        <c:axId val="-1935712768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,12 +3858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-952698352"/>
+        <c:crossAx val="-1935713312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-952695632"/>
+        <c:axId val="-1935711136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,12 +3897,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-952688560"/>
+        <c:crossAx val="-1935710048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-952688560"/>
+        <c:axId val="-1935710048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-952695632"/>
+        <c:crossAx val="-1935711136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3990,7 +3990,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4152,7 +4152,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C05-43BE-A9D8-18DA5970CA0B}"/>
             </c:ext>
@@ -4247,7 +4247,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3C05-43BE-A9D8-18DA5970CA0B}"/>
             </c:ext>
@@ -4342,7 +4342,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C05-43BE-A9D8-18DA5970CA0B}"/>
             </c:ext>
@@ -4437,7 +4437,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3C05-43BE-A9D8-18DA5970CA0B}"/>
             </c:ext>
@@ -4505,11 +4505,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-775587440"/>
-        <c:axId val="-775582000"/>
+        <c:axId val="-1909151952"/>
+        <c:axId val="-1909155216"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-775587440"/>
+        <c:axId val="-1909151952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +4551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775582000"/>
+        <c:crossAx val="-1909155216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4559,7 +4559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-775582000"/>
+        <c:axId val="-1909155216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4610,7 +4610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775587440"/>
+        <c:crossAx val="-1909151952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4660,7 +4660,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4819,7 +4819,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9970-4D02-9B72-118A4BA186D3}"/>
             </c:ext>
@@ -4911,7 +4911,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9970-4D02-9B72-118A4BA186D3}"/>
             </c:ext>
@@ -5003,7 +5003,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9970-4D02-9B72-118A4BA186D3}"/>
             </c:ext>
@@ -5095,7 +5095,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9970-4D02-9B72-118A4BA186D3}"/>
             </c:ext>
@@ -5163,11 +5163,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-908624048"/>
-        <c:axId val="-908617520"/>
+        <c:axId val="-1909154672"/>
+        <c:axId val="-1909148144"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-908624048"/>
+        <c:axId val="-1909154672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5209,7 +5209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-908617520"/>
+        <c:crossAx val="-1909148144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5217,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-908617520"/>
+        <c:axId val="-1909148144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5268,7 +5268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-908624048"/>
+        <c:crossAx val="-1909154672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5318,7 +5318,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5474,7 +5474,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F328-4974-A832-C369B08130C9}"/>
             </c:ext>
@@ -5563,7 +5563,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F328-4974-A832-C369B08130C9}"/>
             </c:ext>
@@ -5652,7 +5652,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F328-4974-A832-C369B08130C9}"/>
             </c:ext>
@@ -5741,7 +5741,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F328-4974-A832-C369B08130C9}"/>
             </c:ext>
@@ -5809,11 +5809,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-908619696"/>
-        <c:axId val="-908619152"/>
+        <c:axId val="-1909159024"/>
+        <c:axId val="-1909147600"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-908619696"/>
+        <c:axId val="-1909159024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5855,7 +5855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-908619152"/>
+        <c:crossAx val="-1909147600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5863,7 +5863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-908619152"/>
+        <c:axId val="-1909147600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,7 +5914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-908619696"/>
+        <c:crossAx val="-1909159024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5964,7 +5964,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6123,7 +6123,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4AB-491A-8777-3CFC766B5B10}"/>
             </c:ext>
@@ -6215,7 +6215,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D4AB-491A-8777-3CFC766B5B10}"/>
             </c:ext>
@@ -6307,7 +6307,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D4AB-491A-8777-3CFC766B5B10}"/>
             </c:ext>
@@ -6399,7 +6399,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D4AB-491A-8777-3CFC766B5B10}"/>
             </c:ext>
@@ -6467,11 +6467,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-775580368"/>
-        <c:axId val="-775576560"/>
+        <c:axId val="-1909153584"/>
+        <c:axId val="-1909158480"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-775580368"/>
+        <c:axId val="-1909153584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,7 +6513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775576560"/>
+        <c:crossAx val="-1909158480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6521,7 +6521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-775576560"/>
+        <c:axId val="-1909158480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6572,7 +6572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775580368"/>
+        <c:crossAx val="-1909153584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6622,7 +6622,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7353,7 +7353,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AF70-4F0D-9324-9F67BAC69944}"/>
             </c:ext>
@@ -8063,7 +8063,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AF70-4F0D-9324-9F67BAC69944}"/>
             </c:ext>
@@ -8773,7 +8773,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AF70-4F0D-9324-9F67BAC69944}"/>
             </c:ext>
@@ -9483,7 +9483,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AF70-4F0D-9324-9F67BAC69944}"/>
             </c:ext>
@@ -9544,11 +9544,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-768707360"/>
-        <c:axId val="-768698656"/>
+        <c:axId val="-1929709792"/>
+        <c:axId val="-1929720672"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-768707360"/>
+        <c:axId val="-1929709792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9557,7 +9557,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-768698656"/>
+        <c:crossAx val="-1929720672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9565,7 +9565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-768698656"/>
+        <c:axId val="-1929720672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9616,7 +9616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-768707360"/>
+        <c:crossAx val="-1929709792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9666,7 +9666,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9835,7 +9835,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4BD1-4119-90C9-20F9DEF1E15E}"/>
             </c:ext>
@@ -9933,7 +9933,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4BD1-4119-90C9-20F9DEF1E15E}"/>
             </c:ext>
@@ -10031,7 +10031,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4BD1-4119-90C9-20F9DEF1E15E}"/>
             </c:ext>
@@ -10129,7 +10129,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4BD1-4119-90C9-20F9DEF1E15E}"/>
             </c:ext>
@@ -10194,11 +10194,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-952698896"/>
-        <c:axId val="-952692368"/>
+        <c:axId val="-1929723392"/>
+        <c:axId val="-1929713056"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-952698896"/>
+        <c:axId val="-1929723392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10207,7 +10207,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-952692368"/>
+        <c:crossAx val="-1929713056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10215,7 +10215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-952692368"/>
+        <c:axId val="-1929713056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1300000000"/>
@@ -10267,7 +10267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-952698896"/>
+        <c:crossAx val="-1929723392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10314,7 +10314,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10465,7 +10465,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C66-475B-8822-D8D28CC92B4D}"/>
             </c:ext>
@@ -10545,7 +10545,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3C66-475B-8822-D8D28CC92B4D}"/>
             </c:ext>
@@ -10625,7 +10625,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C66-475B-8822-D8D28CC92B4D}"/>
             </c:ext>
@@ -10705,7 +10705,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3C66-475B-8822-D8D28CC92B4D}"/>
             </c:ext>
@@ -10770,11 +10770,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-995435952"/>
-        <c:axId val="-995434320"/>
+        <c:axId val="-1929711968"/>
+        <c:axId val="-1929719584"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-995435952"/>
+        <c:axId val="-1929711968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10816,7 +10816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-995434320"/>
+        <c:crossAx val="-1929719584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10824,7 +10824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-995434320"/>
+        <c:axId val="-1929719584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500000000"/>
@@ -10876,7 +10876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-995435952"/>
+        <c:crossAx val="-1929711968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10923,7 +10923,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11088,7 +11088,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-222E-4BFB-BD59-EE31630457DC}"/>
             </c:ext>
@@ -11186,7 +11186,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-222E-4BFB-BD59-EE31630457DC}"/>
             </c:ext>
@@ -11284,7 +11284,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-222E-4BFB-BD59-EE31630457DC}"/>
             </c:ext>
@@ -11386,7 +11386,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-222E-4BFB-BD59-EE31630457DC}"/>
             </c:ext>
@@ -11471,11 +11471,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-700506784"/>
-        <c:axId val="-700510048"/>
+        <c:axId val="-1929709248"/>
+        <c:axId val="-1929721216"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-700506784"/>
+        <c:axId val="-1929709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11517,7 +11517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700510048"/>
+        <c:crossAx val="-1929721216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11525,7 +11525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-700510048"/>
+        <c:axId val="-1929721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000000000"/>
@@ -11578,7 +11578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700506784"/>
+        <c:crossAx val="-1929709248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11630,7 +11630,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11786,7 +11786,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B0F7-4E0E-8324-C0CF4E3103A0}"/>
             </c:ext>
@@ -11875,7 +11875,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B0F7-4E0E-8324-C0CF4E3103A0}"/>
             </c:ext>
@@ -11964,7 +11964,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B0F7-4E0E-8324-C0CF4E3103A0}"/>
             </c:ext>
@@ -12053,7 +12053,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B0F7-4E0E-8324-C0CF4E3103A0}"/>
             </c:ext>
@@ -12121,11 +12121,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-700516032"/>
-        <c:axId val="-700508960"/>
+        <c:axId val="-1929714144"/>
+        <c:axId val="-1929711424"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-700516032"/>
+        <c:axId val="-1929714144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12167,7 +12167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700508960"/>
+        <c:crossAx val="-1929711424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12175,7 +12175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-700508960"/>
+        <c:axId val="-1929711424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12226,7 +12226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700516032"/>
+        <c:crossAx val="-1929714144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12276,7 +12276,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12434,7 +12434,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-16E7-4715-BE98-FB9B6E0C540F}"/>
             </c:ext>
@@ -12526,7 +12526,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-16E7-4715-BE98-FB9B6E0C540F}"/>
             </c:ext>
@@ -12618,7 +12618,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-16E7-4715-BE98-FB9B6E0C540F}"/>
             </c:ext>
@@ -12710,7 +12710,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-16E7-4715-BE98-FB9B6E0C540F}"/>
             </c:ext>
@@ -12778,11 +12778,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-700515488"/>
-        <c:axId val="-700513856"/>
+        <c:axId val="-1929710880"/>
+        <c:axId val="-1929710336"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-700515488"/>
+        <c:axId val="-1929710880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12824,7 +12824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700513856"/>
+        <c:crossAx val="-1929710336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12832,7 +12832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-700513856"/>
+        <c:axId val="-1929710336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12883,7 +12883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700515488"/>
+        <c:crossAx val="-1929710880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12933,7 +12933,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13092,7 +13092,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-72EA-40F1-ABD6-FB305F2C20DF}"/>
             </c:ext>
@@ -13184,7 +13184,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-72EA-40F1-ABD6-FB305F2C20DF}"/>
             </c:ext>
@@ -13276,7 +13276,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-72EA-40F1-ABD6-FB305F2C20DF}"/>
             </c:ext>
@@ -13368,7 +13368,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-72EA-40F1-ABD6-FB305F2C20DF}"/>
             </c:ext>
@@ -13436,11 +13436,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-775588528"/>
-        <c:axId val="-775579280"/>
+        <c:axId val="-1929716864"/>
+        <c:axId val="-1929716320"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-775588528"/>
+        <c:axId val="-1929716864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13482,7 +13482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775579280"/>
+        <c:crossAx val="-1929716320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13490,7 +13490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-775579280"/>
+        <c:axId val="-1929716320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13541,7 +13541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775588528"/>
+        <c:crossAx val="-1929716864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13591,7 +13591,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13741,7 +13741,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E21E-4924-9628-76521C0691DE}"/>
             </c:ext>
@@ -13824,7 +13824,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E21E-4924-9628-76521C0691DE}"/>
             </c:ext>
@@ -13907,7 +13907,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E21E-4924-9628-76521C0691DE}"/>
             </c:ext>
@@ -13990,7 +13990,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E21E-4924-9628-76521C0691DE}"/>
             </c:ext>
@@ -14058,11 +14058,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="-775577104"/>
-        <c:axId val="-775579824"/>
+        <c:axId val="-1929713600"/>
+        <c:axId val="-1909154128"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="-775577104"/>
+        <c:axId val="-1929713600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14104,7 +14104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775579824"/>
+        <c:crossAx val="-1909154128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14112,7 +14112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-775579824"/>
+        <c:axId val="-1909154128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14163,7 +14163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775577104"/>
+        <c:crossAx val="-1929713600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23465,30 +23465,30 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="30" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" style="30" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:20" ht="20.25" thickBot="1">
+    <row r="1" spans="2:20" ht="15" thickBot="1"/>
+    <row r="2" spans="2:20" ht="19.2" thickBot="1">
       <c r="B2" s="158" t="s">
         <v>0</v>
       </c>
@@ -23527,7 +23527,7 @@
       <c r="S2" s="163"/>
       <c r="T2" s="164"/>
     </row>
-    <row r="3" spans="2:20" ht="20.25" thickBot="1">
+    <row r="3" spans="2:20" ht="19.2" thickBot="1">
       <c r="B3" s="159"/>
       <c r="C3" s="166"/>
       <c r="D3" s="159"/>
@@ -23572,7 +23572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="20.25" thickBot="1">
+    <row r="4" spans="2:20" ht="19.2" thickBot="1">
       <c r="B4" s="52" t="s">
         <v>72</v>
       </c>
@@ -23631,7 +23631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="20.25" thickBot="1">
+    <row r="5" spans="2:20" ht="19.2" thickBot="1">
       <c r="B5" s="32" t="s">
         <v>14</v>
       </c>
@@ -23706,7 +23706,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="20.25" thickBot="1">
+    <row r="6" spans="2:20" ht="19.2" thickBot="1">
       <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="20.25" thickBot="1">
+    <row r="7" spans="2:20" ht="19.2" thickBot="1">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="20.25" thickBot="1">
+    <row r="8" spans="2:20" ht="19.2" thickBot="1">
       <c r="B8" s="32" t="s">
         <v>14</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="20.25" thickBot="1">
+    <row r="9" spans="2:20" ht="19.2" thickBot="1">
       <c r="B9" s="32" t="s">
         <v>157</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="20.25" thickBot="1">
+    <row r="10" spans="2:20" ht="19.2" thickBot="1">
       <c r="B10" s="32" t="s">
         <v>14</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="11" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B11" s="52" t="s">
         <v>14</v>
       </c>
@@ -24156,7 +24156,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="20.25" thickBot="1">
+    <row r="12" spans="2:20" ht="19.2" thickBot="1">
       <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
@@ -24231,7 +24231,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="20.25" thickBot="1">
+    <row r="13" spans="2:20" ht="19.2" thickBot="1">
       <c r="B13" s="32" t="s">
         <v>14</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="14" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B14" s="52" t="s">
         <v>14</v>
       </c>
@@ -24381,7 +24381,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="15" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B15" s="51" t="s">
         <v>14</v>
       </c>
@@ -24456,7 +24456,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="16" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B16" s="51" t="s">
         <v>14</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="20.25" thickBot="1">
+    <row r="17" spans="2:20" ht="19.2" thickBot="1">
       <c r="B17" s="32" t="s">
         <v>14</v>
       </c>
@@ -24606,7 +24606,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="18" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B18" s="52" t="s">
         <v>14</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="19" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B19" s="51" t="s">
         <v>14</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="20" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B20" s="51" t="s">
         <v>14</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="21" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B21" s="51" t="s">
         <v>14</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="22" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
@@ -24981,7 +24981,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="23" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="23" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B23" s="51" t="s">
         <v>14</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="24" spans="2:20" ht="20.25" thickBot="1">
+    <row r="24" spans="2:20" ht="19.2" thickBot="1">
       <c r="B24" s="32" t="s">
         <v>129</v>
       </c>
@@ -25131,7 +25131,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="20.25" thickBot="1">
+    <row r="25" spans="2:20" ht="19.2" thickBot="1">
       <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="26" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B26" s="32" t="s">
         <v>157</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="20.25" thickBot="1">
+    <row r="27" spans="2:20" ht="19.2" thickBot="1">
       <c r="B27" s="32" t="s">
         <v>14</v>
       </c>
@@ -25356,7 +25356,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="20.25" thickBot="1">
+    <row r="28" spans="2:20" ht="19.2" thickBot="1">
       <c r="B28" s="32" t="s">
         <v>14</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="29" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="29" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B29" s="32" t="s">
         <v>14</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="20.25" hidden="1" thickBot="1">
+    <row r="30" spans="2:20" ht="19.2" hidden="1" thickBot="1">
       <c r="B30" s="51" t="s">
         <v>14</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="31" spans="2:20" ht="20.25" thickBot="1">
+    <row r="31" spans="2:20" ht="19.2" thickBot="1">
       <c r="B31" s="51" t="s">
         <v>14</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="32" spans="2:20" ht="20.25" thickBot="1">
+    <row r="32" spans="2:20" ht="19.2" thickBot="1">
       <c r="B32" s="32" t="s">
         <v>14</v>
       </c>
@@ -25731,7 +25731,7 @@
         <v>RF</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="20.25" thickBot="1">
+    <row r="33" spans="2:20" ht="19.2" thickBot="1">
       <c r="B33" s="32" t="s">
         <v>14</v>
       </c>
@@ -25863,62 +25863,62 @@
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="71" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="71" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="71" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="71" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="71" customWidth="1"/>
     <col min="10" max="10" width="7" style="71" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="71" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="71" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="71" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="71"/>
+    <col min="11" max="11" width="25.6640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="71" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="71" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:15" ht="16.8" thickBot="1"/>
+    <row r="2" spans="2:15" ht="17.399999999999999">
+      <c r="B2" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="187" t="s">
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="191" t="s">
+      <c r="I2" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="192"/>
-      <c r="K2" s="177" t="s">
+      <c r="J2" s="193"/>
+      <c r="K2" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="181" t="s">
+      <c r="L2" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="182"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="209"/>
+      <c r="N2" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="172"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="200"/>
-      <c r="C3" s="198"/>
+      <c r="O2" s="199"/>
+    </row>
+    <row r="3" spans="2:15" ht="17.399999999999999">
+      <c r="B3" s="174"/>
+      <c r="C3" s="172"/>
       <c r="D3" s="78" t="s">
         <v>93</v>
       </c>
@@ -25931,14 +25931,14 @@
       <c r="G3" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="188"/>
+      <c r="H3" s="189"/>
       <c r="I3" s="73" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="178"/>
+      <c r="K3" s="205"/>
       <c r="L3" s="77" t="s">
         <v>70</v>
       </c>
@@ -25952,83 +25952,96 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="16.899999999999999" customHeight="1">
-      <c r="B4" s="203">
+    <row r="4" spans="2:15" ht="16.95" customHeight="1">
+      <c r="B4" s="177">
         <v>14762513</v>
       </c>
-      <c r="C4" s="201">
+      <c r="C4" s="175">
         <v>2768416000</v>
       </c>
-      <c r="D4" s="208">
+      <c r="D4" s="182">
         <f>SUMPRODUCT(پرتفوی!E5:E33*پرتفوی!F5:F33)</f>
         <v>1269502275</v>
       </c>
-      <c r="E4" s="210">
+      <c r="E4" s="184">
         <f>C4-B4</f>
         <v>2753653487</v>
       </c>
-      <c r="F4" s="210">
+      <c r="F4" s="184">
         <f>E4-D4</f>
         <v>1484151212</v>
       </c>
-      <c r="G4" s="212">
+      <c r="G4" s="186">
         <f>F4/D4</f>
         <v>1.1690811755339312</v>
       </c>
-      <c r="H4" s="189">
+      <c r="H4" s="190">
         <f>B4+D4-SUM(پرتفوی!K5:K39)</f>
         <v>1028511937</v>
       </c>
-      <c r="I4" s="193">
+      <c r="I4" s="194">
         <f>SUM(پرتفوی!K5:K33)</f>
         <v>255752851</v>
       </c>
-      <c r="J4" s="195">
+      <c r="J4" s="196">
         <f>(K4-H4)/K4*100</f>
         <v>19.914339580880885</v>
       </c>
-      <c r="K4" s="179">
+      <c r="K4" s="206">
         <f>D4+B4</f>
         <v>1284264788</v>
       </c>
-      <c r="L4" s="183">
+      <c r="L4" s="210">
         <f>K4-'واریز و برداشت'!C47</f>
-        <v>-203467336</v>
-      </c>
-      <c r="M4" s="185">
+        <v>-240817336</v>
+      </c>
+      <c r="M4" s="212">
         <f>L4/'واریز و برداشت'!C47</f>
-        <v>-0.13676342179998527</v>
-      </c>
-      <c r="N4" s="173">
+        <v>-0.15790450377084086</v>
+      </c>
+      <c r="N4" s="200">
         <f>C4-'واریز و برداشت'!C47</f>
-        <v>1280683876</v>
-      </c>
-      <c r="O4" s="175">
+        <v>1243333876</v>
+      </c>
+      <c r="O4" s="202">
         <f>N4/'واریز و برداشت'!C47</f>
-        <v>0.86082961800722668</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="17.45" customHeight="1" thickBot="1">
-      <c r="B5" s="204"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="176"/>
+        <v>0.81525699923553752</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="B5" s="178"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:C5"/>
@@ -26038,19 +26051,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -26061,27 +26061,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="5.88671875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" style="3"/>
     <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="3"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="19.5">
+    <row r="1" spans="2:11" ht="17.399999999999999" thickBot="1"/>
+    <row r="2" spans="2:11" ht="18.600000000000001">
       <c r="B2" s="215" t="s">
         <v>0</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="20.25" thickBot="1">
+    <row r="3" spans="2:11" ht="19.2" thickBot="1">
       <c r="B3" s="216"/>
       <c r="C3" s="217"/>
       <c r="D3" s="102" t="s">
@@ -26130,7 +26130,7 @@
         <v>-22021000</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="19.5" hidden="1">
+    <row r="4" spans="2:11" ht="18.600000000000001" hidden="1">
       <c r="B4" s="109" t="s">
         <v>122</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="19.5">
+    <row r="5" spans="2:11" ht="18.600000000000001">
       <c r="B5" s="49" t="s">
         <v>122</v>
       </c>
@@ -26179,7 +26179,7 @@
         <v>1.2172157438205764E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="19.5">
+    <row r="6" spans="2:11" ht="18.600000000000001">
       <c r="B6" s="49" t="s">
         <v>123</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>0.22585706371681416</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="19.5">
+    <row r="7" spans="2:11" ht="18.600000000000001">
       <c r="B7" s="49" t="s">
         <v>136</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>0.20929002825718201</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="19.5">
+    <row r="8" spans="2:11" ht="18.600000000000001">
       <c r="B8" s="49" t="s">
         <v>146</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>0.12340192194676684</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="19.5">
+    <row r="9" spans="2:11" ht="18.600000000000001">
       <c r="B9" s="49" t="s">
         <v>147</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>0.25799717947469902</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="19.5">
+    <row r="10" spans="2:11" ht="18.600000000000001">
       <c r="B10" s="49" t="s">
         <v>148</v>
       </c>
@@ -26294,7 +26294,7 @@
       <c r="G10" s="100"/>
       <c r="H10" s="88"/>
     </row>
-    <row r="11" spans="2:11" ht="19.5">
+    <row r="11" spans="2:11" ht="18.600000000000001">
       <c r="B11" s="49" t="s">
         <v>149</v>
       </c>
@@ -26305,7 +26305,7 @@
       <c r="G11" s="100"/>
       <c r="H11" s="88"/>
     </row>
-    <row r="12" spans="2:11" ht="19.5">
+    <row r="12" spans="2:11" ht="18.600000000000001">
       <c r="B12" s="49" t="s">
         <v>150</v>
       </c>
@@ -26316,7 +26316,7 @@
       <c r="G12" s="100"/>
       <c r="H12" s="88"/>
     </row>
-    <row r="13" spans="2:11" ht="19.5">
+    <row r="13" spans="2:11" ht="18.600000000000001">
       <c r="B13" s="49" t="s">
         <v>151</v>
       </c>
@@ -26327,7 +26327,7 @@
       <c r="G13" s="100"/>
       <c r="H13" s="88"/>
     </row>
-    <row r="14" spans="2:11" ht="19.5">
+    <row r="14" spans="2:11" ht="18.600000000000001">
       <c r="B14" s="49" t="s">
         <v>152</v>
       </c>
@@ -26338,7 +26338,7 @@
       <c r="G14" s="100"/>
       <c r="H14" s="88"/>
     </row>
-    <row r="15" spans="2:11" ht="19.5">
+    <row r="15" spans="2:11" ht="18.600000000000001">
       <c r="B15" s="49" t="s">
         <v>153</v>
       </c>
@@ -26349,7 +26349,7 @@
       <c r="G15" s="100"/>
       <c r="H15" s="88"/>
     </row>
-    <row r="16" spans="2:11" ht="19.5">
+    <row r="16" spans="2:11" ht="18.600000000000001">
       <c r="B16" s="90" t="s">
         <v>154</v>
       </c>
@@ -26360,7 +26360,7 @@
       <c r="G16" s="101"/>
       <c r="H16" s="96"/>
     </row>
-    <row r="17" spans="2:13" ht="20.25" thickBot="1">
+    <row r="17" spans="2:13" ht="19.2" thickBot="1">
       <c r="B17" s="50" t="s">
         <v>155</v>
       </c>
@@ -26371,7 +26371,7 @@
       <c r="G17" s="85"/>
       <c r="H17" s="89"/>
     </row>
-    <row r="18" spans="2:13" ht="20.25" thickBot="1">
+    <row r="18" spans="2:13" ht="19.2" thickBot="1">
       <c r="B18" s="93"/>
       <c r="C18" s="83"/>
       <c r="D18" s="83"/>
@@ -26380,7 +26380,7 @@
       <c r="G18" s="95"/>
       <c r="H18" s="84"/>
     </row>
-    <row r="19" spans="2:13" ht="20.25" thickBot="1">
+    <row r="19" spans="2:13" ht="19.2" thickBot="1">
       <c r="F19" s="108" t="s">
         <v>126</v>
       </c>
@@ -26419,47 +26419,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5546875" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.5703125" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.5703125" customWidth="1"/>
-    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5546875" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" customWidth="1"/>
+    <col min="31" max="31" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5546875" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="18.75" thickBot="1">
+    <row r="1" spans="2:34" ht="17.399999999999999" thickBot="1">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -26494,7 +26494,7 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
     </row>
-    <row r="2" spans="2:34" ht="18">
+    <row r="2" spans="2:34" ht="16.8">
       <c r="B2" s="116" t="s">
         <v>142</v>
       </c>
@@ -26595,7 +26595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="19.5">
+    <row r="3" spans="2:34" ht="18.600000000000001">
       <c r="B3" s="131">
         <v>1</v>
       </c>
@@ -26660,7 +26660,7 @@
       <c r="AG3" s="144"/>
       <c r="AH3" s="141"/>
     </row>
-    <row r="4" spans="2:34" ht="19.5">
+    <row r="4" spans="2:34" ht="18.600000000000001">
       <c r="B4" s="131">
         <v>2</v>
       </c>
@@ -26725,7 +26725,7 @@
       <c r="AG4" s="144"/>
       <c r="AH4" s="141"/>
     </row>
-    <row r="5" spans="2:34" ht="19.5">
+    <row r="5" spans="2:34" ht="18.600000000000001">
       <c r="B5" s="131">
         <v>3</v>
       </c>
@@ -26788,7 +26788,7 @@
       <c r="AG5" s="144"/>
       <c r="AH5" s="141"/>
     </row>
-    <row r="6" spans="2:34" ht="19.5">
+    <row r="6" spans="2:34" ht="18.600000000000001">
       <c r="B6" s="131">
         <v>6</v>
       </c>
@@ -26851,7 +26851,7 @@
       <c r="AG6" s="144"/>
       <c r="AH6" s="141"/>
     </row>
-    <row r="7" spans="2:34" ht="19.5">
+    <row r="7" spans="2:34" ht="18.600000000000001">
       <c r="B7" s="131">
         <v>7</v>
       </c>
@@ -26918,7 +26918,7 @@
       <c r="AG7" s="144"/>
       <c r="AH7" s="141"/>
     </row>
-    <row r="8" spans="2:34" ht="19.5">
+    <row r="8" spans="2:34" ht="18.600000000000001">
       <c r="B8" s="131">
         <v>8</v>
       </c>
@@ -26981,7 +26981,7 @@
       <c r="AG8" s="144"/>
       <c r="AH8" s="141"/>
     </row>
-    <row r="9" spans="2:34" ht="19.5">
+    <row r="9" spans="2:34" ht="18.600000000000001">
       <c r="B9" s="131">
         <v>9</v>
       </c>
@@ -27046,7 +27046,7 @@
       <c r="AG9" s="144"/>
       <c r="AH9" s="141"/>
     </row>
-    <row r="10" spans="2:34" ht="19.5">
+    <row r="10" spans="2:34" ht="18.600000000000001">
       <c r="B10" s="131">
         <v>10</v>
       </c>
@@ -27109,7 +27109,7 @@
       <c r="AG10" s="144"/>
       <c r="AH10" s="141"/>
     </row>
-    <row r="11" spans="2:34" ht="19.5">
+    <row r="11" spans="2:34" ht="18.600000000000001">
       <c r="B11" s="131">
         <v>13</v>
       </c>
@@ -27172,7 +27172,7 @@
       <c r="AG11" s="144"/>
       <c r="AH11" s="141"/>
     </row>
-    <row r="12" spans="2:34" ht="19.5">
+    <row r="12" spans="2:34" ht="18.600000000000001">
       <c r="B12" s="131">
         <v>14</v>
       </c>
@@ -27237,7 +27237,7 @@
       <c r="AG12" s="144"/>
       <c r="AH12" s="141"/>
     </row>
-    <row r="13" spans="2:34" ht="19.5">
+    <row r="13" spans="2:34" ht="18.600000000000001">
       <c r="B13" s="131">
         <v>15</v>
       </c>
@@ -27304,7 +27304,7 @@
       <c r="AG13" s="144"/>
       <c r="AH13" s="141"/>
     </row>
-    <row r="14" spans="2:34" ht="19.5">
+    <row r="14" spans="2:34" ht="18.600000000000001">
       <c r="B14" s="131">
         <v>16</v>
       </c>
@@ -27367,7 +27367,7 @@
       <c r="AG14" s="144"/>
       <c r="AH14" s="141"/>
     </row>
-    <row r="15" spans="2:34" ht="19.5">
+    <row r="15" spans="2:34" ht="18.600000000000001">
       <c r="B15" s="131">
         <v>17</v>
       </c>
@@ -27430,7 +27430,7 @@
       <c r="AG15" s="144"/>
       <c r="AH15" s="141"/>
     </row>
-    <row r="16" spans="2:34" ht="19.5">
+    <row r="16" spans="2:34" ht="18.600000000000001">
       <c r="B16" s="131">
         <v>20</v>
       </c>
@@ -27493,7 +27493,7 @@
       <c r="AG16" s="144"/>
       <c r="AH16" s="141"/>
     </row>
-    <row r="17" spans="2:34" ht="19.5">
+    <row r="17" spans="2:34" ht="18.600000000000001">
       <c r="B17" s="131">
         <v>21</v>
       </c>
@@ -27558,7 +27558,7 @@
       <c r="AG17" s="144"/>
       <c r="AH17" s="141"/>
     </row>
-    <row r="18" spans="2:34" ht="19.5">
+    <row r="18" spans="2:34" ht="18.600000000000001">
       <c r="B18" s="131">
         <v>22</v>
       </c>
@@ -27623,7 +27623,7 @@
       <c r="AG18" s="144"/>
       <c r="AH18" s="141"/>
     </row>
-    <row r="19" spans="2:34" ht="19.5">
+    <row r="19" spans="2:34" ht="18.600000000000001">
       <c r="B19" s="131">
         <v>23</v>
       </c>
@@ -27688,7 +27688,7 @@
       <c r="AG19" s="144"/>
       <c r="AH19" s="141"/>
     </row>
-    <row r="20" spans="2:34" ht="19.5">
+    <row r="20" spans="2:34" ht="18.600000000000001">
       <c r="B20" s="131">
         <v>24</v>
       </c>
@@ -27745,7 +27745,7 @@
       <c r="AG20" s="144"/>
       <c r="AH20" s="141"/>
     </row>
-    <row r="21" spans="2:34" ht="19.5">
+    <row r="21" spans="2:34" ht="18.600000000000001">
       <c r="B21" s="131">
         <v>27</v>
       </c>
@@ -27800,7 +27800,7 @@
       <c r="AG21" s="144"/>
       <c r="AH21" s="141"/>
     </row>
-    <row r="22" spans="2:34" ht="19.5">
+    <row r="22" spans="2:34" ht="18.600000000000001">
       <c r="B22" s="131">
         <v>28</v>
       </c>
@@ -27855,7 +27855,7 @@
       <c r="AG22" s="144"/>
       <c r="AH22" s="141"/>
     </row>
-    <row r="23" spans="2:34" ht="19.5">
+    <row r="23" spans="2:34" ht="18.600000000000001">
       <c r="B23" s="131">
         <v>29</v>
       </c>
@@ -27906,7 +27906,7 @@
       <c r="AG23" s="144"/>
       <c r="AH23" s="141"/>
     </row>
-    <row r="24" spans="2:34" ht="19.5">
+    <row r="24" spans="2:34" ht="18.600000000000001">
       <c r="B24" s="131">
         <v>30</v>
       </c>
@@ -27949,7 +27949,7 @@
       <c r="AG24" s="144"/>
       <c r="AH24" s="141"/>
     </row>
-    <row r="25" spans="2:34" ht="20.25" thickBot="1">
+    <row r="25" spans="2:34" ht="19.2" thickBot="1">
       <c r="B25" s="132">
         <v>31</v>
       </c>
@@ -28007,14 +28007,14 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="45" width="13.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="41" max="41" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="13.6640625" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:45">
@@ -32388,16 +32388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15" customHeight="1">
@@ -32817,7 +32817,7 @@
         <v>193</v>
       </c>
       <c r="C40" s="29">
-        <v>4150000</v>
+        <v>41500000</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>48</v>
@@ -32883,7 +32883,7 @@
       </c>
       <c r="C47" s="29">
         <f>SUM(C4:C44)</f>
-        <v>1487732124</v>
+        <v>1525082124</v>
       </c>
     </row>
   </sheetData>
@@ -32902,36 +32902,36 @@
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:24" ht="19.5">
+    <row r="1" spans="2:24" ht="15" thickBot="1"/>
+    <row r="2" spans="2:24" ht="18.600000000000001">
       <c r="B2" s="215" t="s">
         <v>21</v>
       </c>
@@ -32941,51 +32941,51 @@
       <c r="D2" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="238">
+      <c r="E2" s="227">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="239"/>
-      <c r="G2" s="240">
+      <c r="F2" s="228"/>
+      <c r="G2" s="229">
         <v>0.01</v>
       </c>
-      <c r="H2" s="241"/>
-      <c r="I2" s="242">
+      <c r="H2" s="230"/>
+      <c r="I2" s="231">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J2" s="243"/>
-      <c r="K2" s="228">
+      <c r="J2" s="232"/>
+      <c r="K2" s="233">
         <v>0.02</v>
       </c>
-      <c r="L2" s="229"/>
-      <c r="M2" s="230">
+      <c r="L2" s="234"/>
+      <c r="M2" s="235">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N2" s="231"/>
-      <c r="O2" s="232">
+      <c r="N2" s="236"/>
+      <c r="O2" s="237">
         <v>0.03</v>
       </c>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="234">
+      <c r="P2" s="238"/>
+      <c r="Q2" s="239">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R2" s="235"/>
-      <c r="S2" s="236">
+      <c r="R2" s="240"/>
+      <c r="S2" s="241">
         <v>0.04</v>
       </c>
-      <c r="T2" s="237"/>
-      <c r="U2" s="226">
+      <c r="T2" s="242"/>
+      <c r="U2" s="245">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="V2" s="227"/>
-      <c r="W2" s="224">
+      <c r="V2" s="246"/>
+      <c r="W2" s="243">
         <v>0.05</v>
       </c>
-      <c r="X2" s="225"/>
-    </row>
-    <row r="3" spans="2:24" ht="19.5">
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
+      <c r="X2" s="244"/>
+    </row>
+    <row r="3" spans="2:24" ht="18.600000000000001">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="110" t="s">
         <v>22</v>
       </c>
@@ -33047,145 +33047,125 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="14.45" customHeight="1">
-      <c r="B4" s="245">
+    <row r="4" spans="2:24" ht="14.4" customHeight="1">
+      <c r="B4" s="223">
         <v>42900</v>
       </c>
-      <c r="C4" s="222">
+      <c r="C4" s="225">
         <f>B4*1.0144</f>
         <v>43517.760000000002</v>
       </c>
-      <c r="D4" s="245">
+      <c r="D4" s="223">
         <v>10266</v>
       </c>
-      <c r="E4" s="222">
+      <c r="E4" s="225">
         <f>سرمایه!H4*0.5/((C4-D4)*100)</f>
         <v>154.65526290939187</v>
       </c>
-      <c r="F4" s="222">
+      <c r="F4" s="225">
         <f>E4*C4</f>
         <v>6730250.6140278168</v>
       </c>
-      <c r="G4" s="222">
+      <c r="G4" s="225">
         <f>سرمایه!H4*1/((C4-D4)*100)</f>
         <v>309.31052581878373</v>
       </c>
-      <c r="H4" s="222">
+      <c r="H4" s="225">
         <f>G4*C4</f>
         <v>13460501.228055634</v>
       </c>
-      <c r="I4" s="222">
+      <c r="I4" s="225">
         <f>سرمایه!H4*1.5/((C4-D4)*100)</f>
         <v>463.9657887281756</v>
       </c>
-      <c r="J4" s="222">
+      <c r="J4" s="225">
         <f>I4*C4</f>
         <v>20190751.84208345</v>
       </c>
-      <c r="K4" s="222">
+      <c r="K4" s="225">
         <f>سرمایه!H4*2/((C4-D4)*100)</f>
         <v>618.62105163756746</v>
       </c>
-      <c r="L4" s="222">
+      <c r="L4" s="225">
         <f>K4*C4</f>
         <v>26921002.456111267</v>
       </c>
-      <c r="M4" s="222">
+      <c r="M4" s="225">
         <f>سرمایه!H4*2.5/((C4-D4)*100)</f>
         <v>773.27631454695927</v>
       </c>
-      <c r="N4" s="222">
+      <c r="N4" s="225">
         <f>M4*C4</f>
         <v>33651253.07013908</v>
       </c>
-      <c r="O4" s="222">
+      <c r="O4" s="225">
         <f>سرمایه!H4*3/((C4-D4)*100)</f>
         <v>927.93157745635119</v>
       </c>
-      <c r="P4" s="222">
+      <c r="P4" s="225">
         <f>O4*C4</f>
         <v>40381503.684166901</v>
       </c>
-      <c r="Q4" s="222">
+      <c r="Q4" s="225">
         <f>سرمایه!H4*3.5/((C4-D4)*100)</f>
         <v>1082.586840365743</v>
       </c>
-      <c r="R4" s="222">
+      <c r="R4" s="225">
         <f>Q4*C4</f>
         <v>47111754.298194721</v>
       </c>
-      <c r="S4" s="222">
+      <c r="S4" s="225">
         <f>سرمایه!H4*4/((C4-D4)*100)</f>
         <v>1237.2421032751349</v>
       </c>
-      <c r="T4" s="222">
+      <c r="T4" s="225">
         <f>S4*C4</f>
         <v>53842004.912222534</v>
       </c>
-      <c r="U4" s="222">
+      <c r="U4" s="225">
         <f>سرمایه!H4*4.5/((C4-D4)*100)</f>
         <v>1391.8973661845268</v>
       </c>
-      <c r="V4" s="222">
+      <c r="V4" s="225">
         <f>U4*C4</f>
         <v>60572255.526250355</v>
       </c>
-      <c r="W4" s="222">
+      <c r="W4" s="225">
         <f>سرمایه!H4*5/((C4-D4)*100)</f>
         <v>1546.5526290939185</v>
       </c>
-      <c r="X4" s="222">
+      <c r="X4" s="225">
         <f>W4*C4</f>
         <v>67302506.140278161</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="15" customHeight="1" thickBot="1">
-      <c r="B5" s="246"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="223"/>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-      <c r="U5" s="223"/>
-      <c r="V5" s="223"/>
-      <c r="W5" s="223"/>
-      <c r="X5" s="223"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="226"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="226"/>
+      <c r="O5" s="226"/>
+      <c r="P5" s="226"/>
+      <c r="Q5" s="226"/>
+      <c r="R5" s="226"/>
+      <c r="S5" s="226"/>
+      <c r="T5" s="226"/>
+      <c r="U5" s="226"/>
+      <c r="V5" s="226"/>
+      <c r="W5" s="226"/>
+      <c r="X5" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W2:X2"/>
@@ -33202,6 +33182,26 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -33216,12 +33216,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="111"/>
-    <col min="2" max="2" width="85.7109375" style="111" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="112"/>
-    <col min="4" max="16384" width="8.85546875" style="111"/>
+    <col min="1" max="1" width="8.88671875" style="111"/>
+    <col min="2" max="2" width="85.6640625" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="112"/>
+    <col min="4" max="16384" width="8.88671875" style="111"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="200">
   <si>
     <t>تاریخ</t>
   </si>
@@ -670,6 +670,12 @@
   </si>
   <si>
     <t>99/04/23</t>
+  </si>
+  <si>
+    <t>99/05/05</t>
+  </si>
+  <si>
+    <t>99/05/08</t>
   </si>
 </sst>
 </file>
@@ -3621,6 +3627,9 @@
                 <c:pt idx="3">
                   <c:v>651624553</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>190822000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3737,6 +3746,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.29236847380550784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3094104853090013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,70 +4095,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4178,70 +4190,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,70 +4285,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4368,70 +4380,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,67 +4765,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,67 +4857,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4937,67 +4949,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5029,67 +5041,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5411,64 +5423,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5500,64 +5512,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5589,64 +5601,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5678,64 +5690,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,67 +6069,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6149,67 +6161,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6241,67 +6253,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6333,67 +6345,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6861,493 +6873,493 @@
                   <c:v>2792872458</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2792872458</c:v>
+                  <c:v>2940467458</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7568,496 +7580,496 @@
                   <c:v>2792872458</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2792872458</c:v>
+                  <c:v>2758501458</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2792872458</c:v>
+                  <c:v>2891467458</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8281,493 +8293,493 @@
                   <c:v>2792872458</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2792872458</c:v>
+                  <c:v>2940467458</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8988,496 +9000,496 @@
                   <c:v>2792872458</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2792872458</c:v>
+                  <c:v>2758501458</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2792872458</c:v>
+                  <c:v>2891467458</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11730,61 +11742,61 @@
                   <c:v>2792872458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>2940467458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11816,64 +11828,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>2758501458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>2891467458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11908,61 +11920,61 @@
                   <c:v>2792872458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>2940467458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11994,64 +12006,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>2778501458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>2758501458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>2853501458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>2891467458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>2984714458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3028211458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3071278458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3087109458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3076248458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12090,13 +12102,12 @@
           <c:upBars>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="368820"/>
               </a:solidFill>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -12107,17 +12118,11 @@
           <c:downBars>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -12182,6 +12187,8 @@
         <c:axId val="-1929711424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3500000000"/>
+          <c:min val="2500000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12373,67 +12380,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12465,67 +12472,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12557,67 +12564,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12649,67 +12656,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13031,67 +13038,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13123,67 +13130,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13215,67 +13222,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13307,67 +13314,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13689,58 +13696,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13772,58 +13779,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13855,58 +13862,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13938,58 +13945,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2792872458</c:v>
+                  <c:v>3081603458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25997,20 +26004,20 @@
         <v>1284264788</v>
       </c>
       <c r="L4" s="183">
-        <f>K4-'واریز و برداشت'!C47</f>
-        <v>-240817336</v>
+        <f>K4-'واریز و برداشت'!C50</f>
+        <v>-384817336</v>
       </c>
       <c r="M4" s="185">
-        <f>L4/'واریز و برداشت'!C47</f>
-        <v>-0.15790450377084086</v>
+        <f>L4/'واریز و برداشت'!C50</f>
+        <v>-0.23055626231127258</v>
       </c>
       <c r="N4" s="173">
-        <f>C4-'واریز و برداشت'!C47</f>
-        <v>1243333876</v>
+        <f>C4-'واریز و برداشت'!C50</f>
+        <v>1099333876</v>
       </c>
       <c r="O4" s="175">
-        <f>N4/'واریز و برداشت'!C47</f>
-        <v>0.81525699923553752</v>
+        <f>N4/'واریز و برداشت'!C50</f>
+        <v>0.65864576715099965</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="17.45" customHeight="1" thickBot="1">
@@ -26064,9 +26071,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18"/>
   <cols>
@@ -26128,11 +26137,11 @@
         <v>69</v>
       </c>
       <c r="J3" s="85">
-        <v>2910000000</v>
+        <v>3209870000</v>
       </c>
       <c r="K3" s="85">
-        <f>C9-J3</f>
-        <v>-29597000</v>
+        <f>C10-J3</f>
+        <v>5355000</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.5" hidden="1">
@@ -26292,12 +26301,27 @@
       <c r="B10" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="88"/>
+      <c r="C10" s="100">
+        <v>3215225000</v>
+      </c>
+      <c r="D10" s="104">
+        <v>144000000</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0</v>
+      </c>
+      <c r="F10" s="45">
+        <f>Table6910[[#This Row],[Column2]]-Table6910[[#This Row],[Column3]]</f>
+        <v>144000000</v>
+      </c>
+      <c r="G10" s="100">
+        <f>Table6910[[#This Row],[Column1]]-(C9+Table6910[[#This Row],[Column4]])</f>
+        <v>190822000</v>
+      </c>
+      <c r="H10" s="88">
+        <f>Table6910[[#This Row],[Column5]]/(C9+Table6910[[#This Row],[Column4]])</f>
+        <v>6.3094104853090013E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="19.5">
       <c r="B11" s="49" t="s">
@@ -26391,7 +26415,7 @@
       </c>
       <c r="G19" s="107">
         <f>SUM(Table6910[Column5])</f>
-        <v>1355320876</v>
+        <v>1546142876</v>
       </c>
       <c r="J19" s="214" t="s">
         <v>156</v>
@@ -26400,11 +26424,18 @@
       <c r="L19" s="214"/>
       <c r="M19" s="214"/>
     </row>
+    <row r="20" spans="2:13">
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+    </row>
     <row r="21" spans="2:13">
       <c r="F21" s="155"/>
     </row>
     <row r="22" spans="2:13">
       <c r="D22" s="155"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="E27" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -26425,9 +26456,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH25"/>
+  <dimension ref="B1:AH32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26442,8 +26475,8 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -26631,7 +26664,9 @@
         <v>1</v>
       </c>
       <c r="L3" s="142"/>
-      <c r="M3" s="139"/>
+      <c r="M3" s="139">
+        <v>-14371000</v>
+      </c>
       <c r="N3" s="121">
         <v>1</v>
       </c>
@@ -26696,7 +26731,9 @@
         <v>4</v>
       </c>
       <c r="L4" s="142"/>
-      <c r="M4" s="139"/>
+      <c r="M4" s="139">
+        <v>-20000000</v>
+      </c>
       <c r="N4" s="121">
         <v>2</v>
       </c>
@@ -26758,8 +26795,12 @@
       <c r="K5" s="121">
         <v>5</v>
       </c>
-      <c r="L5" s="142"/>
-      <c r="M5" s="139"/>
+      <c r="L5" s="142">
+        <v>95000000</v>
+      </c>
+      <c r="M5" s="139">
+        <v>0</v>
+      </c>
       <c r="N5" s="121">
         <v>3</v>
       </c>
@@ -26822,7 +26863,9 @@
         <v>6</v>
       </c>
       <c r="L6" s="142"/>
-      <c r="M6" s="139"/>
+      <c r="M6" s="139">
+        <v>0</v>
+      </c>
       <c r="N6" s="121">
         <v>4</v>
       </c>
@@ -26888,8 +26931,12 @@
       <c r="K7" s="121">
         <v>7</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="139"/>
+      <c r="L7" s="142">
+        <v>0</v>
+      </c>
+      <c r="M7" s="139">
+        <v>37966000</v>
+      </c>
       <c r="N7" s="121">
         <v>5</v>
       </c>
@@ -26951,8 +26998,12 @@
       <c r="K8" s="121">
         <v>8</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="139"/>
+      <c r="L8" s="142">
+        <v>49000000</v>
+      </c>
+      <c r="M8" s="139">
+        <v>44247000</v>
+      </c>
       <c r="N8" s="121">
         <v>10</v>
       </c>
@@ -27017,7 +27068,9 @@
         <v>11</v>
       </c>
       <c r="L9" s="142"/>
-      <c r="M9" s="139"/>
+      <c r="M9" s="139">
+        <v>43497000</v>
+      </c>
       <c r="N9" s="121">
         <v>11</v>
       </c>
@@ -27080,7 +27133,9 @@
         <v>12</v>
       </c>
       <c r="L10" s="142"/>
-      <c r="M10" s="139"/>
+      <c r="M10" s="139">
+        <v>43067000</v>
+      </c>
       <c r="N10" s="121">
         <v>12</v>
       </c>
@@ -27143,7 +27198,9 @@
         <v>13</v>
       </c>
       <c r="L11" s="142"/>
-      <c r="M11" s="139"/>
+      <c r="M11" s="139">
+        <v>15831000</v>
+      </c>
       <c r="N11" s="121">
         <v>15</v>
       </c>
@@ -27208,7 +27265,9 @@
         <v>14</v>
       </c>
       <c r="L12" s="142"/>
-      <c r="M12" s="139"/>
+      <c r="M12" s="139">
+        <v>-10861000</v>
+      </c>
       <c r="N12" s="121">
         <v>16</v>
       </c>
@@ -27275,7 +27334,9 @@
         <v>15</v>
       </c>
       <c r="L13" s="142"/>
-      <c r="M13" s="139"/>
+      <c r="M13" s="139">
+        <v>5355000</v>
+      </c>
       <c r="N13" s="121">
         <v>17</v>
       </c>
@@ -28012,6 +28073,12 @@
       <c r="AG25" s="151"/>
       <c r="AH25" s="152"/>
     </row>
+    <row r="32" spans="2:34">
+      <c r="E32">
+        <f ca="1">E32:E35</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28023,7 +28090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:AS229"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -29268,7 +29335,7 @@
       </c>
       <c r="AQ66" s="118">
         <f>'سود روزانه'!M3+'نمودار روزانه'!AP66</f>
-        <v>2792872458</v>
+        <v>2778501458</v>
       </c>
       <c r="AR66" s="118">
         <f t="shared" ref="AR66" si="12">AP66</f>
@@ -29276,368 +29343,368 @@
       </c>
       <c r="AS66" s="118">
         <f t="shared" ref="AS66" si="13">AQ66</f>
-        <v>2792872458</v>
+        <v>2778501458</v>
       </c>
     </row>
     <row r="67" spans="6:45">
       <c r="F67" s="118"/>
       <c r="AP67" s="118">
         <f>AS66++'سود روزانه'!L4</f>
-        <v>2792872458</v>
+        <v>2778501458</v>
       </c>
       <c r="AQ67" s="118">
         <f>'سود روزانه'!M4+'نمودار روزانه'!AP67</f>
-        <v>2792872458</v>
+        <v>2758501458</v>
       </c>
       <c r="AR67" s="118">
         <f t="shared" ref="AR67:AR86" si="14">AP67</f>
-        <v>2792872458</v>
+        <v>2778501458</v>
       </c>
       <c r="AS67" s="118">
         <f t="shared" ref="AS67:AS86" si="15">AQ67</f>
-        <v>2792872458</v>
+        <v>2758501458</v>
       </c>
     </row>
     <row r="68" spans="6:45">
       <c r="F68" s="118"/>
       <c r="AP68" s="118">
         <f>AS67++'سود روزانه'!L5</f>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AQ68" s="118">
         <f>'سود روزانه'!M5+'نمودار روزانه'!AP68</f>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AR68" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AS68" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
     </row>
     <row r="69" spans="6:45">
       <c r="F69" s="118"/>
       <c r="AP69" s="118">
         <f>AS68++'سود روزانه'!L6</f>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AQ69" s="118">
         <f>'سود روزانه'!M6+'نمودار روزانه'!AP69</f>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AR69" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AS69" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
     </row>
     <row r="70" spans="6:45">
       <c r="F70" s="118"/>
       <c r="AP70" s="118">
         <f>AS69++'سود روزانه'!L7</f>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AQ70" s="118">
         <f>'سود روزانه'!M7+'نمودار روزانه'!AP70</f>
-        <v>2792872458</v>
+        <v>2891467458</v>
       </c>
       <c r="AR70" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>2853501458</v>
       </c>
       <c r="AS70" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>2891467458</v>
       </c>
     </row>
     <row r="71" spans="6:45">
       <c r="F71" s="118"/>
       <c r="AP71" s="118">
         <f>AS70++'سود روزانه'!L8</f>
-        <v>2792872458</v>
+        <v>2940467458</v>
       </c>
       <c r="AQ71" s="118">
         <f>'سود روزانه'!M8+'نمودار روزانه'!AP71</f>
-        <v>2792872458</v>
+        <v>2984714458</v>
       </c>
       <c r="AR71" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>2940467458</v>
       </c>
       <c r="AS71" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>2984714458</v>
       </c>
     </row>
     <row r="72" spans="6:45">
       <c r="F72" s="118"/>
       <c r="AP72" s="118">
         <f>AS71++'سود روزانه'!L9</f>
-        <v>2792872458</v>
+        <v>2984714458</v>
       </c>
       <c r="AQ72" s="118">
         <f>'سود روزانه'!M9+'نمودار روزانه'!AP72</f>
-        <v>2792872458</v>
+        <v>3028211458</v>
       </c>
       <c r="AR72" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>2984714458</v>
       </c>
       <c r="AS72" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3028211458</v>
       </c>
     </row>
     <row r="73" spans="6:45">
       <c r="F73" s="118"/>
       <c r="AP73" s="118">
         <f>AS72++'سود روزانه'!L10</f>
-        <v>2792872458</v>
+        <v>3028211458</v>
       </c>
       <c r="AQ73" s="118">
         <f>'سود روزانه'!M10+'نمودار روزانه'!AP73</f>
-        <v>2792872458</v>
+        <v>3071278458</v>
       </c>
       <c r="AR73" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3028211458</v>
       </c>
       <c r="AS73" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3071278458</v>
       </c>
     </row>
     <row r="74" spans="6:45">
       <c r="F74" s="118"/>
       <c r="AP74" s="118">
         <f>AS73++'سود روزانه'!L11</f>
-        <v>2792872458</v>
+        <v>3071278458</v>
       </c>
       <c r="AQ74" s="118">
         <f>'سود روزانه'!M11+'نمودار روزانه'!AP74</f>
-        <v>2792872458</v>
+        <v>3087109458</v>
       </c>
       <c r="AR74" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3071278458</v>
       </c>
       <c r="AS74" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3087109458</v>
       </c>
     </row>
     <row r="75" spans="6:45">
       <c r="F75" s="118"/>
       <c r="AP75" s="118">
         <f>AS74++'سود روزانه'!L12</f>
-        <v>2792872458</v>
+        <v>3087109458</v>
       </c>
       <c r="AQ75" s="118">
         <f>'سود روزانه'!M12+'نمودار روزانه'!AP75</f>
-        <v>2792872458</v>
+        <v>3076248458</v>
       </c>
       <c r="AR75" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3087109458</v>
       </c>
       <c r="AS75" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3076248458</v>
       </c>
     </row>
     <row r="76" spans="6:45">
       <c r="F76" s="118"/>
       <c r="AP76" s="118">
         <f>AS75++'سود روزانه'!L13</f>
-        <v>2792872458</v>
+        <v>3076248458</v>
       </c>
       <c r="AQ76" s="118">
         <f>'سود روزانه'!M13+'نمودار روزانه'!AP76</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR76" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3076248458</v>
       </c>
       <c r="AS76" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="77" spans="6:45">
       <c r="F77" s="118"/>
       <c r="AP77" s="118">
         <f>AS76++'سود روزانه'!L14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ77" s="118">
         <f>'سود روزانه'!M14+'نمودار روزانه'!AP77</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR77" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS77" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="78" spans="6:45">
       <c r="F78" s="118"/>
       <c r="AP78" s="118">
         <f>AS77++'سود روزانه'!L15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ78" s="118">
         <f>'سود روزانه'!M15+'نمودار روزانه'!AP78</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR78" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS78" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="79" spans="6:45">
       <c r="F79" s="118"/>
       <c r="AP79" s="118">
         <f>AS78++'سود روزانه'!L16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ79" s="118">
         <f>'سود روزانه'!M16+'نمودار روزانه'!AP79</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR79" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS79" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="80" spans="6:45">
       <c r="F80" s="118"/>
       <c r="AP80" s="118">
         <f>AS79++'سود روزانه'!L17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ80" s="118">
         <f>'سود روزانه'!M17+'نمودار روزانه'!AP80</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR80" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS80" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="81" spans="6:45">
       <c r="F81" s="118"/>
       <c r="AP81" s="118">
         <f>AS80++'سود روزانه'!L18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ81" s="118">
         <f>'سود روزانه'!M18+'نمودار روزانه'!AP81</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR81" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS81" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="82" spans="6:45">
       <c r="F82" s="118"/>
       <c r="AP82" s="118">
         <f>AS81++'سود روزانه'!L19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ82" s="118">
         <f>'سود روزانه'!M19+'نمودار روزانه'!AP82</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR82" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS82" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="83" spans="6:45">
       <c r="F83" s="118"/>
       <c r="AP83" s="118">
         <f>AS82++'سود روزانه'!L20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ83" s="118">
         <f>'سود روزانه'!M20+'نمودار روزانه'!AP83</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR83" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS83" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="84" spans="6:45">
       <c r="F84" s="118"/>
       <c r="AP84" s="118">
         <f>AS83++'سود روزانه'!L21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ84" s="118">
         <f>'سود روزانه'!M21+'نمودار روزانه'!AP84</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR84" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS84" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="85" spans="6:45">
       <c r="F85" s="118"/>
       <c r="AP85" s="118">
         <f>AS84++'سود روزانه'!L22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ85" s="118">
         <f>'سود روزانه'!M22+'نمودار روزانه'!AP85</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR85" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS85" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="86" spans="6:45">
@@ -29647,399 +29714,399 @@
       </c>
       <c r="AP86" s="118">
         <f>AS85++'سود روزانه'!O3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ86" s="118">
         <f>'سود روزانه'!P3+'نمودار روزانه'!AP86</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR86" s="118">
         <f t="shared" si="14"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS86" s="118">
         <f t="shared" si="15"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="87" spans="6:45">
       <c r="F87" s="118"/>
       <c r="AP87" s="118">
         <f>AS86++'سود روزانه'!O4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ87" s="118">
         <f>'سود روزانه'!P4+'نمودار روزانه'!AP87</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR87" s="118">
         <f t="shared" ref="AR87:AR106" si="16">AP87</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS87" s="118">
         <f t="shared" ref="AS87:AS106" si="17">AQ87</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="88" spans="6:45">
       <c r="F88" s="118"/>
       <c r="AP88" s="118">
         <f>AS87++'سود روزانه'!O5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ88" s="118">
         <f>'سود روزانه'!P5+'نمودار روزانه'!AP88</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR88" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS88" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="89" spans="6:45">
       <c r="F89" s="118"/>
       <c r="AP89" s="118">
         <f>AS88++'سود روزانه'!O6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ89" s="118">
         <f>'سود روزانه'!P6+'نمودار روزانه'!AP89</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR89" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS89" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="90" spans="6:45">
       <c r="F90" s="118"/>
       <c r="AP90" s="118">
         <f>AS89++'سود روزانه'!O7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ90" s="118">
         <f>'سود روزانه'!P7+'نمودار روزانه'!AP90</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR90" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS90" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="91" spans="6:45">
       <c r="F91" s="118"/>
       <c r="AP91" s="118">
         <f>AS90++'سود روزانه'!O8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ91" s="118">
         <f>'سود روزانه'!P8+'نمودار روزانه'!AP91</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR91" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS91" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="92" spans="6:45">
       <c r="F92" s="118"/>
       <c r="AP92" s="118">
         <f>AS91++'سود روزانه'!O9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ92" s="118">
         <f>'سود روزانه'!P9+'نمودار روزانه'!AP92</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR92" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS92" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="93" spans="6:45">
       <c r="F93" s="118"/>
       <c r="AP93" s="118">
         <f>AS92++'سود روزانه'!O10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ93" s="118">
         <f>'سود روزانه'!P10+'نمودار روزانه'!AP93</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR93" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS93" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="94" spans="6:45">
       <c r="F94" s="118"/>
       <c r="AP94" s="118">
         <f>AS93++'سود روزانه'!O11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ94" s="118">
         <f>'سود روزانه'!P11+'نمودار روزانه'!AP94</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR94" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS94" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="95" spans="6:45">
       <c r="F95" s="118"/>
       <c r="AP95" s="118">
         <f>AS94++'سود روزانه'!O12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ95" s="118">
         <f>'سود روزانه'!P12+'نمودار روزانه'!AP95</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR95" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS95" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="96" spans="6:45">
       <c r="F96" s="118"/>
       <c r="AP96" s="118">
         <f>AS95++'سود روزانه'!O13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ96" s="118">
         <f>'سود روزانه'!P13+'نمودار روزانه'!AP96</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR96" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS96" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="97" spans="6:45">
       <c r="F97" s="118"/>
       <c r="AP97" s="118">
         <f>AS96++'سود روزانه'!O14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ97" s="118">
         <f>'سود روزانه'!P14+'نمودار روزانه'!AP97</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR97" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS97" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="98" spans="6:45">
       <c r="F98" s="118"/>
       <c r="AP98" s="118">
         <f>AS97++'سود روزانه'!O15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ98" s="118">
         <f>'سود روزانه'!P15+'نمودار روزانه'!AP98</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR98" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS98" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="99" spans="6:45">
       <c r="F99" s="118"/>
       <c r="AP99" s="118">
         <f>AS98++'سود روزانه'!O16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ99" s="118">
         <f>'سود روزانه'!P16+'نمودار روزانه'!AP99</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR99" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS99" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="100" spans="6:45">
       <c r="F100" s="118"/>
       <c r="AP100" s="118">
         <f>AS99++'سود روزانه'!O17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ100" s="118">
         <f>'سود روزانه'!P17+'نمودار روزانه'!AP100</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR100" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS100" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="101" spans="6:45">
       <c r="F101" s="118"/>
       <c r="AP101" s="118">
         <f>AS100++'سود روزانه'!O18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ101" s="118">
         <f>'سود روزانه'!P18+'نمودار روزانه'!AP101</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR101" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS101" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="102" spans="6:45">
       <c r="F102" s="118"/>
       <c r="AP102" s="118">
         <f>AS101++'سود روزانه'!O19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ102" s="118">
         <f>'سود روزانه'!P19+'نمودار روزانه'!AP102</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR102" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS102" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="103" spans="6:45">
       <c r="F103" s="118"/>
       <c r="AP103" s="118">
         <f>AS102++'سود روزانه'!O20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ103" s="118">
         <f>'سود روزانه'!P20+'نمودار روزانه'!AP103</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR103" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS103" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="104" spans="6:45">
       <c r="F104" s="118"/>
       <c r="AP104" s="118">
         <f>AS103++'سود روزانه'!O21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ104" s="118">
         <f>'سود روزانه'!P21+'نمودار روزانه'!AP104</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR104" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS104" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="105" spans="6:45">
       <c r="F105" s="118"/>
       <c r="AP105" s="118">
         <f>AS104++'سود روزانه'!O22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ105" s="118">
         <f>'سود روزانه'!P22+'نمودار روزانه'!AP105</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR105" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS105" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="106" spans="6:45">
       <c r="F106" s="118"/>
       <c r="AP106" s="118">
         <f>AS105++'سود روزانه'!O23</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ106" s="118">
         <f>'سود روزانه'!P23+'نمودار روزانه'!AP106</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR106" s="118">
         <f t="shared" si="16"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS106" s="118">
         <f t="shared" si="17"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="107" spans="6:45">
@@ -30049,399 +30116,399 @@
       </c>
       <c r="AP107" s="118">
         <f>AS106++'سود روزانه'!R3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ107" s="118">
         <f>'سود روزانه'!S3+'نمودار روزانه'!AP107</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR107" s="118">
         <f t="shared" ref="AR107" si="18">AP107</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS107" s="118">
         <f t="shared" ref="AS107" si="19">AQ107</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="108" spans="6:45">
       <c r="F108" s="118"/>
       <c r="AP108" s="118">
         <f>AS107++'سود روزانه'!R4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ108" s="118">
         <f>'سود روزانه'!S4+'نمودار روزانه'!AP108</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR108" s="118">
         <f t="shared" ref="AR108:AR128" si="20">AP108</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS108" s="118">
         <f t="shared" ref="AS108:AS128" si="21">AQ108</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="109" spans="6:45">
       <c r="F109" s="118"/>
       <c r="AP109" s="118">
         <f>AS108++'سود روزانه'!R5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ109" s="118">
         <f>'سود روزانه'!S5+'نمودار روزانه'!AP109</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR109" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS109" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="110" spans="6:45">
       <c r="F110" s="118"/>
       <c r="AP110" s="118">
         <f>AS109++'سود روزانه'!R6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ110" s="118">
         <f>'سود روزانه'!S6+'نمودار روزانه'!AP110</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR110" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS110" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="111" spans="6:45">
       <c r="F111" s="118"/>
       <c r="AP111" s="118">
         <f>AS110++'سود روزانه'!R7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ111" s="118">
         <f>'سود روزانه'!S7+'نمودار روزانه'!AP111</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR111" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS111" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="112" spans="6:45">
       <c r="F112" s="118"/>
       <c r="AP112" s="118">
         <f>AS111++'سود روزانه'!R8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ112" s="118">
         <f>'سود روزانه'!S8+'نمودار روزانه'!AP112</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR112" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS112" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="113" spans="6:45">
       <c r="F113" s="118"/>
       <c r="AP113" s="118">
         <f>AS112++'سود روزانه'!R9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ113" s="118">
         <f>'سود روزانه'!S9+'نمودار روزانه'!AP113</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR113" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS113" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="114" spans="6:45">
       <c r="F114" s="118"/>
       <c r="AP114" s="118">
         <f>AS113++'سود روزانه'!R10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ114" s="118">
         <f>'سود روزانه'!S10+'نمودار روزانه'!AP114</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR114" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS114" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="115" spans="6:45">
       <c r="F115" s="118"/>
       <c r="AP115" s="118">
         <f>AS114++'سود روزانه'!R11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ115" s="118">
         <f>'سود روزانه'!S11+'نمودار روزانه'!AP115</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR115" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS115" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="116" spans="6:45">
       <c r="F116" s="118"/>
       <c r="AP116" s="118">
         <f>AS115++'سود روزانه'!R12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ116" s="118">
         <f>'سود روزانه'!S12+'نمودار روزانه'!AP116</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR116" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS116" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="117" spans="6:45">
       <c r="F117" s="118"/>
       <c r="AP117" s="118">
         <f>AS116++'سود روزانه'!R13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ117" s="118">
         <f>'سود روزانه'!S13+'نمودار روزانه'!AP117</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR117" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS117" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="118" spans="6:45">
       <c r="F118" s="118"/>
       <c r="AP118" s="118">
         <f>AS117++'سود روزانه'!R14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ118" s="118">
         <f>'سود روزانه'!S14+'نمودار روزانه'!AP118</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR118" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS118" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="119" spans="6:45">
       <c r="F119" s="118"/>
       <c r="AP119" s="118">
         <f>AS118++'سود روزانه'!R15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ119" s="118">
         <f>'سود روزانه'!S15+'نمودار روزانه'!AP119</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR119" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS119" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="120" spans="6:45">
       <c r="F120" s="118"/>
       <c r="AP120" s="118">
         <f>AS119++'سود روزانه'!R16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ120" s="118">
         <f>'سود روزانه'!S16+'نمودار روزانه'!AP120</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR120" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS120" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="121" spans="6:45">
       <c r="F121" s="118"/>
       <c r="AP121" s="118">
         <f>AS120++'سود روزانه'!R17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ121" s="118">
         <f>'سود روزانه'!S17+'نمودار روزانه'!AP121</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR121" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS121" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="122" spans="6:45">
       <c r="F122" s="118"/>
       <c r="AP122" s="118">
         <f>AS121++'سود روزانه'!R18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ122" s="118">
         <f>'سود روزانه'!S18+'نمودار روزانه'!AP122</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR122" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS122" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="123" spans="6:45">
       <c r="F123" s="118"/>
       <c r="AP123" s="118">
         <f>AS122++'سود روزانه'!R19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ123" s="118">
         <f>'سود روزانه'!S19+'نمودار روزانه'!AP123</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR123" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS123" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="124" spans="6:45">
       <c r="F124" s="118"/>
       <c r="AP124" s="118">
         <f>AS123++'سود روزانه'!R20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ124" s="118">
         <f>'سود روزانه'!S20+'نمودار روزانه'!AP124</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR124" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS124" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="125" spans="6:45">
       <c r="F125" s="118"/>
       <c r="AP125" s="118">
         <f>AS124++'سود روزانه'!R21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ125" s="118">
         <f>'سود روزانه'!S21+'نمودار روزانه'!AP125</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR125" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS125" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="126" spans="6:45">
       <c r="F126" s="118"/>
       <c r="AP126" s="118">
         <f>AS125++'سود روزانه'!R22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ126" s="118">
         <f>'سود روزانه'!S22+'نمودار روزانه'!AP126</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR126" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS126" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="127" spans="6:45">
       <c r="F127" s="118"/>
       <c r="AP127" s="118">
         <f>AS126++'سود روزانه'!R23</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ127" s="118">
         <f>'سود روزانه'!S23+'نمودار روزانه'!AP127</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR127" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS127" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="128" spans="6:45">
@@ -30451,342 +30518,342 @@
       </c>
       <c r="AP128" s="118">
         <f>AS127 + +'سود روزانه'!U3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ128" s="118">
         <f>'سود روزانه'!V3+'نمودار روزانه'!AP128</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR128" s="118">
         <f t="shared" si="20"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS128" s="118">
         <f t="shared" si="21"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="129" spans="6:45">
       <c r="F129" s="118"/>
       <c r="AP129" s="118">
         <f>AS128 + +'سود روزانه'!U4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ129" s="118">
         <f>'سود روزانه'!V4+'نمودار روزانه'!AP129</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR129" s="118">
         <f t="shared" ref="AR129:AR146" si="22">AP129</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS129" s="118">
         <f t="shared" ref="AS129:AS146" si="23">AQ129</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="130" spans="6:45">
       <c r="F130" s="118"/>
       <c r="AP130" s="118">
         <f>AS129 + +'سود روزانه'!U5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ130" s="118">
         <f>'سود روزانه'!V5+'نمودار روزانه'!AP130</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR130" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS130" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="131" spans="6:45">
       <c r="F131" s="118"/>
       <c r="AP131" s="118">
         <f>AS130 + +'سود روزانه'!U6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ131" s="118">
         <f>'سود روزانه'!V6+'نمودار روزانه'!AP131</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR131" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS131" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="132" spans="6:45">
       <c r="F132" s="118"/>
       <c r="AP132" s="118">
         <f>AS131 + +'سود روزانه'!U7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ132" s="118">
         <f>'سود روزانه'!V7+'نمودار روزانه'!AP132</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR132" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS132" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="133" spans="6:45">
       <c r="F133" s="118"/>
       <c r="AP133" s="118">
         <f>AS132 + +'سود روزانه'!U8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ133" s="118">
         <f>'سود روزانه'!V8+'نمودار روزانه'!AP133</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR133" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS133" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="134" spans="6:45">
       <c r="F134" s="118"/>
       <c r="AP134" s="118">
         <f>AS133 + +'سود روزانه'!U9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ134" s="118">
         <f>'سود روزانه'!V9+'نمودار روزانه'!AP134</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR134" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS134" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="135" spans="6:45">
       <c r="F135" s="118"/>
       <c r="AP135" s="118">
         <f>AS134 + +'سود روزانه'!U10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ135" s="118">
         <f>'سود روزانه'!V10+'نمودار روزانه'!AP135</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR135" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS135" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="136" spans="6:45">
       <c r="F136" s="118"/>
       <c r="AP136" s="118">
         <f>AS135 + +'سود روزانه'!U11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ136" s="118">
         <f>'سود روزانه'!V11+'نمودار روزانه'!AP136</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR136" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS136" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="137" spans="6:45">
       <c r="F137" s="118"/>
       <c r="AP137" s="118">
         <f>AS136 + +'سود روزانه'!U12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ137" s="118">
         <f>'سود روزانه'!V12+'نمودار روزانه'!AP137</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR137" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS137" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="138" spans="6:45">
       <c r="F138" s="118"/>
       <c r="AP138" s="118">
         <f>AS137 + +'سود روزانه'!U13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ138" s="118">
         <f>'سود روزانه'!V13+'نمودار روزانه'!AP138</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR138" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS138" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="139" spans="6:45">
       <c r="F139" s="118"/>
       <c r="AP139" s="118">
         <f>AS138 + +'سود روزانه'!U14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ139" s="118">
         <f>'سود روزانه'!V14+'نمودار روزانه'!AP139</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR139" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS139" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="140" spans="6:45">
       <c r="F140" s="118"/>
       <c r="AP140" s="118">
         <f>AS139 + +'سود روزانه'!U15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ140" s="118">
         <f>'سود روزانه'!V15+'نمودار روزانه'!AP140</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR140" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS140" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="141" spans="6:45">
       <c r="F141" s="118"/>
       <c r="AP141" s="118">
         <f>AS140 + +'سود روزانه'!U16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ141" s="118">
         <f>'سود روزانه'!V16+'نمودار روزانه'!AP141</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR141" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS141" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="142" spans="6:45">
       <c r="F142" s="118"/>
       <c r="AP142" s="118">
         <f>AS141 + +'سود روزانه'!U17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ142" s="118">
         <f>'سود روزانه'!V17+'نمودار روزانه'!AP142</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR142" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS142" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="143" spans="6:45">
       <c r="F143" s="118"/>
       <c r="AP143" s="118">
         <f>AS142 + +'سود روزانه'!U18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ143" s="118">
         <f>'سود روزانه'!V18+'نمودار روزانه'!AP143</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR143" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS143" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="144" spans="6:45">
       <c r="F144" s="118"/>
       <c r="AP144" s="118">
         <f>AS143 + +'سود روزانه'!U19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ144" s="118">
         <f>'سود روزانه'!V19+'نمودار روزانه'!AP144</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR144" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS144" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="145" spans="6:45">
       <c r="F145" s="118"/>
       <c r="AP145" s="118">
         <f>AS144 + +'سود روزانه'!U20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ145" s="118">
         <f>'سود روزانه'!V20+'نمودار روزانه'!AP145</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR145" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS145" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="146" spans="6:45">
@@ -30796,418 +30863,418 @@
       </c>
       <c r="AP146" s="118">
         <f>AS145++'سود روزانه'!X3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ146" s="118">
         <f>'سود روزانه'!Y3+'نمودار روزانه'!AP146</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR146" s="118">
         <f t="shared" si="22"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS146" s="118">
         <f t="shared" si="23"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="147" spans="6:45">
       <c r="F147" s="118"/>
       <c r="AP147" s="118">
         <f>AS146++'سود روزانه'!X4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ147" s="118">
         <f>'سود روزانه'!Y4+'نمودار روزانه'!AP147</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR147" s="118">
         <f t="shared" ref="AR147:AR165" si="24">AP147</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS147" s="118">
         <f t="shared" ref="AS147:AS165" si="25">AQ147</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="148" spans="6:45">
       <c r="F148" s="118"/>
       <c r="AP148" s="118">
         <f>AS147++'سود روزانه'!X5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ148" s="118">
         <f>'سود روزانه'!Y5+'نمودار روزانه'!AP148</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR148" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS148" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="149" spans="6:45">
       <c r="F149" s="118"/>
       <c r="AP149" s="118">
         <f>AS148++'سود روزانه'!X6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ149" s="118">
         <f>'سود روزانه'!Y6+'نمودار روزانه'!AP149</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR149" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS149" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="150" spans="6:45">
       <c r="F150" s="118"/>
       <c r="AP150" s="118">
         <f>AS149++'سود روزانه'!X7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ150" s="118">
         <f>'سود روزانه'!Y7+'نمودار روزانه'!AP150</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR150" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS150" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="151" spans="6:45">
       <c r="F151" s="118"/>
       <c r="AP151" s="118">
         <f>AS150++'سود روزانه'!X8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ151" s="118">
         <f>'سود روزانه'!Y8+'نمودار روزانه'!AP151</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR151" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS151" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="152" spans="6:45">
       <c r="F152" s="118"/>
       <c r="AP152" s="118">
         <f>AS151++'سود روزانه'!X9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ152" s="118">
         <f>'سود روزانه'!Y9+'نمودار روزانه'!AP152</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR152" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS152" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="153" spans="6:45">
       <c r="F153" s="118"/>
       <c r="AP153" s="118">
         <f>AS152++'سود روزانه'!X10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ153" s="118">
         <f>'سود روزانه'!Y10+'نمودار روزانه'!AP153</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR153" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS153" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="154" spans="6:45">
       <c r="F154" s="118"/>
       <c r="AP154" s="118">
         <f>AS153++'سود روزانه'!X11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ154" s="118">
         <f>'سود روزانه'!Y11+'نمودار روزانه'!AP154</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR154" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS154" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="155" spans="6:45">
       <c r="F155" s="118"/>
       <c r="AP155" s="118">
         <f>AS154++'سود روزانه'!X12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ155" s="118">
         <f>'سود روزانه'!Y12+'نمودار روزانه'!AP155</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR155" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS155" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="156" spans="6:45">
       <c r="F156" s="118"/>
       <c r="AP156" s="118">
         <f>AS155++'سود روزانه'!X13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ156" s="118">
         <f>'سود روزانه'!Y13+'نمودار روزانه'!AP156</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR156" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS156" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="157" spans="6:45">
       <c r="F157" s="118"/>
       <c r="AP157" s="118">
         <f>AS156++'سود روزانه'!X14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ157" s="118">
         <f>'سود روزانه'!Y14+'نمودار روزانه'!AP157</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR157" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS157" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="158" spans="6:45">
       <c r="F158" s="118"/>
       <c r="AP158" s="118">
         <f>AS157++'سود روزانه'!X15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ158" s="118">
         <f>'سود روزانه'!Y15+'نمودار روزانه'!AP158</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR158" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS158" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="159" spans="6:45">
       <c r="F159" s="118"/>
       <c r="AP159" s="118">
         <f>AS158++'سود روزانه'!X16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ159" s="118">
         <f>'سود روزانه'!Y16+'نمودار روزانه'!AP159</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR159" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS159" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="160" spans="6:45">
       <c r="F160" s="118"/>
       <c r="AP160" s="118">
         <f>AS159++'سود روزانه'!X17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ160" s="118">
         <f>'سود روزانه'!Y17+'نمودار روزانه'!AP160</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR160" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS160" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="161" spans="6:45">
       <c r="F161" s="118"/>
       <c r="AP161" s="118">
         <f>AS160++'سود روزانه'!X18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ161" s="118">
         <f>'سود روزانه'!Y18+'نمودار روزانه'!AP161</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR161" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS161" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="162" spans="6:45">
       <c r="F162" s="118"/>
       <c r="AP162" s="118">
         <f>AS161++'سود روزانه'!X19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ162" s="118">
         <f>'سود روزانه'!Y19+'نمودار روزانه'!AP162</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR162" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS162" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="163" spans="6:45">
       <c r="F163" s="118"/>
       <c r="AP163" s="118">
         <f>AS162++'سود روزانه'!X20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ163" s="118">
         <f>'سود روزانه'!Y20+'نمودار روزانه'!AP163</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR163" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS163" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="164" spans="6:45">
       <c r="F164" s="118"/>
       <c r="AP164" s="118">
         <f>AS163++'سود روزانه'!X21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ164" s="118">
         <f>'سود روزانه'!Y21+'نمودار روزانه'!AP164</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR164" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS164" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="165" spans="6:45">
       <c r="F165" s="118"/>
       <c r="AP165" s="118">
         <f>AS164++'سود روزانه'!X22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ165" s="118">
         <f>'سود روزانه'!Y22+'نمودار روزانه'!AP165</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR165" s="118">
         <f t="shared" si="24"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS165" s="118">
         <f t="shared" si="25"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="166" spans="6:45">
       <c r="F166" s="118"/>
       <c r="AP166" s="118">
         <f>AS165++'سود روزانه'!X23</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ166" s="118">
         <f>'سود روزانه'!Y23+'نمودار روزانه'!AP166</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR166" s="118">
         <f t="shared" ref="AR166:AR168" si="26">AP166</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS166" s="118">
         <f t="shared" ref="AS166:AS168" si="27">AQ166</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="167" spans="6:45">
       <c r="F167" s="118"/>
       <c r="AP167" s="118">
         <f>AS166++'سود روزانه'!X24</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ167" s="118">
         <f>'سود روزانه'!Y24+'نمودار روزانه'!AP167</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR167" s="118">
         <f t="shared" si="26"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS167" s="118">
         <f t="shared" si="27"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="168" spans="6:45">
@@ -31217,399 +31284,399 @@
       </c>
       <c r="AP168" s="118">
         <f>AS167++'سود روزانه'!AA3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ168" s="118">
         <f>'سود روزانه'!AB3+'نمودار روزانه'!AP168</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR168" s="118">
         <f t="shared" si="26"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS168" s="118">
         <f t="shared" si="27"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="169" spans="6:45">
       <c r="F169" s="118"/>
       <c r="AP169" s="118">
         <f>AS168++'سود روزانه'!AA4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ169" s="118">
         <f>'سود روزانه'!AB4+'نمودار روزانه'!AP169</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR169" s="118">
         <f t="shared" ref="AR169:AR184" si="28">AP169</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS169" s="118">
         <f t="shared" ref="AS169:AS184" si="29">AQ169</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="170" spans="6:45">
       <c r="F170" s="118"/>
       <c r="AP170" s="118">
         <f>AS169++'سود روزانه'!AA5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ170" s="118">
         <f>'سود روزانه'!AB5+'نمودار روزانه'!AP170</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR170" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS170" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="171" spans="6:45">
       <c r="F171" s="118"/>
       <c r="AP171" s="118">
         <f>AS170++'سود روزانه'!AA6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ171" s="118">
         <f>'سود روزانه'!AB6+'نمودار روزانه'!AP171</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR171" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS171" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="172" spans="6:45">
       <c r="F172" s="118"/>
       <c r="AP172" s="118">
         <f>AS171++'سود روزانه'!AA7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ172" s="118">
         <f>'سود روزانه'!AB7+'نمودار روزانه'!AP172</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR172" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS172" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="173" spans="6:45">
       <c r="F173" s="118"/>
       <c r="AP173" s="118">
         <f>AS172++'سود روزانه'!AA8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ173" s="118">
         <f>'سود روزانه'!AB8+'نمودار روزانه'!AP173</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR173" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS173" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="174" spans="6:45">
       <c r="F174" s="118"/>
       <c r="AP174" s="118">
         <f>AS173++'سود روزانه'!AA9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ174" s="118">
         <f>'سود روزانه'!AB9+'نمودار روزانه'!AP174</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR174" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS174" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="175" spans="6:45">
       <c r="F175" s="118"/>
       <c r="AP175" s="118">
         <f>AS174++'سود روزانه'!AA10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ175" s="118">
         <f>'سود روزانه'!AB10+'نمودار روزانه'!AP175</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR175" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS175" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="176" spans="6:45">
       <c r="F176" s="118"/>
       <c r="AP176" s="118">
         <f>AS175++'سود روزانه'!AA11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ176" s="118">
         <f>'سود روزانه'!AB11+'نمودار روزانه'!AP176</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR176" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS176" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="177" spans="6:45">
       <c r="F177" s="118"/>
       <c r="AP177" s="118">
         <f>AS176++'سود روزانه'!AA12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ177" s="118">
         <f>'سود روزانه'!AB12+'نمودار روزانه'!AP177</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR177" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS177" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="178" spans="6:45">
       <c r="F178" s="118"/>
       <c r="AP178" s="118">
         <f>AS177++'سود روزانه'!AA13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ178" s="118">
         <f>'سود روزانه'!AB13+'نمودار روزانه'!AP178</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR178" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS178" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="179" spans="6:45">
       <c r="F179" s="118"/>
       <c r="AP179" s="118">
         <f>AS178++'سود روزانه'!AA14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ179" s="118">
         <f>'سود روزانه'!AB14+'نمودار روزانه'!AP179</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR179" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS179" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="180" spans="6:45">
       <c r="F180" s="118"/>
       <c r="AP180" s="118">
         <f>AS179++'سود روزانه'!AA15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ180" s="118">
         <f>'سود روزانه'!AB15+'نمودار روزانه'!AP180</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR180" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS180" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="181" spans="6:45">
       <c r="F181" s="118"/>
       <c r="AP181" s="118">
         <f>AS180++'سود روزانه'!AA16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ181" s="118">
         <f>'سود روزانه'!AB16+'نمودار روزانه'!AP181</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR181" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS181" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="182" spans="6:45">
       <c r="F182" s="118"/>
       <c r="AP182" s="118">
         <f>AS181++'سود روزانه'!AA17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ182" s="118">
         <f>'سود روزانه'!AB17+'نمودار روزانه'!AP182</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR182" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS182" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="183" spans="6:45">
       <c r="F183" s="118"/>
       <c r="AP183" s="118">
         <f>AS182++'سود روزانه'!AA18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ183" s="118">
         <f>'سود روزانه'!AB18+'نمودار روزانه'!AP183</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR183" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS183" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="184" spans="6:45">
       <c r="F184" s="118"/>
       <c r="AP184" s="118">
         <f>AS183++'سود روزانه'!AA19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ184" s="118">
         <f>'سود روزانه'!AB19+'نمودار روزانه'!AP184</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR184" s="118">
         <f t="shared" si="28"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS184" s="118">
         <f t="shared" si="29"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="185" spans="6:45">
       <c r="F185" s="118"/>
       <c r="AP185" s="118">
         <f>AS184++'سود روزانه'!AA20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ185" s="118">
         <f>'سود روزانه'!AB20+'نمودار روزانه'!AP185</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR185" s="118">
         <f t="shared" ref="AR185:AR189" si="30">AP185</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS185" s="118">
         <f t="shared" ref="AS185:AS189" si="31">AQ185</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="186" spans="6:45">
       <c r="F186" s="118"/>
       <c r="AP186" s="118">
         <f>AS185++'سود روزانه'!AA21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ186" s="118">
         <f>'سود روزانه'!AB21+'نمودار روزانه'!AP186</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR186" s="118">
         <f t="shared" si="30"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS186" s="118">
         <f t="shared" si="31"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="187" spans="6:45">
       <c r="F187" s="118"/>
       <c r="AP187" s="118">
         <f>AS186++'سود روزانه'!AA22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ187" s="118">
         <f>'سود روزانه'!AB22+'نمودار روزانه'!AP187</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR187" s="118">
         <f t="shared" si="30"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS187" s="118">
         <f t="shared" si="31"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="188" spans="6:45">
       <c r="F188" s="118"/>
       <c r="AP188" s="118">
         <f>AS187++'سود روزانه'!AA23</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ188" s="118">
         <f>'سود روزانه'!AB23+'نمودار روزانه'!AP188</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR188" s="118">
         <f t="shared" si="30"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS188" s="118">
         <f t="shared" si="31"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="189" spans="6:45">
@@ -31619,380 +31686,380 @@
       </c>
       <c r="AP189" s="118">
         <f>AS188++'سود روزانه'!AD3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ189" s="118">
         <f>'سود روزانه'!AE3+'نمودار روزانه'!AP189</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR189" s="118">
         <f t="shared" si="30"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS189" s="118">
         <f t="shared" si="31"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="190" spans="6:45">
       <c r="F190" s="118"/>
       <c r="AP190" s="118">
         <f>AS189++'سود روزانه'!AD4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ190" s="118">
         <f>'سود روزانه'!AE4+'نمودار روزانه'!AP190</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR190" s="118">
         <f t="shared" ref="AR190:AR204" si="32">AP190</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS190" s="118">
         <f t="shared" ref="AS190:AS204" si="33">AQ190</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="191" spans="6:45">
       <c r="F191" s="118"/>
       <c r="AP191" s="118">
         <f>AS190++'سود روزانه'!AD5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ191" s="118">
         <f>'سود روزانه'!AE5+'نمودار روزانه'!AP191</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR191" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS191" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="192" spans="6:45">
       <c r="F192" s="118"/>
       <c r="AP192" s="118">
         <f>AS191++'سود روزانه'!AD6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ192" s="118">
         <f>'سود روزانه'!AE6+'نمودار روزانه'!AP192</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR192" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS192" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="193" spans="6:45">
       <c r="F193" s="118"/>
       <c r="AP193" s="118">
         <f>AS192++'سود روزانه'!AD7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ193" s="118">
         <f>'سود روزانه'!AE7+'نمودار روزانه'!AP193</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR193" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS193" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="194" spans="6:45">
       <c r="F194" s="118"/>
       <c r="AP194" s="118">
         <f>AS193++'سود روزانه'!AD8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ194" s="118">
         <f>'سود روزانه'!AE8+'نمودار روزانه'!AP194</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR194" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS194" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="195" spans="6:45">
       <c r="F195" s="118"/>
       <c r="AP195" s="118">
         <f>AS194++'سود روزانه'!AD9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ195" s="118">
         <f>'سود روزانه'!AE9+'نمودار روزانه'!AP195</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR195" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS195" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="196" spans="6:45">
       <c r="F196" s="118"/>
       <c r="AP196" s="118">
         <f>AS195++'سود روزانه'!AD10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ196" s="118">
         <f>'سود روزانه'!AE10+'نمودار روزانه'!AP196</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR196" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS196" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="197" spans="6:45">
       <c r="F197" s="118"/>
       <c r="AP197" s="118">
         <f>AS196++'سود روزانه'!AD11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ197" s="118">
         <f>'سود روزانه'!AE11+'نمودار روزانه'!AP197</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR197" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS197" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="198" spans="6:45">
       <c r="F198" s="118"/>
       <c r="AP198" s="118">
         <f>AS197++'سود روزانه'!AD12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ198" s="118">
         <f>'سود روزانه'!AE12+'نمودار روزانه'!AP198</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR198" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS198" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="199" spans="6:45">
       <c r="F199" s="118"/>
       <c r="AP199" s="118">
         <f>AS198++'سود روزانه'!AD13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ199" s="118">
         <f>'سود روزانه'!AE13+'نمودار روزانه'!AP199</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR199" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS199" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="200" spans="6:45">
       <c r="F200" s="118"/>
       <c r="AP200" s="118">
         <f>AS199++'سود روزانه'!AD14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ200" s="118">
         <f>'سود روزانه'!AE14+'نمودار روزانه'!AP200</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR200" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS200" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="201" spans="6:45">
       <c r="F201" s="118"/>
       <c r="AP201" s="118">
         <f>AS200++'سود روزانه'!AD15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ201" s="118">
         <f>'سود روزانه'!AE15+'نمودار روزانه'!AP201</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR201" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS201" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="202" spans="6:45">
       <c r="F202" s="118"/>
       <c r="AP202" s="118">
         <f>AS201++'سود روزانه'!AD16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ202" s="118">
         <f>'سود روزانه'!AE16+'نمودار روزانه'!AP202</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR202" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS202" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="203" spans="6:45">
       <c r="F203" s="118"/>
       <c r="AP203" s="118">
         <f>AS202++'سود روزانه'!AD17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ203" s="118">
         <f>'سود روزانه'!AE17+'نمودار روزانه'!AP203</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR203" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS203" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="204" spans="6:45">
       <c r="F204" s="118"/>
       <c r="AP204" s="118">
         <f>AS203++'سود روزانه'!AD18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ204" s="118">
         <f>'سود روزانه'!AE18+'نمودار روزانه'!AP204</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR204" s="118">
         <f t="shared" si="32"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS204" s="118">
         <f t="shared" si="33"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="205" spans="6:45">
       <c r="F205" s="118"/>
       <c r="AP205" s="118">
         <f>AS204++'سود روزانه'!AD19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ205" s="118">
         <f>'سود روزانه'!AE19+'نمودار روزانه'!AP205</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR205" s="118">
         <f t="shared" ref="AR205:AR209" si="34">AP205</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS205" s="118">
         <f t="shared" ref="AS205:AS209" si="35">AQ205</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="206" spans="6:45">
       <c r="F206" s="118"/>
       <c r="AP206" s="118">
         <f>AS205++'سود روزانه'!AD20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ206" s="118">
         <f>'سود روزانه'!AE20+'نمودار روزانه'!AP206</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR206" s="118">
         <f t="shared" si="34"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS206" s="118">
         <f t="shared" si="35"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="207" spans="6:45">
       <c r="F207" s="118"/>
       <c r="AP207" s="118">
         <f>AS206++'سود روزانه'!AD21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ207" s="118">
         <f>'سود روزانه'!AE21+'نمودار روزانه'!AP207</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR207" s="118">
         <f t="shared" si="34"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS207" s="118">
         <f t="shared" si="35"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="208" spans="6:45">
       <c r="F208" s="118"/>
       <c r="AP208" s="118">
         <f>AS207++'سود روزانه'!AD22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ208" s="118">
         <f>'سود روزانه'!AE22+'نمودار روزانه'!AP208</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR208" s="118">
         <f t="shared" si="34"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS208" s="118">
         <f t="shared" si="35"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="209" spans="6:45">
@@ -32002,399 +32069,399 @@
       </c>
       <c r="AP209" s="118">
         <f>AS208++'سود روزانه'!AG3</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ209" s="118">
         <f>'سود روزانه'!AH3+'نمودار روزانه'!AP209</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR209" s="118">
         <f t="shared" si="34"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS209" s="118">
         <f t="shared" si="35"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="210" spans="6:45">
       <c r="F210" s="118"/>
       <c r="AP210" s="118">
         <f>AS209++'سود روزانه'!AG4</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ210" s="118">
         <f>'سود روزانه'!AH4+'نمودار روزانه'!AP210</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR210" s="118">
         <f t="shared" ref="AR210:AR229" si="36">AP210</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS210" s="118">
         <f t="shared" ref="AS210:AS229" si="37">AQ210</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="211" spans="6:45">
       <c r="F211" s="118"/>
       <c r="AP211" s="118">
         <f>AS210++'سود روزانه'!AG5</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ211" s="118">
         <f>'سود روزانه'!AH5+'نمودار روزانه'!AP211</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR211" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS211" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="212" spans="6:45">
       <c r="F212" s="118"/>
       <c r="AP212" s="118">
         <f>AS211++'سود روزانه'!AG6</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ212" s="118">
         <f>'سود روزانه'!AH6+'نمودار روزانه'!AP212</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR212" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS212" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="213" spans="6:45">
       <c r="F213" s="118"/>
       <c r="AP213" s="118">
         <f>AS212++'سود روزانه'!AG7</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ213" s="118">
         <f>'سود روزانه'!AH7+'نمودار روزانه'!AP213</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR213" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS213" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="214" spans="6:45">
       <c r="F214" s="118"/>
       <c r="AP214" s="118">
         <f>AS213++'سود روزانه'!AG8</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ214" s="118">
         <f>'سود روزانه'!AH8+'نمودار روزانه'!AP214</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR214" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS214" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="215" spans="6:45">
       <c r="F215" s="118"/>
       <c r="AP215" s="118">
         <f>AS214++'سود روزانه'!AG9</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ215" s="118">
         <f>'سود روزانه'!AH9+'نمودار روزانه'!AP215</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR215" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS215" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="216" spans="6:45">
       <c r="F216" s="118"/>
       <c r="AP216" s="118">
         <f>AS215++'سود روزانه'!AG10</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ216" s="118">
         <f>'سود روزانه'!AH10+'نمودار روزانه'!AP216</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR216" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS216" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="217" spans="6:45">
       <c r="F217" s="118"/>
       <c r="AP217" s="118">
         <f>AS216++'سود روزانه'!AG11</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ217" s="118">
         <f>'سود روزانه'!AH11+'نمودار روزانه'!AP217</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR217" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS217" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="218" spans="6:45">
       <c r="F218" s="118"/>
       <c r="AP218" s="118">
         <f>AS217++'سود روزانه'!AG12</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ218" s="118">
         <f>'سود روزانه'!AH12+'نمودار روزانه'!AP218</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR218" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS218" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="219" spans="6:45">
       <c r="F219" s="118"/>
       <c r="AP219" s="118">
         <f>AS218++'سود روزانه'!AG13</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ219" s="118">
         <f>'سود روزانه'!AH13+'نمودار روزانه'!AP219</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR219" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS219" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="220" spans="6:45">
       <c r="F220" s="118"/>
       <c r="AP220" s="118">
         <f>AS219++'سود روزانه'!AG14</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ220" s="118">
         <f>'سود روزانه'!AH14+'نمودار روزانه'!AP220</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR220" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS220" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="221" spans="6:45">
       <c r="F221" s="118"/>
       <c r="AP221" s="118">
         <f>AS220++'سود روزانه'!AG15</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ221" s="118">
         <f>'سود روزانه'!AH15+'نمودار روزانه'!AP221</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR221" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS221" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="222" spans="6:45">
       <c r="F222" s="118"/>
       <c r="AP222" s="118">
         <f>AS221++'سود روزانه'!AG16</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ222" s="118">
         <f>'سود روزانه'!AH16+'نمودار روزانه'!AP222</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR222" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS222" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="223" spans="6:45">
       <c r="F223" s="118"/>
       <c r="AP223" s="118">
         <f>AS222++'سود روزانه'!AG17</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ223" s="118">
         <f>'سود روزانه'!AH17+'نمودار روزانه'!AP223</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR223" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS223" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="224" spans="6:45">
       <c r="F224" s="118"/>
       <c r="AP224" s="118">
         <f>AS223++'سود روزانه'!AG18</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ224" s="118">
         <f>'سود روزانه'!AH18+'نمودار روزانه'!AP224</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR224" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS224" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="225" spans="6:45">
       <c r="F225" s="118"/>
       <c r="AP225" s="118">
         <f>AS224++'سود روزانه'!AG19</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ225" s="118">
         <f>'سود روزانه'!AH19+'نمودار روزانه'!AP225</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR225" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS225" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="226" spans="6:45">
       <c r="F226" s="118"/>
       <c r="AP226" s="118">
         <f>AS225++'سود روزانه'!AG20</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ226" s="118">
         <f>'سود روزانه'!AH20+'نمودار روزانه'!AP226</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR226" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS226" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="227" spans="6:45">
       <c r="F227" s="118"/>
       <c r="AP227" s="118">
         <f>AS226++'سود روزانه'!AG21</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ227" s="118">
         <f>'سود روزانه'!AH21+'نمودار روزانه'!AP227</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR227" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS227" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="228" spans="6:45">
       <c r="F228" s="118"/>
       <c r="AP228" s="118">
         <f>AS227++'سود روزانه'!AG22</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ228" s="118">
         <f>'سود روزانه'!AH22+'نمودار روزانه'!AP228</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR228" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS228" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
     <row r="229" spans="6:45">
       <c r="F229" s="118"/>
       <c r="AP229" s="118">
         <f>AS228++'سود روزانه'!AG23</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AQ229" s="118">
         <f>'سود روزانه'!AH23+'نمودار روزانه'!AP229</f>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AR229" s="118">
         <f t="shared" si="36"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
       <c r="AS229" s="118">
         <f t="shared" si="37"/>
-        <v>2792872458</v>
+        <v>3081603458</v>
       </c>
     </row>
   </sheetData>
@@ -32406,10 +32473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D47"/>
+  <dimension ref="B2:D50"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C44"/>
+      <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -32888,22 +32955,49 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="15" customHeight="1">
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="28"/>
+      <c r="B45" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="29">
+        <v>95000000</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ht="15" customHeight="1">
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="29">
+        <v>49000000</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="15" customHeight="1">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="2:4" ht="15" customHeight="1">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="2:4" ht="15" customHeight="1">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="2:4" ht="15" customHeight="1">
+      <c r="B50" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="29">
-        <f>SUM(C4:C44)</f>
-        <v>1525082124</v>
+      <c r="C50" s="29">
+        <f>SUM(C4:C46)</f>
+        <v>1669082124</v>
       </c>
     </row>
   </sheetData>

--- a/Main/management.xlsx
+++ b/Main/management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7455" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7455" tabRatio="602" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="پرتفوی" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="202">
   <si>
     <t>تاریخ</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>99/05/08</t>
+  </si>
+  <si>
+    <t>99/05/30</t>
+  </si>
+  <si>
+    <t>99/07/07</t>
   </si>
 </sst>
 </file>
@@ -3522,7 +3528,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3628,7 +3633,10 @@
                   <c:v>651624553</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190822000</c:v>
+                  <c:v>-274403000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-85950085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,7 +3756,10 @@
                   <c:v>0.29236847380550784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3094104853090013E-2</c:v>
+                  <c:v>-9.0729641519334561E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0519336850725741E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,7 +3951,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4095,70 +4105,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,70 +4200,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,70 +4295,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,70 +4390,70 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4765,67 +4775,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,67 +4867,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4949,67 +4959,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,67 +5051,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5423,64 +5433,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5512,64 +5522,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5601,64 +5611,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5690,64 +5700,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6069,67 +6079,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6161,67 +6171,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6253,67 +6263,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6345,67 +6355,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6906,460 +6916,460 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3081603458</c:v>
+                  <c:v>2655634543</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7613,463 +7623,463 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3081603458</c:v>
+                  <c:v>2616384458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8326,460 +8336,460 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3081603458</c:v>
+                  <c:v>2655634543</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9033,463 +9043,463 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3081603458</c:v>
+                  <c:v>2616384458</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9722,7 +9732,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10371,7 +10380,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10977,7 +10985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11685,7 +11692,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11775,28 +11781,28 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11861,31 +11867,31 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2616384458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11953,28 +11959,28 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12039,31 +12045,31 @@
                   <c:v>3081603458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>3068693458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2949389458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2846152458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2806152458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2762543458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2640441458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2711754458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2726814458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2616384458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12326,7 +12332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12380,67 +12385,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2655634543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12472,67 +12477,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12564,67 +12569,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2655634543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12656,67 +12661,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13038,67 +13043,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13130,67 +13135,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13222,67 +13227,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13314,67 +13319,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13696,58 +13701,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13779,58 +13784,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13862,58 +13867,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13945,58 +13950,58 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3081603458</c:v>
+                  <c:v>2569684458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26005,19 +26010,19 @@
       </c>
       <c r="L4" s="183">
         <f>K4-'واریز و برداشت'!C50</f>
-        <v>-384817336</v>
+        <v>-453567421</v>
       </c>
       <c r="M4" s="185">
         <f>L4/'واریز و برداشت'!C50</f>
-        <v>-0.23055626231127258</v>
+        <v>-0.26099609539461588</v>
       </c>
       <c r="N4" s="173">
         <f>C4-'واریز و برداشت'!C50</f>
-        <v>1099333876</v>
+        <v>1030583791</v>
       </c>
       <c r="O4" s="175">
         <f>N4/'واریز و برداشت'!C50</f>
-        <v>0.65864576715099965</v>
+        <v>0.59302836353403088</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="17.45" customHeight="1" thickBot="1">
@@ -26073,9 +26078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18"/>
   <cols>
@@ -26137,11 +26140,11 @@
         <v>69</v>
       </c>
       <c r="J3" s="85">
-        <v>3209870000</v>
+        <v>2750000000</v>
       </c>
       <c r="K3" s="85">
-        <f>C10-J3</f>
-        <v>5355000</v>
+        <f>C11-J3</f>
+        <v>-19700000</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="19.5" hidden="1">
@@ -26302,7 +26305,7 @@
         <v>148</v>
       </c>
       <c r="C10" s="100">
-        <v>3215225000</v>
+        <v>2750000000</v>
       </c>
       <c r="D10" s="104">
         <v>144000000</v>
@@ -26316,23 +26319,38 @@
       </c>
       <c r="G10" s="100">
         <f>Table6910[[#This Row],[Column1]]-(C9+Table6910[[#This Row],[Column4]])</f>
-        <v>190822000</v>
+        <v>-274403000</v>
       </c>
       <c r="H10" s="88">
         <f>Table6910[[#This Row],[Column5]]/(C9+Table6910[[#This Row],[Column4]])</f>
-        <v>6.3094104853090013E-2</v>
+        <v>-9.0729641519334561E-2</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5">
       <c r="B11" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="88"/>
+      <c r="C11" s="100">
+        <v>2730300000</v>
+      </c>
+      <c r="D11" s="104">
+        <v>66250085</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <f>Table6910[[#This Row],[Column2]]-Table6910[[#This Row],[Column3]]</f>
+        <v>66250085</v>
+      </c>
+      <c r="G11" s="100">
+        <f>Table6910[[#This Row],[Column1]]-(C10+Table6910[[#This Row],[Column4]])</f>
+        <v>-85950085</v>
+      </c>
+      <c r="H11" s="88">
+        <f>Table6910[[#This Row],[Column5]]/(C10+Table6910[[#This Row],[Column4]])</f>
+        <v>-3.0519336850725741E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="19.5">
       <c r="B12" s="49" t="s">
@@ -26410,12 +26428,13 @@
       <c r="H18" s="84"/>
     </row>
     <row r="19" spans="2:13" ht="20.25" thickBot="1">
+      <c r="C19" s="155"/>
       <c r="F19" s="108" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="107">
         <f>SUM(Table6910[Column5])</f>
-        <v>1546142876</v>
+        <v>994967791</v>
       </c>
       <c r="J19" s="214" t="s">
         <v>156</v>
@@ -26429,9 +26448,11 @@
       <c r="D20" s="155"/>
     </row>
     <row r="21" spans="2:13">
+      <c r="C21" s="155"/>
       <c r="F21" s="155"/>
     </row>
     <row r="22" spans="2:13">
+      <c r="C22" s="155"/>
       <c r="D22" s="155"/>
     </row>
     <row r="27" spans="2:13">
@@ -26458,8 +26479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView rightToLeft="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26476,10 +26497,10 @@
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5703125" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -26670,8 +26691,12 @@
       <c r="N3" s="121">
         <v>1</v>
       </c>
-      <c r="O3" s="142"/>
-      <c r="P3" s="139"/>
+      <c r="O3" s="142">
+        <v>39250085</v>
+      </c>
+      <c r="P3" s="139">
+        <v>-85950085</v>
+      </c>
       <c r="Q3" s="127">
         <v>1</v>
       </c>
@@ -27399,7 +27424,9 @@
         <v>19</v>
       </c>
       <c r="L14" s="142"/>
-      <c r="M14" s="139"/>
+      <c r="M14" s="139">
+        <v>-12910000</v>
+      </c>
       <c r="N14" s="121">
         <v>18</v>
       </c>
@@ -27462,7 +27489,9 @@
         <v>20</v>
       </c>
       <c r="L15" s="142"/>
-      <c r="M15" s="139"/>
+      <c r="M15" s="139">
+        <v>-119304000</v>
+      </c>
       <c r="N15" s="121">
         <v>19</v>
       </c>
@@ -27525,7 +27554,9 @@
         <v>21</v>
       </c>
       <c r="L16" s="142"/>
-      <c r="M16" s="139"/>
+      <c r="M16" s="139">
+        <v>-103237000</v>
+      </c>
       <c r="N16" s="121">
         <v>22</v>
       </c>
@@ -27590,7 +27621,9 @@
         <v>22</v>
       </c>
       <c r="L17" s="142"/>
-      <c r="M17" s="139"/>
+      <c r="M17" s="139">
+        <v>-40000000</v>
+      </c>
       <c r="N17" s="121">
         <v>23</v>
       </c>
@@ -27655,7 +27688,9 @@
         <v>25</v>
       </c>
       <c r="L18" s="142"/>
-      <c r="M18" s="139"/>
+      <c r="M18" s="139">
+        <v>-43609000</v>
+      </c>
       <c r="N18" s="121">
         <v>24</v>
       </c>
@@ -27720,7 +27755,9 @@
         <v>26</v>
       </c>
       <c r="L19" s="142"/>
-      <c r="M19" s="139"/>
+      <c r="M19" s="139">
+        <v>-122102000</v>
+      </c>
       <c r="N19" s="121">
         <v>25</v>
       </c>
@@ -27779,7 +27816,9 @@
         <v>27</v>
       </c>
       <c r="L20" s="142"/>
-      <c r="M20" s="139"/>
+      <c r="M20" s="139">
+        <v>71313000</v>
+      </c>
       <c r="N20" s="121">
         <v>26</v>
       </c>
@@ -27838,7 +27877,9 @@
         <v>28</v>
       </c>
       <c r="L21" s="142"/>
-      <c r="M21" s="139"/>
+      <c r="M21" s="139">
+        <v>15060000</v>
+      </c>
       <c r="N21" s="121">
         <v>29</v>
       </c>
@@ -27895,7 +27936,9 @@
         <v>29</v>
       </c>
       <c r="L22" s="142"/>
-      <c r="M22" s="139"/>
+      <c r="M22" s="139">
+        <v>-110430000</v>
+      </c>
       <c r="N22" s="121">
         <v>30</v>
       </c>
@@ -28090,7 +28133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:AS229"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -29544,7 +29587,7 @@
       </c>
       <c r="AQ77" s="118">
         <f>'سود روزانه'!M14+'نمودار روزانه'!AP77</f>
-        <v>3081603458</v>
+        <v>3068693458</v>
       </c>
       <c r="AR77" s="118">
         <f t="shared" si="14"/>
@@ -29552,159 +29595,159 @@
       </c>
       <c r="AS77" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>3068693458</v>
       </c>
     </row>
     <row r="78" spans="6:45">
       <c r="F78" s="118"/>
       <c r="AP78" s="118">
         <f>AS77++'سود روزانه'!L15</f>
-        <v>3081603458</v>
+        <v>3068693458</v>
       </c>
       <c r="AQ78" s="118">
         <f>'سود روزانه'!M15+'نمودار روزانه'!AP78</f>
-        <v>3081603458</v>
+        <v>2949389458</v>
       </c>
       <c r="AR78" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>3068693458</v>
       </c>
       <c r="AS78" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2949389458</v>
       </c>
     </row>
     <row r="79" spans="6:45">
       <c r="F79" s="118"/>
       <c r="AP79" s="118">
         <f>AS78++'سود روزانه'!L16</f>
-        <v>3081603458</v>
+        <v>2949389458</v>
       </c>
       <c r="AQ79" s="118">
         <f>'سود روزانه'!M16+'نمودار روزانه'!AP79</f>
-        <v>3081603458</v>
+        <v>2846152458</v>
       </c>
       <c r="AR79" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2949389458</v>
       </c>
       <c r="AS79" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2846152458</v>
       </c>
     </row>
     <row r="80" spans="6:45">
       <c r="F80" s="118"/>
       <c r="AP80" s="118">
         <f>AS79++'سود روزانه'!L17</f>
-        <v>3081603458</v>
+        <v>2846152458</v>
       </c>
       <c r="AQ80" s="118">
         <f>'سود روزانه'!M17+'نمودار روزانه'!AP80</f>
-        <v>3081603458</v>
+        <v>2806152458</v>
       </c>
       <c r="AR80" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2846152458</v>
       </c>
       <c r="AS80" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2806152458</v>
       </c>
     </row>
     <row r="81" spans="6:45">
       <c r="F81" s="118"/>
       <c r="AP81" s="118">
         <f>AS80++'سود روزانه'!L18</f>
-        <v>3081603458</v>
+        <v>2806152458</v>
       </c>
       <c r="AQ81" s="118">
         <f>'سود روزانه'!M18+'نمودار روزانه'!AP81</f>
-        <v>3081603458</v>
+        <v>2762543458</v>
       </c>
       <c r="AR81" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2806152458</v>
       </c>
       <c r="AS81" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2762543458</v>
       </c>
     </row>
     <row r="82" spans="6:45">
       <c r="F82" s="118"/>
       <c r="AP82" s="118">
         <f>AS81++'سود روزانه'!L19</f>
-        <v>3081603458</v>
+        <v>2762543458</v>
       </c>
       <c r="AQ82" s="118">
         <f>'سود روزانه'!M19+'نمودار روزانه'!AP82</f>
-        <v>3081603458</v>
+        <v>2640441458</v>
       </c>
       <c r="AR82" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2762543458</v>
       </c>
       <c r="AS82" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2640441458</v>
       </c>
     </row>
     <row r="83" spans="6:45">
       <c r="F83" s="118"/>
       <c r="AP83" s="118">
         <f>AS82++'سود روزانه'!L20</f>
-        <v>3081603458</v>
+        <v>2640441458</v>
       </c>
       <c r="AQ83" s="118">
         <f>'سود روزانه'!M20+'نمودار روزانه'!AP83</f>
-        <v>3081603458</v>
+        <v>2711754458</v>
       </c>
       <c r="AR83" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2640441458</v>
       </c>
       <c r="AS83" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2711754458</v>
       </c>
     </row>
     <row r="84" spans="6:45">
       <c r="F84" s="118"/>
       <c r="AP84" s="118">
         <f>AS83++'سود روزانه'!L21</f>
-        <v>3081603458</v>
+        <v>2711754458</v>
       </c>
       <c r="AQ84" s="118">
         <f>'سود روزانه'!M21+'نمودار روزانه'!AP84</f>
-        <v>3081603458</v>
+        <v>2726814458</v>
       </c>
       <c r="AR84" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2711754458</v>
       </c>
       <c r="AS84" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2726814458</v>
       </c>
     </row>
     <row r="85" spans="6:45">
       <c r="F85" s="118"/>
       <c r="AP85" s="118">
         <f>AS84++'سود روزانه'!L22</f>
-        <v>3081603458</v>
+        <v>2726814458</v>
       </c>
       <c r="AQ85" s="118">
         <f>'سود روزانه'!M22+'نمودار روزانه'!AP85</f>
-        <v>3081603458</v>
+        <v>2616384458</v>
       </c>
       <c r="AR85" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2726814458</v>
       </c>
       <c r="AS85" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2616384458</v>
       </c>
     </row>
     <row r="86" spans="6:45">
@@ -29714,399 +29757,399 @@
       </c>
       <c r="AP86" s="118">
         <f>AS85++'سود روزانه'!O3</f>
-        <v>3081603458</v>
+        <v>2655634543</v>
       </c>
       <c r="AQ86" s="118">
         <f>'سود روزانه'!P3+'نمودار روزانه'!AP86</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR86" s="118">
         <f t="shared" si="14"/>
-        <v>3081603458</v>
+        <v>2655634543</v>
       </c>
       <c r="AS86" s="118">
         <f t="shared" si="15"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="87" spans="6:45">
       <c r="F87" s="118"/>
       <c r="AP87" s="118">
         <f>AS86++'سود روزانه'!O4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ87" s="118">
         <f>'سود روزانه'!P4+'نمودار روزانه'!AP87</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR87" s="118">
         <f t="shared" ref="AR87:AR106" si="16">AP87</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS87" s="118">
         <f t="shared" ref="AS87:AS106" si="17">AQ87</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="88" spans="6:45">
       <c r="F88" s="118"/>
       <c r="AP88" s="118">
         <f>AS87++'سود روزانه'!O5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ88" s="118">
         <f>'سود روزانه'!P5+'نمودار روزانه'!AP88</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR88" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS88" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="89" spans="6:45">
       <c r="F89" s="118"/>
       <c r="AP89" s="118">
         <f>AS88++'سود روزانه'!O6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ89" s="118">
         <f>'سود روزانه'!P6+'نمودار روزانه'!AP89</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR89" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS89" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="90" spans="6:45">
       <c r="F90" s="118"/>
       <c r="AP90" s="118">
         <f>AS89++'سود روزانه'!O7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ90" s="118">
         <f>'سود روزانه'!P7+'نمودار روزانه'!AP90</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR90" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS90" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="91" spans="6:45">
       <c r="F91" s="118"/>
       <c r="AP91" s="118">
         <f>AS90++'سود روزانه'!O8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ91" s="118">
         <f>'سود روزانه'!P8+'نمودار روزانه'!AP91</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR91" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS91" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="92" spans="6:45">
       <c r="F92" s="118"/>
       <c r="AP92" s="118">
         <f>AS91++'سود روزانه'!O9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ92" s="118">
         <f>'سود روزانه'!P9+'نمودار روزانه'!AP92</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR92" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS92" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="93" spans="6:45">
       <c r="F93" s="118"/>
       <c r="AP93" s="118">
         <f>AS92++'سود روزانه'!O10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ93" s="118">
         <f>'سود روزانه'!P10+'نمودار روزانه'!AP93</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR93" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS93" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="94" spans="6:45">
       <c r="F94" s="118"/>
       <c r="AP94" s="118">
         <f>AS93++'سود روزانه'!O11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ94" s="118">
         <f>'سود روزانه'!P11+'نمودار روزانه'!AP94</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR94" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS94" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="95" spans="6:45">
       <c r="F95" s="118"/>
       <c r="AP95" s="118">
         <f>AS94++'سود روزانه'!O12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ95" s="118">
         <f>'سود روزانه'!P12+'نمودار روزانه'!AP95</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR95" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS95" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="96" spans="6:45">
       <c r="F96" s="118"/>
       <c r="AP96" s="118">
         <f>AS95++'سود روزانه'!O13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ96" s="118">
         <f>'سود روزانه'!P13+'نمودار روزانه'!AP96</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR96" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS96" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="97" spans="6:45">
       <c r="F97" s="118"/>
       <c r="AP97" s="118">
         <f>AS96++'سود روزانه'!O14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ97" s="118">
         <f>'سود روزانه'!P14+'نمودار روزانه'!AP97</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR97" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS97" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="98" spans="6:45">
       <c r="F98" s="118"/>
       <c r="AP98" s="118">
         <f>AS97++'سود روزانه'!O15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ98" s="118">
         <f>'سود روزانه'!P15+'نمودار روزانه'!AP98</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR98" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS98" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="99" spans="6:45">
       <c r="F99" s="118"/>
       <c r="AP99" s="118">
         <f>AS98++'سود روزانه'!O16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ99" s="118">
         <f>'سود روزانه'!P16+'نمودار روزانه'!AP99</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR99" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS99" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="100" spans="6:45">
       <c r="F100" s="118"/>
       <c r="AP100" s="118">
         <f>AS99++'سود روزانه'!O17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ100" s="118">
         <f>'سود روزانه'!P17+'نمودار روزانه'!AP100</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR100" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS100" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="101" spans="6:45">
       <c r="F101" s="118"/>
       <c r="AP101" s="118">
         <f>AS100++'سود روزانه'!O18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ101" s="118">
         <f>'سود روزانه'!P18+'نمودار روزانه'!AP101</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR101" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS101" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="102" spans="6:45">
       <c r="F102" s="118"/>
       <c r="AP102" s="118">
         <f>AS101++'سود روزانه'!O19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ102" s="118">
         <f>'سود روزانه'!P19+'نمودار روزانه'!AP102</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR102" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS102" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="103" spans="6:45">
       <c r="F103" s="118"/>
       <c r="AP103" s="118">
         <f>AS102++'سود روزانه'!O20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ103" s="118">
         <f>'سود روزانه'!P20+'نمودار روزانه'!AP103</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR103" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS103" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="104" spans="6:45">
       <c r="F104" s="118"/>
       <c r="AP104" s="118">
         <f>AS103++'سود روزانه'!O21</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ104" s="118">
         <f>'سود روزانه'!P21+'نمودار روزانه'!AP104</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR104" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS104" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="105" spans="6:45">
       <c r="F105" s="118"/>
       <c r="AP105" s="118">
         <f>AS104++'سود روزانه'!O22</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ105" s="118">
         <f>'سود روزانه'!P22+'نمودار روزانه'!AP105</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR105" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS105" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="106" spans="6:45">
       <c r="F106" s="118"/>
       <c r="AP106" s="118">
         <f>AS105++'سود روزانه'!O23</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ106" s="118">
         <f>'سود روزانه'!P23+'نمودار روزانه'!AP106</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR106" s="118">
         <f t="shared" si="16"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS106" s="118">
         <f t="shared" si="17"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="107" spans="6:45">
@@ -30116,399 +30159,399 @@
       </c>
       <c r="AP107" s="118">
         <f>AS106++'سود روزانه'!R3</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ107" s="118">
         <f>'سود روزانه'!S3+'نمودار روزانه'!AP107</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR107" s="118">
         <f t="shared" ref="AR107" si="18">AP107</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS107" s="118">
         <f t="shared" ref="AS107" si="19">AQ107</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="108" spans="6:45">
       <c r="F108" s="118"/>
       <c r="AP108" s="118">
         <f>AS107++'سود روزانه'!R4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ108" s="118">
         <f>'سود روزانه'!S4+'نمودار روزانه'!AP108</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR108" s="118">
         <f t="shared" ref="AR108:AR128" si="20">AP108</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS108" s="118">
         <f t="shared" ref="AS108:AS128" si="21">AQ108</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="109" spans="6:45">
       <c r="F109" s="118"/>
       <c r="AP109" s="118">
         <f>AS108++'سود روزانه'!R5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ109" s="118">
         <f>'سود روزانه'!S5+'نمودار روزانه'!AP109</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR109" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS109" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="110" spans="6:45">
       <c r="F110" s="118"/>
       <c r="AP110" s="118">
         <f>AS109++'سود روزانه'!R6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ110" s="118">
         <f>'سود روزانه'!S6+'نمودار روزانه'!AP110</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR110" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS110" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="111" spans="6:45">
       <c r="F111" s="118"/>
       <c r="AP111" s="118">
         <f>AS110++'سود روزانه'!R7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ111" s="118">
         <f>'سود روزانه'!S7+'نمودار روزانه'!AP111</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR111" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS111" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="112" spans="6:45">
       <c r="F112" s="118"/>
       <c r="AP112" s="118">
         <f>AS111++'سود روزانه'!R8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ112" s="118">
         <f>'سود روزانه'!S8+'نمودار روزانه'!AP112</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR112" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS112" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="113" spans="6:45">
       <c r="F113" s="118"/>
       <c r="AP113" s="118">
         <f>AS112++'سود روزانه'!R9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ113" s="118">
         <f>'سود روزانه'!S9+'نمودار روزانه'!AP113</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR113" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS113" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="114" spans="6:45">
       <c r="F114" s="118"/>
       <c r="AP114" s="118">
         <f>AS113++'سود روزانه'!R10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ114" s="118">
         <f>'سود روزانه'!S10+'نمودار روزانه'!AP114</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR114" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS114" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="115" spans="6:45">
       <c r="F115" s="118"/>
       <c r="AP115" s="118">
         <f>AS114++'سود روزانه'!R11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ115" s="118">
         <f>'سود روزانه'!S11+'نمودار روزانه'!AP115</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR115" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS115" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="116" spans="6:45">
       <c r="F116" s="118"/>
       <c r="AP116" s="118">
         <f>AS115++'سود روزانه'!R12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ116" s="118">
         <f>'سود روزانه'!S12+'نمودار روزانه'!AP116</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR116" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS116" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="117" spans="6:45">
       <c r="F117" s="118"/>
       <c r="AP117" s="118">
         <f>AS116++'سود روزانه'!R13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ117" s="118">
         <f>'سود روزانه'!S13+'نمودار روزانه'!AP117</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR117" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS117" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="118" spans="6:45">
       <c r="F118" s="118"/>
       <c r="AP118" s="118">
         <f>AS117++'سود روزانه'!R14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ118" s="118">
         <f>'سود روزانه'!S14+'نمودار روزانه'!AP118</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR118" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS118" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="119" spans="6:45">
       <c r="F119" s="118"/>
       <c r="AP119" s="118">
         <f>AS118++'سود روزانه'!R15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ119" s="118">
         <f>'سود روزانه'!S15+'نمودار روزانه'!AP119</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR119" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS119" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="120" spans="6:45">
       <c r="F120" s="118"/>
       <c r="AP120" s="118">
         <f>AS119++'سود روزانه'!R16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ120" s="118">
         <f>'سود روزانه'!S16+'نمودار روزانه'!AP120</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR120" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS120" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="121" spans="6:45">
       <c r="F121" s="118"/>
       <c r="AP121" s="118">
         <f>AS120++'سود روزانه'!R17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ121" s="118">
         <f>'سود روزانه'!S17+'نمودار روزانه'!AP121</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR121" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS121" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="122" spans="6:45">
       <c r="F122" s="118"/>
       <c r="AP122" s="118">
         <f>AS121++'سود روزانه'!R18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ122" s="118">
         <f>'سود روزانه'!S18+'نمودار روزانه'!AP122</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR122" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS122" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="123" spans="6:45">
       <c r="F123" s="118"/>
       <c r="AP123" s="118">
         <f>AS122++'سود روزانه'!R19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ123" s="118">
         <f>'سود روزانه'!S19+'نمودار روزانه'!AP123</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR123" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS123" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="124" spans="6:45">
       <c r="F124" s="118"/>
       <c r="AP124" s="118">
         <f>AS123++'سود روزانه'!R20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ124" s="118">
         <f>'سود روزانه'!S20+'نمودار روزانه'!AP124</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR124" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS124" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="125" spans="6:45">
       <c r="F125" s="118"/>
       <c r="AP125" s="118">
         <f>AS124++'سود روزانه'!R21</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ125" s="118">
         <f>'سود روزانه'!S21+'نمودار روزانه'!AP125</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR125" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS125" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="126" spans="6:45">
       <c r="F126" s="118"/>
       <c r="AP126" s="118">
         <f>AS125++'سود روزانه'!R22</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ126" s="118">
         <f>'سود روزانه'!S22+'نمودار روزانه'!AP126</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR126" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS126" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="127" spans="6:45">
       <c r="F127" s="118"/>
       <c r="AP127" s="118">
         <f>AS126++'سود روزانه'!R23</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ127" s="118">
         <f>'سود روزانه'!S23+'نمودار روزانه'!AP127</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR127" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS127" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="128" spans="6:45">
@@ -30518,342 +30561,342 @@
       </c>
       <c r="AP128" s="118">
         <f>AS127 + +'سود روزانه'!U3</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ128" s="118">
         <f>'سود روزانه'!V3+'نمودار روزانه'!AP128</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR128" s="118">
         <f t="shared" si="20"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS128" s="118">
         <f t="shared" si="21"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="129" spans="6:45">
       <c r="F129" s="118"/>
       <c r="AP129" s="118">
         <f>AS128 + +'سود روزانه'!U4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ129" s="118">
         <f>'سود روزانه'!V4+'نمودار روزانه'!AP129</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR129" s="118">
         <f t="shared" ref="AR129:AR146" si="22">AP129</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS129" s="118">
         <f t="shared" ref="AS129:AS146" si="23">AQ129</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="130" spans="6:45">
       <c r="F130" s="118"/>
       <c r="AP130" s="118">
         <f>AS129 + +'سود روزانه'!U5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ130" s="118">
         <f>'سود روزانه'!V5+'نمودار روزانه'!AP130</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR130" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS130" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="131" spans="6:45">
       <c r="F131" s="118"/>
       <c r="AP131" s="118">
         <f>AS130 + +'سود روزانه'!U6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ131" s="118">
         <f>'سود روزانه'!V6+'نمودار روزانه'!AP131</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR131" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS131" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="132" spans="6:45">
       <c r="F132" s="118"/>
       <c r="AP132" s="118">
         <f>AS131 + +'سود روزانه'!U7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ132" s="118">
         <f>'سود روزانه'!V7+'نمودار روزانه'!AP132</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR132" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS132" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="133" spans="6:45">
       <c r="F133" s="118"/>
       <c r="AP133" s="118">
         <f>AS132 + +'سود روزانه'!U8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ133" s="118">
         <f>'سود روزانه'!V8+'نمودار روزانه'!AP133</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR133" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS133" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="134" spans="6:45">
       <c r="F134" s="118"/>
       <c r="AP134" s="118">
         <f>AS133 + +'سود روزانه'!U9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ134" s="118">
         <f>'سود روزانه'!V9+'نمودار روزانه'!AP134</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR134" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS134" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="135" spans="6:45">
       <c r="F135" s="118"/>
       <c r="AP135" s="118">
         <f>AS134 + +'سود روزانه'!U10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ135" s="118">
         <f>'سود روزانه'!V10+'نمودار روزانه'!AP135</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR135" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS135" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="136" spans="6:45">
       <c r="F136" s="118"/>
       <c r="AP136" s="118">
         <f>AS135 + +'سود روزانه'!U11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ136" s="118">
         <f>'سود روزانه'!V11+'نمودار روزانه'!AP136</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR136" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS136" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="137" spans="6:45">
       <c r="F137" s="118"/>
       <c r="AP137" s="118">
         <f>AS136 + +'سود روزانه'!U12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ137" s="118">
         <f>'سود روزانه'!V12+'نمودار روزانه'!AP137</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR137" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS137" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="138" spans="6:45">
       <c r="F138" s="118"/>
       <c r="AP138" s="118">
         <f>AS137 + +'سود روزانه'!U13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ138" s="118">
         <f>'سود روزانه'!V13+'نمودار روزانه'!AP138</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR138" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS138" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="139" spans="6:45">
       <c r="F139" s="118"/>
       <c r="AP139" s="118">
         <f>AS138 + +'سود روزانه'!U14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ139" s="118">
         <f>'سود روزانه'!V14+'نمودار روزانه'!AP139</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR139" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS139" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="140" spans="6:45">
       <c r="F140" s="118"/>
       <c r="AP140" s="118">
         <f>AS139 + +'سود روزانه'!U15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ140" s="118">
         <f>'سود روزانه'!V15+'نمودار روزانه'!AP140</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR140" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS140" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="141" spans="6:45">
       <c r="F141" s="118"/>
       <c r="AP141" s="118">
         <f>AS140 + +'سود روزانه'!U16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ141" s="118">
         <f>'سود روزانه'!V16+'نمودار روزانه'!AP141</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR141" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS141" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="142" spans="6:45">
       <c r="F142" s="118"/>
       <c r="AP142" s="118">
         <f>AS141 + +'سود روزانه'!U17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ142" s="118">
         <f>'سود روزانه'!V17+'نمودار روزانه'!AP142</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR142" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS142" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="143" spans="6:45">
       <c r="F143" s="118"/>
       <c r="AP143" s="118">
         <f>AS142 + +'سود روزانه'!U18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ143" s="118">
         <f>'سود روزانه'!V18+'نمودار روزانه'!AP143</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR143" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS143" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="144" spans="6:45">
       <c r="F144" s="118"/>
       <c r="AP144" s="118">
         <f>AS143 + +'سود روزانه'!U19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ144" s="118">
         <f>'سود روزانه'!V19+'نمودار روزانه'!AP144</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR144" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS144" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="145" spans="6:45">
       <c r="F145" s="118"/>
       <c r="AP145" s="118">
         <f>AS144 + +'سود روزانه'!U20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ145" s="118">
         <f>'سود روزانه'!V20+'نمودار روزانه'!AP145</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR145" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS145" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="146" spans="6:45">
@@ -30863,418 +30906,418 @@
       </c>
       <c r="AP146" s="118">
         <f>AS145++'سود روزانه'!X3</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ146" s="118">
         <f>'سود روزانه'!Y3+'نمودار روزانه'!AP146</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR146" s="118">
         <f t="shared" si="22"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS146" s="118">
         <f t="shared" si="23"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="147" spans="6:45">
       <c r="F147" s="118"/>
       <c r="AP147" s="118">
         <f>AS146++'سود روزانه'!X4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ147" s="118">
         <f>'سود روزانه'!Y4+'نمودار روزانه'!AP147</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR147" s="118">
         <f t="shared" ref="AR147:AR165" si="24">AP147</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS147" s="118">
         <f t="shared" ref="AS147:AS165" si="25">AQ147</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="148" spans="6:45">
       <c r="F148" s="118"/>
       <c r="AP148" s="118">
         <f>AS147++'سود روزانه'!X5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ148" s="118">
         <f>'سود روزانه'!Y5+'نمودار روزانه'!AP148</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR148" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS148" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="149" spans="6:45">
       <c r="F149" s="118"/>
       <c r="AP149" s="118">
         <f>AS148++'سود روزانه'!X6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ149" s="118">
         <f>'سود روزانه'!Y6+'نمودار روزانه'!AP149</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR149" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS149" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="150" spans="6:45">
       <c r="F150" s="118"/>
       <c r="AP150" s="118">
         <f>AS149++'سود روزانه'!X7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ150" s="118">
         <f>'سود روزانه'!Y7+'نمودار روزانه'!AP150</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR150" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS150" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="151" spans="6:45">
       <c r="F151" s="118"/>
       <c r="AP151" s="118">
         <f>AS150++'سود روزانه'!X8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ151" s="118">
         <f>'سود روزانه'!Y8+'نمودار روزانه'!AP151</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR151" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS151" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="152" spans="6:45">
       <c r="F152" s="118"/>
       <c r="AP152" s="118">
         <f>AS151++'سود روزانه'!X9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ152" s="118">
         <f>'سود روزانه'!Y9+'نمودار روزانه'!AP152</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR152" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS152" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="153" spans="6:45">
       <c r="F153" s="118"/>
       <c r="AP153" s="118">
         <f>AS152++'سود روزانه'!X10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ153" s="118">
         <f>'سود روزانه'!Y10+'نمودار روزانه'!AP153</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR153" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS153" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="154" spans="6:45">
       <c r="F154" s="118"/>
       <c r="AP154" s="118">
         <f>AS153++'سود روزانه'!X11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ154" s="118">
         <f>'سود روزانه'!Y11+'نمودار روزانه'!AP154</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR154" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS154" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="155" spans="6:45">
       <c r="F155" s="118"/>
       <c r="AP155" s="118">
         <f>AS154++'سود روزانه'!X12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ155" s="118">
         <f>'سود روزانه'!Y12+'نمودار روزانه'!AP155</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR155" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS155" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="156" spans="6:45">
       <c r="F156" s="118"/>
       <c r="AP156" s="118">
         <f>AS155++'سود روزانه'!X13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ156" s="118">
         <f>'سود روزانه'!Y13+'نمودار روزانه'!AP156</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR156" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS156" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="157" spans="6:45">
       <c r="F157" s="118"/>
       <c r="AP157" s="118">
         <f>AS156++'سود روزانه'!X14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ157" s="118">
         <f>'سود روزانه'!Y14+'نمودار روزانه'!AP157</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR157" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS157" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="158" spans="6:45">
       <c r="F158" s="118"/>
       <c r="AP158" s="118">
         <f>AS157++'سود روزانه'!X15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ158" s="118">
         <f>'سود روزانه'!Y15+'نمودار روزانه'!AP158</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR158" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS158" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="159" spans="6:45">
       <c r="F159" s="118"/>
       <c r="AP159" s="118">
         <f>AS158++'سود روزانه'!X16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ159" s="118">
         <f>'سود روزانه'!Y16+'نمودار روزانه'!AP159</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR159" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS159" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="160" spans="6:45">
       <c r="F160" s="118"/>
       <c r="AP160" s="118">
         <f>AS159++'سود روزانه'!X17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ160" s="118">
         <f>'سود روزانه'!Y17+'نمودار روزانه'!AP160</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR160" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS160" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="161" spans="6:45">
       <c r="F161" s="118"/>
       <c r="AP161" s="118">
         <f>AS160++'سود روزانه'!X18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ161" s="118">
         <f>'سود روزانه'!Y18+'نمودار روزانه'!AP161</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR161" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS161" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="162" spans="6:45">
       <c r="F162" s="118"/>
       <c r="AP162" s="118">
         <f>AS161++'سود روزانه'!X19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ162" s="118">
         <f>'سود روزانه'!Y19+'نمودار روزانه'!AP162</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR162" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS162" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="163" spans="6:45">
       <c r="F163" s="118"/>
       <c r="AP163" s="118">
         <f>AS162++'سود روزانه'!X20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ163" s="118">
         <f>'سود روزانه'!Y20+'نمودار روزانه'!AP163</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR163" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS163" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="164" spans="6:45">
       <c r="F164" s="118"/>
       <c r="AP164" s="118">
         <f>AS163++'سود روزانه'!X21</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ164" s="118">
         <f>'سود روزانه'!Y21+'نمودار روزانه'!AP164</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR164" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS164" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="165" spans="6:45">
       <c r="F165" s="118"/>
       <c r="AP165" s="118">
         <f>AS164++'سود روزانه'!X22</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ165" s="118">
         <f>'سود روزانه'!Y22+'نمودار روزانه'!AP165</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR165" s="118">
         <f t="shared" si="24"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS165" s="118">
         <f t="shared" si="25"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="166" spans="6:45">
       <c r="F166" s="118"/>
       <c r="AP166" s="118">
         <f>AS165++'سود روزانه'!X23</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ166" s="118">
         <f>'سود روزانه'!Y23+'نمودار روزانه'!AP166</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR166" s="118">
         <f t="shared" ref="AR166:AR168" si="26">AP166</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS166" s="118">
         <f t="shared" ref="AS166:AS168" si="27">AQ166</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="167" spans="6:45">
       <c r="F167" s="118"/>
       <c r="AP167" s="118">
         <f>AS166++'سود روزانه'!X24</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ167" s="118">
         <f>'سود روزانه'!Y24+'نمودار روزانه'!AP167</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR167" s="118">
         <f t="shared" si="26"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS167" s="118">
         <f t="shared" si="27"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="168" spans="6:45">
@@ -31284,399 +31327,399 @@
       </c>
       <c r="AP168" s="118">
         <f>AS167++'سود روزانه'!AA3</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ168" s="118">
         <f>'سود روزانه'!AB3+'نمودار روزانه'!AP168</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR168" s="118">
         <f t="shared" si="26"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS168" s="118">
         <f t="shared" si="27"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="169" spans="6:45">
       <c r="F169" s="118"/>
       <c r="AP169" s="118">
         <f>AS168++'سود روزانه'!AA4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ169" s="118">
         <f>'سود روزانه'!AB4+'نمودار روزانه'!AP169</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR169" s="118">
         <f t="shared" ref="AR169:AR184" si="28">AP169</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS169" s="118">
         <f t="shared" ref="AS169:AS184" si="29">AQ169</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="170" spans="6:45">
       <c r="F170" s="118"/>
       <c r="AP170" s="118">
         <f>AS169++'سود روزانه'!AA5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ170" s="118">
         <f>'سود روزانه'!AB5+'نمودار روزانه'!AP170</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR170" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS170" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="171" spans="6:45">
       <c r="F171" s="118"/>
       <c r="AP171" s="118">
         <f>AS170++'سود روزانه'!AA6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ171" s="118">
         <f>'سود روزانه'!AB6+'نمودار روزانه'!AP171</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR171" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS171" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="172" spans="6:45">
       <c r="F172" s="118"/>
       <c r="AP172" s="118">
         <f>AS171++'سود روزانه'!AA7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ172" s="118">
         <f>'سود روزانه'!AB7+'نمودار روزانه'!AP172</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR172" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS172" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="173" spans="6:45">
       <c r="F173" s="118"/>
       <c r="AP173" s="118">
         <f>AS172++'سود روزانه'!AA8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ173" s="118">
         <f>'سود روزانه'!AB8+'نمودار روزانه'!AP173</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR173" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS173" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="174" spans="6:45">
       <c r="F174" s="118"/>
       <c r="AP174" s="118">
         <f>AS173++'سود روزانه'!AA9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ174" s="118">
         <f>'سود روزانه'!AB9+'نمودار روزانه'!AP174</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR174" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS174" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="175" spans="6:45">
       <c r="F175" s="118"/>
       <c r="AP175" s="118">
         <f>AS174++'سود روزانه'!AA10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ175" s="118">
         <f>'سود روزانه'!AB10+'نمودار روزانه'!AP175</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR175" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS175" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="176" spans="6:45">
       <c r="F176" s="118"/>
       <c r="AP176" s="118">
         <f>AS175++'سود روزانه'!AA11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ176" s="118">
         <f>'سود روزانه'!AB11+'نمودار روزانه'!AP176</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR176" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS176" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="177" spans="6:45">
       <c r="F177" s="118"/>
       <c r="AP177" s="118">
         <f>AS176++'سود روزانه'!AA12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ177" s="118">
         <f>'سود روزانه'!AB12+'نمودار روزانه'!AP177</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR177" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS177" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="178" spans="6:45">
       <c r="F178" s="118"/>
       <c r="AP178" s="118">
         <f>AS177++'سود روزانه'!AA13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ178" s="118">
         <f>'سود روزانه'!AB13+'نمودار روزانه'!AP178</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR178" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS178" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="179" spans="6:45">
       <c r="F179" s="118"/>
       <c r="AP179" s="118">
         <f>AS178++'سود روزانه'!AA14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ179" s="118">
         <f>'سود روزانه'!AB14+'نمودار روزانه'!AP179</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR179" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS179" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="180" spans="6:45">
       <c r="F180" s="118"/>
       <c r="AP180" s="118">
         <f>AS179++'سود روزانه'!AA15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ180" s="118">
         <f>'سود روزانه'!AB15+'نمودار روزانه'!AP180</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR180" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS180" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="181" spans="6:45">
       <c r="F181" s="118"/>
       <c r="AP181" s="118">
         <f>AS180++'سود روزانه'!AA16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ181" s="118">
         <f>'سود روزانه'!AB16+'نمودار روزانه'!AP181</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR181" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS181" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="182" spans="6:45">
       <c r="F182" s="118"/>
       <c r="AP182" s="118">
         <f>AS181++'سود روزانه'!AA17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ182" s="118">
         <f>'سود روزانه'!AB17+'نمودار روزانه'!AP182</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR182" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS182" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="183" spans="6:45">
       <c r="F183" s="118"/>
       <c r="AP183" s="118">
         <f>AS182++'سود روزانه'!AA18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ183" s="118">
         <f>'سود روزانه'!AB18+'نمودار روزانه'!AP183</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR183" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS183" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="184" spans="6:45">
       <c r="F184" s="118"/>
       <c r="AP184" s="118">
         <f>AS183++'سود روزانه'!AA19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ184" s="118">
         <f>'سود روزانه'!AB19+'نمودار روزانه'!AP184</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR184" s="118">
         <f t="shared" si="28"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS184" s="118">
         <f t="shared" si="29"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="185" spans="6:45">
       <c r="F185" s="118"/>
       <c r="AP185" s="118">
         <f>AS184++'سود روزانه'!AA20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ185" s="118">
         <f>'سود روزانه'!AB20+'نمودار روزانه'!AP185</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR185" s="118">
         <f t="shared" ref="AR185:AR189" si="30">AP185</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS185" s="118">
         <f t="shared" ref="AS185:AS189" si="31">AQ185</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="186" spans="6:45">
       <c r="F186" s="118"/>
       <c r="AP186" s="118">
         <f>AS185++'سود روزانه'!AA21</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ186" s="118">
         <f>'سود روزانه'!AB21+'نمودار روزانه'!AP186</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR186" s="118">
         <f t="shared" si="30"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS186" s="118">
         <f t="shared" si="31"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="187" spans="6:45">
       <c r="F187" s="118"/>
       <c r="AP187" s="118">
         <f>AS186++'سود روزانه'!AA22</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ187" s="118">
         <f>'سود روزانه'!AB22+'نمودار روزانه'!AP187</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR187" s="118">
         <f t="shared" si="30"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS187" s="118">
         <f t="shared" si="31"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="188" spans="6:45">
       <c r="F188" s="118"/>
       <c r="AP188" s="118">
         <f>AS187++'سود روزانه'!AA23</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ188" s="118">
         <f>'سود روزانه'!AB23+'نمودار روزانه'!AP188</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR188" s="118">
         <f t="shared" si="30"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS188" s="118">
         <f t="shared" si="31"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="189" spans="6:45">
@@ -31686,380 +31729,380 @@
       </c>
       <c r="AP189" s="118">
         <f>AS188++'سود روزانه'!AD3</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ189" s="118">
         <f>'سود روزانه'!AE3+'نمودار روزانه'!AP189</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR189" s="118">
         <f t="shared" si="30"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS189" s="118">
         <f t="shared" si="31"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="190" spans="6:45">
       <c r="F190" s="118"/>
       <c r="AP190" s="118">
         <f>AS189++'سود روزانه'!AD4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ190" s="118">
         <f>'سود روزانه'!AE4+'نمودار روزانه'!AP190</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR190" s="118">
         <f t="shared" ref="AR190:AR204" si="32">AP190</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS190" s="118">
         <f t="shared" ref="AS190:AS204" si="33">AQ190</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="191" spans="6:45">
       <c r="F191" s="118"/>
       <c r="AP191" s="118">
         <f>AS190++'سود روزانه'!AD5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ191" s="118">
         <f>'سود روزانه'!AE5+'نمودار روزانه'!AP191</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR191" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS191" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="192" spans="6:45">
       <c r="F192" s="118"/>
       <c r="AP192" s="118">
         <f>AS191++'سود روزانه'!AD6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ192" s="118">
         <f>'سود روزانه'!AE6+'نمودار روزانه'!AP192</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR192" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS192" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="193" spans="6:45">
       <c r="F193" s="118"/>
       <c r="AP193" s="118">
         <f>AS192++'سود روزانه'!AD7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ193" s="118">
         <f>'سود روزانه'!AE7+'نمودار روزانه'!AP193</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR193" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS193" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="194" spans="6:45">
       <c r="F194" s="118"/>
       <c r="AP194" s="118">
         <f>AS193++'سود روزانه'!AD8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ194" s="118">
         <f>'سود روزانه'!AE8+'نمودار روزانه'!AP194</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR194" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS194" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="195" spans="6:45">
       <c r="F195" s="118"/>
       <c r="AP195" s="118">
         <f>AS194++'سود روزانه'!AD9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ195" s="118">
         <f>'سود روزانه'!AE9+'نمودار روزانه'!AP195</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR195" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS195" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="196" spans="6:45">
       <c r="F196" s="118"/>
       <c r="AP196" s="118">
         <f>AS195++'سود روزانه'!AD10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ196" s="118">
         <f>'سود روزانه'!AE10+'نمودار روزانه'!AP196</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR196" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS196" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="197" spans="6:45">
       <c r="F197" s="118"/>
       <c r="AP197" s="118">
         <f>AS196++'سود روزانه'!AD11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ197" s="118">
         <f>'سود روزانه'!AE11+'نمودار روزانه'!AP197</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR197" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS197" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="198" spans="6:45">
       <c r="F198" s="118"/>
       <c r="AP198" s="118">
         <f>AS197++'سود روزانه'!AD12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ198" s="118">
         <f>'سود روزانه'!AE12+'نمودار روزانه'!AP198</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR198" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS198" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="199" spans="6:45">
       <c r="F199" s="118"/>
       <c r="AP199" s="118">
         <f>AS198++'سود روزانه'!AD13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ199" s="118">
         <f>'سود روزانه'!AE13+'نمودار روزانه'!AP199</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR199" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS199" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="200" spans="6:45">
       <c r="F200" s="118"/>
       <c r="AP200" s="118">
         <f>AS199++'سود روزانه'!AD14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ200" s="118">
         <f>'سود روزانه'!AE14+'نمودار روزانه'!AP200</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR200" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS200" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="201" spans="6:45">
       <c r="F201" s="118"/>
       <c r="AP201" s="118">
         <f>AS200++'سود روزانه'!AD15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ201" s="118">
         <f>'سود روزانه'!AE15+'نمودار روزانه'!AP201</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR201" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS201" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="202" spans="6:45">
       <c r="F202" s="118"/>
       <c r="AP202" s="118">
         <f>AS201++'سود روزانه'!AD16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ202" s="118">
         <f>'سود روزانه'!AE16+'نمودار روزانه'!AP202</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR202" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS202" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="203" spans="6:45">
       <c r="F203" s="118"/>
       <c r="AP203" s="118">
         <f>AS202++'سود روزانه'!AD17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ203" s="118">
         <f>'سود روزانه'!AE17+'نمودار روزانه'!AP203</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR203" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS203" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="204" spans="6:45">
       <c r="F204" s="118"/>
       <c r="AP204" s="118">
         <f>AS203++'سود روزانه'!AD18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ204" s="118">
         <f>'سود روزانه'!AE18+'نمودار روزانه'!AP204</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR204" s="118">
         <f t="shared" si="32"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS204" s="118">
         <f t="shared" si="33"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="205" spans="6:45">
       <c r="F205" s="118"/>
       <c r="AP205" s="118">
         <f>AS204++'سود روزانه'!AD19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ205" s="118">
         <f>'سود روزانه'!AE19+'نمودار روزانه'!AP205</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR205" s="118">
         <f t="shared" ref="AR205:AR209" si="34">AP205</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS205" s="118">
         <f t="shared" ref="AS205:AS209" si="35">AQ205</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="206" spans="6:45">
       <c r="F206" s="118"/>
       <c r="AP206" s="118">
         <f>AS205++'سود روزانه'!AD20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ206" s="118">
         <f>'سود روزانه'!AE20+'نمودار روزانه'!AP206</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR206" s="118">
         <f t="shared" si="34"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS206" s="118">
         <f t="shared" si="35"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="207" spans="6:45">
       <c r="F207" s="118"/>
       <c r="AP207" s="118">
         <f>AS206++'سود روزانه'!AD21</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ207" s="118">
         <f>'سود روزانه'!AE21+'نمودار روزانه'!AP207</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR207" s="118">
         <f t="shared" si="34"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS207" s="118">
         <f t="shared" si="35"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="208" spans="6:45">
       <c r="F208" s="118"/>
       <c r="AP208" s="118">
         <f>AS207++'سود روزانه'!AD22</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ208" s="118">
         <f>'سود روزانه'!AE22+'نمودار روزانه'!AP208</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR208" s="118">
         <f t="shared" si="34"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS208" s="118">
         <f t="shared" si="35"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="209" spans="6:45">
@@ -32069,399 +32112,399 @@
       </c>
       <c r="AP209" s="118">
         <f>AS208++'سود روزانه'!AG3</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ209" s="118">
         <f>'سود روزانه'!AH3+'نمودار روزانه'!AP209</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR209" s="118">
         <f t="shared" si="34"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS209" s="118">
         <f t="shared" si="35"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="210" spans="6:45">
       <c r="F210" s="118"/>
       <c r="AP210" s="118">
         <f>AS209++'سود روزانه'!AG4</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ210" s="118">
         <f>'سود روزانه'!AH4+'نمودار روزانه'!AP210</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR210" s="118">
         <f t="shared" ref="AR210:AR229" si="36">AP210</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS210" s="118">
         <f t="shared" ref="AS210:AS229" si="37">AQ210</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="211" spans="6:45">
       <c r="F211" s="118"/>
       <c r="AP211" s="118">
         <f>AS210++'سود روزانه'!AG5</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ211" s="118">
         <f>'سود روزانه'!AH5+'نمودار روزانه'!AP211</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR211" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS211" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="212" spans="6:45">
       <c r="F212" s="118"/>
       <c r="AP212" s="118">
         <f>AS211++'سود روزانه'!AG6</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ212" s="118">
         <f>'سود روزانه'!AH6+'نمودار روزانه'!AP212</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR212" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS212" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="213" spans="6:45">
       <c r="F213" s="118"/>
       <c r="AP213" s="118">
         <f>AS212++'سود روزانه'!AG7</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ213" s="118">
         <f>'سود روزانه'!AH7+'نمودار روزانه'!AP213</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR213" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS213" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="214" spans="6:45">
       <c r="F214" s="118"/>
       <c r="AP214" s="118">
         <f>AS213++'سود روزانه'!AG8</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ214" s="118">
         <f>'سود روزانه'!AH8+'نمودار روزانه'!AP214</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR214" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS214" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="215" spans="6:45">
       <c r="F215" s="118"/>
       <c r="AP215" s="118">
         <f>AS214++'سود روزانه'!AG9</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ215" s="118">
         <f>'سود روزانه'!AH9+'نمودار روزانه'!AP215</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR215" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS215" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="216" spans="6:45">
       <c r="F216" s="118"/>
       <c r="AP216" s="118">
         <f>AS215++'سود روزانه'!AG10</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ216" s="118">
         <f>'سود روزانه'!AH10+'نمودار روزانه'!AP216</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR216" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS216" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="217" spans="6:45">
       <c r="F217" s="118"/>
       <c r="AP217" s="118">
         <f>AS216++'سود روزانه'!AG11</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ217" s="118">
         <f>'سود روزانه'!AH11+'نمودار روزانه'!AP217</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR217" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS217" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="218" spans="6:45">
       <c r="F218" s="118"/>
       <c r="AP218" s="118">
         <f>AS217++'سود روزانه'!AG12</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ218" s="118">
         <f>'سود روزانه'!AH12+'نمودار روزانه'!AP218</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR218" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS218" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="219" spans="6:45">
       <c r="F219" s="118"/>
       <c r="AP219" s="118">
         <f>AS218++'سود روزانه'!AG13</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ219" s="118">
         <f>'سود روزانه'!AH13+'نمودار روزانه'!AP219</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR219" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS219" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="220" spans="6:45">
       <c r="F220" s="118"/>
       <c r="AP220" s="118">
         <f>AS219++'سود روزانه'!AG14</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ220" s="118">
         <f>'سود روزانه'!AH14+'نمودار روزانه'!AP220</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR220" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS220" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="221" spans="6:45">
       <c r="F221" s="118"/>
       <c r="AP221" s="118">
         <f>AS220++'سود روزانه'!AG15</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ221" s="118">
         <f>'سود روزانه'!AH15+'نمودار روزانه'!AP221</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR221" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS221" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="222" spans="6:45">
       <c r="F222" s="118"/>
       <c r="AP222" s="118">
         <f>AS221++'سود روزانه'!AG16</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ222" s="118">
         <f>'سود روزانه'!AH16+'نمودار روزانه'!AP222</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR222" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS222" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="223" spans="6:45">
       <c r="F223" s="118"/>
       <c r="AP223" s="118">
         <f>AS222++'سود روزانه'!AG17</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ223" s="118">
         <f>'سود روزانه'!AH17+'نمودار روزانه'!AP223</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR223" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS223" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="224" spans="6:45">
       <c r="F224" s="118"/>
       <c r="AP224" s="118">
         <f>AS223++'سود روزانه'!AG18</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ224" s="118">
         <f>'سود روزانه'!AH18+'نمودار روزانه'!AP224</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR224" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS224" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="225" spans="6:45">
       <c r="F225" s="118"/>
       <c r="AP225" s="118">
         <f>AS224++'سود روزانه'!AG19</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ225" s="118">
         <f>'سود روزانه'!AH19+'نمودار روزانه'!AP225</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR225" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS225" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="226" spans="6:45">
       <c r="F226" s="118"/>
       <c r="AP226" s="118">
         <f>AS225++'سود روزانه'!AG20</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ226" s="118">
         <f>'سود روزانه'!AH20+'نمودار روزانه'!AP226</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR226" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS226" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="227" spans="6:45">
       <c r="F227" s="118"/>
       <c r="AP227" s="118">
         <f>AS226++'سود روزانه'!AG21</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ227" s="118">
         <f>'سود روزانه'!AH21+'نمودار روزانه'!AP227</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR227" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS227" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="228" spans="6:45">
       <c r="F228" s="118"/>
       <c r="AP228" s="118">
         <f>AS227++'سود روزانه'!AG22</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ228" s="118">
         <f>'سود روزانه'!AH22+'نمودار روزانه'!AP228</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR228" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS228" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
     <row r="229" spans="6:45">
       <c r="F229" s="118"/>
       <c r="AP229" s="118">
         <f>AS228++'سود روزانه'!AG23</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AQ229" s="118">
         <f>'سود روزانه'!AH23+'نمودار روزانه'!AP229</f>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AR229" s="118">
         <f t="shared" si="36"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
       <c r="AS229" s="118">
         <f t="shared" si="37"/>
-        <v>3081603458</v>
+        <v>2569684458</v>
       </c>
     </row>
   </sheetData>
@@ -32475,8 +32518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D50"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -32977,14 +33020,26 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="15" customHeight="1">
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="29">
+        <v>39250085</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" spans="2:4" ht="15" customHeight="1">
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="29">
+        <v>29500000</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" spans="2:4" ht="15" customHeight="1">
       <c r="B49" s="28"/>
@@ -32996,8 +33051,8 @@
         <v>66</v>
       </c>
       <c r="C50" s="29">
-        <f>SUM(C4:C46)</f>
-        <v>1669082124</v>
+        <f>SUM(C4:C48)</f>
+        <v>1737832209</v>
       </c>
     </row>
   </sheetData>
